--- a/r_map/data_boot_cq_remov_Se.xlsx
+++ b/r_map/data_boot_cq_remov_Se.xlsx
@@ -603,16 +603,16 @@
         <v>2207648</v>
       </c>
       <c r="C2">
-        <v>492644782.15560001</v>
+        <v>490910117.42970014</v>
       </c>
       <c r="E2">
-        <v>1970579128.6224</v>
+        <v>1963640469.7188005</v>
       </c>
       <c r="F2">
-        <v>223.15368308516577</v>
+        <v>222.36793067993636</v>
       </c>
       <c r="H2">
-        <v>892.61473234066307</v>
+        <v>889.47172271974546</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -638,16 +638,16 @@
         <v>505392</v>
       </c>
       <c r="C3">
-        <v>76442797.211886644</v>
+        <v>76767180.452840433</v>
       </c>
       <c r="E3">
-        <v>305771188.84754658</v>
+        <v>307068721.81136173</v>
       </c>
       <c r="F3">
-        <v>151.25446625962945</v>
+        <v>151.89631108691952</v>
       </c>
       <c r="H3">
-        <v>605.01786503851781</v>
+        <v>607.5852443476781</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -673,16 +673,16 @@
         <v>2726384</v>
       </c>
       <c r="C4">
-        <v>4425742970.152441</v>
+        <v>4423360933.7657232</v>
       </c>
       <c r="E4">
-        <v>4577288100.3562298</v>
+        <v>4529943258.1550884</v>
       </c>
       <c r="F4">
-        <v>1623.3014022061604</v>
+        <v>1622.4277041552928</v>
       </c>
       <c r="H4">
-        <v>1678.8860631357247</v>
+        <v>1661.5206288457855</v>
       </c>
       <c r="I4" t="s">
         <v>9</v>
@@ -743,13 +743,13 @@
         <v>324142</v>
       </c>
       <c r="C6">
-        <v>99277230.248346344</v>
+        <v>102574384.64532</v>
       </c>
       <c r="E6">
         <v>122468749.86480118</v>
       </c>
       <c r="F6">
-        <v>306.27697197014379</v>
+        <v>316.44891635554785</v>
       </c>
       <c r="H6">
         <v>377.82437902154362</v>
@@ -819,22 +819,22 @@
         <v>8921964</v>
       </c>
       <c r="C8">
-        <v>8557510713.0793524</v>
+        <v>8553120586.6916494</v>
       </c>
       <c r="D8">
-        <v>65744464.475845426</v>
+        <v>65507913.813922986</v>
       </c>
       <c r="E8">
-        <v>270977182.95475811</v>
+        <v>269353514.73160112</v>
       </c>
       <c r="F8">
-        <v>959.15100229942118</v>
+        <v>958.65894400511479</v>
       </c>
       <c r="G8">
-        <v>7.3688331936606595</v>
+        <v>7.3423198988387526</v>
       </c>
       <c r="H8">
-        <v>30.371920684140633</v>
+        <v>30.1899351680416</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -860,22 +860,22 @@
         <v>7744214</v>
       </c>
       <c r="C9">
-        <v>6562018713.0820427</v>
+        <v>6516651700.2914934</v>
       </c>
       <c r="D9">
-        <v>48895162.390015349</v>
+        <v>48664113.870593809</v>
       </c>
       <c r="E9">
-        <v>199765230.1120851</v>
+        <v>199098070.13153887</v>
       </c>
       <c r="F9">
-        <v>847.34470316574959</v>
+        <v>841.48652145866492</v>
       </c>
       <c r="G9">
-        <v>6.3137669478161822</v>
+        <v>6.2839319614093583</v>
       </c>
       <c r="H9">
-        <v>25.795417083268248</v>
+        <v>25.70926760695648</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -901,13 +901,13 @@
         <v>2014725</v>
       </c>
       <c r="C10">
-        <v>647183471.12136006</v>
+        <v>625638653.4685359</v>
       </c>
       <c r="E10">
         <v>752370759.97707248</v>
       </c>
       <c r="F10">
-        <v>321.22670395282734</v>
+        <v>310.53302732061991</v>
       </c>
       <c r="H10">
         <v>373.43595774960477</v>
@@ -936,22 +936,22 @@
         <v>9164672</v>
       </c>
       <c r="C11">
-        <v>24663035422.49202</v>
+        <v>24954190194.522331</v>
       </c>
       <c r="D11">
-        <v>179463217.49116945</v>
+        <v>182331951.43614596</v>
       </c>
       <c r="E11">
-        <v>736906296.932024</v>
+        <v>748519904.43590283</v>
       </c>
       <c r="F11">
-        <v>2691.098538222865</v>
+        <v>2722.86778997899</v>
       </c>
       <c r="G11">
-        <v>19.582066602183851</v>
+        <v>19.895087509530725</v>
       </c>
       <c r="H11">
-        <v>80.407274470054574</v>
+        <v>81.674489216406528</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -1012,22 +1012,22 @@
         <v>3900879</v>
       </c>
       <c r="C13">
-        <v>3668692190.0445299</v>
+        <v>3813055138.4795742</v>
       </c>
       <c r="D13">
-        <v>28274300.230864909</v>
+        <v>28357744.937221546</v>
       </c>
       <c r="E13">
-        <v>116400545.13005698</v>
+        <v>116792194.90212587</v>
       </c>
       <c r="F13">
-        <v>940.47833579163307</v>
+        <v>977.4861354273163</v>
       </c>
       <c r="G13">
-        <v>7.2481869421904417</v>
+        <v>7.2695781994831279</v>
       </c>
       <c r="H13">
-        <v>29.839568243479732</v>
+        <v>29.939968633255702</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
@@ -1053,16 +1053,16 @@
         <v>9744872</v>
       </c>
       <c r="C14">
-        <v>9140692401.6574135</v>
+        <v>9104450429.3694973</v>
       </c>
       <c r="E14">
-        <v>1660342546.1144125</v>
+        <v>1653998911.1303265</v>
       </c>
       <c r="F14">
-        <v>938.00025302101585</v>
+        <v>934.28117161205375</v>
       </c>
       <c r="H14">
-        <v>170.38115494122576</v>
+        <v>169.73018333440672</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
@@ -1088,22 +1088,22 @@
         <v>2258981</v>
       </c>
       <c r="C15">
-        <v>2582996161.135644</v>
+        <v>2583443155.060873</v>
       </c>
       <c r="D15">
-        <v>20700382.157245636</v>
+        <v>15250532.198895689</v>
       </c>
       <c r="E15">
-        <v>84200329.482258558</v>
+        <v>64636019.946835436</v>
       </c>
       <c r="F15">
-        <v>1143.4342126541321</v>
+        <v>1143.6320867952732</v>
       </c>
       <c r="G15">
-        <v>9.1635928576847867</v>
+        <v>6.7510670514252613</v>
       </c>
       <c r="H15">
-        <v>37.273589057304406</v>
+        <v>28.612909956673136</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
@@ -1129,22 +1129,22 @@
         <v>12851943</v>
       </c>
       <c r="C16">
-        <v>14397948308.511894</v>
+        <v>14442260879.925476</v>
       </c>
       <c r="D16">
-        <v>108731830.54794919</v>
+        <v>109064468.50220841</v>
       </c>
       <c r="E16">
-        <v>448287114.85224044</v>
+        <v>448685525.04147983</v>
       </c>
       <c r="F16">
-        <v>1120.2935080331351</v>
+        <v>1123.7414358222313</v>
       </c>
       <c r="G16">
-        <v>8.4603417979638706</v>
+        <v>8.4862241065190229</v>
       </c>
       <c r="H16">
-        <v>34.88088259123468</v>
+        <v>34.911882587829709</v>
       </c>
       <c r="I16" t="s">
         <v>16</v>
@@ -1170,22 +1170,22 @@
         <v>1157290</v>
       </c>
       <c r="C17">
-        <v>1456170068.1870091</v>
+        <v>1456039060.1451976</v>
       </c>
       <c r="D17">
-        <v>10471907.565424711</v>
+        <v>10864200.529604288</v>
       </c>
       <c r="E17">
-        <v>42404590.863879278</v>
+        <v>44074115.523384728</v>
       </c>
       <c r="F17">
-        <v>1258.2585766635925</v>
+        <v>1258.1453742322128</v>
       </c>
       <c r="G17">
-        <v>9.0486460311803523</v>
+        <v>9.3876215379069095</v>
       </c>
       <c r="H17">
-        <v>36.64128339817961</v>
+        <v>38.083899042923321</v>
       </c>
       <c r="I17" t="s">
         <v>16</v>
@@ -1211,16 +1211,16 @@
         <v>2981276</v>
       </c>
       <c r="C18">
-        <v>949257370.43839598</v>
+        <v>943424888.21388412</v>
       </c>
       <c r="E18">
-        <v>972196339.92288768</v>
+        <v>974119115.26747203</v>
       </c>
       <c r="F18">
-        <v>318.40640398218613</v>
+        <v>316.4500328764878</v>
       </c>
       <c r="H18">
-        <v>326.10075012272853</v>
+        <v>326.74570058842994</v>
       </c>
       <c r="I18" t="s">
         <v>17</v>
@@ -1246,13 +1246,13 @@
         <v>1265697</v>
       </c>
       <c r="C19">
-        <v>351839553.57865345</v>
+        <v>357946221.70092297</v>
       </c>
       <c r="E19">
         <v>428587857.09523201</v>
       </c>
       <c r="F19">
-        <v>277.98087028621654</v>
+        <v>282.80561753794387</v>
       </c>
       <c r="H19">
         <v>338.6180555814164</v>
@@ -1281,16 +1281,16 @@
         <v>1796131</v>
       </c>
       <c r="C20">
-        <v>354317797.58273995</v>
+        <v>352281488.40122998</v>
       </c>
       <c r="E20">
-        <v>879685566.41232014</v>
+        <v>886843881.09065855</v>
       </c>
       <c r="F20">
-        <v>197.26723584345459</v>
+        <v>196.13351609722787</v>
       </c>
       <c r="H20">
-        <v>489.76693036995641</v>
+        <v>493.75233827079347</v>
       </c>
       <c r="I20" t="s">
         <v>17</v>
@@ -1316,16 +1316,16 @@
         <v>2372033</v>
       </c>
       <c r="C21">
-        <v>597583359.86605191</v>
+        <v>585641573.86400998</v>
       </c>
       <c r="E21">
-        <v>692165679.06890392</v>
+        <v>684079969.27337408</v>
       </c>
       <c r="F21">
-        <v>251.92877159215402</v>
+        <v>246.89436186765107</v>
       </c>
       <c r="H21">
-        <v>291.80271904686987</v>
+        <v>288.39395121120748</v>
       </c>
       <c r="I21" t="s">
         <v>17</v>
@@ -1351,16 +1351,16 @@
         <v>4881045</v>
       </c>
       <c r="C22">
-        <v>1280972391.7752614</v>
+        <v>1290662216.9325542</v>
       </c>
       <c r="E22">
-        <v>1310019680.4754808</v>
+        <v>1319731329.4980047</v>
       </c>
       <c r="F22">
-        <v>262.43814424477983</v>
+        <v>264.42333904574826</v>
       </c>
       <c r="H22">
-        <v>268.38918315145236</v>
+        <v>270.37884909850345</v>
       </c>
       <c r="I22" t="s">
         <v>17</v>
@@ -1386,16 +1386,16 @@
         <v>2219933</v>
       </c>
       <c r="C23">
-        <v>644573078.6094743</v>
+        <v>648784799.70104837</v>
       </c>
       <c r="E23">
-        <v>682209118.96837628</v>
+        <v>682788242.63682842</v>
       </c>
       <c r="F23">
-        <v>290.35699663434633</v>
+        <v>292.2542255559282</v>
       </c>
       <c r="H23">
-        <v>307.31067963239263</v>
+        <v>307.57155402294956</v>
       </c>
       <c r="I23" t="s">
         <v>17</v>
@@ -1421,22 +1421,22 @@
         <v>1056327</v>
       </c>
       <c r="C24">
-        <v>1025690186.5349222</v>
+        <v>1008143708.5072434</v>
       </c>
       <c r="D24">
-        <v>7740435.4703611424</v>
+        <v>7752937.0817181524</v>
       </c>
       <c r="E24">
-        <v>31475603.765070863</v>
+        <v>31592316.076266751</v>
       </c>
       <c r="F24">
-        <v>970.99684712681039</v>
+        <v>954.38600784344567</v>
       </c>
       <c r="G24">
-        <v>7.3276887463457268</v>
+        <v>7.3395237286542452</v>
       </c>
       <c r="H24">
-        <v>29.797215980535253</v>
+        <v>29.907704788637183</v>
       </c>
       <c r="I24" t="s">
         <v>17</v>
@@ -1462,22 +1462,22 @@
         <v>1066912</v>
       </c>
       <c r="C25">
-        <v>1706791377.325371</v>
+        <v>1706690005.9071536</v>
       </c>
       <c r="D25">
-        <v>10718343.673112569</v>
+        <v>10865271.327118548</v>
       </c>
       <c r="E25">
-        <v>48777675.025201775</v>
+        <v>49446322.120115995</v>
       </c>
       <c r="F25">
-        <v>1599.7489739785203</v>
+        <v>1599.653960127127</v>
       </c>
       <c r="G25">
-        <v>10.046136582129144</v>
+        <v>10.183849583769371</v>
       </c>
       <c r="H25">
-        <v>45.718555068460915</v>
+        <v>46.345267576066249</v>
       </c>
       <c r="I25" t="s">
         <v>17</v>
@@ -1503,22 +1503,22 @@
         <v>4489538</v>
       </c>
       <c r="C26">
-        <v>4042401020.8541441</v>
+        <v>4019766495.1119432</v>
       </c>
       <c r="D26">
-        <v>32258633.878407292</v>
+        <v>32127237.324783653</v>
       </c>
       <c r="E26">
-        <v>132979880.04770902</v>
+        <v>132263035.19888639</v>
       </c>
       <c r="F26">
-        <v>900.4046788008352</v>
+        <v>895.36306299488797</v>
       </c>
       <c r="G26">
-        <v>7.1852903079130392</v>
+        <v>7.1560230306066357</v>
       </c>
       <c r="H26">
-        <v>29.619947541976263</v>
+        <v>29.460277471509627</v>
       </c>
       <c r="I26" t="s">
         <v>18</v>
@@ -1544,16 +1544,16 @@
         <v>2992958</v>
       </c>
       <c r="C27">
-        <v>2678889292.3503261</v>
+        <v>2678087149.6945252</v>
       </c>
       <c r="E27">
-        <v>437253325.15115458</v>
+        <v>431890477.21977651</v>
       </c>
       <c r="F27">
-        <v>895.06411127397246</v>
+        <v>894.79610127991282</v>
       </c>
       <c r="H27">
-        <v>146.09403979312592</v>
+        <v>144.30221781253746</v>
       </c>
       <c r="I27" t="s">
         <v>18</v>
@@ -1579,16 +1579,16 @@
         <v>229494</v>
       </c>
       <c r="C28">
-        <v>151173403.59446228</v>
+        <v>150987348.37185174</v>
       </c>
       <c r="E28">
-        <v>157961859.81056911</v>
+        <v>159549123.65599489</v>
       </c>
       <c r="F28">
-        <v>658.72486249950884</v>
+        <v>657.91414316649559</v>
       </c>
       <c r="H28">
-        <v>688.30496575321843</v>
+        <v>695.22132890618013</v>
       </c>
       <c r="I28" t="s">
         <v>18</v>
@@ -1614,22 +1614,22 @@
         <v>6529869</v>
       </c>
       <c r="C29">
-        <v>7803534874.346405</v>
+        <v>7863058186.9735928</v>
       </c>
       <c r="D29">
-        <v>59540131.709034577</v>
+        <v>60204283.004279487</v>
       </c>
       <c r="E29">
-        <v>245070767.50287926</v>
+        <v>247212132.8768062</v>
       </c>
       <c r="F29">
-        <v>1195.052285788031</v>
+        <v>1204.1678304685122</v>
       </c>
       <c r="G29">
-        <v>9.11812039552931</v>
+        <v>9.219830138135924</v>
       </c>
       <c r="H29">
-        <v>37.530732623101514</v>
+        <v>37.858666517935688</v>
       </c>
       <c r="I29" t="s">
         <v>18</v>
@@ -1655,22 +1655,22 @@
         <v>1441562</v>
       </c>
       <c r="C30">
-        <v>1881130509.1198936</v>
+        <v>1881248953.1546769</v>
       </c>
       <c r="D30">
-        <v>14670889.325740993</v>
+        <v>14608288.203026347</v>
       </c>
       <c r="E30">
-        <v>60308122.627920121</v>
+        <v>60050786.068322718</v>
       </c>
       <c r="F30">
-        <v>1304.925150024691</v>
+        <v>1305.0073137018574</v>
       </c>
       <c r="G30">
-        <v>10.177078284347807</v>
+        <v>10.133652387497968</v>
       </c>
       <c r="H30">
-        <v>41.835261076471298</v>
+        <v>41.656748768573749</v>
       </c>
       <c r="I30" t="s">
         <v>18</v>
@@ -1696,16 +1696,16 @@
         <v>1650341</v>
       </c>
       <c r="C31">
-        <v>470571076.24727893</v>
+        <v>486946035.57790017</v>
       </c>
       <c r="E31">
-        <v>588176482.77469373</v>
+        <v>577490925.24567938</v>
       </c>
       <c r="F31">
-        <v>285.13566362786776</v>
+        <v>295.05783082278163</v>
       </c>
       <c r="H31">
-        <v>356.39694025337417</v>
+        <v>349.9221828977644</v>
       </c>
       <c r="I31" t="s">
         <v>18</v>
@@ -1734,19 +1734,19 @@
         <v>3923063976.1904745</v>
       </c>
       <c r="D32">
-        <v>33315511.124048226</v>
+        <v>32077250.283059031</v>
       </c>
       <c r="E32">
-        <v>143116700.67359951</v>
+        <v>136265369.25837401</v>
       </c>
       <c r="F32">
         <v>787.09260921268037</v>
       </c>
       <c r="G32">
-        <v>6.684161343538598</v>
+        <v>6.4357264563852938</v>
       </c>
       <c r="H32">
-        <v>28.713805851435435</v>
+        <v>27.339208762802887</v>
       </c>
       <c r="I32" t="s">
         <v>18</v>
@@ -1772,16 +1772,16 @@
         <v>2093626</v>
       </c>
       <c r="C33">
-        <v>972775800.82237351</v>
+        <v>1004908978.6700227</v>
       </c>
       <c r="E33">
-        <v>1067995718.4330826</v>
+        <v>1054024559.5130278</v>
       </c>
       <c r="F33">
-        <v>464.63685530384771</v>
+        <v>479.98495369756722</v>
       </c>
       <c r="H33">
-        <v>510.11771846217164</v>
+        <v>503.44453093008389</v>
       </c>
       <c r="I33" t="s">
         <v>18</v>
@@ -1807,22 +1807,22 @@
         <v>67254</v>
       </c>
       <c r="C34">
-        <v>122921498.76949964</v>
+        <v>116306651.28636773</v>
       </c>
       <c r="D34">
-        <v>331455.22178385116</v>
+        <v>1234172.0522561262</v>
       </c>
       <c r="E34">
-        <v>1508406.1107441476</v>
+        <v>4995458.3067509867</v>
       </c>
       <c r="F34">
-        <v>1827.720265999043</v>
+        <v>1729.3640718227575</v>
       </c>
       <c r="G34">
-        <v>4.9284090430881609</v>
+        <v>18.350909273145483</v>
       </c>
       <c r="H34">
-        <v>22.428496606062801</v>
+        <v>74.277489915112653</v>
       </c>
       <c r="I34" t="s">
         <v>18</v>
@@ -1848,16 +1848,16 @@
         <v>245567</v>
       </c>
       <c r="C35">
-        <v>48167963.206661694</v>
+        <v>47226642.443295702</v>
       </c>
       <c r="E35">
-        <v>57038818.250007495</v>
+        <v>57713594.772371925</v>
       </c>
       <c r="F35">
-        <v>196.14998434912548</v>
+        <v>192.31673003007612</v>
       </c>
       <c r="H35">
-        <v>232.27395476593964</v>
+        <v>235.02178538798751</v>
       </c>
       <c r="I35" t="s">
         <v>19</v>
@@ -1883,16 +1883,16 @@
         <v>717925</v>
       </c>
       <c r="C36">
-        <v>184786760.08344397</v>
+        <v>184434713.86846879</v>
       </c>
       <c r="E36">
-        <v>254317519.58108526</v>
+        <v>257443221.03781235</v>
       </c>
       <c r="F36">
-        <v>257.39006175219413</v>
+        <v>256.89969546744965</v>
       </c>
       <c r="H36">
-        <v>354.23967626295962</v>
+        <v>358.59347569427496</v>
       </c>
       <c r="I36" t="s">
         <v>19</v>
@@ -1918,16 +1918,16 @@
         <v>1081826</v>
       </c>
       <c r="C37">
-        <v>289290785.85459</v>
+        <v>279991813.31010354</v>
       </c>
       <c r="E37">
-        <v>341910755.956536</v>
+        <v>336309467.28391933</v>
       </c>
       <c r="F37">
-        <v>267.40971824913618</v>
+        <v>258.81409146212377</v>
       </c>
       <c r="H37">
-        <v>316.0496752310778</v>
+        <v>310.87205085098651</v>
       </c>
       <c r="I37" t="s">
         <v>19</v>
@@ -1953,16 +1953,16 @@
         <v>250729</v>
       </c>
       <c r="C38">
-        <v>49957616.833849192</v>
+        <v>49228575.46199999</v>
       </c>
       <c r="E38">
-        <v>129834666.313446</v>
+        <v>128635572.93998399</v>
       </c>
       <c r="F38">
-        <v>199.24945592192842</v>
+        <v>196.34176924887026</v>
       </c>
       <c r="H38">
-        <v>517.82867683214147</v>
+        <v>513.04624889814897</v>
       </c>
       <c r="I38" t="s">
         <v>19</v>
@@ -1988,13 +1988,13 @@
         <v>750815</v>
       </c>
       <c r="C39">
-        <v>543868682.1649158</v>
+        <v>535530842.87672782</v>
       </c>
       <c r="E39">
         <v>23771173.028294731</v>
       </c>
       <c r="F39">
-        <v>724.37109296553183</v>
+        <v>713.26604140397808</v>
       </c>
       <c r="H39">
         <v>31.660492968700321</v>
@@ -2023,16 +2023,16 @@
         <v>384251</v>
       </c>
       <c r="C40">
-        <v>102829460.54474866</v>
+        <v>105721911.99080999</v>
       </c>
       <c r="E40">
-        <v>122904985.71129164</v>
+        <v>126226742.0818671</v>
       </c>
       <c r="F40">
-        <v>267.61013125469725</v>
+        <v>275.13763657299523</v>
       </c>
       <c r="H40">
-        <v>319.85599441847035</v>
+        <v>328.50075102437495</v>
       </c>
       <c r="I40" t="s">
         <v>20</v>
@@ -2058,16 +2058,16 @@
         <v>1245893</v>
       </c>
       <c r="C41">
-        <v>1297458188.1344931</v>
+        <v>1303724756.2714701</v>
       </c>
       <c r="E41">
-        <v>1681598364.7752209</v>
+        <v>1700806328.8167491</v>
       </c>
       <c r="F41">
-        <v>1041.3881353651502</v>
+        <v>1046.4179157210692</v>
       </c>
       <c r="H41">
-        <v>1349.7133098710892</v>
+        <v>1365.130335283005</v>
       </c>
       <c r="I41" t="s">
         <v>21</v>
@@ -2093,22 +2093,22 @@
         <v>827980</v>
       </c>
       <c r="C42">
-        <v>905554575.85344815</v>
+        <v>906912973.43135619</v>
       </c>
       <c r="D42">
-        <v>6880411.3677713489</v>
+        <v>6771651.2789739352</v>
       </c>
       <c r="E42">
-        <v>28959381.355901115</v>
+        <v>28595447.715906151</v>
       </c>
       <c r="F42">
-        <v>1093.6913643487137</v>
+        <v>1095.3319807620428</v>
       </c>
       <c r="G42">
-        <v>8.3098762865906775</v>
+        <v>8.1785203494938727</v>
       </c>
       <c r="H42">
-        <v>34.975943085462347</v>
+        <v>34.53639908682112</v>
       </c>
       <c r="I42" t="s">
         <v>21</v>
@@ -2134,22 +2134,22 @@
         <v>2177256</v>
       </c>
       <c r="C43">
-        <v>2206836633.7921886</v>
+        <v>2212840855.3731184</v>
       </c>
       <c r="D43">
-        <v>11964118.762810305</v>
+        <v>11707130.10937044</v>
       </c>
       <c r="E43">
-        <v>50148026.079919219</v>
+        <v>49666977.076221347</v>
       </c>
       <c r="F43">
-        <v>1013.5861992306777</v>
+        <v>1016.3439004752397</v>
       </c>
       <c r="G43">
-        <v>5.495044571153004</v>
+        <v>5.3770112974176856</v>
       </c>
       <c r="H43">
-        <v>23.032673273110383</v>
+        <v>22.811730488385997</v>
       </c>
       <c r="I43" t="s">
         <v>21</v>
@@ -2175,22 +2175,22 @@
         <v>2300225</v>
       </c>
       <c r="C44">
-        <v>3095666221.4743829</v>
+        <v>3095691165.8283176</v>
       </c>
       <c r="D44">
-        <v>23573855.485984541</v>
+        <v>23612017.451139018</v>
       </c>
       <c r="E44">
-        <v>96789601.648406997</v>
+        <v>97104574.170843527</v>
       </c>
       <c r="F44">
-        <v>1345.8101800799413</v>
+        <v>1345.8210243903607</v>
       </c>
       <c r="G44">
-        <v>10.248499814576634</v>
+        <v>10.265090350352256</v>
       </c>
       <c r="H44">
-        <v>42.078319142000026</v>
+        <v>42.215250321530945</v>
       </c>
       <c r="I44" t="s">
         <v>21</v>
@@ -2216,22 +2216,22 @@
         <v>1488285</v>
       </c>
       <c r="C45">
-        <v>1376069595.0880816</v>
+        <v>1382349202.5332792</v>
       </c>
       <c r="D45">
-        <v>10659209.448640125</v>
+        <v>10669124.151995586</v>
       </c>
       <c r="E45">
-        <v>43574448.237290204</v>
+        <v>43739502.154817052</v>
       </c>
       <c r="F45">
-        <v>924.60086279716688</v>
+        <v>928.82022094778836</v>
       </c>
       <c r="G45">
-        <v>7.1620754416258476</v>
+        <v>7.1687372727640106</v>
       </c>
       <c r="H45">
-        <v>29.278295647198085</v>
+        <v>29.389197737541569</v>
       </c>
       <c r="I45" t="s">
         <v>21</v>
@@ -2257,16 +2257,16 @@
         <v>48329</v>
       </c>
       <c r="C46">
-        <v>46261605.300713316</v>
+        <v>46603951.737191312</v>
       </c>
       <c r="E46">
-        <v>49259396.640915573</v>
+        <v>49886339.508068159</v>
       </c>
       <c r="F46">
-        <v>957.22248134067149</v>
+        <v>964.30614614809565</v>
       </c>
       <c r="H46">
-        <v>1019.2513116537809</v>
+        <v>1032.2237064302626</v>
       </c>
       <c r="I46" t="s">
         <v>21</v>
@@ -2292,16 +2292,16 @@
         <v>402573</v>
       </c>
       <c r="C47">
-        <v>192557247.95792884</v>
+        <v>192496697.50581568</v>
       </c>
       <c r="E47">
-        <v>103684671.97734627</v>
+        <v>103652067.8877469</v>
       </c>
       <c r="F47">
-        <v>478.31634997361675</v>
+        <v>478.16594134682578</v>
       </c>
       <c r="H47">
-        <v>257.55495767810135</v>
+        <v>257.47396841752152</v>
       </c>
       <c r="I47" t="s">
         <v>23</v>
@@ -2327,16 +2327,16 @@
         <v>1336530</v>
       </c>
       <c r="C48">
-        <v>652243992.3075614</v>
+        <v>669052437.95732021</v>
       </c>
       <c r="E48">
-        <v>726594512.86843359</v>
+        <v>739068360.9758749</v>
       </c>
       <c r="F48">
-        <v>488.01298310367997</v>
+        <v>500.58916594264269</v>
       </c>
       <c r="H48">
-        <v>543.64250175337156</v>
+        <v>552.97551194202515</v>
       </c>
       <c r="I48" t="s">
         <v>23</v>
@@ -2362,22 +2362,22 @@
         <v>4238250</v>
       </c>
       <c r="C49">
-        <v>3424661482.1090231</v>
+        <v>3475437519.8662658</v>
       </c>
       <c r="D49">
-        <v>25057524.457496747</v>
+        <v>25200822.034446903</v>
       </c>
       <c r="E49">
-        <v>102797282.86194992</v>
+        <v>103179958.82002106</v>
       </c>
       <c r="F49">
-        <v>808.03668545013215</v>
+        <v>820.01711080428618</v>
       </c>
       <c r="G49">
-        <v>5.9122336949204861</v>
+        <v>5.946044248085153</v>
       </c>
       <c r="H49">
-        <v>24.254652949200711</v>
+        <v>24.344943979241684</v>
       </c>
       <c r="I49" t="s">
         <v>23</v>
@@ -2403,16 +2403,16 @@
         <v>1825199</v>
       </c>
       <c r="C50">
-        <v>265732117.35708961</v>
+        <v>267543782.55582067</v>
       </c>
       <c r="E50">
-        <v>279566830.83589315</v>
+        <v>280389625.2460736</v>
       </c>
       <c r="F50">
-        <v>145.59076427123267</v>
+        <v>146.58334929825224</v>
       </c>
       <c r="H50">
-        <v>153.17060267723861</v>
+        <v>153.62139977398277</v>
       </c>
       <c r="I50" t="s">
         <v>24</v>
@@ -2438,16 +2438,16 @@
         <v>8749914</v>
       </c>
       <c r="C51">
-        <v>2357297169.4818144</v>
+        <v>2376511606.0203152</v>
       </c>
       <c r="E51">
-        <v>2248893558.7753477</v>
+        <v>2222943436.9808207</v>
       </c>
       <c r="F51">
-        <v>269.40803869407341</v>
+        <v>271.60399588159549</v>
       </c>
       <c r="H51">
-        <v>257.01893284612254</v>
+        <v>254.05317549187578</v>
       </c>
       <c r="I51" t="s">
         <v>24</v>
@@ -2473,16 +2473,16 @@
         <v>992174</v>
       </c>
       <c r="C52">
-        <v>255116737.26008287</v>
+        <v>250119178.49644697</v>
       </c>
       <c r="E52">
-        <v>306950517.34402019</v>
+        <v>299208969.23144734</v>
       </c>
       <c r="F52">
-        <v>257.12902904136058</v>
+        <v>252.0920508866862</v>
       </c>
       <c r="H52">
-        <v>309.37165995482667</v>
+        <v>301.56904860583654</v>
       </c>
       <c r="I52" t="s">
         <v>24</v>
@@ -2508,16 +2508,16 @@
         <v>1769518</v>
       </c>
       <c r="C53">
-        <v>551420708.43879151</v>
+        <v>555156913.20163822</v>
       </c>
       <c r="E53">
-        <v>573527541.13854241</v>
+        <v>565358205.0363853</v>
       </c>
       <c r="F53">
-        <v>311.62198318343837</v>
+        <v>313.73340830759463</v>
       </c>
       <c r="H53">
-        <v>324.11512125818581</v>
+        <v>319.49841992926059</v>
       </c>
       <c r="I53" t="s">
         <v>24</v>
@@ -2543,22 +2543,22 @@
         <v>16149545</v>
       </c>
       <c r="C54">
-        <v>11549090834.896576</v>
+        <v>11586841374.261436</v>
       </c>
       <c r="D54">
-        <v>86774037.248026848</v>
+        <v>87722407.543560535</v>
       </c>
       <c r="E54">
-        <v>357277913.38637614</v>
+        <v>361125619.97991633</v>
       </c>
       <c r="F54">
-        <v>715.1341313267078</v>
+        <v>717.47169188119142</v>
       </c>
       <c r="G54">
-        <v>5.3731567823134849</v>
+        <v>5.4318810556929327</v>
       </c>
       <c r="H54">
-        <v>22.123094699347639</v>
+        <v>22.361349498076656</v>
       </c>
       <c r="I54" t="s">
         <v>24</v>
@@ -2584,16 +2584,16 @@
         <v>1806150</v>
       </c>
       <c r="C55">
-        <v>731443123.9261055</v>
+        <v>738562312.62266982</v>
       </c>
       <c r="E55">
-        <v>795883563.04117918</v>
+        <v>788409806.93864954</v>
       </c>
       <c r="F55">
-        <v>404.97363116358304</v>
+        <v>408.91526873331111</v>
       </c>
       <c r="H55">
-        <v>440.65197411133028</v>
+        <v>436.5140253792041</v>
       </c>
       <c r="I55" t="s">
         <v>24</v>
@@ -2619,16 +2619,16 @@
         <v>5446539</v>
       </c>
       <c r="C56">
-        <v>2485104534.945313</v>
+        <v>2469987675.543211</v>
       </c>
       <c r="E56">
-        <v>2524745386.3633337</v>
+        <v>2485477972.7096128</v>
       </c>
       <c r="F56">
-        <v>456.2722372767941</v>
+        <v>453.49673903798561</v>
       </c>
       <c r="H56">
-        <v>463.55040996921775</v>
+        <v>456.34080150892385</v>
       </c>
       <c r="I56" t="s">
         <v>24</v>
@@ -2654,16 +2654,16 @@
         <v>2101351</v>
       </c>
       <c r="C57">
-        <v>547064191.95269847</v>
+        <v>562665255.06734693</v>
       </c>
       <c r="E57">
-        <v>665154366.80550027</v>
+        <v>659149637.45900321</v>
       </c>
       <c r="F57">
-        <v>260.33927314032655</v>
+        <v>267.76357451341869</v>
       </c>
       <c r="H57">
-        <v>316.53653616435344</v>
+        <v>313.67897959884056</v>
       </c>
       <c r="I57" t="s">
         <v>24</v>
@@ -2692,19 +2692,19 @@
         <v>217970036.94317865</v>
       </c>
       <c r="D58">
-        <v>1545853.4963605644</v>
+        <v>1739869.6343607355</v>
       </c>
       <c r="E58">
-        <v>7034961.9103182508</v>
+        <v>7042329.4724125005</v>
       </c>
       <c r="F58">
         <v>1061.1616787313901</v>
       </c>
       <c r="G58">
-        <v>7.5258072819356903</v>
+        <v>8.4703522000746592</v>
       </c>
       <c r="H58">
-        <v>34.248890789107726</v>
+        <v>34.284758905064095</v>
       </c>
       <c r="I58" t="s">
         <v>24</v>
@@ -2730,16 +2730,16 @@
         <v>500876</v>
       </c>
       <c r="C59">
-        <v>169934135.44359154</v>
+        <v>169296359.90473783</v>
       </c>
       <c r="E59">
-        <v>177675599.21392131</v>
+        <v>175912667.2152645</v>
       </c>
       <c r="F59">
-        <v>339.27386307906852</v>
+        <v>338.00054285838775</v>
       </c>
       <c r="H59">
-        <v>354.72971197246693</v>
+        <v>351.21001448515108</v>
       </c>
       <c r="I59" t="s">
         <v>24</v>
@@ -2768,13 +2768,13 @@
         <v>225430131.09269595</v>
       </c>
       <c r="E60">
-        <v>273212627.1494928</v>
+        <v>275283000.69230402</v>
       </c>
       <c r="F60">
         <v>259.18599696548705</v>
       </c>
       <c r="H60">
-        <v>314.12343508855616</v>
+        <v>316.50382598033025</v>
       </c>
       <c r="I60" t="s">
         <v>24</v>
@@ -2800,16 +2800,16 @@
         <v>1013496</v>
       </c>
       <c r="C61">
-        <v>373306859.47168791</v>
+        <v>374089707.58673191</v>
       </c>
       <c r="E61">
-        <v>201011385.8693704</v>
+        <v>201432919.46977872</v>
       </c>
       <c r="F61">
-        <v>368.33579952134778</v>
+        <v>369.10822300900242</v>
       </c>
       <c r="H61">
-        <v>198.33466128072573</v>
+        <v>198.75058162023203</v>
       </c>
       <c r="I61" t="s">
         <v>25</v>
@@ -2835,16 +2835,16 @@
         <v>296202</v>
       </c>
       <c r="C62">
-        <v>45463799.178467534</v>
+        <v>46136363.939609393</v>
       </c>
       <c r="E62">
-        <v>48373794.152509861</v>
+        <v>48080328.587261319</v>
       </c>
       <c r="F62">
-        <v>153.48917015572999</v>
+        <v>155.7597988521664</v>
       </c>
       <c r="H62">
-        <v>163.31352979557823</v>
+        <v>162.32276820298756</v>
       </c>
       <c r="I62" t="s">
         <v>25</v>
@@ -2870,16 +2870,16 @@
         <v>1615868</v>
       </c>
       <c r="C63">
-        <v>295788375.97395444</v>
+        <v>299090818.00261086</v>
       </c>
       <c r="E63">
-        <v>322321388.76009619</v>
+        <v>321222604.05408418</v>
       </c>
       <c r="F63">
-        <v>183.05231366296903</v>
+        <v>185.09607096780854</v>
       </c>
       <c r="H63">
-        <v>199.47259847963829</v>
+        <v>198.79260190441556</v>
       </c>
       <c r="I63" t="s">
         <v>26</v>
@@ -2905,16 +2905,16 @@
         <v>1420063</v>
       </c>
       <c r="C64">
-        <v>474854387.87694329</v>
+        <v>468084163.64229733</v>
       </c>
       <c r="E64">
-        <v>488443487.22764105</v>
+        <v>481690520.70072186</v>
       </c>
       <c r="F64">
-        <v>334.38966290716911</v>
+        <v>329.62211087979711</v>
       </c>
       <c r="H64">
-        <v>343.95902662603072</v>
+        <v>339.20362737478678</v>
       </c>
       <c r="I64" t="s">
         <v>27</v>
@@ -2940,16 +2940,16 @@
         <v>2037047</v>
       </c>
       <c r="C65">
-        <v>483918269.55471718</v>
+        <v>483196546.37484765</v>
       </c>
       <c r="E65">
-        <v>552132816.03886557</v>
+        <v>540078023.51699317</v>
       </c>
       <c r="F65">
-        <v>237.55871590332339</v>
+        <v>237.20441716604853</v>
       </c>
       <c r="H65">
-        <v>271.04569312287128</v>
+        <v>265.12791482817681</v>
       </c>
       <c r="I65" t="s">
         <v>27</v>
@@ -2975,13 +2975,13 @@
         <v>233500</v>
       </c>
       <c r="C66">
-        <v>36361090.637550011</v>
+        <v>36762274.670917623</v>
       </c>
       <c r="E66">
         <v>45895776.626952</v>
       </c>
       <c r="F66">
-        <v>155.72201557837263</v>
+        <v>157.44014848358725</v>
       </c>
       <c r="H66">
         <v>196.55578855225696</v>
@@ -3010,16 +3010,16 @@
         <v>16042082</v>
       </c>
       <c r="C67">
-        <v>4883057940.7531948</v>
+        <v>4751006236.8960905</v>
       </c>
       <c r="E67">
-        <v>4917571451.2766972</v>
+        <v>4840257866.4604292</v>
       </c>
       <c r="F67">
-        <v>304.39053613821415</v>
+        <v>296.15895473518276</v>
       </c>
       <c r="H67">
-        <v>306.54197200068529</v>
+        <v>301.72254863554679</v>
       </c>
       <c r="I67" t="s">
         <v>27</v>
@@ -3045,16 +3045,16 @@
         <v>2119428</v>
       </c>
       <c r="C68">
-        <v>681415445.46928</v>
+        <v>676106521.36623895</v>
       </c>
       <c r="E68">
-        <v>701824724.36143613</v>
+        <v>695868460.39973569</v>
       </c>
       <c r="F68">
-        <v>321.50912674046015</v>
+        <v>319.00424141147471</v>
       </c>
       <c r="H68">
-        <v>331.13874326536973</v>
+        <v>328.3284265376015</v>
       </c>
       <c r="I68" t="s">
         <v>27</v>
@@ -3080,22 +3080,22 @@
         <v>4495381</v>
       </c>
       <c r="C69">
-        <v>3670351931.5105734</v>
+        <v>3640804139.2925005</v>
       </c>
       <c r="D69">
-        <v>27193915.140287112</v>
+        <v>27047663.709594969</v>
       </c>
       <c r="E69">
-        <v>111518234.10553069</v>
+        <v>110751990.16796488</v>
       </c>
       <c r="F69">
-        <v>816.47182552726315</v>
+        <v>809.89890273872231</v>
       </c>
       <c r="G69">
-        <v>6.0493015253405913</v>
+        <v>6.0167678133610849</v>
       </c>
       <c r="H69">
-        <v>24.807293109422915</v>
+        <v>24.636841719970981</v>
       </c>
       <c r="I69" t="s">
         <v>27</v>
@@ -3156,16 +3156,16 @@
         <v>6594728</v>
       </c>
       <c r="C71">
-        <v>1840114803.5343001</v>
+        <v>1884007949.8237054</v>
       </c>
       <c r="E71">
-        <v>1936273135.6934578</v>
+        <v>1959414749.9095953</v>
       </c>
       <c r="F71">
-        <v>279.02815757288249</v>
+        <v>285.68395085039225</v>
       </c>
       <c r="H71">
-        <v>293.60924903854379</v>
+        <v>297.11835725591641</v>
       </c>
       <c r="I71" t="s">
         <v>27</v>
@@ -3191,16 +3191,16 @@
         <v>7672769</v>
       </c>
       <c r="C72">
-        <v>2149104461.0573597</v>
+        <v>2195132538.4700184</v>
       </c>
       <c r="E72">
-        <v>2233574664.3050785</v>
+        <v>2263988754.326427</v>
       </c>
       <c r="F72">
-        <v>280.09502971578576</v>
+        <v>286.09391713343882</v>
       </c>
       <c r="H72">
-        <v>291.10411955645719</v>
+        <v>295.06801968447468</v>
       </c>
       <c r="I72" t="s">
         <v>27</v>
@@ -3226,16 +3226,16 @@
         <v>423587</v>
       </c>
       <c r="C73">
-        <v>73930469.35984154</v>
+        <v>73258696.126892939</v>
       </c>
       <c r="E73">
-        <v>142547846.2425583</v>
+        <v>141252577.48057961</v>
       </c>
       <c r="F73">
-        <v>174.53432083572335</v>
+        <v>172.94840523173031</v>
       </c>
       <c r="H73">
-        <v>336.5255455020062</v>
+        <v>333.46768781992745</v>
       </c>
       <c r="I73" t="s">
         <v>10</v>
@@ -3296,16 +3296,16 @@
         <v>3095082</v>
       </c>
       <c r="C75">
-        <v>1044478761.2408016</v>
+        <v>1041290563.6840665</v>
       </c>
       <c r="E75">
-        <v>1100215879.1916482</v>
+        <v>1088092357.0246782</v>
       </c>
       <c r="F75">
-        <v>337.46400297013184</v>
+        <v>336.43391796536133</v>
       </c>
       <c r="H75">
-        <v>355.47228771051891</v>
+        <v>351.55525993323545</v>
       </c>
       <c r="I75" t="s">
         <v>10</v>
@@ -3331,7 +3331,7 @@
         <v>134547</v>
       </c>
       <c r="C76">
-        <v>120372005.75761989</v>
+        <v>121336452.57366873</v>
       </c>
       <c r="D76">
         <v>773016.26139945036</v>
@@ -3340,7 +3340,7 @@
         <v>3302286.5664511877</v>
       </c>
       <c r="F76">
-        <v>894.6465232046786</v>
+        <v>901.81462666331265</v>
       </c>
       <c r="G76">
         <v>5.7453251384233788</v>
@@ -3372,22 +3372,22 @@
         <v>531521</v>
       </c>
       <c r="C77">
-        <v>686309449.73218012</v>
+        <v>683509360.19554853</v>
       </c>
       <c r="D77">
-        <v>5280264.9839974735</v>
+        <v>5065950.2494395236</v>
       </c>
       <c r="E77">
-        <v>21528687.50753212</v>
+        <v>20605785.6343184</v>
       </c>
       <c r="F77">
-        <v>1291.2179382040977</v>
+        <v>1285.9498687644486</v>
       </c>
       <c r="G77">
-        <v>9.9342546841939878</v>
+        <v>9.5310443979438695</v>
       </c>
       <c r="H77">
-        <v>40.503926481798686</v>
+        <v>38.767585164684746</v>
       </c>
       <c r="I77" t="s">
         <v>29</v>
@@ -3483,22 +3483,22 @@
         <v>1438500</v>
       </c>
       <c r="C80">
-        <v>1591275893.6222086</v>
+        <v>1572198519.1246839</v>
       </c>
       <c r="D80">
-        <v>11973866.858611714</v>
+        <v>12102388.725611521</v>
       </c>
       <c r="E80">
-        <v>49207947.301198557</v>
+        <v>49769673.489221483</v>
       </c>
       <c r="F80">
-        <v>1106.205000780124</v>
+        <v>1092.9430094714521</v>
       </c>
       <c r="G80">
-        <v>8.3238560018155816</v>
+        <v>8.4132003653886152</v>
       </c>
       <c r="H80">
-        <v>34.207818770384819</v>
+        <v>34.59831316595168</v>
       </c>
       <c r="I80" t="s">
         <v>30</v>
@@ -3524,22 +3524,22 @@
         <v>4871389</v>
       </c>
       <c r="C81">
-        <v>6424399894.629385</v>
+        <v>6426536871.0639648</v>
       </c>
       <c r="D81">
-        <v>47663048.379219979</v>
+        <v>47362053.518789284</v>
       </c>
       <c r="E81">
-        <v>196633334.51667264</v>
+        <v>195704182.47699919</v>
       </c>
       <c r="F81">
-        <v>1318.8024800789642</v>
+        <v>1319.2411591568575</v>
       </c>
       <c r="G81">
-        <v>9.7842829589712466</v>
+        <v>9.7224946557930974</v>
       </c>
       <c r="H81">
-        <v>40.364942014828344</v>
+        <v>40.174205442636421</v>
       </c>
       <c r="I81" t="s">
         <v>30</v>
@@ -3565,22 +3565,22 @@
         <v>1656996</v>
       </c>
       <c r="C82">
-        <v>3467181144.1424685</v>
+        <v>3480834070.0498896</v>
       </c>
       <c r="D82">
-        <v>28137427.565823548</v>
+        <v>28311391.209636517</v>
       </c>
       <c r="E82">
-        <v>115677838.35014708</v>
+        <v>116621163.75543638</v>
       </c>
       <c r="F82">
-        <v>2092.4499178890405</v>
+        <v>2100.6894826842608</v>
       </c>
       <c r="G82">
-        <v>16.980987018570683</v>
+        <v>17.085974383544993</v>
       </c>
       <c r="H82">
-        <v>69.811778875837405</v>
+        <v>70.381077416865452</v>
       </c>
       <c r="I82" t="s">
         <v>30</v>
@@ -3606,22 +3606,22 @@
         <v>967351</v>
       </c>
       <c r="C83">
-        <v>1229863718.401829</v>
+        <v>1226987272.9244442</v>
       </c>
       <c r="D83">
-        <v>3810390.5817828868</v>
+        <v>4125760.5100810239</v>
       </c>
       <c r="E83">
-        <v>17340551.78539741</v>
+        <v>18775755.987128377</v>
       </c>
       <c r="F83">
-        <v>1271.3727679010296</v>
+        <v>1268.399239701457</v>
       </c>
       <c r="G83">
-        <v>3.9389948237846317</v>
+        <v>4.2650087817979445</v>
       </c>
       <c r="H83">
-        <v>17.925811608606814</v>
+        <v>19.409455292989179</v>
       </c>
       <c r="I83" t="s">
         <v>30</v>
@@ -3647,22 +3647,22 @@
         <v>7658910</v>
       </c>
       <c r="C84">
-        <v>11448203960.094273</v>
+        <v>11238618434.057314</v>
       </c>
       <c r="D84">
-        <v>91035904.824563995</v>
+        <v>87918434.166297495</v>
       </c>
       <c r="E84">
-        <v>373940023.59412044</v>
+        <v>362448586.60633284</v>
       </c>
       <c r="F84">
-        <v>1494.7562982322906</v>
+        <v>1467.3913695365677</v>
       </c>
       <c r="G84">
-        <v>11.886274264166049</v>
+        <v>11.479235839864614</v>
       </c>
       <c r="H84">
-        <v>48.82418302266516</v>
+        <v>47.32378192279748</v>
       </c>
       <c r="I84" t="s">
         <v>30</v>
@@ -3688,16 +3688,16 @@
         <v>500630</v>
       </c>
       <c r="C85">
-        <v>136913939.58831045</v>
+        <v>140706997.00483036</v>
       </c>
       <c r="E85">
-        <v>153034422.03496137</v>
+        <v>151939363.55886146</v>
       </c>
       <c r="F85">
-        <v>273.48329023092992</v>
+        <v>281.05985858784004</v>
       </c>
       <c r="H85">
-        <v>305.6836826298092</v>
+        <v>303.496321752315</v>
       </c>
       <c r="I85" t="s">
         <v>31</v>
@@ -3723,22 +3723,22 @@
         <v>3581670</v>
       </c>
       <c r="C86">
-        <v>1858788105.5760436</v>
+        <v>1852029628.8132801</v>
       </c>
       <c r="D86">
-        <v>14486480.62971724</v>
+        <v>14442892.591305973</v>
       </c>
       <c r="E86">
-        <v>59443819.703358233</v>
+        <v>59294278.952598825</v>
       </c>
       <c r="F86">
-        <v>518.97246412317259</v>
+        <v>517.08550168309205</v>
       </c>
       <c r="G86">
-        <v>4.0446162348058978</v>
+        <v>4.0324464820337926</v>
       </c>
       <c r="H86">
-        <v>16.596676886301147</v>
+        <v>16.554925203214932</v>
       </c>
       <c r="I86" t="s">
         <v>31</v>
@@ -3764,7 +3764,7 @@
         <v>4902363</v>
       </c>
       <c r="C87">
-        <v>4619498695.4193382</v>
+        <v>4276681197.4835501</v>
       </c>
       <c r="D87">
         <v>27273304.950750511</v>
@@ -3773,7 +3773,7 @@
         <v>113788583.59986989</v>
       </c>
       <c r="F87">
-        <v>942.30041623179238</v>
+        <v>872.37138446980566</v>
       </c>
       <c r="G87">
         <v>5.5632977302477418</v>
@@ -3805,22 +3805,22 @@
         <v>6114392</v>
       </c>
       <c r="C88">
-        <v>5919415585.5600414</v>
+        <v>5930737414.2321167</v>
       </c>
       <c r="D88">
-        <v>44956855.650971122</v>
+        <v>43727592.365712851</v>
       </c>
       <c r="E88">
-        <v>184603494.58367741</v>
+        <v>179696158.44425714</v>
       </c>
       <c r="F88">
-        <v>968.11188840362888</v>
+        <v>969.96355716678227</v>
       </c>
       <c r="G88">
-        <v>7.3526289532910418</v>
+        <v>7.1515847145084663</v>
       </c>
       <c r="H88">
-        <v>30.191635502545044</v>
+        <v>29.38904774902511</v>
       </c>
       <c r="I88" t="s">
         <v>32</v>
@@ -3846,22 +3846,22 @@
         <v>6233147</v>
       </c>
       <c r="C89">
-        <v>6670847650.1744242</v>
+        <v>6718320217.7382221</v>
       </c>
       <c r="D89">
-        <v>51281768.759564891</v>
+        <v>51502720.013042018</v>
       </c>
       <c r="E89">
-        <v>210750156.43281433</v>
+        <v>211696494.84732112</v>
       </c>
       <c r="F89">
-        <v>1070.2214547762831</v>
+        <v>1077.8376023761707</v>
       </c>
       <c r="G89">
-        <v>8.2272676642416567</v>
+        <v>8.2627154490407513</v>
       </c>
       <c r="H89">
-        <v>33.811196243697495</v>
+        <v>33.963019779145448</v>
       </c>
       <c r="I89" t="s">
         <v>32</v>
@@ -3887,16 +3887,16 @@
         <v>2753681</v>
       </c>
       <c r="C90">
-        <v>827604791.59805298</v>
+        <v>832702168.80933154</v>
       </c>
       <c r="E90">
-        <v>1008230331.9952734</v>
+        <v>1004183846.397307</v>
       </c>
       <c r="F90">
-        <v>300.54490392970462</v>
+        <v>302.39601784278261</v>
       </c>
       <c r="H90">
-        <v>366.13911778280544</v>
+        <v>364.66963544335999</v>
       </c>
       <c r="I90" t="s">
         <v>32</v>
@@ -3922,22 +3922,22 @@
         <v>5168266</v>
       </c>
       <c r="C91">
-        <v>5847666379.5455637</v>
+        <v>5851321728.739439</v>
       </c>
       <c r="D91">
-        <v>44220494.387447387</v>
+        <v>43419732.372104578</v>
       </c>
       <c r="E91">
-        <v>182074143.94766557</v>
+        <v>178994340.97483522</v>
       </c>
       <c r="F91">
-        <v>1131.4561556130361</v>
+        <v>1132.1634236201153</v>
       </c>
       <c r="G91">
-        <v>8.5561568207687806</v>
+        <v>8.4012185851317582</v>
       </c>
       <c r="H91">
-        <v>35.229251735043356</v>
+        <v>34.633345298952342</v>
       </c>
       <c r="I91" t="s">
         <v>32</v>
@@ -3963,22 +3963,22 @@
         <v>9849064</v>
       </c>
       <c r="C92">
-        <v>9200341373.2413387</v>
+        <v>9261948956.3510227</v>
       </c>
       <c r="D92">
-        <v>70655623.471036553</v>
+        <v>70239884.918733522</v>
       </c>
       <c r="E92">
-        <v>290275766.32280838</v>
+        <v>288873811.49146754</v>
       </c>
       <c r="F92">
-        <v>934.13357586480697</v>
+        <v>940.38874723029744</v>
       </c>
       <c r="G92">
-        <v>7.173841440266461</v>
+        <v>7.1316304695282238</v>
       </c>
       <c r="H92">
-        <v>29.472421574558599</v>
+        <v>29.330077608539</v>
       </c>
       <c r="I92" t="s">
         <v>32</v>
@@ -4004,22 +4004,22 @@
         <v>6246911</v>
       </c>
       <c r="C93">
-        <v>7499079810.0693073</v>
+        <v>7453540524.1883049</v>
       </c>
       <c r="D93">
-        <v>55526243.200384922</v>
+        <v>55194672.644748658</v>
       </c>
       <c r="E93">
-        <v>228223640.76752973</v>
+        <v>227575455.26349497</v>
       </c>
       <c r="F93">
-        <v>1200.4460780807199</v>
+        <v>1193.1561893851706</v>
       </c>
       <c r="G93">
-        <v>8.8885920097764988</v>
+        <v>8.8355144878402534</v>
       </c>
       <c r="H93">
-        <v>36.53383900739577</v>
+        <v>36.43007804393163</v>
       </c>
       <c r="I93" t="s">
         <v>32</v>
@@ -4045,22 +4045,22 @@
         <v>3681044</v>
       </c>
       <c r="C94">
-        <v>3833231134.8310099</v>
+        <v>3801437087.9958649</v>
       </c>
       <c r="D94">
-        <v>28359670.661948733</v>
+        <v>28358378.789242908</v>
       </c>
       <c r="E94">
-        <v>116916127.15995079</v>
+        <v>117153662.63911414</v>
       </c>
       <c r="F94">
-        <v>1041.3434707194508</v>
+        <v>1032.7062344258488</v>
       </c>
       <c r="G94">
-        <v>7.7042465838356549</v>
+        <v>7.703895631033725</v>
       </c>
       <c r="H94">
-        <v>31.761676078838175</v>
+        <v>31.826205456689497</v>
       </c>
       <c r="I94" t="s">
         <v>32</v>
@@ -4086,16 +4086,16 @@
         <v>4626240</v>
       </c>
       <c r="C95">
-        <v>1361221916.0743532</v>
+        <v>1384674010.9840665</v>
       </c>
       <c r="E95">
-        <v>1447522734.2692704</v>
+        <v>1431144948.7737522</v>
       </c>
       <c r="F95">
-        <v>294.23936416492728</v>
+        <v>299.30872825103467</v>
       </c>
       <c r="H95">
-        <v>312.89399907252334</v>
+        <v>309.35380541730478</v>
       </c>
       <c r="I95" t="s">
         <v>14</v>
@@ -4121,16 +4121,16 @@
         <v>6322841</v>
       </c>
       <c r="C96">
-        <v>1914941097.5657225</v>
+        <v>1913905616.0807395</v>
       </c>
       <c r="E96">
-        <v>1991002397.3648086</v>
+        <v>1992575555.9470763</v>
       </c>
       <c r="F96">
-        <v>302.8608654821025</v>
+        <v>302.69709709302185</v>
       </c>
       <c r="H96">
-        <v>314.89047365967429</v>
+        <v>315.13927931242876</v>
       </c>
       <c r="I96" t="s">
         <v>14</v>
@@ -4156,16 +4156,16 @@
         <v>9036684</v>
       </c>
       <c r="C97">
-        <v>6295483025.72118</v>
+        <v>6299934942.5305843</v>
       </c>
       <c r="E97">
-        <v>3062379091.6404562</v>
+        <v>3046223076.6809921</v>
       </c>
       <c r="F97">
-        <v>696.65853378531096</v>
+        <v>697.15118316968756</v>
       </c>
       <c r="H97">
-        <v>338.88305617862216</v>
+        <v>337.09523058247828</v>
       </c>
       <c r="I97" t="s">
         <v>33</v>
@@ -4191,16 +4191,16 @@
         <v>916991</v>
       </c>
       <c r="C98">
-        <v>803054971.35018218</v>
+        <v>801138800.60800576</v>
       </c>
       <c r="E98">
-        <v>812704547.41727722</v>
+        <v>822348045.90060031</v>
       </c>
       <c r="F98">
-        <v>875.75011243314509</v>
+        <v>873.66048369941007</v>
       </c>
       <c r="H98">
-        <v>886.27319942865006</v>
+        <v>896.78965867778447</v>
       </c>
       <c r="I98" t="s">
         <v>33</v>
@@ -4226,16 +4226,16 @@
         <v>317344</v>
       </c>
       <c r="C99">
-        <v>229734521.83053291</v>
+        <v>230310828.17665571</v>
       </c>
       <c r="E99">
-        <v>245835716.77690786</v>
+        <v>241323772.68232134</v>
       </c>
       <c r="F99">
-        <v>723.92899134860886</v>
+        <v>725.74502173242831</v>
       </c>
       <c r="H99">
-        <v>774.66634559628631</v>
+        <v>760.44851228421317</v>
       </c>
       <c r="I99" t="s">
         <v>33</v>
@@ -4261,22 +4261,22 @@
         <v>4078252</v>
       </c>
       <c r="C100">
-        <v>2968072655.3399405</v>
+        <v>2974158199.3018937</v>
       </c>
       <c r="D100">
-        <v>22819817.987976518</v>
+        <v>22437948.426766783</v>
       </c>
       <c r="E100">
-        <v>93821338.38906765</v>
+        <v>92154902.158618033</v>
       </c>
       <c r="F100">
-        <v>727.78059211150776</v>
+        <v>729.27278630695059</v>
       </c>
       <c r="G100">
-        <v>5.5954899275416325</v>
+        <v>5.50185433042558</v>
       </c>
       <c r="H100">
-        <v>23.005282260406581</v>
+        <v>22.596666944224641</v>
       </c>
       <c r="I100" t="s">
         <v>33</v>
@@ -4302,22 +4302,22 @@
         <v>3399679</v>
       </c>
       <c r="C101">
-        <v>1922063033.8424153</v>
+        <v>1923948644.8582721</v>
       </c>
       <c r="D101">
-        <v>14310250.708444122</v>
+        <v>13859107.882226856</v>
       </c>
       <c r="E101">
-        <v>57922443.343702406</v>
+        <v>56096389.047108702</v>
       </c>
       <c r="F101">
-        <v>565.36603421747031</v>
+        <v>565.92067805762599</v>
       </c>
       <c r="G101">
-        <v>4.2092946741277997</v>
+        <v>4.0765930790015341</v>
       </c>
       <c r="H101">
-        <v>17.037621300041096</v>
+        <v>16.500495795958589</v>
       </c>
       <c r="I101" t="s">
         <v>33</v>
@@ -4378,22 +4378,22 @@
         <v>3734928</v>
       </c>
       <c r="C103">
-        <v>5511294956.6900463</v>
+        <v>5516643448.0066204</v>
       </c>
       <c r="D103">
-        <v>49770955.960217983</v>
+        <v>21302836.36091831</v>
       </c>
       <c r="E103">
-        <v>201453869.36278707</v>
+        <v>96946213.036120474</v>
       </c>
       <c r="F103">
-        <v>1475.6094245163617</v>
+        <v>1477.041444441933</v>
       </c>
       <c r="G103">
-        <v>13.325814034492225</v>
+        <v>5.7036805959628429</v>
       </c>
       <c r="H103">
-        <v>53.937818711039959</v>
+        <v>25.956648437699595</v>
       </c>
       <c r="I103" t="s">
         <v>12</v>
@@ -4419,16 +4419,16 @@
         <v>984434</v>
       </c>
       <c r="C104">
-        <v>260939335.11180654</v>
+        <v>273749666.91656822</v>
       </c>
       <c r="E104">
-        <v>317077309.74748796</v>
+        <v>313373290.33870381</v>
       </c>
       <c r="F104">
-        <v>265.06534222894226</v>
+        <v>278.07823268656733</v>
       </c>
       <c r="H104">
-        <v>322.09097790962926</v>
+        <v>318.32839005835211</v>
       </c>
       <c r="I104" t="s">
         <v>34</v>
@@ -4454,22 +4454,22 @@
         <v>3857821</v>
       </c>
       <c r="C105">
-        <v>3941027438.5772691</v>
+        <v>3968475589.4180508</v>
       </c>
       <c r="D105">
-        <v>29871848.15639779</v>
+        <v>29937932.376370985</v>
       </c>
       <c r="E105">
-        <v>122893225.12816834</v>
+        <v>123282954.86075571</v>
       </c>
       <c r="F105">
-        <v>1021.5682476136838</v>
+        <v>1028.6831839574857</v>
       </c>
       <c r="G105">
-        <v>7.7431918578901895</v>
+        <v>7.7603217921129533</v>
       </c>
       <c r="H105">
-        <v>31.855605827270978</v>
+        <v>31.956629107663552</v>
       </c>
       <c r="I105" t="s">
         <v>34</v>
@@ -4530,16 +4530,16 @@
         <v>393144</v>
       </c>
       <c r="C107">
-        <v>116077025.45530869</v>
+        <v>114332894.30255879</v>
       </c>
       <c r="E107">
-        <v>123252691.63252273</v>
+        <v>120688235.02924138</v>
       </c>
       <c r="F107">
-        <v>295.25320354706849</v>
+        <v>290.81683633111226</v>
       </c>
       <c r="H107">
-        <v>313.50520835246812</v>
+        <v>306.98226357070536</v>
       </c>
       <c r="I107" t="s">
         <v>35</v>
@@ -4565,22 +4565,22 @@
         <v>2485399</v>
       </c>
       <c r="C108">
-        <v>3495518913.2037554</v>
+        <v>3488020316.1128011</v>
       </c>
       <c r="D108">
-        <v>25069587.426181011</v>
+        <v>26310894.181053348</v>
       </c>
       <c r="E108">
-        <v>102302703.15715477</v>
+        <v>107459005.00610158</v>
       </c>
       <c r="F108">
-        <v>1406.4216301703491</v>
+        <v>1403.4045704986609</v>
       </c>
       <c r="G108">
-        <v>10.086745599471557</v>
+        <v>10.586185228630633</v>
       </c>
       <c r="H108">
-        <v>41.161480775181275</v>
+        <v>43.236118227335567</v>
       </c>
       <c r="I108" t="s">
         <v>35</v>
@@ -4606,16 +4606,16 @@
         <v>261201</v>
       </c>
       <c r="C109">
-        <v>180527213.71051544</v>
+        <v>182613018.06194335</v>
       </c>
       <c r="E109">
-        <v>193393586.81149939</v>
+        <v>193270673.98333657</v>
       </c>
       <c r="F109">
-        <v>691.1428888500252</v>
+        <v>699.12832669837928</v>
       </c>
       <c r="H109">
-        <v>740.40140279516311</v>
+        <v>739.93083481049678</v>
       </c>
       <c r="I109" t="s">
         <v>35</v>
@@ -4641,22 +4641,22 @@
         <v>14072154</v>
       </c>
       <c r="C110">
-        <v>21380354666.417507</v>
+        <v>21282417782.948685</v>
       </c>
       <c r="D110">
-        <v>160386141.83112982</v>
+        <v>160397772.56269771</v>
       </c>
       <c r="E110">
-        <v>661420430.240942</v>
+        <v>659958831.45453084</v>
       </c>
       <c r="F110">
-        <v>1519.3377407906073</v>
+        <v>1512.3781180158123</v>
       </c>
       <c r="G110">
-        <v>11.397412352872902</v>
+        <v>11.398238859715272</v>
       </c>
       <c r="H110">
-        <v>47.002074468552721</v>
+        <v>46.898209858599529</v>
       </c>
       <c r="I110" t="s">
         <v>36</v>
@@ -4682,16 +4682,16 @@
         <v>543145</v>
       </c>
       <c r="C111">
-        <v>476587992.14328259</v>
+        <v>475317282.79876661</v>
       </c>
       <c r="E111">
-        <v>502267944.55866343</v>
+        <v>502023113.85770774</v>
       </c>
       <c r="F111">
-        <v>877.45996399356079</v>
+        <v>875.12042419384625</v>
       </c>
       <c r="H111">
-        <v>924.740068598005</v>
+        <v>924.28930369921056</v>
       </c>
       <c r="I111" t="s">
         <v>36</v>
@@ -4717,22 +4717,22 @@
         <v>7296430</v>
       </c>
       <c r="C112">
-        <v>7351920748.8178234</v>
+        <v>7360917208.0609388</v>
       </c>
       <c r="D112">
-        <v>55829211.912236765</v>
+        <v>56154666.792414799</v>
       </c>
       <c r="E112">
-        <v>233578431.76120985</v>
+        <v>234819347.9323253</v>
       </c>
       <c r="F112">
-        <v>1007.6051916920771</v>
+        <v>1008.8381863542772</v>
       </c>
       <c r="G112">
-        <v>7.6515791849214976</v>
+        <v>7.6961838587384239</v>
       </c>
       <c r="H112">
-        <v>32.012700973107371</v>
+        <v>32.182772661743527</v>
       </c>
       <c r="I112" t="s">
         <v>36</v>
@@ -4799,22 +4799,22 @@
         <v>5367819</v>
       </c>
       <c r="C114">
-        <v>9694982325.7396755</v>
+        <v>9704000139.9403954</v>
       </c>
       <c r="D114">
-        <v>74387107.771566719</v>
+        <v>73751774.87793225</v>
       </c>
       <c r="E114">
-        <v>305987250.54224432</v>
+        <v>303347255.27885413</v>
       </c>
       <c r="F114">
-        <v>1806.1306325231301</v>
+        <v>1807.8106098473877</v>
       </c>
       <c r="G114">
-        <v>13.857976167148465</v>
+        <v>13.739616570143713</v>
       </c>
       <c r="H114">
-        <v>57.004017933958714</v>
+        <v>56.512198954333982</v>
       </c>
       <c r="I114" t="s">
         <v>36</v>
@@ -4840,22 +4840,22 @@
         <v>9846148</v>
       </c>
       <c r="C115">
-        <v>10111284567.55584</v>
+        <v>10270528055.650196</v>
       </c>
       <c r="D115">
-        <v>75754333.589812279</v>
+        <v>76957541.345004678</v>
       </c>
       <c r="E115">
-        <v>312086093.31942868</v>
+        <v>317030677.26945615</v>
       </c>
       <c r="F115">
-        <v>1026.9279486308594</v>
+        <v>1043.1011249932658</v>
       </c>
       <c r="G115">
-        <v>7.6938040734114779</v>
+        <v>7.8160049336049662</v>
       </c>
       <c r="H115">
-        <v>31.696262672410437</v>
+        <v>32.198447278007208</v>
       </c>
       <c r="I115" t="s">
         <v>36</v>
@@ -4881,22 +4881,22 @@
         <v>5178344</v>
       </c>
       <c r="C116">
-        <v>3088321859.9900413</v>
+        <v>3110571966.0531664</v>
       </c>
       <c r="D116">
-        <v>22851264.375143029</v>
+        <v>23098622.215239663</v>
       </c>
       <c r="E116">
-        <v>94549284.95736371</v>
+        <v>95462812.241225153</v>
       </c>
       <c r="F116">
-        <v>596.39179243210594</v>
+        <v>600.68855333928491</v>
       </c>
       <c r="G116">
-        <v>4.4128517485788947</v>
+        <v>4.4606194982874179</v>
       </c>
       <c r="H116">
-        <v>18.258594824400177</v>
+        <v>18.435007840580919</v>
       </c>
       <c r="I116" t="s">
         <v>37</v>
@@ -4922,16 +4922,16 @@
         <v>3896653</v>
       </c>
       <c r="C117">
-        <v>1121164026.1858172</v>
+        <v>1112393870.8746829</v>
       </c>
       <c r="E117">
-        <v>1189409165.8629808</v>
+        <v>1162630461.3083124</v>
       </c>
       <c r="F117">
-        <v>287.72488240185032</v>
+        <v>285.4741930766437</v>
       </c>
       <c r="H117">
-        <v>305.23866658462555</v>
+        <v>298.36643429843826</v>
       </c>
       <c r="I117" t="s">
         <v>37</v>
@@ -4957,16 +4957,16 @@
         <v>1330989</v>
       </c>
       <c r="C118">
-        <v>531348506.68959939</v>
+        <v>533681410.08159566</v>
       </c>
       <c r="E118">
-        <v>287364925.26315624</v>
+        <v>289797586.00754011</v>
       </c>
       <c r="F118">
-        <v>399.21329679629162</v>
+        <v>400.96605612938617</v>
       </c>
       <c r="H118">
-        <v>215.90330593502745</v>
+        <v>217.73101506288941</v>
       </c>
       <c r="I118" t="s">
         <v>37</v>
@@ -4992,16 +4992,16 @@
         <v>1522254</v>
       </c>
       <c r="C119">
-        <v>561568189.38566566</v>
+        <v>559492156.43808949</v>
       </c>
       <c r="E119">
-        <v>588071577.06832123</v>
+        <v>590105948.22129643</v>
       </c>
       <c r="F119">
-        <v>368.90570784222979</v>
+        <v>367.54191904773415</v>
       </c>
       <c r="H119">
-        <v>386.31632898867156</v>
+        <v>387.65274929236278</v>
       </c>
       <c r="I119" t="s">
         <v>38</v>
@@ -5027,16 +5027,16 @@
         <v>4899321</v>
       </c>
       <c r="C120">
-        <v>616612027.22952116</v>
+        <v>608602371.60167003</v>
       </c>
       <c r="E120">
-        <v>235280233.07800725</v>
+        <v>233664825.33092338</v>
       </c>
       <c r="F120">
-        <v>125.8566293634406</v>
+        <v>124.22177922240041</v>
       </c>
       <c r="H120">
-        <v>48.023028717246177</v>
+        <v>47.693307976946883</v>
       </c>
       <c r="I120" t="s">
         <v>38</v>
@@ -5062,22 +5062,22 @@
         <v>214384</v>
       </c>
       <c r="C121">
-        <v>224866919.27410045</v>
+        <v>224453274.39477953</v>
       </c>
       <c r="D121">
-        <v>1241783.2909290579</v>
+        <v>1212791.304439866</v>
       </c>
       <c r="E121">
-        <v>5399301.037108086</v>
+        <v>5339958.5738476962</v>
       </c>
       <c r="F121">
-        <v>1048.8978621263734</v>
+        <v>1046.9684043341831</v>
       </c>
       <c r="G121">
-        <v>5.7923319414184729</v>
+        <v>5.657098031755476</v>
       </c>
       <c r="H121">
-        <v>25.185186567598731</v>
+        <v>24.908382033396599</v>
       </c>
       <c r="I121" t="s">
         <v>24</v>
@@ -5103,22 +5103,22 @@
         <v>17815891</v>
       </c>
       <c r="C122">
-        <v>9954816504.2275162</v>
+        <v>9977023857.3073559</v>
       </c>
       <c r="D122">
-        <v>73058189.866424382</v>
+        <v>73452877.78990376</v>
       </c>
       <c r="E122">
-        <v>300992751.63982677</v>
+        <v>302931009.50010264</v>
       </c>
       <c r="F122">
-        <v>558.76051914706466</v>
+        <v>560.00701044406674</v>
       </c>
       <c r="G122">
-        <v>4.1007317493368358</v>
+        <v>4.1228854504051329</v>
       </c>
       <c r="H122">
-        <v>16.894622426676655</v>
+        <v>17.003416191764007</v>
       </c>
       <c r="I122" t="s">
         <v>9</v>
@@ -5144,22 +5144,22 @@
         <v>7047532</v>
       </c>
       <c r="C123">
-        <v>7551399013.4904022</v>
+        <v>7358750066.887845</v>
       </c>
       <c r="D123">
-        <v>55739179.474247575</v>
+        <v>54173800.956723191</v>
       </c>
       <c r="E123">
-        <v>230385405.07068089</v>
+        <v>223650296.20335463</v>
       </c>
       <c r="F123">
-        <v>1071.495526872443</v>
+        <v>1044.159865735671</v>
       </c>
       <c r="G123">
-        <v>7.9090353153767268</v>
+        <v>7.6869180525499123</v>
       </c>
       <c r="H123">
-        <v>32.690224758210519</v>
+        <v>31.734555615122375</v>
       </c>
       <c r="I123" t="s">
         <v>36</v>
@@ -5185,16 +5185,16 @@
         <v>6223129</v>
       </c>
       <c r="C124">
-        <v>1843414567.4136672</v>
+        <v>1833263121.4793246</v>
       </c>
       <c r="E124">
-        <v>1905747031.9920785</v>
+        <v>1921185459.4316473</v>
       </c>
       <c r="F124">
-        <v>296.21988671834811</v>
+        <v>294.58864206082256</v>
       </c>
       <c r="H124">
-        <v>306.23614454916145</v>
+        <v>308.71695885327904</v>
       </c>
       <c r="I124" t="s">
         <v>39</v>
@@ -5220,7 +5220,7 @@
         <v>2129192</v>
       </c>
       <c r="C125">
-        <v>1281733581.6108696</v>
+        <v>1276588307.9487216</v>
       </c>
       <c r="D125">
         <v>6406281.7583488449</v>
@@ -5229,7 +5229,7 @@
         <v>29154087.539896362</v>
       </c>
       <c r="F125">
-        <v>601.98121240868352</v>
+        <v>599.5646742748994</v>
       </c>
       <c r="G125">
         <v>3.0087853788426995</v>
@@ -5261,16 +5261,16 @@
         <v>4998069</v>
       </c>
       <c r="C126">
-        <v>1241018137.3957965</v>
+        <v>1233946647.3362465</v>
       </c>
       <c r="E126">
-        <v>1281270512.7952902</v>
+        <v>1286747065.9737389</v>
       </c>
       <c r="F126">
-        <v>248.29952075407454</v>
+        <v>246.88467632924767</v>
       </c>
       <c r="H126">
-        <v>256.35310612864492</v>
+        <v>257.44883993673136</v>
       </c>
       <c r="I126" t="s">
         <v>17</v>
@@ -5296,22 +5296,22 @@
         <v>5936999</v>
       </c>
       <c r="C127">
-        <v>5892905107.2864771</v>
+        <v>5915755742.9743662</v>
       </c>
       <c r="D127">
-        <v>25184297.254889175</v>
+        <v>43129098.293857001</v>
       </c>
       <c r="E127">
-        <v>114610195.81958722</v>
+        <v>176567293.56752852</v>
       </c>
       <c r="F127">
-        <v>992.57303349494873</v>
+        <v>996.42188637295817</v>
       </c>
       <c r="G127">
-        <v>4.2419237825186045</v>
+        <v>7.2644611012831568</v>
       </c>
       <c r="H127">
-        <v>19.304398707088751</v>
+        <v>29.740158886253564</v>
       </c>
       <c r="I127" t="s">
         <v>32</v>
@@ -5337,22 +5337,22 @@
         <v>8834166</v>
       </c>
       <c r="C128">
-        <v>4441568294.0511465</v>
+        <v>4441839859.8258944</v>
       </c>
       <c r="D128">
-        <v>34125966.329832271</v>
+        <v>34180798.290247954</v>
       </c>
       <c r="E128">
-        <v>140485527.47999787</v>
+        <v>140702261.29432964</v>
       </c>
       <c r="F128">
-        <v>502.77165881319712</v>
+        <v>502.80239921073417</v>
       </c>
       <c r="G128">
-        <v>3.8629528050335789</v>
+        <v>3.86915961169939</v>
       </c>
       <c r="H128">
-        <v>15.902522941044788</v>
+        <v>15.927056531915932</v>
       </c>
       <c r="I128" t="s">
         <v>31</v>
@@ -5378,22 +5378,22 @@
         <v>4469578</v>
       </c>
       <c r="C129">
-        <v>3637631447.6132298</v>
+        <v>3674050333.9134855</v>
       </c>
       <c r="D129">
-        <v>27964930.213187464</v>
+        <v>27877709.124559883</v>
       </c>
       <c r="E129">
-        <v>115256955.25291699</v>
+        <v>114995718.50454322</v>
       </c>
       <c r="F129">
-        <v>813.86463053407499</v>
+        <v>822.01280163663898</v>
       </c>
       <c r="G129">
-        <v>6.2567271928552231</v>
+        <v>6.2372128027656935</v>
       </c>
       <c r="H129">
-        <v>25.786988224149347</v>
+        <v>25.728540480676973</v>
       </c>
       <c r="I129" t="s">
         <v>16</v>
@@ -5419,16 +5419,16 @@
         <v>2508390</v>
       </c>
       <c r="C130">
-        <v>713169229.26027143</v>
+        <v>708820392.61458814</v>
       </c>
       <c r="E130">
-        <v>844873728.21600008</v>
+        <v>860081455.32388806</v>
       </c>
       <c r="F130">
-        <v>284.31353547904092</v>
+        <v>282.57981917269171</v>
       </c>
       <c r="H130">
-        <v>336.81912629854213</v>
+        <v>342.8818705719159</v>
       </c>
       <c r="I130" t="s">
         <v>22</v>
@@ -5454,16 +5454,16 @@
         <v>1204962</v>
       </c>
       <c r="C131">
-        <v>358790513.70492238</v>
+        <v>364119959.31296021</v>
       </c>
       <c r="E131">
-        <v>440427844.26689935</v>
+        <v>432701039.98151523</v>
       </c>
       <c r="F131">
-        <v>297.76085362436521</v>
+        <v>302.18376954041719</v>
       </c>
       <c r="H131">
-        <v>365.51181221225181</v>
+        <v>359.09932427870359</v>
       </c>
       <c r="I131" t="s">
         <v>20</v>
@@ -5489,22 +5489,22 @@
         <v>11346108</v>
       </c>
       <c r="C132">
-        <v>7788202620.8274632</v>
+        <v>7853649701.6747551</v>
       </c>
       <c r="D132">
-        <v>56050797.670405671</v>
+        <v>58402579.390842259</v>
       </c>
       <c r="E132">
-        <v>234813482.32786351</v>
+        <v>242616951.52909166</v>
       </c>
       <c r="F132">
-        <v>686.42063171154928</v>
+        <v>692.18887231416761</v>
       </c>
       <c r="G132">
-        <v>4.9400902644682807</v>
+        <v>5.147366779061354</v>
       </c>
       <c r="H132">
-        <v>20.695509184987795</v>
+        <v>21.383275351256277</v>
       </c>
       <c r="I132" t="s">
         <v>20</v>
@@ -5530,16 +5530,16 @@
         <v>8797020</v>
       </c>
       <c r="C133">
-        <v>3609191986.6918497</v>
+        <v>3639778359.4604249</v>
       </c>
       <c r="E133">
-        <v>1943411069.7571497</v>
+        <v>1959880655.0940747</v>
       </c>
       <c r="F133">
-        <v>410.27438685962403</v>
+        <v>413.75128844318016</v>
       </c>
       <c r="H133">
-        <v>220.91697753979753</v>
+        <v>222.78915531555853</v>
       </c>
       <c r="I133" t="s">
         <v>10</v>
@@ -5565,19 +5565,19 @@
         <v>614883</v>
       </c>
       <c r="C134">
-        <v>369201738.19848979</v>
+        <v>376691121.97818947</v>
       </c>
       <c r="D134">
-        <v>2062427.0310402247</v>
+        <v>1928254.4594527727</v>
       </c>
       <c r="E134">
         <v>8754469.7376814894</v>
       </c>
       <c r="F134">
-        <v>600.44226006978533</v>
+        <v>612.62243707858158</v>
       </c>
       <c r="G134">
-        <v>3.3541779997824377</v>
+        <v>3.1359697039156598</v>
       </c>
       <c r="H134">
         <v>14.237618762726388</v>
@@ -5606,22 +5606,22 @@
         <v>4882435</v>
       </c>
       <c r="C135">
-        <v>4433109050.5893135</v>
+        <v>4397371877.0216417</v>
       </c>
       <c r="D135">
-        <v>33644884.484903082</v>
+        <v>33582946.943788856</v>
       </c>
       <c r="E135">
-        <v>138496843.01903117</v>
+        <v>138237831.4821268</v>
       </c>
       <c r="F135">
-        <v>907.97093060927864</v>
+        <v>900.65139157441763</v>
       </c>
       <c r="G135">
-        <v>6.8910050998944348</v>
+        <v>6.8783193107105083</v>
       </c>
       <c r="H135">
-        <v>28.366346509278905</v>
+        <v>28.31329684514526</v>
       </c>
       <c r="I135" t="s">
         <v>18</v>
@@ -5647,22 +5647,22 @@
         <v>4906656</v>
       </c>
       <c r="C136">
-        <v>5559986929.23419</v>
+        <v>5586395798.6434326</v>
       </c>
       <c r="D136">
-        <v>29133208.403960429</v>
+        <v>31089100.125504501</v>
       </c>
       <c r="E136">
-        <v>124572226.57159548</v>
+        <v>132529113.63733557</v>
       </c>
       <c r="F136">
-        <v>1133.151973407997</v>
+        <v>1138.5342275153248</v>
       </c>
       <c r="G136">
-        <v>5.9374874464320362</v>
+        <v>6.3361075497252113</v>
       </c>
       <c r="H136">
-        <v>25.388416585877525</v>
+        <v>27.010068290366302</v>
       </c>
       <c r="I136" t="s">
         <v>33</v>
@@ -5688,16 +5688,16 @@
         <v>5621453</v>
       </c>
       <c r="C137">
-        <v>1547003476.1866205</v>
+        <v>1588790946.7998848</v>
       </c>
       <c r="E137">
-        <v>1635360929.4872212</v>
+        <v>1638775476.355752</v>
       </c>
       <c r="F137">
-        <v>275.19637292824837</v>
+        <v>282.62994403757978</v>
       </c>
       <c r="H137">
-        <v>290.91427598651472</v>
+        <v>291.52168956242309</v>
       </c>
       <c r="I137" t="s">
         <v>14</v>
@@ -5723,16 +5723,16 @@
         <v>4776449</v>
       </c>
       <c r="C138">
-        <v>1259576602.51653</v>
+        <v>1243313550.7042024</v>
       </c>
       <c r="E138">
-        <v>1488684774.6615119</v>
+        <v>1503872262.091032</v>
       </c>
       <c r="F138">
-        <v>263.70565298960167</v>
+        <v>260.30081148237997</v>
       </c>
       <c r="H138">
-        <v>311.67186641404771</v>
+        <v>314.85152716820215</v>
       </c>
       <c r="I138" t="s">
         <v>10</v>
@@ -5758,13 +5758,13 @@
         <v>2383346</v>
       </c>
       <c r="C139">
-        <v>597688167.25391591</v>
+        <v>609564979.73095024</v>
       </c>
       <c r="E139">
         <v>729864243.80104792</v>
       </c>
       <c r="F139">
-        <v>250.77691919424032</v>
+        <v>255.76017067221889</v>
       </c>
       <c r="H139">
         <v>306.23511810750426</v>
@@ -5793,22 +5793,22 @@
         <v>14585886</v>
       </c>
       <c r="C140">
-        <v>15465899458.48793</v>
+        <v>15375282123.686726</v>
       </c>
       <c r="D140">
-        <v>121500646.34761365</v>
+        <v>119873537.1069815</v>
       </c>
       <c r="E140">
-        <v>499628365.92020702</v>
+        <v>492954302.33283305</v>
       </c>
       <c r="F140">
-        <v>1060.3332192838975</v>
+        <v>1054.1205466494614</v>
       </c>
       <c r="G140">
-        <v>8.3300148066160418</v>
+        <v>8.2184611279000457</v>
       </c>
       <c r="H140">
-        <v>34.254234944672334</v>
+        <v>33.796664963159117</v>
       </c>
       <c r="I140" t="s">
         <v>18</v>
@@ -5878,19 +5878,19 @@
         <v>1297910902.9305837</v>
       </c>
       <c r="D142">
-        <v>12710766.072019972</v>
+        <v>4904897.4912966974</v>
       </c>
       <c r="E142">
-        <v>51448338.862937987</v>
+        <v>22321498.839654256</v>
       </c>
       <c r="F142">
         <v>1146.6667104844016</v>
       </c>
       <c r="G142">
-        <v>11.229593870142098</v>
+        <v>4.3333349453411456</v>
       </c>
       <c r="H142">
-        <v>45.453118045813262</v>
+        <v>19.720398056411618</v>
       </c>
       <c r="I142" t="s">
         <v>18</v>
@@ -5916,16 +5916,16 @@
         <v>3041196</v>
       </c>
       <c r="C143">
-        <v>403843733.77278</v>
+        <v>407237378.59439993</v>
       </c>
       <c r="E143">
-        <v>1615374935.09112</v>
+        <v>1628949514.3775997</v>
       </c>
       <c r="F143">
-        <v>132.79109066721776</v>
+        <v>133.90698218542965</v>
       </c>
       <c r="H143">
-        <v>531.16436266887104</v>
+        <v>535.62792874171862</v>
       </c>
       <c r="I143" t="s">
         <v>39</v>
@@ -5951,16 +5951,16 @@
         <v>6130440</v>
       </c>
       <c r="C144">
-        <v>855831086.03495991</v>
+        <v>848639228.16912007</v>
       </c>
       <c r="E144">
-        <v>3423324344.1398396</v>
+        <v>3394556912.6764803</v>
       </c>
       <c r="F144">
-        <v>139.60353352042591</v>
+        <v>138.43039458327951</v>
       </c>
       <c r="H144">
-        <v>558.41413408170365</v>
+        <v>553.72157833311803</v>
       </c>
       <c r="I144" t="s">
         <v>11</v>
@@ -5986,22 +5986,22 @@
         <v>9975515</v>
       </c>
       <c r="C145">
-        <v>47858208755.163857</v>
+        <v>48147114197.867523</v>
       </c>
       <c r="D145">
-        <v>345670383.061396</v>
+        <v>350843375.13328421</v>
       </c>
       <c r="E145">
-        <v>1423695292.4434533</v>
+        <v>1455087475.3049111</v>
       </c>
       <c r="F145">
-        <v>4797.5677200789987</v>
+        <v>4826.529176475352</v>
       </c>
       <c r="G145">
-        <v>34.651883442749167</v>
+        <v>35.170452365946439</v>
       </c>
       <c r="H145">
-        <v>142.71897665869415</v>
+        <v>145.86590018709921</v>
       </c>
       <c r="I145" t="s">
         <v>11</v>
@@ -6027,22 +6027,22 @@
         <v>2161126</v>
       </c>
       <c r="C146">
-        <v>4194674790.1593776</v>
+        <v>4167742416.3788638</v>
       </c>
       <c r="D146">
-        <v>21973361.363124922</v>
+        <v>22658140.091985397</v>
       </c>
       <c r="E146">
-        <v>92719397.05231674</v>
+        <v>94809615.611462891</v>
       </c>
       <c r="F146">
-        <v>1940.9672504793232</v>
+        <v>1928.5050554104037</v>
       </c>
       <c r="G146">
-        <v>10.167552175636645</v>
+        <v>10.484414185931499</v>
       </c>
       <c r="H146">
-        <v>42.903281461755</v>
+        <v>43.870471046788985</v>
       </c>
       <c r="I146" t="s">
         <v>11</v>
@@ -6068,16 +6068,16 @@
         <v>7465222</v>
       </c>
       <c r="C147">
-        <v>2182619014.8697524</v>
+        <v>2213533357.0457726</v>
       </c>
       <c r="E147">
-        <v>2278898502.3777261</v>
+        <v>2345090589.3738165</v>
       </c>
       <c r="F147">
-        <v>292.37161532098474</v>
+        <v>296.51273023706096</v>
       </c>
       <c r="H147">
-        <v>305.26868489346009</v>
+        <v>314.13541209810188</v>
       </c>
       <c r="I147" t="s">
         <v>27</v>
@@ -6103,22 +6103,22 @@
         <v>6659324</v>
       </c>
       <c r="C148">
-        <v>4594415093.7169447</v>
+        <v>4589233114.4880447</v>
       </c>
       <c r="D148">
-        <v>33323009.718417071</v>
+        <v>32446088.410037681</v>
       </c>
       <c r="E148">
-        <v>137257746.66294792</v>
+        <v>133787048.26308471</v>
       </c>
       <c r="F148">
-        <v>689.92214430728177</v>
+        <v>689.14399036419388</v>
       </c>
       <c r="G148">
-        <v>5.0039628224151684</v>
+        <v>4.8722795902463494</v>
       </c>
       <c r="H148">
-        <v>20.61136335504143</v>
+        <v>20.090184568746725</v>
       </c>
       <c r="I148" t="s">
         <v>37</v>
@@ -6144,16 +6144,16 @@
         <v>3211787</v>
       </c>
       <c r="C149">
-        <v>1283840145.7645721</v>
+        <v>1289257192.7931147</v>
       </c>
       <c r="E149">
-        <v>691298540.02707744</v>
+        <v>694215411.50398481</v>
       </c>
       <c r="F149">
-        <v>399.7276736485241</v>
+        <v>401.41428830526888</v>
       </c>
       <c r="H149">
-        <v>215.23797811843605</v>
+        <v>216.14615524129863</v>
       </c>
       <c r="I149" t="s">
         <v>11</v>
@@ -6179,22 +6179,22 @@
         <v>8727176</v>
       </c>
       <c r="C150">
-        <v>5758919829.6620302</v>
+        <v>5688060569.4572525</v>
       </c>
       <c r="D150">
-        <v>41942351.76275903</v>
+        <v>40960259.65823549</v>
       </c>
       <c r="E150">
-        <v>174328947.97933847</v>
+        <v>171008076.12015164</v>
       </c>
       <c r="F150">
-        <v>659.88354419138909</v>
+        <v>651.76416396979414</v>
       </c>
       <c r="G150">
-        <v>4.8059477387369096</v>
+        <v>4.6934151045235586</v>
       </c>
       <c r="H150">
-        <v>19.975413350130495</v>
+        <v>19.594892565493311</v>
       </c>
       <c r="I150" t="s">
         <v>11</v>
@@ -6220,16 +6220,16 @@
         <v>3197035</v>
       </c>
       <c r="C151">
-        <v>1359641462.5962884</v>
+        <v>1363505354.3016047</v>
       </c>
       <c r="E151">
-        <v>732114633.70569372</v>
+        <v>734195190.77778697</v>
       </c>
       <c r="F151">
-        <v>425.28200742134146</v>
+        <v>426.49059340970769</v>
       </c>
       <c r="H151">
-        <v>228.99800399610692</v>
+        <v>229.64878106676559</v>
       </c>
       <c r="I151" t="s">
         <v>11</v>
@@ -6258,19 +6258,19 @@
         <v>17413431291.66853</v>
       </c>
       <c r="D152">
-        <v>105244083.06187753</v>
+        <v>66111936.970068865</v>
       </c>
       <c r="E152">
-        <v>425987955.25045669</v>
+        <v>300866129.61498511</v>
       </c>
       <c r="F152">
         <v>8025.9986005289984</v>
       </c>
       <c r="G152">
-        <v>48.507893086684689</v>
+        <v>30.471554095941269</v>
       </c>
       <c r="H152">
-        <v>196.34147201753328</v>
+        <v>138.6717582991117</v>
       </c>
       <c r="I152" t="s">
         <v>11</v>
@@ -6296,13 +6296,13 @@
         <v>5753937</v>
       </c>
       <c r="C153">
-        <v>2221832284.8862944</v>
+        <v>2225225339.0593557</v>
       </c>
       <c r="E153">
         <v>1461146702.2503119</v>
       </c>
       <c r="F153">
-        <v>386.14122554457833</v>
+        <v>386.73091816253043</v>
       </c>
       <c r="H153">
         <v>253.93859930171496</v>
@@ -6331,16 +6331,16 @@
         <v>6488120</v>
       </c>
       <c r="C154">
-        <v>2595876318.0052948</v>
+        <v>2617875269.8527975</v>
       </c>
       <c r="E154">
-        <v>1397779555.8490047</v>
+        <v>1409625145.3053522</v>
       </c>
       <c r="F154">
-        <v>400.09684130461443</v>
+        <v>403.48749250211119</v>
       </c>
       <c r="H154">
-        <v>215.43676070248466</v>
+        <v>217.26249596267519</v>
       </c>
       <c r="I154" t="s">
         <v>11</v>
@@ -6366,7 +6366,7 @@
         <v>5178428</v>
       </c>
       <c r="C155">
-        <v>5120972844.5927715</v>
+        <v>5101595982.7197008</v>
       </c>
       <c r="D155">
         <v>39558603.367581405</v>
@@ -6375,7 +6375,7 @@
         <v>161087523.96954632</v>
       </c>
       <c r="F155">
-        <v>988.90490407374045</v>
+        <v>985.16306159315161</v>
       </c>
       <c r="G155">
         <v>7.6391142963813348</v>
@@ -6407,22 +6407,22 @@
         <v>3910602</v>
       </c>
       <c r="C156">
-        <v>6266396207.400281</v>
+        <v>6297228777.4161034</v>
       </c>
       <c r="D156">
-        <v>46336434.255628958</v>
+        <v>46979272.394413471</v>
       </c>
       <c r="E156">
-        <v>190899746.67260337</v>
+        <v>193460315.09218019</v>
       </c>
       <c r="F156">
-        <v>1602.4121624753122</v>
+        <v>1610.2965163461031</v>
       </c>
       <c r="G156">
-        <v>11.848926138642838</v>
+        <v>12.013309560628638</v>
       </c>
       <c r="H156">
-        <v>48.815948713932883</v>
+        <v>49.470724735521586</v>
       </c>
       <c r="I156" t="s">
         <v>12</v>
@@ -6448,22 +6448,22 @@
         <v>7463219</v>
       </c>
       <c r="C157">
-        <v>7594150668.6504307</v>
+        <v>7643875094.512022</v>
       </c>
       <c r="D157">
-        <v>50368721.813978031</v>
+        <v>49667105.771455973</v>
       </c>
       <c r="E157">
-        <v>211145068.29772514</v>
+        <v>207927281.2141968</v>
       </c>
       <c r="F157">
-        <v>1017.5435919340476</v>
+        <v>1024.2061896498044</v>
       </c>
       <c r="G157">
-        <v>6.7489272141120376</v>
+        <v>6.6549173716403036</v>
       </c>
       <c r="H157">
-        <v>28.291420672195894</v>
+        <v>27.86026796402421</v>
       </c>
       <c r="I157" t="s">
         <v>36</v>
@@ -6489,22 +6489,22 @@
         <v>2584028</v>
       </c>
       <c r="C158">
-        <v>2230798854.4006977</v>
+        <v>2248325653.7670574</v>
       </c>
       <c r="D158">
-        <v>16933863.331384726</v>
+        <v>17257670.16314397</v>
       </c>
       <c r="E158">
-        <v>69616049.37365298</v>
+        <v>70948052.89422451</v>
       </c>
       <c r="F158">
-        <v>863.30289547973064</v>
+        <v>870.08563907475377</v>
       </c>
       <c r="G158">
-        <v>6.5532816716323214</v>
+        <v>6.6785925551673486</v>
       </c>
       <c r="H158">
-        <v>26.940903648742577</v>
+        <v>27.456379301704359</v>
       </c>
       <c r="I158" t="s">
         <v>21</v>
@@ -6530,16 +6530,16 @@
         <v>5184267</v>
       </c>
       <c r="C159">
-        <v>1624357398.8061433</v>
+        <v>1639174926.0653601</v>
       </c>
       <c r="E159">
-        <v>1705043618.7380238</v>
+        <v>1688533890.6916537</v>
       </c>
       <c r="F159">
-        <v>313.32440995152126</v>
+        <v>316.18258204397267</v>
       </c>
       <c r="H159">
-        <v>328.88807978794762</v>
+        <v>325.70349688618541</v>
       </c>
       <c r="I159" t="s">
         <v>39</v>
@@ -6565,22 +6565,22 @@
         <v>4104611</v>
       </c>
       <c r="C160">
-        <v>23798341929.916965</v>
+        <v>24428103067.338165</v>
       </c>
       <c r="D160">
-        <v>143833494.55115643</v>
+        <v>90352926.73280248</v>
       </c>
       <c r="E160">
-        <v>582183192.23087132</v>
+        <v>411183465.6696232</v>
       </c>
       <c r="F160">
-        <v>5797.9530654468754</v>
+        <v>5951.3807928054975</v>
       </c>
       <c r="G160">
-        <v>35.041930782516644</v>
+        <v>22.012543145453364</v>
       </c>
       <c r="H160">
-        <v>141.83638650066263</v>
+        <v>100.17598882564589</v>
       </c>
       <c r="I160" t="s">
         <v>11</v>
@@ -6606,22 +6606,22 @@
         <v>5491581</v>
       </c>
       <c r="C161">
-        <v>5373241634.1375351</v>
+        <v>5367892930.3918695</v>
       </c>
       <c r="D161">
-        <v>43104888.69022195</v>
+        <v>42830765.526011869</v>
       </c>
       <c r="E161">
-        <v>177373090.49888027</v>
+        <v>175993202.97852373</v>
       </c>
       <c r="F161">
-        <v>978.45076566066041</v>
+        <v>977.47678316897623</v>
       </c>
       <c r="G161">
-        <v>7.8492675770824381</v>
+        <v>7.7993505924818125</v>
       </c>
       <c r="H161">
-        <v>32.2990939219289</v>
+        <v>32.047820651015385</v>
       </c>
       <c r="I161" t="s">
         <v>18</v>
@@ -6647,16 +6647,16 @@
         <v>1299004</v>
       </c>
       <c r="C162">
-        <v>342547665.49584371</v>
+        <v>341691256.278952</v>
       </c>
       <c r="E162">
-        <v>418300556.27774405</v>
+        <v>413414071.71537691</v>
       </c>
       <c r="F162">
-        <v>263.7002391800516</v>
+        <v>263.04095774836105</v>
       </c>
       <c r="H162">
-        <v>322.01637275770054</v>
+        <v>318.25465642552058</v>
       </c>
       <c r="I162" t="s">
         <v>27</v>
@@ -6682,22 +6682,22 @@
         <v>3250811</v>
       </c>
       <c r="C163">
-        <v>2565923734.7966933</v>
+        <v>2546342624.8850136</v>
       </c>
       <c r="D163">
-        <v>21244663.653301686</v>
+        <v>22248987.903373286</v>
       </c>
       <c r="E163">
-        <v>85990305.263363957</v>
+        <v>90055427.227939516</v>
       </c>
       <c r="F163">
-        <v>789.3180301151599</v>
+        <v>783.29457630265597</v>
       </c>
       <c r="G163">
-        <v>6.5351888046711064</v>
+        <v>6.8441345569992498</v>
       </c>
       <c r="H163">
-        <v>26.451954685573526</v>
+        <v>27.702449397377919</v>
       </c>
       <c r="I163" t="s">
         <v>21</v>
@@ -6723,22 +6723,22 @@
         <v>4583206</v>
       </c>
       <c r="C164">
-        <v>28374558874.69672</v>
+        <v>26847621917.076107</v>
       </c>
       <c r="D164">
-        <v>92080952.164099827</v>
+        <v>328942263.98237544</v>
       </c>
       <c r="E164">
-        <v>419047466.44192058</v>
+        <v>1331432973.2619958</v>
       </c>
       <c r="F164">
-        <v>6190.9848422036275</v>
+        <v>5857.8257047743673</v>
       </c>
       <c r="G164">
-        <v>20.090947726133155</v>
+        <v>71.771215167368752</v>
       </c>
       <c r="H164">
-        <v>91.431078254374896</v>
+        <v>290.5025375822068</v>
       </c>
       <c r="I164" t="s">
         <v>11</v>
@@ -6764,22 +6764,22 @@
         <v>12498933</v>
       </c>
       <c r="C165">
-        <v>20128264732.386749</v>
+        <v>20286267706.761059</v>
       </c>
       <c r="D165">
-        <v>154175092.57140726</v>
+        <v>155636154.3267532</v>
       </c>
       <c r="E165">
-        <v>633389292.15857255</v>
+        <v>639904542.1505425</v>
       </c>
       <c r="F165">
-        <v>1610.3986422190401</v>
+        <v>1623.0399592318049</v>
       </c>
       <c r="G165">
-        <v>12.335060326462045</v>
+        <v>12.451955245039974</v>
       </c>
       <c r="H165">
-        <v>50.675469030722269</v>
+        <v>51.19673352521712</v>
       </c>
       <c r="I165" t="s">
         <v>30</v>
@@ -6805,22 +6805,22 @@
         <v>13439341</v>
       </c>
       <c r="C166">
-        <v>7236779037.8288441</v>
+        <v>7294394605.404459</v>
       </c>
       <c r="D166">
-        <v>62557824.887452751</v>
+        <v>64170866.144436345</v>
       </c>
       <c r="E166">
-        <v>257739371.9063378</v>
+        <v>265364523.78884485</v>
       </c>
       <c r="F166">
-        <v>538.47722427973542</v>
+        <v>542.76430707461463</v>
       </c>
       <c r="G166">
-        <v>4.654828305007868</v>
+        <v>4.7748521407735947</v>
       </c>
       <c r="H166">
-        <v>19.177976948894873</v>
+        <v>19.745352379171337</v>
       </c>
       <c r="I166" t="s">
         <v>38</v>
@@ -6846,22 +6846,22 @@
         <v>14171621</v>
       </c>
       <c r="C167">
-        <v>14128766307.208721</v>
+        <v>14228116254.168392</v>
       </c>
       <c r="D167">
-        <v>104007019.64805833</v>
+        <v>104634379.60963249</v>
       </c>
       <c r="E167">
-        <v>431316822.49599576</v>
+        <v>433961538.70823324</v>
       </c>
       <c r="F167">
-        <v>996.97602040082211</v>
+        <v>1003.9865061426913</v>
       </c>
       <c r="G167">
-        <v>7.3391053604988672</v>
+        <v>7.3833741115171296</v>
       </c>
       <c r="H167">
-        <v>30.435249608777692</v>
+        <v>30.621870194541135</v>
       </c>
       <c r="I167" t="s">
         <v>32</v>
@@ -6922,16 +6922,16 @@
         <v>1138255</v>
       </c>
       <c r="C169">
-        <v>508789638.45923316</v>
+        <v>506467865.77339196</v>
       </c>
       <c r="E169">
-        <v>273963651.47804856</v>
+        <v>272713466.18567264</v>
       </c>
       <c r="F169">
-        <v>446.99091017323281</v>
+        <v>444.95114519452318</v>
       </c>
       <c r="H169">
-        <v>240.68741317020226</v>
+        <v>239.58907818166631</v>
       </c>
       <c r="I169" t="s">
         <v>41</v>
@@ -6957,22 +6957,22 @@
         <v>1940463</v>
       </c>
       <c r="C170">
-        <v>2092364451.1405792</v>
+        <v>2086513480.8844438</v>
       </c>
       <c r="D170">
-        <v>11497085.167694151</v>
+        <v>11928525.586533379</v>
       </c>
       <c r="E170">
-        <v>49044984.785232663</v>
+        <v>50496634.298557207</v>
       </c>
       <c r="F170">
-        <v>1078.281034547208</v>
+        <v>1075.2657901152684</v>
       </c>
       <c r="G170">
-        <v>5.9249185208345381</v>
+        <v>6.1472574259511141</v>
       </c>
       <c r="H170">
-        <v>25.274887892854778</v>
+        <v>26.022982297810991</v>
       </c>
       <c r="I170" t="s">
         <v>33</v>
@@ -6998,16 +6998,16 @@
         <v>166824</v>
       </c>
       <c r="C171">
-        <v>151206637.26162431</v>
+        <v>154239444.48672545</v>
       </c>
       <c r="E171">
-        <v>165423458.6363861</v>
+        <v>165071847.8273479</v>
       </c>
       <c r="F171">
-        <v>906.38419688788372</v>
+        <v>924.56387861893643</v>
       </c>
       <c r="H171">
-        <v>991.60467700322556</v>
+        <v>989.49700179439355</v>
       </c>
       <c r="I171" t="s">
         <v>37</v>
@@ -7138,16 +7138,16 @@
         <v>334348.61</v>
       </c>
       <c r="C175">
-        <v>313495469.9616763</v>
+        <v>322296186.87099785</v>
       </c>
       <c r="E175">
-        <v>384854320.33881098</v>
+        <v>382105504.96932352</v>
       </c>
       <c r="F175">
-        <v>937.63054663716503</v>
+        <v>963.95252509348813</v>
       </c>
       <c r="H175">
-        <v>1151.0570369615443</v>
+        <v>1142.8356318553965</v>
       </c>
       <c r="I175" t="s">
         <v>36</v>
@@ -7208,7 +7208,7 @@
         <v>11106837</v>
       </c>
       <c r="C177">
-        <v>10118792177.60397</v>
+        <v>10294907113.513134</v>
       </c>
       <c r="D177">
         <v>80574980.582651153</v>
@@ -7217,7 +7217,7 @@
         <v>327048154.15856636</v>
       </c>
       <c r="F177">
-        <v>911.04174641294992</v>
+        <v>926.89819014298439</v>
       </c>
       <c r="G177">
         <v>7.2545388559003028</v>
@@ -7249,16 +7249,16 @@
         <v>254563</v>
       </c>
       <c r="C178">
-        <v>34959971.70967634</v>
+        <v>34954931.49767372</v>
       </c>
       <c r="E178">
-        <v>139839886.83870536</v>
+        <v>139819725.99069488</v>
       </c>
       <c r="F178">
-        <v>137.33327981551261</v>
+        <v>137.31348034739423</v>
       </c>
       <c r="H178">
-        <v>549.33311926205045</v>
+        <v>549.25392138957693</v>
       </c>
       <c r="I178" t="s">
         <v>42</v>

--- a/r_map/data_boot_cq_remov_Se.xlsx
+++ b/r_map/data_boot_cq_remov_Se.xlsx
@@ -603,16 +603,16 @@
         <v>2207648</v>
       </c>
       <c r="C2">
-        <v>490910117.42970014</v>
+        <v>492644782.15560001</v>
       </c>
       <c r="E2">
-        <v>1963640469.7188005</v>
+        <v>1970579128.6224</v>
       </c>
       <c r="F2">
-        <v>222.36793067993636</v>
+        <v>223.15368308516577</v>
       </c>
       <c r="H2">
-        <v>889.47172271974546</v>
+        <v>892.61473234066307</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -638,16 +638,16 @@
         <v>505392</v>
       </c>
       <c r="C3">
-        <v>76767180.452840433</v>
+        <v>76587962.847872987</v>
       </c>
       <c r="E3">
-        <v>307068721.81136173</v>
+        <v>306351851.39149195</v>
       </c>
       <c r="F3">
-        <v>151.89631108691952</v>
+        <v>151.54170000291455</v>
       </c>
       <c r="H3">
-        <v>607.5852443476781</v>
+        <v>606.16680001165821</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -673,16 +673,16 @@
         <v>2726384</v>
       </c>
       <c r="C4">
-        <v>4423360933.7657232</v>
+        <v>4459555624.5093441</v>
       </c>
       <c r="E4">
-        <v>4529943258.1550884</v>
+        <v>4562269716.9346352</v>
       </c>
       <c r="F4">
-        <v>1622.4277041552928</v>
+        <v>1635.7034168735381</v>
       </c>
       <c r="H4">
-        <v>1661.5206288457855</v>
+        <v>1673.3775274996608</v>
       </c>
       <c r="I4" t="s">
         <v>9</v>
@@ -743,16 +743,16 @@
         <v>324142</v>
       </c>
       <c r="C6">
-        <v>102574384.64532</v>
+        <v>99277230.248346344</v>
       </c>
       <c r="E6">
-        <v>122468749.86480118</v>
+        <v>121231947.613728</v>
       </c>
       <c r="F6">
-        <v>316.44891635554785</v>
+        <v>306.27697197014379</v>
       </c>
       <c r="H6">
-        <v>377.82437902154362</v>
+        <v>374.00876040046649</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -781,19 +781,19 @@
         <v>1369174496.7351048</v>
       </c>
       <c r="D7">
-        <v>6840550.2583440142</v>
+        <v>8065954.9531494062</v>
       </c>
       <c r="E7">
-        <v>30246801.746016469</v>
+        <v>32647912.905604739</v>
       </c>
       <c r="F7">
         <v>657.64453810807186</v>
       </c>
       <c r="G7">
-        <v>3.2856663089920657</v>
+        <v>3.8742550582219377</v>
       </c>
       <c r="H7">
-        <v>14.528202220344069</v>
+        <v>15.681508568993557</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -819,22 +819,22 @@
         <v>8921964</v>
       </c>
       <c r="C8">
-        <v>8553120586.6916494</v>
+        <v>8499038950.1452618</v>
       </c>
       <c r="D8">
-        <v>65507913.813922986</v>
+        <v>65476342.476589859</v>
       </c>
       <c r="E8">
-        <v>269353514.73160112</v>
+        <v>269587908.9216494</v>
       </c>
       <c r="F8">
-        <v>958.65894400511479</v>
+        <v>952.5973149124186</v>
       </c>
       <c r="G8">
-        <v>7.3423198988387526</v>
+        <v>7.3387812903739418</v>
       </c>
       <c r="H8">
-        <v>30.1899351680416</v>
+        <v>30.216206759145116</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -860,22 +860,22 @@
         <v>7744214</v>
       </c>
       <c r="C9">
-        <v>6516651700.2914934</v>
+        <v>6557043840.5710745</v>
       </c>
       <c r="D9">
-        <v>48664113.870593809</v>
+        <v>48997350.703442894</v>
       </c>
       <c r="E9">
-        <v>199098070.13153887</v>
+        <v>201254349.35378546</v>
       </c>
       <c r="F9">
-        <v>841.48652145866492</v>
+        <v>846.70230452968826</v>
       </c>
       <c r="G9">
-        <v>6.2839319614093583</v>
+        <v>6.3269623881058674</v>
       </c>
       <c r="H9">
-        <v>25.70926760695648</v>
+        <v>25.98770506003391</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -901,16 +901,16 @@
         <v>2014725</v>
       </c>
       <c r="C10">
-        <v>625638653.4685359</v>
+        <v>647183471.12136006</v>
       </c>
       <c r="E10">
-        <v>752370759.97707248</v>
+        <v>755966223.70552433</v>
       </c>
       <c r="F10">
-        <v>310.53302732061991</v>
+        <v>321.22670395282734</v>
       </c>
       <c r="H10">
-        <v>373.43595774960477</v>
+        <v>375.22055054934265</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
@@ -936,22 +936,22 @@
         <v>9164672</v>
       </c>
       <c r="C11">
-        <v>24954190194.522331</v>
+        <v>24702775513.714012</v>
       </c>
       <c r="D11">
-        <v>182331951.43614596</v>
+        <v>179925803.50620741</v>
       </c>
       <c r="E11">
-        <v>748519904.43590283</v>
+        <v>740490806.66135693</v>
       </c>
       <c r="F11">
-        <v>2722.86778997899</v>
+        <v>2695.4347644644581</v>
       </c>
       <c r="G11">
-        <v>19.895087509530725</v>
+        <v>19.632541514437989</v>
       </c>
       <c r="H11">
-        <v>81.674489216406528</v>
+        <v>80.79839700333595</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -1012,22 +1012,22 @@
         <v>3900879</v>
       </c>
       <c r="C13">
-        <v>3813055138.4795742</v>
+        <v>3797160718.2453065</v>
       </c>
       <c r="D13">
-        <v>28357744.937221546</v>
+        <v>28274300.230864909</v>
       </c>
       <c r="E13">
-        <v>116792194.90212587</v>
+        <v>116400545.13005698</v>
       </c>
       <c r="F13">
-        <v>977.4861354273163</v>
+        <v>973.41156140585406</v>
       </c>
       <c r="G13">
-        <v>7.2695781994831279</v>
+        <v>7.2481869421904417</v>
       </c>
       <c r="H13">
-        <v>29.939968633255702</v>
+        <v>29.839568243479732</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
@@ -1053,16 +1053,16 @@
         <v>9744872</v>
       </c>
       <c r="C14">
-        <v>9104450429.3694973</v>
+        <v>9077808627.563755</v>
       </c>
       <c r="E14">
-        <v>1653998911.1303265</v>
+        <v>1664817884.1066992</v>
       </c>
       <c r="F14">
-        <v>934.28117161205375</v>
+        <v>931.5472412119683</v>
       </c>
       <c r="H14">
-        <v>169.73018333440672</v>
+        <v>170.84040550832265</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
@@ -1088,7 +1088,7 @@
         <v>2258981</v>
       </c>
       <c r="C15">
-        <v>2583443155.060873</v>
+        <v>2585595433.9890342</v>
       </c>
       <c r="D15">
         <v>15250532.198895689</v>
@@ -1097,7 +1097,7 @@
         <v>64636019.946835436</v>
       </c>
       <c r="F15">
-        <v>1143.6320867952732</v>
+        <v>1144.5848521917776</v>
       </c>
       <c r="G15">
         <v>6.7510670514252613</v>
@@ -1129,22 +1129,22 @@
         <v>12851943</v>
       </c>
       <c r="C16">
-        <v>14442260879.925476</v>
+        <v>14512001877.897949</v>
       </c>
       <c r="D16">
-        <v>109064468.50220841</v>
+        <v>108755508.61539361</v>
       </c>
       <c r="E16">
-        <v>448685525.04147983</v>
+        <v>448334575.97280437</v>
       </c>
       <c r="F16">
-        <v>1123.7414358222313</v>
+        <v>1129.1679303197927</v>
       </c>
       <c r="G16">
-        <v>8.4862241065190229</v>
+        <v>8.4621841705486567</v>
       </c>
       <c r="H16">
-        <v>34.911882587829709</v>
+        <v>34.884575505260514</v>
       </c>
       <c r="I16" t="s">
         <v>16</v>
@@ -1170,22 +1170,22 @@
         <v>1157290</v>
       </c>
       <c r="C17">
-        <v>1456039060.1451976</v>
+        <v>1458195517.9651551</v>
       </c>
       <c r="D17">
-        <v>10864200.529604288</v>
+        <v>10645037.458221365</v>
       </c>
       <c r="E17">
-        <v>44074115.523384728</v>
+        <v>43162847.809520528</v>
       </c>
       <c r="F17">
-        <v>1258.1453742322128</v>
+        <v>1260.0087428087645</v>
       </c>
       <c r="G17">
-        <v>9.3876215379069095</v>
+        <v>9.1982454339200768</v>
       </c>
       <c r="H17">
-        <v>38.083899042923321</v>
+        <v>37.296483862748772</v>
       </c>
       <c r="I17" t="s">
         <v>16</v>
@@ -1211,16 +1211,16 @@
         <v>2981276</v>
       </c>
       <c r="C18">
-        <v>943424888.21388412</v>
+        <v>932603732.36052966</v>
       </c>
       <c r="E18">
-        <v>974119115.26747203</v>
+        <v>963281786.77429068</v>
       </c>
       <c r="F18">
-        <v>316.4500328764878</v>
+        <v>312.82032671934087</v>
       </c>
       <c r="H18">
-        <v>326.74570058842994</v>
+        <v>323.11056969374545</v>
       </c>
       <c r="I18" t="s">
         <v>17</v>
@@ -1246,16 +1246,16 @@
         <v>1265697</v>
       </c>
       <c r="C19">
-        <v>357946221.70092297</v>
+        <v>370022639.64501476</v>
       </c>
       <c r="E19">
-        <v>428587857.09523201</v>
+        <v>413970802.5679068</v>
       </c>
       <c r="F19">
-        <v>282.80561753794387</v>
+        <v>292.34693583457556</v>
       </c>
       <c r="H19">
-        <v>338.6180555814164</v>
+        <v>327.06943491839422</v>
       </c>
       <c r="I19" t="s">
         <v>17</v>
@@ -1281,16 +1281,16 @@
         <v>1796131</v>
       </c>
       <c r="C20">
-        <v>352281488.40122998</v>
+        <v>355162217.75474334</v>
       </c>
       <c r="E20">
-        <v>886843881.09065855</v>
+        <v>863395092.96024001</v>
       </c>
       <c r="F20">
-        <v>196.13351609722787</v>
+        <v>197.73736868566007</v>
       </c>
       <c r="H20">
-        <v>493.75233827079347</v>
+        <v>480.69717240014234</v>
       </c>
       <c r="I20" t="s">
         <v>17</v>
@@ -1316,16 +1316,16 @@
         <v>2372033</v>
       </c>
       <c r="C21">
-        <v>585641573.86400998</v>
+        <v>565399583.82745099</v>
       </c>
       <c r="E21">
-        <v>684079969.27337408</v>
+        <v>692165679.06890392</v>
       </c>
       <c r="F21">
-        <v>246.89436186765107</v>
+        <v>238.36075797741896</v>
       </c>
       <c r="H21">
-        <v>288.39395121120748</v>
+        <v>291.80271904686987</v>
       </c>
       <c r="I21" t="s">
         <v>17</v>
@@ -1351,16 +1351,16 @@
         <v>4881045</v>
       </c>
       <c r="C22">
-        <v>1290662216.9325542</v>
+        <v>1289598802.7391911</v>
       </c>
       <c r="E22">
-        <v>1319731329.4980047</v>
+        <v>1315194563.3684814</v>
       </c>
       <c r="F22">
-        <v>264.42333904574826</v>
+        <v>264.20547295490849</v>
       </c>
       <c r="H22">
-        <v>270.37884909850345</v>
+        <v>269.44938294330035</v>
       </c>
       <c r="I22" t="s">
         <v>17</v>
@@ -1386,16 +1386,16 @@
         <v>2219933</v>
       </c>
       <c r="C23">
-        <v>648784799.70104837</v>
+        <v>641039980.95323944</v>
       </c>
       <c r="E23">
-        <v>682788242.63682842</v>
+        <v>698196940.31019628</v>
       </c>
       <c r="F23">
-        <v>292.2542255559282</v>
+        <v>288.76546317084319</v>
       </c>
       <c r="H23">
-        <v>307.57155402294956</v>
+        <v>314.51261831334381</v>
       </c>
       <c r="I23" t="s">
         <v>17</v>
@@ -1424,19 +1424,19 @@
         <v>1008143708.5072434</v>
       </c>
       <c r="D24">
-        <v>7752937.0817181524</v>
+        <v>7740435.4703611424</v>
       </c>
       <c r="E24">
-        <v>31592316.076266751</v>
+        <v>31475603.765070863</v>
       </c>
       <c r="F24">
         <v>954.38600784344567</v>
       </c>
       <c r="G24">
-        <v>7.3395237286542452</v>
+        <v>7.3276887463457268</v>
       </c>
       <c r="H24">
-        <v>29.907704788637183</v>
+        <v>29.797215980535253</v>
       </c>
       <c r="I24" t="s">
         <v>17</v>
@@ -1462,22 +1462,22 @@
         <v>1066912</v>
       </c>
       <c r="C25">
-        <v>1706690005.9071536</v>
+        <v>1703226746.9786367</v>
       </c>
       <c r="D25">
-        <v>10865271.327118548</v>
+        <v>10934659.133907799</v>
       </c>
       <c r="E25">
-        <v>49446322.120115995</v>
+        <v>49762096.272680998</v>
       </c>
       <c r="F25">
-        <v>1599.653960127127</v>
+        <v>1596.4079014751326</v>
       </c>
       <c r="G25">
-        <v>10.183849583769371</v>
+        <v>10.248885694328866</v>
       </c>
       <c r="H25">
-        <v>46.345267576066249</v>
+        <v>46.641237770951108</v>
       </c>
       <c r="I25" t="s">
         <v>17</v>
@@ -1503,22 +1503,22 @@
         <v>4489538</v>
       </c>
       <c r="C26">
-        <v>4019766495.1119432</v>
+        <v>4045116337.4759178</v>
       </c>
       <c r="D26">
-        <v>32127237.324783653</v>
+        <v>32237937.071804434</v>
       </c>
       <c r="E26">
-        <v>132263035.19888639</v>
+        <v>132870095.84300458</v>
       </c>
       <c r="F26">
-        <v>895.36306299488797</v>
+        <v>901.00948861016832</v>
       </c>
       <c r="G26">
-        <v>7.1560230306066357</v>
+        <v>7.1806802998002093</v>
       </c>
       <c r="H26">
-        <v>29.460277471509627</v>
+        <v>29.59549420074061</v>
       </c>
       <c r="I26" t="s">
         <v>18</v>
@@ -1544,16 +1544,16 @@
         <v>2992958</v>
       </c>
       <c r="C27">
-        <v>2678087149.6945252</v>
+        <v>2680443410.1268592</v>
       </c>
       <c r="E27">
-        <v>431890477.21977651</v>
+        <v>435225447.46534592</v>
       </c>
       <c r="F27">
-        <v>894.79610127991282</v>
+        <v>895.58336940473578</v>
       </c>
       <c r="H27">
-        <v>144.30221781253746</v>
+        <v>145.4164901296129</v>
       </c>
       <c r="I27" t="s">
         <v>18</v>
@@ -1579,16 +1579,16 @@
         <v>229494</v>
       </c>
       <c r="C28">
-        <v>150987348.37185174</v>
+        <v>153997289.95703518</v>
       </c>
       <c r="E28">
-        <v>159549123.65599489</v>
+        <v>158508616.15495217</v>
       </c>
       <c r="F28">
-        <v>657.91414316649559</v>
+        <v>671.02969993566364</v>
       </c>
       <c r="H28">
-        <v>695.22132890618013</v>
+        <v>690.68740862485367</v>
       </c>
       <c r="I28" t="s">
         <v>18</v>
@@ -1614,22 +1614,22 @@
         <v>6529869</v>
       </c>
       <c r="C29">
-        <v>7863058186.9735928</v>
+        <v>7798362014.4385672</v>
       </c>
       <c r="D29">
-        <v>60204283.004279487</v>
+        <v>59060447.152127169</v>
       </c>
       <c r="E29">
-        <v>247212132.8768062</v>
+        <v>243165897.7230635</v>
       </c>
       <c r="F29">
-        <v>1204.1678304685122</v>
+        <v>1194.2601014566399</v>
       </c>
       <c r="G29">
-        <v>9.219830138135924</v>
+        <v>9.0446603373095495</v>
       </c>
       <c r="H29">
-        <v>37.858666517935688</v>
+        <v>37.239016238007764</v>
       </c>
       <c r="I29" t="s">
         <v>18</v>
@@ -1655,22 +1655,22 @@
         <v>1441562</v>
       </c>
       <c r="C30">
-        <v>1881248953.1546769</v>
+        <v>1878681837.7429221</v>
       </c>
       <c r="D30">
-        <v>14608288.203026347</v>
+        <v>14722123.889474826</v>
       </c>
       <c r="E30">
-        <v>60050786.068322718</v>
+        <v>60518734.287775427</v>
       </c>
       <c r="F30">
-        <v>1305.0073137018574</v>
+        <v>1303.2265263255567</v>
       </c>
       <c r="G30">
-        <v>10.133652387497968</v>
+        <v>10.212619290377262</v>
       </c>
       <c r="H30">
-        <v>41.656748768573749</v>
+        <v>41.981360696088984</v>
       </c>
       <c r="I30" t="s">
         <v>18</v>
@@ -1696,16 +1696,16 @@
         <v>1650341</v>
       </c>
       <c r="C31">
-        <v>486946035.57790017</v>
+        <v>488108746.62887061</v>
       </c>
       <c r="E31">
-        <v>577490925.24567938</v>
+        <v>572186597.32001686</v>
       </c>
       <c r="F31">
-        <v>295.05783082278163</v>
+        <v>295.762358584602</v>
       </c>
       <c r="H31">
-        <v>349.9221828977644</v>
+        <v>346.70810294358364</v>
       </c>
       <c r="I31" t="s">
         <v>18</v>
@@ -1737,7 +1737,7 @@
         <v>32077250.283059031</v>
       </c>
       <c r="E32">
-        <v>136265369.25837401</v>
+        <v>143116700.67359951</v>
       </c>
       <c r="F32">
         <v>787.09260921268037</v>
@@ -1746,7 +1746,7 @@
         <v>6.4357264563852938</v>
       </c>
       <c r="H32">
-        <v>27.339208762802887</v>
+        <v>28.713805851435435</v>
       </c>
       <c r="I32" t="s">
         <v>18</v>
@@ -1772,16 +1772,16 @@
         <v>2093626</v>
       </c>
       <c r="C33">
-        <v>1004908978.6700227</v>
+        <v>1007228375.3726852</v>
       </c>
       <c r="E33">
-        <v>1054024559.5130278</v>
+        <v>1073985225.3002138</v>
       </c>
       <c r="F33">
-        <v>479.98495369756722</v>
+        <v>481.09279086746403</v>
       </c>
       <c r="H33">
-        <v>503.44453093008389</v>
+        <v>512.97854788783377</v>
       </c>
       <c r="I33" t="s">
         <v>18</v>
@@ -1807,7 +1807,7 @@
         <v>67254</v>
       </c>
       <c r="C34">
-        <v>116306651.28636773</v>
+        <v>119614075.02793369</v>
       </c>
       <c r="D34">
         <v>1234172.0522561262</v>
@@ -1816,7 +1816,7 @@
         <v>4995458.3067509867</v>
       </c>
       <c r="F34">
-        <v>1729.3640718227575</v>
+        <v>1778.5421689109003</v>
       </c>
       <c r="G34">
         <v>18.350909273145483</v>
@@ -1848,16 +1848,16 @@
         <v>245567</v>
       </c>
       <c r="C35">
-        <v>47226642.443295702</v>
+        <v>47794480.777885236</v>
       </c>
       <c r="E35">
-        <v>57713594.772371925</v>
+        <v>58085205.798404679</v>
       </c>
       <c r="F35">
-        <v>192.31673003007612</v>
+        <v>194.62908606565716</v>
       </c>
       <c r="H35">
-        <v>235.02178538798751</v>
+        <v>236.53506292948433</v>
       </c>
       <c r="I35" t="s">
         <v>19</v>
@@ -1883,16 +1883,16 @@
         <v>717925</v>
       </c>
       <c r="C36">
-        <v>184434713.86846879</v>
+        <v>184078622.18102777</v>
       </c>
       <c r="E36">
-        <v>257443221.03781235</v>
+        <v>253951728.18421009</v>
       </c>
       <c r="F36">
-        <v>256.89969546744965</v>
+        <v>256.40369423133029</v>
       </c>
       <c r="H36">
-        <v>358.59347569427496</v>
+        <v>353.7301642709337</v>
       </c>
       <c r="I36" t="s">
         <v>19</v>
@@ -1918,16 +1918,16 @@
         <v>1081826</v>
       </c>
       <c r="C37">
-        <v>279991813.31010354</v>
+        <v>285555601.32529461</v>
       </c>
       <c r="E37">
-        <v>336309467.28391933</v>
+        <v>341910755.956536</v>
       </c>
       <c r="F37">
-        <v>258.81409146212377</v>
+        <v>263.9570516194791</v>
       </c>
       <c r="H37">
-        <v>310.87205085098651</v>
+        <v>316.0496752310778</v>
       </c>
       <c r="I37" t="s">
         <v>19</v>
@@ -1953,16 +1953,16 @@
         <v>250729</v>
       </c>
       <c r="C38">
-        <v>49228575.46199999</v>
+        <v>49216569.848284796</v>
       </c>
       <c r="E38">
-        <v>128635572.93998399</v>
+        <v>128889361.20960002</v>
       </c>
       <c r="F38">
-        <v>196.34176924887026</v>
+        <v>196.29388642033749</v>
       </c>
       <c r="H38">
-        <v>513.04624889814897</v>
+        <v>514.05845039704229</v>
       </c>
       <c r="I38" t="s">
         <v>19</v>
@@ -1988,16 +1988,16 @@
         <v>750815</v>
       </c>
       <c r="C39">
-        <v>535530842.87672782</v>
+        <v>543868682.1649158</v>
       </c>
       <c r="E39">
-        <v>23771173.028294731</v>
+        <v>23638893.407187592</v>
       </c>
       <c r="F39">
-        <v>713.26604140397808</v>
+        <v>724.37109296553183</v>
       </c>
       <c r="H39">
-        <v>31.660492968700321</v>
+        <v>31.484311590987915</v>
       </c>
       <c r="I39" t="s">
         <v>19</v>
@@ -2026,13 +2026,13 @@
         <v>105721911.99080999</v>
       </c>
       <c r="E40">
-        <v>126226742.0818671</v>
+        <v>122904985.71129164</v>
       </c>
       <c r="F40">
         <v>275.13763657299523</v>
       </c>
       <c r="H40">
-        <v>328.50075102437495</v>
+        <v>319.85599441847035</v>
       </c>
       <c r="I40" t="s">
         <v>20</v>
@@ -2058,16 +2058,16 @@
         <v>1245893</v>
       </c>
       <c r="C41">
-        <v>1303724756.2714701</v>
+        <v>1314945715.0467343</v>
       </c>
       <c r="E41">
-        <v>1700806328.8167491</v>
+        <v>1668444556.7400069</v>
       </c>
       <c r="F41">
-        <v>1046.4179157210692</v>
+        <v>1055.4242740321477</v>
       </c>
       <c r="H41">
-        <v>1365.130335283005</v>
+        <v>1339.1555749490581</v>
       </c>
       <c r="I41" t="s">
         <v>21</v>
@@ -2093,22 +2093,22 @@
         <v>827980</v>
       </c>
       <c r="C42">
-        <v>906912973.43135619</v>
+        <v>905594829.20395505</v>
       </c>
       <c r="D42">
-        <v>6771651.2789739352</v>
+        <v>6674740.9805082195</v>
       </c>
       <c r="E42">
-        <v>28595447.715906151</v>
+        <v>27820973.313569147</v>
       </c>
       <c r="F42">
-        <v>1095.3319807620428</v>
+        <v>1093.7399806806384</v>
       </c>
       <c r="G42">
-        <v>8.1785203494938727</v>
+        <v>8.0614760990702905</v>
       </c>
       <c r="H42">
-        <v>34.53639908682112</v>
+        <v>33.601020934767931</v>
       </c>
       <c r="I42" t="s">
         <v>21</v>
@@ -2134,22 +2134,22 @@
         <v>2177256</v>
       </c>
       <c r="C43">
-        <v>2212840855.3731184</v>
+        <v>2197838540.9169683</v>
       </c>
       <c r="D43">
-        <v>11707130.10937044</v>
+        <v>11410303.4042545</v>
       </c>
       <c r="E43">
-        <v>49666977.076221347</v>
+        <v>49142106.476676315</v>
       </c>
       <c r="F43">
-        <v>1016.3439004752397</v>
+        <v>1009.4534317126549</v>
       </c>
       <c r="G43">
-        <v>5.3770112974176856</v>
+        <v>5.2406806568701612</v>
       </c>
       <c r="H43">
-        <v>22.811730488385997</v>
+        <v>22.570660720042255</v>
       </c>
       <c r="I43" t="s">
         <v>21</v>
@@ -2175,22 +2175,22 @@
         <v>2300225</v>
       </c>
       <c r="C44">
-        <v>3095691165.8283176</v>
+        <v>3085942856.3914337</v>
       </c>
       <c r="D44">
-        <v>23612017.451139018</v>
+        <v>23829771.256089412</v>
       </c>
       <c r="E44">
-        <v>97104574.170843527</v>
+        <v>97929310.395042002</v>
       </c>
       <c r="F44">
-        <v>1345.8210243903607</v>
+        <v>1341.5830435681005</v>
       </c>
       <c r="G44">
-        <v>10.265090350352256</v>
+        <v>10.359756656887658</v>
       </c>
       <c r="H44">
-        <v>42.215250321530945</v>
+        <v>42.573796213432161</v>
       </c>
       <c r="I44" t="s">
         <v>21</v>
@@ -2216,22 +2216,22 @@
         <v>1488285</v>
       </c>
       <c r="C45">
-        <v>1382349202.5332792</v>
+        <v>1374311388.0379789</v>
       </c>
       <c r="D45">
-        <v>10669124.151995586</v>
+        <v>10603080.157813337</v>
       </c>
       <c r="E45">
-        <v>43739502.154817052</v>
+        <v>43420488.052759454</v>
       </c>
       <c r="F45">
-        <v>928.82022094778836</v>
+        <v>923.41949830709768</v>
       </c>
       <c r="G45">
-        <v>7.1687372727640106</v>
+        <v>7.1243613674889801</v>
       </c>
       <c r="H45">
-        <v>29.389197737541569</v>
+        <v>29.174847594889052</v>
       </c>
       <c r="I45" t="s">
         <v>21</v>
@@ -2257,16 +2257,16 @@
         <v>48329</v>
       </c>
       <c r="C46">
-        <v>46603951.737191312</v>
+        <v>47061886.863132469</v>
       </c>
       <c r="E46">
-        <v>49886339.508068159</v>
+        <v>49395099.377047747</v>
       </c>
       <c r="F46">
-        <v>964.30614614809565</v>
+        <v>973.78151551102792</v>
       </c>
       <c r="H46">
-        <v>1032.2237064302626</v>
+        <v>1022.0592062125794</v>
       </c>
       <c r="I46" t="s">
         <v>21</v>
@@ -2292,16 +2292,16 @@
         <v>402573</v>
       </c>
       <c r="C47">
-        <v>192496697.50581568</v>
+        <v>192692542.70702434</v>
       </c>
       <c r="E47">
-        <v>103652067.8877469</v>
+        <v>103757522.99609002</v>
       </c>
       <c r="F47">
-        <v>478.16594134682578</v>
+        <v>478.65242504346878</v>
       </c>
       <c r="H47">
-        <v>257.47396841752152</v>
+        <v>257.73592117725241</v>
       </c>
       <c r="I47" t="s">
         <v>23</v>
@@ -2327,16 +2327,16 @@
         <v>1336530</v>
       </c>
       <c r="C48">
-        <v>669052437.95732021</v>
+        <v>661515185.39573336</v>
       </c>
       <c r="E48">
-        <v>739068360.9758749</v>
+        <v>727269157.85248804</v>
       </c>
       <c r="F48">
-        <v>500.58916594264269</v>
+        <v>494.94974702829973</v>
       </c>
       <c r="H48">
-        <v>552.97551194202515</v>
+        <v>544.14727529684194</v>
       </c>
       <c r="I48" t="s">
         <v>23</v>
@@ -2362,22 +2362,22 @@
         <v>4238250</v>
       </c>
       <c r="C49">
-        <v>3475437519.8662658</v>
+        <v>3434325806.2047625</v>
       </c>
       <c r="D49">
-        <v>25200822.034446903</v>
+        <v>25541918.624260753</v>
       </c>
       <c r="E49">
-        <v>103179958.82002106</v>
+        <v>104550683.7591404</v>
       </c>
       <c r="F49">
-        <v>820.01711080428618</v>
+        <v>810.31694831705602</v>
       </c>
       <c r="G49">
-        <v>5.946044248085153</v>
+        <v>6.0265247742017944</v>
       </c>
       <c r="H49">
-        <v>24.344943979241684</v>
+        <v>24.668361649062799</v>
       </c>
       <c r="I49" t="s">
         <v>23</v>
@@ -2403,16 +2403,16 @@
         <v>1825199</v>
       </c>
       <c r="C50">
-        <v>267543782.55582067</v>
+        <v>270388033.00949484</v>
       </c>
       <c r="E50">
-        <v>280389625.2460736</v>
+        <v>279818460.49743986</v>
       </c>
       <c r="F50">
-        <v>146.58334929825224</v>
+        <v>148.14167277622596</v>
       </c>
       <c r="H50">
-        <v>153.62139977398277</v>
+        <v>153.30846691097236</v>
       </c>
       <c r="I50" t="s">
         <v>24</v>
@@ -2438,16 +2438,16 @@
         <v>8749914</v>
       </c>
       <c r="C51">
-        <v>2376511606.0203152</v>
+        <v>2388402738.3818278</v>
       </c>
       <c r="E51">
-        <v>2222943436.9808207</v>
+        <v>2207840832.598453</v>
       </c>
       <c r="F51">
-        <v>271.60399588159549</v>
+        <v>272.9629957942247</v>
       </c>
       <c r="H51">
-        <v>254.05317549187578</v>
+        <v>252.32714659806408</v>
       </c>
       <c r="I51" t="s">
         <v>24</v>
@@ -2473,16 +2473,16 @@
         <v>992174</v>
       </c>
       <c r="C52">
-        <v>250119178.49644697</v>
+        <v>259528766.15135011</v>
       </c>
       <c r="E52">
-        <v>299208969.23144734</v>
+        <v>298634359.89696676</v>
       </c>
       <c r="F52">
-        <v>252.0920508866862</v>
+        <v>261.57585882249498</v>
       </c>
       <c r="H52">
-        <v>301.56904860583654</v>
+        <v>300.98990690843215</v>
       </c>
       <c r="I52" t="s">
         <v>24</v>
@@ -2508,16 +2508,16 @@
         <v>1769518</v>
       </c>
       <c r="C53">
-        <v>555156913.20163822</v>
+        <v>549040130.11016607</v>
       </c>
       <c r="E53">
-        <v>565358205.0363853</v>
+        <v>573042545.3128612</v>
       </c>
       <c r="F53">
-        <v>313.73340830759463</v>
+        <v>310.27665732146608</v>
       </c>
       <c r="H53">
-        <v>319.49841992926059</v>
+        <v>323.84103767967389</v>
       </c>
       <c r="I53" t="s">
         <v>24</v>
@@ -2543,22 +2543,22 @@
         <v>16149545</v>
       </c>
       <c r="C54">
-        <v>11586841374.261436</v>
+        <v>11652702580.624226</v>
       </c>
       <c r="D54">
-        <v>87722407.543560535</v>
+        <v>87865062.796830744</v>
       </c>
       <c r="E54">
-        <v>361125619.97991633</v>
+        <v>361563044.67921633</v>
       </c>
       <c r="F54">
-        <v>717.47169188119142</v>
+        <v>721.54990005131583</v>
       </c>
       <c r="G54">
-        <v>5.4318810556929327</v>
+        <v>5.440714447176731</v>
       </c>
       <c r="H54">
-        <v>22.361349498076656</v>
+        <v>22.388435381877095</v>
       </c>
       <c r="I54" t="s">
         <v>24</v>
@@ -2584,16 +2584,16 @@
         <v>1806150</v>
       </c>
       <c r="C55">
-        <v>738562312.62266982</v>
+        <v>744067203.37060261</v>
       </c>
       <c r="E55">
-        <v>788409806.93864954</v>
+        <v>793905038.29284596</v>
       </c>
       <c r="F55">
-        <v>408.91526873331111</v>
+        <v>411.96312785239468</v>
       </c>
       <c r="H55">
-        <v>436.5140253792041</v>
+        <v>439.55653644096338</v>
       </c>
       <c r="I55" t="s">
         <v>24</v>
@@ -2619,16 +2619,16 @@
         <v>5446539</v>
       </c>
       <c r="C56">
-        <v>2469987675.543211</v>
+        <v>2474998188.2339869</v>
       </c>
       <c r="E56">
-        <v>2485477972.7096128</v>
+        <v>2501969620.5553641</v>
       </c>
       <c r="F56">
-        <v>453.49673903798561</v>
+        <v>454.41668337158455</v>
       </c>
       <c r="H56">
-        <v>456.34080150892385</v>
+        <v>459.36871480317393</v>
       </c>
       <c r="I56" t="s">
         <v>24</v>
@@ -2654,16 +2654,16 @@
         <v>2101351</v>
       </c>
       <c r="C57">
-        <v>562665255.06734693</v>
+        <v>561378155.28056014</v>
       </c>
       <c r="E57">
-        <v>659149637.45900321</v>
+        <v>661622524.74825084</v>
       </c>
       <c r="F57">
-        <v>267.76357451341869</v>
+        <v>267.15106390153767</v>
       </c>
       <c r="H57">
-        <v>313.67897959884056</v>
+        <v>314.85578789466911</v>
       </c>
       <c r="I57" t="s">
         <v>24</v>
@@ -2689,7 +2689,7 @@
         <v>205407</v>
       </c>
       <c r="C58">
-        <v>217970036.94317865</v>
+        <v>223044898.4543266</v>
       </c>
       <c r="D58">
         <v>1739869.6343607355</v>
@@ -2698,7 +2698,7 @@
         <v>7042329.4724125005</v>
       </c>
       <c r="F58">
-        <v>1061.1616787313901</v>
+        <v>1085.8680495519948</v>
       </c>
       <c r="G58">
         <v>8.4703522000746592</v>
@@ -2730,16 +2730,16 @@
         <v>500876</v>
       </c>
       <c r="C59">
-        <v>169296359.90473783</v>
+        <v>172591292.00849009</v>
       </c>
       <c r="E59">
-        <v>175912667.2152645</v>
+        <v>175990735.16437215</v>
       </c>
       <c r="F59">
-        <v>338.00054285838775</v>
+        <v>344.57888181603846</v>
       </c>
       <c r="H59">
-        <v>351.21001448515108</v>
+        <v>351.36587731169425</v>
       </c>
       <c r="I59" t="s">
         <v>24</v>
@@ -2765,13 +2765,13 @@
         <v>869762</v>
       </c>
       <c r="C60">
-        <v>225430131.09269595</v>
+        <v>225163187.09655112</v>
       </c>
       <c r="E60">
         <v>275283000.69230402</v>
       </c>
       <c r="F60">
-        <v>259.18599696548705</v>
+        <v>258.8790808250431</v>
       </c>
       <c r="H60">
         <v>316.50382598033025</v>
@@ -2800,16 +2800,16 @@
         <v>1013496</v>
       </c>
       <c r="C61">
-        <v>374089707.58673191</v>
+        <v>367343128.9644534</v>
       </c>
       <c r="E61">
-        <v>201432919.46977872</v>
+        <v>197800146.36547488</v>
       </c>
       <c r="F61">
-        <v>369.10822300900242</v>
+        <v>362.45148373989969</v>
       </c>
       <c r="H61">
-        <v>198.75058162023203</v>
+        <v>195.1661835522537</v>
       </c>
       <c r="I61" t="s">
         <v>25</v>
@@ -2835,16 +2835,16 @@
         <v>296202</v>
       </c>
       <c r="C62">
-        <v>46136363.939609393</v>
+        <v>45463799.178467534</v>
       </c>
       <c r="E62">
-        <v>48080328.587261319</v>
+        <v>48294865.467572294</v>
       </c>
       <c r="F62">
-        <v>155.7597988521664</v>
+        <v>153.48917015572999</v>
       </c>
       <c r="H62">
-        <v>162.32276820298756</v>
+        <v>163.04706068011794</v>
       </c>
       <c r="I62" t="s">
         <v>25</v>
@@ -2870,16 +2870,16 @@
         <v>1615868</v>
       </c>
       <c r="C63">
-        <v>299090818.00261086</v>
+        <v>299363045.4904685</v>
       </c>
       <c r="E63">
-        <v>321222604.05408418</v>
+        <v>319027047.42770553</v>
       </c>
       <c r="F63">
-        <v>185.09607096780854</v>
+        <v>185.26454233295573</v>
       </c>
       <c r="H63">
-        <v>198.79260190441556</v>
+        <v>197.43385439138936</v>
       </c>
       <c r="I63" t="s">
         <v>26</v>
@@ -2905,16 +2905,16 @@
         <v>1420063</v>
       </c>
       <c r="C64">
-        <v>468084163.64229733</v>
+        <v>471874276.9760108</v>
       </c>
       <c r="E64">
-        <v>481690520.70072186</v>
+        <v>486784916.63136268</v>
       </c>
       <c r="F64">
-        <v>329.62211087979711</v>
+        <v>332.29108636448575</v>
       </c>
       <c r="H64">
-        <v>339.20362737478678</v>
+        <v>342.7910709816133</v>
       </c>
       <c r="I64" t="s">
         <v>27</v>
@@ -2940,16 +2940,16 @@
         <v>2037047</v>
       </c>
       <c r="C65">
-        <v>483196546.37484765</v>
+        <v>475107563.55636466</v>
       </c>
       <c r="E65">
-        <v>540078023.51699317</v>
+        <v>557143654.52634895</v>
       </c>
       <c r="F65">
-        <v>237.20441716604853</v>
+        <v>233.23348138573368</v>
       </c>
       <c r="H65">
-        <v>265.12791482817681</v>
+        <v>273.50554725853107</v>
       </c>
       <c r="I65" t="s">
         <v>27</v>
@@ -3010,16 +3010,16 @@
         <v>16042082</v>
       </c>
       <c r="C67">
-        <v>4751006236.8960905</v>
+        <v>4750327861.1651125</v>
       </c>
       <c r="E67">
-        <v>4840257866.4604292</v>
+        <v>4873945462.3179455</v>
       </c>
       <c r="F67">
-        <v>296.15895473518276</v>
+        <v>296.11666747278264</v>
       </c>
       <c r="H67">
-        <v>301.72254863554679</v>
+        <v>303.82250024142411</v>
       </c>
       <c r="I67" t="s">
         <v>27</v>
@@ -3045,16 +3045,16 @@
         <v>2119428</v>
       </c>
       <c r="C68">
-        <v>676106521.36623895</v>
+        <v>685593020.05648267</v>
       </c>
       <c r="E68">
-        <v>695868460.39973569</v>
+        <v>696241861.63334</v>
       </c>
       <c r="F68">
-        <v>319.00424141147471</v>
+        <v>323.48021261230986</v>
       </c>
       <c r="H68">
-        <v>328.3284265376015</v>
+        <v>328.50460673037253</v>
       </c>
       <c r="I68" t="s">
         <v>27</v>
@@ -3080,22 +3080,22 @@
         <v>4495381</v>
       </c>
       <c r="C69">
-        <v>3640804139.2925005</v>
+        <v>3666302698.8958182</v>
       </c>
       <c r="D69">
-        <v>27047663.709594969</v>
+        <v>27459567.424861293</v>
       </c>
       <c r="E69">
-        <v>110751990.16796488</v>
+        <v>112509907.39258021</v>
       </c>
       <c r="F69">
-        <v>809.89890273872231</v>
+        <v>815.5710714833333</v>
       </c>
       <c r="G69">
-        <v>6.0167678133610849</v>
+        <v>6.1083960235764874</v>
       </c>
       <c r="H69">
-        <v>24.636841719970981</v>
+        <v>25.027891382861704</v>
       </c>
       <c r="I69" t="s">
         <v>27</v>
@@ -3156,16 +3156,16 @@
         <v>6594728</v>
       </c>
       <c r="C71">
-        <v>1884007949.8237054</v>
+        <v>1874015518.0962238</v>
       </c>
       <c r="E71">
-        <v>1959414749.9095953</v>
+        <v>1908267203.6651998</v>
       </c>
       <c r="F71">
-        <v>285.68395085039225</v>
+        <v>284.16873570770832</v>
       </c>
       <c r="H71">
-        <v>297.11835725591641</v>
+        <v>289.36253377928546</v>
       </c>
       <c r="I71" t="s">
         <v>27</v>
@@ -3191,16 +3191,16 @@
         <v>7672769</v>
       </c>
       <c r="C72">
-        <v>2195132538.4700184</v>
+        <v>2164538469.6032486</v>
       </c>
       <c r="E72">
-        <v>2263988754.326427</v>
+        <v>2261892976.2445087</v>
       </c>
       <c r="F72">
-        <v>286.09391713343882</v>
+        <v>282.10656017446223</v>
       </c>
       <c r="H72">
-        <v>295.06801968447468</v>
+        <v>294.79487473746553</v>
       </c>
       <c r="I72" t="s">
         <v>27</v>
@@ -3226,16 +3226,16 @@
         <v>423587</v>
       </c>
       <c r="C73">
-        <v>73258696.126892939</v>
+        <v>73930469.35984154</v>
       </c>
       <c r="E73">
-        <v>141252577.48057961</v>
+        <v>142547846.2425583</v>
       </c>
       <c r="F73">
-        <v>172.94840523173031</v>
+        <v>174.53432083572335</v>
       </c>
       <c r="H73">
-        <v>333.46768781992745</v>
+        <v>336.5255455020062</v>
       </c>
       <c r="I73" t="s">
         <v>10</v>
@@ -3296,16 +3296,16 @@
         <v>3095082</v>
       </c>
       <c r="C75">
-        <v>1041290563.6840665</v>
+        <v>1051290499.6685109</v>
       </c>
       <c r="E75">
-        <v>1088092357.0246782</v>
+        <v>1080997180.1451578</v>
       </c>
       <c r="F75">
-        <v>336.43391796536133</v>
+        <v>339.66482945153336</v>
       </c>
       <c r="H75">
-        <v>351.55525993323545</v>
+        <v>349.26285641064044</v>
       </c>
       <c r="I75" t="s">
         <v>10</v>
@@ -3331,22 +3331,22 @@
         <v>134547</v>
       </c>
       <c r="C76">
-        <v>121336452.57366873</v>
+        <v>119004624.76038589</v>
       </c>
       <c r="D76">
-        <v>773016.26139945036</v>
+        <v>781159.80734952842</v>
       </c>
       <c r="E76">
-        <v>3302286.5664511877</v>
+        <v>3305030.0216451613</v>
       </c>
       <c r="F76">
-        <v>901.81462666331265</v>
+        <v>884.48367306878549</v>
       </c>
       <c r="G76">
-        <v>5.7453251384233788</v>
+        <v>5.8058507982305692</v>
       </c>
       <c r="H76">
-        <v>24.54373985634156</v>
+        <v>24.564130167489139</v>
       </c>
       <c r="I76" t="s">
         <v>28</v>
@@ -3372,22 +3372,22 @@
         <v>531521</v>
       </c>
       <c r="C77">
-        <v>683509360.19554853</v>
+        <v>689426484.33009422</v>
       </c>
       <c r="D77">
-        <v>5065950.2494395236</v>
+        <v>5120430.8712826837</v>
       </c>
       <c r="E77">
-        <v>20605785.6343184</v>
+        <v>20864491.34561751</v>
       </c>
       <c r="F77">
-        <v>1285.9498687644486</v>
+        <v>1297.0823059297643</v>
       </c>
       <c r="G77">
-        <v>9.5310443979438695</v>
+        <v>9.6335438699179967</v>
       </c>
       <c r="H77">
-        <v>38.767585164684746</v>
+        <v>39.254312333129853</v>
       </c>
       <c r="I77" t="s">
         <v>29</v>
@@ -3483,22 +3483,22 @@
         <v>1438500</v>
       </c>
       <c r="C80">
-        <v>1572198519.1246839</v>
+        <v>1575676062.1550765</v>
       </c>
       <c r="D80">
-        <v>12102388.725611521</v>
+        <v>11871931.535018682</v>
       </c>
       <c r="E80">
-        <v>49769673.489221483</v>
+        <v>48822559.959912613</v>
       </c>
       <c r="F80">
-        <v>1092.9430094714521</v>
+        <v>1095.3604881161464</v>
       </c>
       <c r="G80">
-        <v>8.4132003653886152</v>
+        <v>8.2529937678266805</v>
       </c>
       <c r="H80">
-        <v>34.59831316595168</v>
+        <v>33.93990960021732</v>
       </c>
       <c r="I80" t="s">
         <v>30</v>
@@ -3524,22 +3524,22 @@
         <v>4871389</v>
       </c>
       <c r="C81">
-        <v>6426536871.0639648</v>
+        <v>6458372527.622715</v>
       </c>
       <c r="D81">
-        <v>47362053.518789284</v>
+        <v>47074413.751266241</v>
       </c>
       <c r="E81">
-        <v>195704182.47699919</v>
+        <v>194109788.61503029</v>
       </c>
       <c r="F81">
-        <v>1319.2411591568575</v>
+        <v>1325.776391009364</v>
       </c>
       <c r="G81">
-        <v>9.7224946557930974</v>
+        <v>9.6634478895580393</v>
       </c>
       <c r="H81">
-        <v>40.174205442636421</v>
+        <v>39.846907856266519</v>
       </c>
       <c r="I81" t="s">
         <v>30</v>
@@ -3565,22 +3565,22 @@
         <v>1656996</v>
       </c>
       <c r="C82">
-        <v>3480834070.0498896</v>
+        <v>3452181154.0550699</v>
       </c>
       <c r="D82">
-        <v>28311391.209636517</v>
+        <v>28081997.714132842</v>
       </c>
       <c r="E82">
-        <v>116621163.75543638</v>
+        <v>115584996.09015682</v>
       </c>
       <c r="F82">
-        <v>2100.6894826842608</v>
+        <v>2083.397397492251</v>
       </c>
       <c r="G82">
-        <v>17.085974383544993</v>
+        <v>16.947535005596176</v>
       </c>
       <c r="H82">
-        <v>70.381077416865452</v>
+        <v>69.755748408660509</v>
       </c>
       <c r="I82" t="s">
         <v>30</v>
@@ -3606,22 +3606,22 @@
         <v>967351</v>
       </c>
       <c r="C83">
-        <v>1226987272.9244442</v>
+        <v>1226888702.1245708</v>
       </c>
       <c r="D83">
-        <v>4125760.5100810239</v>
+        <v>11611303.898569098</v>
       </c>
       <c r="E83">
-        <v>18775755.987128377</v>
+        <v>46998134.82754159</v>
       </c>
       <c r="F83">
-        <v>1268.399239701457</v>
+        <v>1268.297342044998</v>
       </c>
       <c r="G83">
-        <v>4.2650087817979445</v>
+        <v>12.003196253034417</v>
       </c>
       <c r="H83">
-        <v>19.409455292989179</v>
+        <v>48.584365786091695</v>
       </c>
       <c r="I83" t="s">
         <v>30</v>
@@ -3647,22 +3647,22 @@
         <v>7658910</v>
       </c>
       <c r="C84">
-        <v>11238618434.057314</v>
+        <v>11406978657.589697</v>
       </c>
       <c r="D84">
-        <v>87918434.166297495</v>
+        <v>90783713.324012309</v>
       </c>
       <c r="E84">
-        <v>362448586.60633284</v>
+        <v>373103039.56868678</v>
       </c>
       <c r="F84">
-        <v>1467.3913695365677</v>
+        <v>1489.3736390151728</v>
       </c>
       <c r="G84">
-        <v>11.479235839864614</v>
+        <v>11.853346406213458</v>
       </c>
       <c r="H84">
-        <v>47.32378192279748</v>
+        <v>48.714900627985806</v>
       </c>
       <c r="I84" t="s">
         <v>30</v>
@@ -3688,16 +3688,16 @@
         <v>500630</v>
       </c>
       <c r="C85">
-        <v>140706997.00483036</v>
+        <v>140073181.70300674</v>
       </c>
       <c r="E85">
-        <v>151939363.55886146</v>
+        <v>151391834.32081151</v>
       </c>
       <c r="F85">
-        <v>281.05985858784004</v>
+        <v>279.79382318879561</v>
       </c>
       <c r="H85">
-        <v>303.496321752315</v>
+        <v>302.40264131356793</v>
       </c>
       <c r="I85" t="s">
         <v>31</v>
@@ -3723,22 +3723,22 @@
         <v>3581670</v>
       </c>
       <c r="C86">
-        <v>1852029628.8132801</v>
+        <v>1863213953.0975184</v>
       </c>
       <c r="D86">
-        <v>14442892.591305973</v>
+        <v>14641423.005964834</v>
       </c>
       <c r="E86">
-        <v>59294278.952598825</v>
+        <v>60245002.491344944</v>
       </c>
       <c r="F86">
-        <v>517.08550168309205</v>
+        <v>520.20815795355759</v>
       </c>
       <c r="G86">
-        <v>4.0324464820337926</v>
+        <v>4.0878760483140084</v>
       </c>
       <c r="H86">
-        <v>16.554925203214932</v>
+        <v>16.820366614273496</v>
       </c>
       <c r="I86" t="s">
         <v>31</v>
@@ -3764,7 +3764,7 @@
         <v>4902363</v>
       </c>
       <c r="C87">
-        <v>4276681197.4835501</v>
+        <v>4619498695.4193382</v>
       </c>
       <c r="D87">
         <v>27273304.950750511</v>
@@ -3773,7 +3773,7 @@
         <v>113788583.59986989</v>
       </c>
       <c r="F87">
-        <v>872.37138446980566</v>
+        <v>942.30041623179238</v>
       </c>
       <c r="G87">
         <v>5.5632977302477418</v>
@@ -3805,22 +3805,22 @@
         <v>6114392</v>
       </c>
       <c r="C88">
-        <v>5930737414.2321167</v>
+        <v>5928539560.9097185</v>
       </c>
       <c r="D88">
-        <v>43727592.365712851</v>
+        <v>44312571.913469002</v>
       </c>
       <c r="E88">
-        <v>179696158.44425714</v>
+        <v>182197868.90988046</v>
       </c>
       <c r="F88">
-        <v>969.96355716678227</v>
+        <v>969.60410142328442</v>
       </c>
       <c r="G88">
-        <v>7.1515847145084663</v>
+        <v>7.2472572765156364</v>
       </c>
       <c r="H88">
-        <v>29.38904774902511</v>
+        <v>29.798198890401608</v>
       </c>
       <c r="I88" t="s">
         <v>32</v>
@@ -3846,22 +3846,22 @@
         <v>6233147</v>
       </c>
       <c r="C89">
-        <v>6718320217.7382221</v>
+        <v>6693122182.1314869</v>
       </c>
       <c r="D89">
-        <v>51502720.013042018</v>
+        <v>51061407.658436298</v>
       </c>
       <c r="E89">
-        <v>211696494.84732112</v>
+        <v>210028565.51876998</v>
       </c>
       <c r="F89">
-        <v>1077.8376023761707</v>
+        <v>1073.7950159255811</v>
       </c>
       <c r="G89">
-        <v>8.2627154490407513</v>
+        <v>8.1919145591201836</v>
       </c>
       <c r="H89">
-        <v>33.963019779145448</v>
+        <v>33.695429534835291</v>
       </c>
       <c r="I89" t="s">
         <v>32</v>
@@ -3887,16 +3887,16 @@
         <v>2753681</v>
       </c>
       <c r="C90">
-        <v>832702168.80933154</v>
+        <v>828951734.23770499</v>
       </c>
       <c r="E90">
-        <v>1004183846.397307</v>
+        <v>987730778.98570716</v>
       </c>
       <c r="F90">
-        <v>302.39601784278261</v>
+        <v>301.03404651363212</v>
       </c>
       <c r="H90">
-        <v>364.66963544335999</v>
+        <v>358.69469956240653</v>
       </c>
       <c r="I90" t="s">
         <v>32</v>
@@ -3922,22 +3922,22 @@
         <v>5168266</v>
       </c>
       <c r="C91">
-        <v>5851321728.739439</v>
+        <v>5852497274.6538239</v>
       </c>
       <c r="D91">
-        <v>43419732.372104578</v>
+        <v>43999383.006215528</v>
       </c>
       <c r="E91">
-        <v>178994340.97483522</v>
+        <v>181366231.35197359</v>
       </c>
       <c r="F91">
-        <v>1132.1634236201153</v>
+        <v>1132.3908782275957</v>
       </c>
       <c r="G91">
-        <v>8.4012185851317582</v>
+        <v>8.5133743128189465</v>
       </c>
       <c r="H91">
-        <v>34.633345298952342</v>
+        <v>35.092278793694753</v>
       </c>
       <c r="I91" t="s">
         <v>32</v>
@@ -3963,22 +3963,22 @@
         <v>9849064</v>
       </c>
       <c r="C92">
-        <v>9261948956.3510227</v>
+        <v>9226065057.14571</v>
       </c>
       <c r="D92">
-        <v>70239884.918733522</v>
+        <v>69825068.867344931</v>
       </c>
       <c r="E92">
-        <v>288873811.49146754</v>
+        <v>287084526.68078423</v>
       </c>
       <c r="F92">
-        <v>940.38874723029744</v>
+        <v>936.74536556425153</v>
       </c>
       <c r="G92">
-        <v>7.1316304695282238</v>
+        <v>7.0895131626055967</v>
       </c>
       <c r="H92">
-        <v>29.330077608539</v>
+        <v>29.148407064954014</v>
       </c>
       <c r="I92" t="s">
         <v>32</v>
@@ -4004,22 +4004,22 @@
         <v>6246911</v>
       </c>
       <c r="C93">
-        <v>7453540524.1883049</v>
+        <v>7431812595.5413628</v>
       </c>
       <c r="D93">
-        <v>55194672.644748658</v>
+        <v>55318972.164198831</v>
       </c>
       <c r="E93">
-        <v>227575455.26349497</v>
+        <v>227638774.85649553</v>
       </c>
       <c r="F93">
-        <v>1193.1561893851706</v>
+        <v>1189.6780017421991</v>
       </c>
       <c r="G93">
-        <v>8.8355144878402534</v>
+        <v>8.85541224521989</v>
       </c>
       <c r="H93">
-        <v>36.43007804393163</v>
+        <v>36.440214188499809</v>
       </c>
       <c r="I93" t="s">
         <v>32</v>
@@ -4045,22 +4045,22 @@
         <v>3681044</v>
       </c>
       <c r="C94">
-        <v>3801437087.9958649</v>
+        <v>3752217153.3338566</v>
       </c>
       <c r="D94">
-        <v>28358378.789242908</v>
+        <v>28428821.640337937</v>
       </c>
       <c r="E94">
-        <v>117153662.63911414</v>
+        <v>117198325.9675556</v>
       </c>
       <c r="F94">
-        <v>1032.7062344258488</v>
+        <v>1019.3350455288926</v>
       </c>
       <c r="G94">
-        <v>7.703895631033725</v>
+        <v>7.7230322811512</v>
       </c>
       <c r="H94">
-        <v>31.826205456689497</v>
+        <v>31.838338788549009</v>
       </c>
       <c r="I94" t="s">
         <v>32</v>
@@ -4086,16 +4086,16 @@
         <v>4626240</v>
       </c>
       <c r="C95">
-        <v>1384674010.9840665</v>
+        <v>1384668454.7030277</v>
       </c>
       <c r="E95">
-        <v>1431144948.7737522</v>
+        <v>1444300302.6678751</v>
       </c>
       <c r="F95">
-        <v>299.30872825103467</v>
+        <v>299.3075272149797</v>
       </c>
       <c r="H95">
-        <v>309.35380541730478</v>
+        <v>312.19744385675517</v>
       </c>
       <c r="I95" t="s">
         <v>14</v>
@@ -4121,16 +4121,16 @@
         <v>6322841</v>
       </c>
       <c r="C96">
-        <v>1913905616.0807395</v>
+        <v>1924474273.8396053</v>
       </c>
       <c r="E96">
-        <v>1992575555.9470763</v>
+        <v>1951113065.1708782</v>
       </c>
       <c r="F96">
-        <v>302.69709709302185</v>
+        <v>304.3686016838958</v>
       </c>
       <c r="H96">
-        <v>315.13927931242876</v>
+        <v>308.5817064150242</v>
       </c>
       <c r="I96" t="s">
         <v>14</v>
@@ -4156,16 +4156,16 @@
         <v>9036684</v>
       </c>
       <c r="C97">
-        <v>6299934942.5305843</v>
+        <v>6286518210.227107</v>
       </c>
       <c r="E97">
-        <v>3046223076.6809921</v>
+        <v>3022552414.4062185</v>
       </c>
       <c r="F97">
-        <v>697.15118316968756</v>
+        <v>695.66648675853958</v>
       </c>
       <c r="H97">
-        <v>337.09523058247828</v>
+        <v>334.47583365825545</v>
       </c>
       <c r="I97" t="s">
         <v>33</v>
@@ -4191,16 +4191,16 @@
         <v>916991</v>
       </c>
       <c r="C98">
-        <v>801138800.60800576</v>
+        <v>795666142.75441575</v>
       </c>
       <c r="E98">
-        <v>822348045.90060031</v>
+        <v>811607362.41417861</v>
       </c>
       <c r="F98">
-        <v>873.66048369941007</v>
+        <v>867.69242310384254</v>
       </c>
       <c r="H98">
-        <v>896.78965867778447</v>
+        <v>885.07669367984931</v>
       </c>
       <c r="I98" t="s">
         <v>33</v>
@@ -4226,16 +4226,16 @@
         <v>317344</v>
       </c>
       <c r="C99">
-        <v>230310828.17665571</v>
+        <v>231410676.335132</v>
       </c>
       <c r="E99">
-        <v>241323772.68232134</v>
+        <v>242570658.70293331</v>
       </c>
       <c r="F99">
-        <v>725.74502173242831</v>
+        <v>729.21081329765809</v>
       </c>
       <c r="H99">
-        <v>760.44851228421317</v>
+        <v>764.37764288259211</v>
       </c>
       <c r="I99" t="s">
         <v>33</v>
@@ -4261,22 +4261,22 @@
         <v>4078252</v>
       </c>
       <c r="C100">
-        <v>2974158199.3018937</v>
+        <v>2975781554.1203413</v>
       </c>
       <c r="D100">
-        <v>22437948.426766783</v>
+        <v>22818898.462735616</v>
       </c>
       <c r="E100">
-        <v>92154902.158618033</v>
+        <v>93496163.28937012</v>
       </c>
       <c r="F100">
-        <v>729.27278630695059</v>
+        <v>729.67083792770563</v>
       </c>
       <c r="G100">
-        <v>5.50185433042558</v>
+        <v>5.5952644571094705</v>
       </c>
       <c r="H100">
-        <v>22.596666944224641</v>
+        <v>22.925548320547655</v>
       </c>
       <c r="I100" t="s">
         <v>33</v>
@@ -4302,22 +4302,22 @@
         <v>3399679</v>
       </c>
       <c r="C101">
-        <v>1923948644.8582721</v>
+        <v>1929096853.9653699</v>
       </c>
       <c r="D101">
-        <v>13859107.882226856</v>
+        <v>10846534.314997572</v>
       </c>
       <c r="E101">
-        <v>56096389.047108702</v>
+        <v>48831341.884849399</v>
       </c>
       <c r="F101">
-        <v>565.92067805762599</v>
+        <v>567.43500017659608</v>
       </c>
       <c r="G101">
-        <v>4.0765930790015341</v>
+        <v>3.1904583682746432</v>
       </c>
       <c r="H101">
-        <v>16.500495795958589</v>
+        <v>14.363515462739102</v>
       </c>
       <c r="I101" t="s">
         <v>33</v>
@@ -4378,22 +4378,22 @@
         <v>3734928</v>
       </c>
       <c r="C103">
-        <v>5516643448.0066204</v>
+        <v>5521747972.6221247</v>
       </c>
       <c r="D103">
-        <v>21302836.36091831</v>
+        <v>48075977.956110522</v>
       </c>
       <c r="E103">
-        <v>96946213.036120474</v>
+        <v>194593244.10806638</v>
       </c>
       <c r="F103">
-        <v>1477.041444441933</v>
+        <v>1478.4081440451127</v>
       </c>
       <c r="G103">
-        <v>5.7036805959628429</v>
+        <v>12.871995914274791</v>
       </c>
       <c r="H103">
-        <v>25.956648437699595</v>
+        <v>52.100935843493204</v>
       </c>
       <c r="I103" t="s">
         <v>12</v>
@@ -4419,16 +4419,16 @@
         <v>984434</v>
       </c>
       <c r="C104">
-        <v>273749666.91656822</v>
+        <v>268279200.09972</v>
       </c>
       <c r="E104">
-        <v>313373290.33870381</v>
+        <v>317077309.74748796</v>
       </c>
       <c r="F104">
-        <v>278.07823268656733</v>
+        <v>272.52126612827271</v>
       </c>
       <c r="H104">
-        <v>318.32839005835211</v>
+        <v>322.09097790962926</v>
       </c>
       <c r="I104" t="s">
         <v>34</v>
@@ -4454,22 +4454,22 @@
         <v>3857821</v>
       </c>
       <c r="C105">
-        <v>3968475589.4180508</v>
+        <v>3922376029.3973837</v>
       </c>
       <c r="D105">
-        <v>29937932.376370985</v>
+        <v>29782194.512502324</v>
       </c>
       <c r="E105">
-        <v>123282954.86075571</v>
+        <v>122598849.2474014</v>
       </c>
       <c r="F105">
-        <v>1028.6831839574857</v>
+        <v>1016.7335470975413</v>
       </c>
       <c r="G105">
-        <v>7.7603217921129533</v>
+        <v>7.7199524064238139</v>
       </c>
       <c r="H105">
-        <v>31.956629107663552</v>
+        <v>31.779299570249997</v>
       </c>
       <c r="I105" t="s">
         <v>34</v>
@@ -4530,16 +4530,16 @@
         <v>393144</v>
       </c>
       <c r="C107">
-        <v>114332894.30255879</v>
+        <v>116823341.23146072</v>
       </c>
       <c r="E107">
-        <v>120688235.02924138</v>
+        <v>121086070.05219661</v>
       </c>
       <c r="F107">
-        <v>290.81683633111226</v>
+        <v>297.1515303081332</v>
       </c>
       <c r="H107">
-        <v>306.98226357070536</v>
+        <v>307.99419564382669</v>
       </c>
       <c r="I107" t="s">
         <v>35</v>
@@ -4565,22 +4565,22 @@
         <v>2485399</v>
       </c>
       <c r="C108">
-        <v>3488020316.1128011</v>
+        <v>3490813306.2341652</v>
       </c>
       <c r="D108">
-        <v>26310894.181053348</v>
+        <v>25778483.073261671</v>
       </c>
       <c r="E108">
-        <v>107459005.00610158</v>
+        <v>105524274.28065065</v>
       </c>
       <c r="F108">
-        <v>1403.4045704986609</v>
+        <v>1404.5283297507424</v>
       </c>
       <c r="G108">
-        <v>10.586185228630633</v>
+        <v>10.371969681029755</v>
       </c>
       <c r="H108">
-        <v>43.236118227335567</v>
+        <v>42.457679543868267</v>
       </c>
       <c r="I108" t="s">
         <v>35</v>
@@ -4606,16 +4606,16 @@
         <v>261201</v>
       </c>
       <c r="C109">
-        <v>182613018.06194335</v>
+        <v>183062634.58604267</v>
       </c>
       <c r="E109">
-        <v>193270673.98333657</v>
+        <v>194259538.43434352</v>
       </c>
       <c r="F109">
-        <v>699.12832669837928</v>
+        <v>700.84966974109091</v>
       </c>
       <c r="H109">
-        <v>739.93083481049678</v>
+        <v>743.71667196658325</v>
       </c>
       <c r="I109" t="s">
         <v>35</v>
@@ -4641,22 +4641,22 @@
         <v>14072154</v>
       </c>
       <c r="C110">
-        <v>21282417782.948685</v>
+        <v>21352422756.781364</v>
       </c>
       <c r="D110">
-        <v>160397772.56269771</v>
+        <v>160881015.51372129</v>
       </c>
       <c r="E110">
-        <v>659958831.45453084</v>
+        <v>663644859.95390248</v>
       </c>
       <c r="F110">
-        <v>1512.3781180158123</v>
+        <v>1517.352834312456</v>
       </c>
       <c r="G110">
-        <v>11.398238859715272</v>
+        <v>11.432579228007404</v>
       </c>
       <c r="H110">
-        <v>46.898209858599529</v>
+        <v>47.160147618758472</v>
       </c>
       <c r="I110" t="s">
         <v>36</v>
@@ -4682,16 +4682,16 @@
         <v>543145</v>
       </c>
       <c r="C111">
-        <v>475317282.79876661</v>
+        <v>475072136.96940005</v>
       </c>
       <c r="E111">
-        <v>502023113.85770774</v>
+        <v>510234125.09216678</v>
       </c>
       <c r="F111">
-        <v>875.12042419384625</v>
+        <v>874.6690791030021</v>
       </c>
       <c r="H111">
-        <v>924.28930369921056</v>
+        <v>939.40683444046579</v>
       </c>
       <c r="I111" t="s">
         <v>36</v>
@@ -4717,22 +4717,22 @@
         <v>7296430</v>
       </c>
       <c r="C112">
-        <v>7360917208.0609388</v>
+        <v>7350100538.9528446</v>
       </c>
       <c r="D112">
-        <v>56154666.792414799</v>
+        <v>56403131.209026515</v>
       </c>
       <c r="E112">
-        <v>234819347.9323253</v>
+        <v>235733601.80599672</v>
       </c>
       <c r="F112">
-        <v>1008.8381863542772</v>
+        <v>1007.3557258759207</v>
       </c>
       <c r="G112">
-        <v>7.6961838587384239</v>
+        <v>7.7302367334472493</v>
       </c>
       <c r="H112">
-        <v>32.182772661743527</v>
+        <v>32.30807419601048</v>
       </c>
       <c r="I112" t="s">
         <v>36</v>
@@ -4758,7 +4758,7 @@
         <v>11269955</v>
       </c>
       <c r="C113">
-        <v>3017289205.998858</v>
+        <v>2926981687.0310254</v>
       </c>
       <c r="D113">
         <v>20656272.082776219</v>
@@ -4767,7 +4767,7 @@
         <v>84642439.728867993</v>
       </c>
       <c r="F113">
-        <v>267.72859394725691</v>
+        <v>259.71547242478124</v>
       </c>
       <c r="G113">
         <v>1.8328619841673031</v>
@@ -4799,22 +4799,22 @@
         <v>5367819</v>
       </c>
       <c r="C114">
-        <v>9704000139.9403954</v>
+        <v>9642134776.4371414</v>
       </c>
       <c r="D114">
-        <v>73751774.87793225</v>
+        <v>73127884.74520731</v>
       </c>
       <c r="E114">
-        <v>303347255.27885413</v>
+        <v>300500848.94252712</v>
       </c>
       <c r="F114">
-        <v>1807.8106098473877</v>
+        <v>1796.285377066019</v>
       </c>
       <c r="G114">
-        <v>13.739616570143713</v>
+        <v>13.623388706885851</v>
       </c>
       <c r="H114">
-        <v>56.512198954333982</v>
+        <v>55.981926540840348</v>
       </c>
       <c r="I114" t="s">
         <v>36</v>
@@ -4840,22 +4840,22 @@
         <v>9846148</v>
       </c>
       <c r="C115">
-        <v>10270528055.650196</v>
+        <v>10114060181.479704</v>
       </c>
       <c r="D115">
-        <v>76957541.345004678</v>
+        <v>76107230.300847128</v>
       </c>
       <c r="E115">
-        <v>317030677.26945615</v>
+        <v>313920161.37981462</v>
       </c>
       <c r="F115">
-        <v>1043.1011249932658</v>
+        <v>1027.2098470873791</v>
       </c>
       <c r="G115">
-        <v>7.8160049336049662</v>
+        <v>7.7296451669066037</v>
       </c>
       <c r="H115">
-        <v>32.198447278007208</v>
+        <v>31.882535320392769</v>
       </c>
       <c r="I115" t="s">
         <v>36</v>
@@ -4881,22 +4881,22 @@
         <v>5178344</v>
       </c>
       <c r="C116">
-        <v>3110571966.0531664</v>
+        <v>3094806534.2803125</v>
       </c>
       <c r="D116">
-        <v>23098622.215239663</v>
+        <v>23102110.740870181</v>
       </c>
       <c r="E116">
-        <v>95462812.241225153</v>
+        <v>95300166.759503871</v>
       </c>
       <c r="F116">
-        <v>600.68855333928491</v>
+        <v>597.64406039465757</v>
       </c>
       <c r="G116">
-        <v>4.4606194982874179</v>
+        <v>4.4612931742020576</v>
       </c>
       <c r="H116">
-        <v>18.435007840580919</v>
+        <v>18.403599057826955</v>
       </c>
       <c r="I116" t="s">
         <v>37</v>
@@ -4922,16 +4922,16 @@
         <v>3896653</v>
       </c>
       <c r="C117">
-        <v>1112393870.8746829</v>
+        <v>1112777782.5328104</v>
       </c>
       <c r="E117">
-        <v>1162630461.3083124</v>
+        <v>1174380969.2666187</v>
       </c>
       <c r="F117">
-        <v>285.4741930766437</v>
+        <v>285.57271651666457</v>
       </c>
       <c r="H117">
-        <v>298.36643429843826</v>
+        <v>301.38197300776301</v>
       </c>
       <c r="I117" t="s">
         <v>37</v>
@@ -4957,16 +4957,16 @@
         <v>1330989</v>
       </c>
       <c r="C118">
-        <v>533681410.08159566</v>
+        <v>529343327.75688791</v>
       </c>
       <c r="E118">
-        <v>289797586.00754011</v>
+        <v>287364925.26315624</v>
       </c>
       <c r="F118">
-        <v>400.96605612938617</v>
+        <v>397.70676373500299</v>
       </c>
       <c r="H118">
-        <v>217.73101506288941</v>
+        <v>215.90330593502745</v>
       </c>
       <c r="I118" t="s">
         <v>37</v>
@@ -4992,16 +4992,16 @@
         <v>1522254</v>
       </c>
       <c r="C119">
-        <v>559492156.43808949</v>
+        <v>561568189.38566566</v>
       </c>
       <c r="E119">
-        <v>590105948.22129643</v>
+        <v>601281272.96348023</v>
       </c>
       <c r="F119">
-        <v>367.54191904773415</v>
+        <v>368.90570784222979</v>
       </c>
       <c r="H119">
-        <v>387.65274929236278</v>
+        <v>394.99405024620086</v>
       </c>
       <c r="I119" t="s">
         <v>38</v>
@@ -5027,16 +5027,16 @@
         <v>4899321</v>
       </c>
       <c r="C120">
-        <v>608602371.60167003</v>
+        <v>616612027.22952116</v>
       </c>
       <c r="E120">
-        <v>233664825.33092338</v>
+        <v>242674962.80175027</v>
       </c>
       <c r="F120">
-        <v>124.22177922240041</v>
+        <v>125.8566293634406</v>
       </c>
       <c r="H120">
-        <v>47.693307976946883</v>
+        <v>49.532366383372363</v>
       </c>
       <c r="I120" t="s">
         <v>38</v>
@@ -5062,22 +5062,22 @@
         <v>214384</v>
       </c>
       <c r="C121">
-        <v>224453274.39477953</v>
+        <v>226926946.31147647</v>
       </c>
       <c r="D121">
-        <v>1212791.304439866</v>
+        <v>1171436.6412720666</v>
       </c>
       <c r="E121">
-        <v>5339958.5738476962</v>
+        <v>5276245.09990115</v>
       </c>
       <c r="F121">
-        <v>1046.9684043341831</v>
+        <v>1058.506914282206</v>
       </c>
       <c r="G121">
-        <v>5.657098031755476</v>
+        <v>5.4641980804167591</v>
       </c>
       <c r="H121">
-        <v>24.908382033396599</v>
+        <v>24.611188800942003</v>
       </c>
       <c r="I121" t="s">
         <v>24</v>
@@ -5103,22 +5103,22 @@
         <v>17815891</v>
       </c>
       <c r="C122">
-        <v>9977023857.3073559</v>
+        <v>10255593217.807478</v>
       </c>
       <c r="D122">
-        <v>73452877.78990376</v>
+        <v>75761413.560127914</v>
       </c>
       <c r="E122">
-        <v>302931009.50010264</v>
+        <v>312726926.96674973</v>
       </c>
       <c r="F122">
-        <v>560.00701044406674</v>
+        <v>575.64301542973499</v>
       </c>
       <c r="G122">
-        <v>4.1228854504051329</v>
+        <v>4.2524627906697408</v>
       </c>
       <c r="H122">
-        <v>17.003416191764007</v>
+        <v>17.553257761104945</v>
       </c>
       <c r="I122" t="s">
         <v>9</v>
@@ -5144,22 +5144,22 @@
         <v>7047532</v>
       </c>
       <c r="C123">
-        <v>7358750066.887845</v>
+        <v>7471693133.8554306</v>
       </c>
       <c r="D123">
-        <v>54173800.956723191</v>
+        <v>54046862.300287932</v>
       </c>
       <c r="E123">
-        <v>223650296.20335463</v>
+        <v>224042338.46947396</v>
       </c>
       <c r="F123">
-        <v>1044.159865735671</v>
+        <v>1060.1857691253376</v>
       </c>
       <c r="G123">
-        <v>7.6869180525499123</v>
+        <v>7.6689062639641694</v>
       </c>
       <c r="H123">
-        <v>31.734555615122375</v>
+        <v>31.790183921048389</v>
       </c>
       <c r="I123" t="s">
         <v>36</v>
@@ -5185,16 +5185,16 @@
         <v>6223129</v>
       </c>
       <c r="C124">
-        <v>1833263121.4793246</v>
+        <v>1915149334.4392805</v>
       </c>
       <c r="E124">
-        <v>1921185459.4316473</v>
+        <v>1955452908.0766084</v>
       </c>
       <c r="F124">
-        <v>294.58864206082256</v>
+        <v>307.7470086895645</v>
       </c>
       <c r="H124">
-        <v>308.71695885327904</v>
+        <v>314.22342491640597</v>
       </c>
       <c r="I124" t="s">
         <v>39</v>
@@ -5220,22 +5220,22 @@
         <v>2129192</v>
       </c>
       <c r="C125">
-        <v>1276588307.9487216</v>
+        <v>1281733581.6108696</v>
       </c>
       <c r="D125">
-        <v>6406281.7583488449</v>
+        <v>6403685.5811467394</v>
       </c>
       <c r="E125">
-        <v>29154087.539896362</v>
+        <v>28315120.991985682</v>
       </c>
       <c r="F125">
-        <v>599.5646742748994</v>
+        <v>601.98121240868352</v>
       </c>
       <c r="G125">
-        <v>3.0087853788426995</v>
+        <v>3.0075660537644042</v>
       </c>
       <c r="H125">
-        <v>13.692559214902349</v>
+        <v>13.298528733897967</v>
       </c>
       <c r="I125" t="s">
         <v>17</v>
@@ -5261,16 +5261,16 @@
         <v>4998069</v>
       </c>
       <c r="C126">
-        <v>1233946647.3362465</v>
+        <v>1242093887.1732459</v>
       </c>
       <c r="E126">
-        <v>1286747065.9737389</v>
+        <v>1304033876.4034657</v>
       </c>
       <c r="F126">
-        <v>246.88467632924767</v>
+        <v>248.51475383257932</v>
       </c>
       <c r="H126">
-        <v>257.44883993673136</v>
+        <v>260.9075377717806</v>
       </c>
       <c r="I126" t="s">
         <v>17</v>
@@ -5296,22 +5296,22 @@
         <v>5936999</v>
       </c>
       <c r="C127">
-        <v>5915755742.9743662</v>
+        <v>5915354395.4250202</v>
       </c>
       <c r="D127">
-        <v>43129098.293857001</v>
+        <v>42037477.215871073</v>
       </c>
       <c r="E127">
-        <v>176567293.56752852</v>
+        <v>172247708.60520864</v>
       </c>
       <c r="F127">
-        <v>996.42188637295817</v>
+        <v>996.35428529211822</v>
       </c>
       <c r="G127">
-        <v>7.2644611012831568</v>
+        <v>7.0805936157090592</v>
       </c>
       <c r="H127">
-        <v>29.740158886253564</v>
+        <v>29.012588448340416</v>
       </c>
       <c r="I127" t="s">
         <v>32</v>
@@ -5340,19 +5340,19 @@
         <v>4441839859.8258944</v>
       </c>
       <c r="D128">
-        <v>34180798.290247954</v>
+        <v>34125966.329832271</v>
       </c>
       <c r="E128">
-        <v>140702261.29432964</v>
+        <v>140485527.47999787</v>
       </c>
       <c r="F128">
         <v>502.80239921073417</v>
       </c>
       <c r="G128">
-        <v>3.86915961169939</v>
+        <v>3.8629528050335789</v>
       </c>
       <c r="H128">
-        <v>15.927056531915932</v>
+        <v>15.902522941044788</v>
       </c>
       <c r="I128" t="s">
         <v>31</v>
@@ -5381,19 +5381,19 @@
         <v>3674050333.9134855</v>
       </c>
       <c r="D129">
-        <v>27877709.124559883</v>
+        <v>28085205.176852252</v>
       </c>
       <c r="E129">
-        <v>114995718.50454322</v>
+        <v>115621873.40584517</v>
       </c>
       <c r="F129">
         <v>822.01280163663898</v>
       </c>
       <c r="G129">
-        <v>6.2372128027656935</v>
+        <v>6.2836368840307193</v>
       </c>
       <c r="H129">
-        <v>25.728540480676973</v>
+        <v>25.868633102687806</v>
       </c>
       <c r="I129" t="s">
         <v>16</v>
@@ -5419,16 +5419,16 @@
         <v>2508390</v>
       </c>
       <c r="C130">
-        <v>708820392.61458814</v>
+        <v>709660740.23354578</v>
       </c>
       <c r="E130">
-        <v>860081455.32388806</v>
+        <v>866599052.65583992</v>
       </c>
       <c r="F130">
-        <v>282.57981917269171</v>
+        <v>282.91483391081363</v>
       </c>
       <c r="H130">
-        <v>342.8818705719159</v>
+        <v>345.48018954621887</v>
       </c>
       <c r="I130" t="s">
         <v>22</v>
@@ -5457,13 +5457,13 @@
         <v>364119959.31296021</v>
       </c>
       <c r="E131">
-        <v>432701039.98151523</v>
+        <v>428837637.83882314</v>
       </c>
       <c r="F131">
         <v>302.18376954041719</v>
       </c>
       <c r="H131">
-        <v>359.09932427870359</v>
+        <v>355.89308031192945</v>
       </c>
       <c r="I131" t="s">
         <v>20</v>
@@ -5489,22 +5489,22 @@
         <v>11346108</v>
       </c>
       <c r="C132">
-        <v>7853649701.6747551</v>
+        <v>7842522276.5241222</v>
       </c>
       <c r="D132">
-        <v>58402579.390842259</v>
+        <v>57436145.85437803</v>
       </c>
       <c r="E132">
-        <v>242616951.52909166</v>
+        <v>235381912.35509163</v>
       </c>
       <c r="F132">
-        <v>692.18887231416761</v>
+        <v>691.20814613470293</v>
       </c>
       <c r="G132">
-        <v>5.147366779061354</v>
+        <v>5.0621892418420513</v>
       </c>
       <c r="H132">
-        <v>21.383275351256277</v>
+        <v>20.74560830507621</v>
       </c>
       <c r="I132" t="s">
         <v>20</v>
@@ -5565,7 +5565,7 @@
         <v>614883</v>
       </c>
       <c r="C134">
-        <v>376691121.97818947</v>
+        <v>369201738.19848979</v>
       </c>
       <c r="D134">
         <v>1928254.4594527727</v>
@@ -5574,7 +5574,7 @@
         <v>8754469.7376814894</v>
       </c>
       <c r="F134">
-        <v>612.62243707858158</v>
+        <v>600.44226006978533</v>
       </c>
       <c r="G134">
         <v>3.1359697039156598</v>
@@ -5606,22 +5606,22 @@
         <v>4882435</v>
       </c>
       <c r="C135">
-        <v>4397371877.0216417</v>
+        <v>4410030188.687171</v>
       </c>
       <c r="D135">
-        <v>33582946.943788856</v>
+        <v>33286035.991457656</v>
       </c>
       <c r="E135">
-        <v>138237831.4821268</v>
+        <v>137353655.9867239</v>
       </c>
       <c r="F135">
-        <v>900.65139157441763</v>
+        <v>903.24401424436178</v>
       </c>
       <c r="G135">
-        <v>6.8783193107105083</v>
+        <v>6.8175072461707433</v>
       </c>
       <c r="H135">
-        <v>28.31329684514526</v>
+        <v>28.132203703013744</v>
       </c>
       <c r="I135" t="s">
         <v>18</v>
@@ -5647,22 +5647,22 @@
         <v>4906656</v>
       </c>
       <c r="C136">
-        <v>5586395798.6434326</v>
+        <v>5560700781.4322119</v>
       </c>
       <c r="D136">
-        <v>31089100.125504501</v>
+        <v>31506930.232410088</v>
       </c>
       <c r="E136">
-        <v>132529113.63733557</v>
+        <v>133171689.45156378</v>
       </c>
       <c r="F136">
-        <v>1138.5342275153248</v>
+        <v>1133.2974599059344</v>
       </c>
       <c r="G136">
-        <v>6.3361075497252113</v>
+        <v>6.4212633272864625</v>
       </c>
       <c r="H136">
-        <v>27.010068290366302</v>
+        <v>27.141028319809614</v>
       </c>
       <c r="I136" t="s">
         <v>33</v>
@@ -5688,16 +5688,16 @@
         <v>5621453</v>
       </c>
       <c r="C137">
-        <v>1588790946.7998848</v>
+        <v>1548700902.2282805</v>
       </c>
       <c r="E137">
-        <v>1638775476.355752</v>
+        <v>1630441825.0278523</v>
       </c>
       <c r="F137">
-        <v>282.62994403757978</v>
+        <v>275.49832796401228</v>
       </c>
       <c r="H137">
-        <v>291.52168956242309</v>
+        <v>290.03921673415255</v>
       </c>
       <c r="I137" t="s">
         <v>14</v>
@@ -5723,16 +5723,16 @@
         <v>4776449</v>
       </c>
       <c r="C138">
-        <v>1243313550.7042024</v>
+        <v>1219088730.7376962</v>
       </c>
       <c r="E138">
-        <v>1503872262.091032</v>
+        <v>1483086656.4281054</v>
       </c>
       <c r="F138">
-        <v>260.30081148237997</v>
+        <v>255.22908979823634</v>
       </c>
       <c r="H138">
-        <v>314.85152716820215</v>
+        <v>310.49984128964951</v>
       </c>
       <c r="I138" t="s">
         <v>10</v>
@@ -5758,13 +5758,13 @@
         <v>2383346</v>
       </c>
       <c r="C139">
-        <v>609564979.73095024</v>
+        <v>617538339.98487008</v>
       </c>
       <c r="E139">
         <v>729864243.80104792</v>
       </c>
       <c r="F139">
-        <v>255.76017067221889</v>
+        <v>259.10561873302078</v>
       </c>
       <c r="H139">
         <v>306.23511810750426</v>
@@ -5793,22 +5793,22 @@
         <v>14585886</v>
       </c>
       <c r="C140">
-        <v>15375282123.686726</v>
+        <v>15454213700.851219</v>
       </c>
       <c r="D140">
-        <v>119873537.1069815</v>
+        <v>120599440.0296188</v>
       </c>
       <c r="E140">
-        <v>492954302.33283305</v>
+        <v>496042124.06947017</v>
       </c>
       <c r="F140">
-        <v>1054.1205466494614</v>
+        <v>1059.5320504254057</v>
       </c>
       <c r="G140">
-        <v>8.2184611279000457</v>
+        <v>8.2682286170081678</v>
       </c>
       <c r="H140">
-        <v>33.796664963159117</v>
+        <v>34.008364254970189</v>
       </c>
       <c r="I140" t="s">
         <v>18</v>
@@ -5878,19 +5878,19 @@
         <v>1297910902.9305837</v>
       </c>
       <c r="D142">
-        <v>4904897.4912966974</v>
+        <v>12710766.072019972</v>
       </c>
       <c r="E142">
-        <v>22321498.839654256</v>
+        <v>51448338.862937987</v>
       </c>
       <c r="F142">
         <v>1146.6667104844016</v>
       </c>
       <c r="G142">
-        <v>4.3333349453411456</v>
+        <v>11.229593870142098</v>
       </c>
       <c r="H142">
-        <v>19.720398056411618</v>
+        <v>45.453118045813262</v>
       </c>
       <c r="I142" t="s">
         <v>18</v>
@@ -5916,16 +5916,16 @@
         <v>3041196</v>
       </c>
       <c r="C143">
-        <v>407237378.59439993</v>
+        <v>403843733.77278</v>
       </c>
       <c r="E143">
-        <v>1628949514.3775997</v>
+        <v>1615374935.09112</v>
       </c>
       <c r="F143">
-        <v>133.90698218542965</v>
+        <v>132.79109066721776</v>
       </c>
       <c r="H143">
-        <v>535.62792874171862</v>
+        <v>531.16436266887104</v>
       </c>
       <c r="I143" t="s">
         <v>39</v>
@@ -5986,22 +5986,22 @@
         <v>9975515</v>
       </c>
       <c r="C145">
-        <v>48147114197.867523</v>
+        <v>48084672091.801163</v>
       </c>
       <c r="D145">
-        <v>350843375.13328421</v>
+        <v>352413720.88113075</v>
       </c>
       <c r="E145">
-        <v>1455087475.3049111</v>
+        <v>1458895670.3572078</v>
       </c>
       <c r="F145">
-        <v>4826.529176475352</v>
+        <v>4820.2696393921678</v>
       </c>
       <c r="G145">
-        <v>35.170452365946439</v>
+        <v>35.327872383644426</v>
       </c>
       <c r="H145">
-        <v>145.86590018709921</v>
+        <v>146.24765441756216</v>
       </c>
       <c r="I145" t="s">
         <v>11</v>
@@ -6027,22 +6027,22 @@
         <v>2161126</v>
       </c>
       <c r="C146">
-        <v>4167742416.3788638</v>
+        <v>4159901893.1318169</v>
       </c>
       <c r="D146">
         <v>22658140.091985397</v>
       </c>
       <c r="E146">
-        <v>94809615.611462891</v>
+        <v>93368487.158162355</v>
       </c>
       <c r="F146">
-        <v>1928.5050554104037</v>
+        <v>1924.8770747896313</v>
       </c>
       <c r="G146">
         <v>10.484414185931499</v>
       </c>
       <c r="H146">
-        <v>43.870471046788985</v>
+        <v>43.203629570030785</v>
       </c>
       <c r="I146" t="s">
         <v>11</v>
@@ -6068,16 +6068,16 @@
         <v>7465222</v>
       </c>
       <c r="C147">
-        <v>2213533357.0457726</v>
+        <v>2169516151.844058</v>
       </c>
       <c r="E147">
-        <v>2345090589.3738165</v>
+        <v>2258790751.2128291</v>
       </c>
       <c r="F147">
-        <v>296.51273023706096</v>
+        <v>290.6164279969247</v>
       </c>
       <c r="H147">
-        <v>314.13541209810188</v>
+        <v>302.57516135659853</v>
       </c>
       <c r="I147" t="s">
         <v>27</v>
@@ -6103,22 +6103,22 @@
         <v>6659324</v>
       </c>
       <c r="C148">
-        <v>4589233114.4880447</v>
+        <v>4550668130.3326826</v>
       </c>
       <c r="D148">
-        <v>32446088.410037681</v>
+        <v>32738395.512830816</v>
       </c>
       <c r="E148">
-        <v>133787048.26308471</v>
+        <v>134849716.01973835</v>
       </c>
       <c r="F148">
-        <v>689.14399036419388</v>
+        <v>683.3528643947468</v>
       </c>
       <c r="G148">
-        <v>4.8722795902463494</v>
+        <v>4.9161740009692902</v>
       </c>
       <c r="H148">
-        <v>20.090184568746725</v>
+        <v>20.249760489163517</v>
       </c>
       <c r="I148" t="s">
         <v>37</v>
@@ -6179,22 +6179,22 @@
         <v>8727176</v>
       </c>
       <c r="C150">
-        <v>5688060569.4572525</v>
+        <v>5758919829.6620302</v>
       </c>
       <c r="D150">
-        <v>40960259.65823549</v>
+        <v>42235509.807199769</v>
       </c>
       <c r="E150">
-        <v>171008076.12015164</v>
+        <v>174626035.35433429</v>
       </c>
       <c r="F150">
-        <v>651.76416396979414</v>
+        <v>659.88354419138909</v>
       </c>
       <c r="G150">
-        <v>4.6934151045235586</v>
+        <v>4.8395391369670753</v>
       </c>
       <c r="H150">
-        <v>19.594892565493311</v>
+        <v>20.009454989143599</v>
       </c>
       <c r="I150" t="s">
         <v>11</v>
@@ -6255,7 +6255,7 @@
         <v>2169628</v>
       </c>
       <c r="C152">
-        <v>17413431291.66853</v>
+        <v>17874232398.272579</v>
       </c>
       <c r="D152">
         <v>66111936.970068865</v>
@@ -6264,7 +6264,7 @@
         <v>300866129.61498511</v>
       </c>
       <c r="F152">
-        <v>8025.9986005289984</v>
+        <v>8238.3857501251732</v>
       </c>
       <c r="G152">
         <v>30.471554095941269</v>
@@ -6299,13 +6299,13 @@
         <v>2225225339.0593557</v>
       </c>
       <c r="E153">
-        <v>1461146702.2503119</v>
+        <v>1492318153.2435665</v>
       </c>
       <c r="F153">
         <v>386.73091816253043</v>
       </c>
       <c r="H153">
-        <v>253.93859930171496</v>
+        <v>259.3560119347095</v>
       </c>
       <c r="I153" t="s">
         <v>11</v>
@@ -6366,22 +6366,22 @@
         <v>5178428</v>
       </c>
       <c r="C155">
-        <v>5101595982.7197008</v>
+        <v>5120972844.5927715</v>
       </c>
       <c r="D155">
-        <v>39558603.367581405</v>
+        <v>39030409.579309255</v>
       </c>
       <c r="E155">
-        <v>161087523.96954632</v>
+        <v>160043267.91545659</v>
       </c>
       <c r="F155">
-        <v>985.16306159315161</v>
+        <v>988.90490407374045</v>
       </c>
       <c r="G155">
-        <v>7.6391142963813348</v>
+        <v>7.5371154294911999</v>
       </c>
       <c r="H155">
-        <v>31.10741792094943</v>
+        <v>30.90576289087279</v>
       </c>
       <c r="I155" t="s">
         <v>18</v>
@@ -6407,22 +6407,22 @@
         <v>3910602</v>
       </c>
       <c r="C156">
-        <v>6297228777.4161034</v>
+        <v>6276082510.7946348</v>
       </c>
       <c r="D156">
-        <v>46979272.394413471</v>
+        <v>46497280.037495404</v>
       </c>
       <c r="E156">
-        <v>193460315.09218019</v>
+        <v>191465581.94410226</v>
       </c>
       <c r="F156">
-        <v>1610.2965163461031</v>
+        <v>1604.8890965622772</v>
       </c>
       <c r="G156">
-        <v>12.013309560628638</v>
+        <v>11.890056834598717</v>
       </c>
       <c r="H156">
-        <v>49.470724735521586</v>
+        <v>48.960641339645981</v>
       </c>
       <c r="I156" t="s">
         <v>12</v>
@@ -6448,22 +6448,22 @@
         <v>7463219</v>
       </c>
       <c r="C157">
-        <v>7643875094.512022</v>
+        <v>7619813481.0281525</v>
       </c>
       <c r="D157">
-        <v>49667105.771455973</v>
+        <v>48921981.08270365</v>
       </c>
       <c r="E157">
-        <v>207927281.2141968</v>
+        <v>202884512.78892761</v>
       </c>
       <c r="F157">
-        <v>1024.2061896498044</v>
+        <v>1020.9821634643379</v>
       </c>
       <c r="G157">
-        <v>6.6549173716403036</v>
+        <v>6.555077786502534</v>
       </c>
       <c r="H157">
-        <v>27.86026796402421</v>
+        <v>27.184585202300454</v>
       </c>
       <c r="I157" t="s">
         <v>36</v>
@@ -6489,22 +6489,22 @@
         <v>2584028</v>
       </c>
       <c r="C158">
-        <v>2248325653.7670574</v>
+        <v>2235838022.9957895</v>
       </c>
       <c r="D158">
-        <v>17257670.16314397</v>
+        <v>16746968.563108467</v>
       </c>
       <c r="E158">
-        <v>70948052.89422451</v>
+        <v>68817482.52039355</v>
       </c>
       <c r="F158">
-        <v>870.08563907475377</v>
+        <v>865.25301699354247</v>
       </c>
       <c r="G158">
-        <v>6.6785925551673486</v>
+        <v>6.4809547586591432</v>
       </c>
       <c r="H158">
-        <v>27.456379301704359</v>
+        <v>26.631864097600157</v>
       </c>
       <c r="I158" t="s">
         <v>21</v>
@@ -6530,16 +6530,16 @@
         <v>5184267</v>
       </c>
       <c r="C159">
-        <v>1639174926.0653601</v>
+        <v>1603985921.5747514</v>
       </c>
       <c r="E159">
-        <v>1688533890.6916537</v>
+        <v>1688144164.9005284</v>
       </c>
       <c r="F159">
-        <v>316.18258204397267</v>
+        <v>309.3949292300631</v>
       </c>
       <c r="H159">
-        <v>325.70349688618541</v>
+        <v>325.62832217178021</v>
       </c>
       <c r="I159" t="s">
         <v>39</v>
@@ -6568,19 +6568,19 @@
         <v>24428103067.338165</v>
       </c>
       <c r="D160">
-        <v>90352926.73280248</v>
+        <v>143833494.55115643</v>
       </c>
       <c r="E160">
-        <v>411183465.6696232</v>
+        <v>582183192.23087132</v>
       </c>
       <c r="F160">
         <v>5951.3807928054975</v>
       </c>
       <c r="G160">
-        <v>22.012543145453364</v>
+        <v>35.041930782516644</v>
       </c>
       <c r="H160">
-        <v>100.17598882564589</v>
+        <v>141.83638650066263</v>
       </c>
       <c r="I160" t="s">
         <v>11</v>
@@ -6606,22 +6606,22 @@
         <v>5491581</v>
       </c>
       <c r="C161">
-        <v>5367892930.3918695</v>
+        <v>5359858990.0711155</v>
       </c>
       <c r="D161">
-        <v>42830765.526011869</v>
+        <v>43205116.983394407</v>
       </c>
       <c r="E161">
-        <v>175993202.97852373</v>
+        <v>177943019.74342686</v>
       </c>
       <c r="F161">
-        <v>977.47678316897623</v>
+        <v>976.01382736066648</v>
       </c>
       <c r="G161">
-        <v>7.7993505924818125</v>
+        <v>7.86751884082096</v>
       </c>
       <c r="H161">
-        <v>32.047820651015385</v>
+        <v>32.402876283428554</v>
       </c>
       <c r="I161" t="s">
         <v>18</v>
@@ -6647,16 +6647,16 @@
         <v>1299004</v>
       </c>
       <c r="C162">
-        <v>341691256.278952</v>
+        <v>353924217.18485999</v>
       </c>
       <c r="E162">
-        <v>413414071.71537691</v>
+        <v>418300556.27774405</v>
       </c>
       <c r="F162">
-        <v>263.04095774836105</v>
+        <v>272.45814268844435</v>
       </c>
       <c r="H162">
-        <v>318.25465642552058</v>
+        <v>322.01637275770054</v>
       </c>
       <c r="I162" t="s">
         <v>27</v>
@@ -6682,22 +6682,22 @@
         <v>3250811</v>
       </c>
       <c r="C163">
-        <v>2546342624.8850136</v>
+        <v>2570918529.0384555</v>
       </c>
       <c r="D163">
-        <v>22248987.903373286</v>
+        <v>21740069.706492938</v>
       </c>
       <c r="E163">
-        <v>90055427.227939516</v>
+        <v>87995520.240566656</v>
       </c>
       <c r="F163">
-        <v>783.29457630265597</v>
+        <v>790.85450647190987</v>
       </c>
       <c r="G163">
-        <v>6.8441345569992498</v>
+        <v>6.687583408107372</v>
       </c>
       <c r="H163">
-        <v>27.702449397377919</v>
+        <v>27.06878998519651</v>
       </c>
       <c r="I163" t="s">
         <v>21</v>
@@ -6723,22 +6723,22 @@
         <v>4583206</v>
       </c>
       <c r="C164">
-        <v>26847621917.076107</v>
+        <v>28374558874.69672</v>
       </c>
       <c r="D164">
-        <v>328942263.98237544</v>
+        <v>92080952.164099827</v>
       </c>
       <c r="E164">
-        <v>1331432973.2619958</v>
+        <v>419047466.44192058</v>
       </c>
       <c r="F164">
-        <v>5857.8257047743673</v>
+        <v>6190.9848422036275</v>
       </c>
       <c r="G164">
-        <v>71.771215167368752</v>
+        <v>20.090947726133155</v>
       </c>
       <c r="H164">
-        <v>290.5025375822068</v>
+        <v>91.431078254374896</v>
       </c>
       <c r="I164" t="s">
         <v>11</v>
@@ -6764,22 +6764,22 @@
         <v>12498933</v>
       </c>
       <c r="C165">
-        <v>20286267706.761059</v>
+        <v>20053556462.290791</v>
       </c>
       <c r="D165">
-        <v>155636154.3267532</v>
+        <v>153424672.29455036</v>
       </c>
       <c r="E165">
-        <v>639904542.1505425</v>
+        <v>631462650.96858883</v>
       </c>
       <c r="F165">
-        <v>1623.0399592318049</v>
+        <v>1604.4214703999767</v>
       </c>
       <c r="G165">
-        <v>12.451955245039974</v>
+        <v>12.275021579406047</v>
       </c>
       <c r="H165">
-        <v>51.19673352521712</v>
+        <v>50.521324577753063</v>
       </c>
       <c r="I165" t="s">
         <v>30</v>
@@ -6805,22 +6805,22 @@
         <v>13439341</v>
       </c>
       <c r="C166">
-        <v>7294394605.404459</v>
+        <v>7255131613.1377859</v>
       </c>
       <c r="D166">
-        <v>64170866.144436345</v>
+        <v>62835240.424111828</v>
       </c>
       <c r="E166">
-        <v>265364523.78884485</v>
+        <v>259292021.1595349</v>
       </c>
       <c r="F166">
-        <v>542.76430707461463</v>
+        <v>539.84281023435494</v>
       </c>
       <c r="G166">
-        <v>4.7748521407735947</v>
+        <v>4.6754703540978557</v>
       </c>
       <c r="H166">
-        <v>19.745352379171337</v>
+        <v>19.293507111660823</v>
       </c>
       <c r="I166" t="s">
         <v>38</v>
@@ -6846,22 +6846,22 @@
         <v>14171621</v>
       </c>
       <c r="C167">
-        <v>14228116254.168392</v>
+        <v>14136081102.357618</v>
       </c>
       <c r="D167">
-        <v>104634379.60963249</v>
+        <v>103958003.88102823</v>
       </c>
       <c r="E167">
-        <v>433961538.70823324</v>
+        <v>430877595.30645263</v>
       </c>
       <c r="F167">
-        <v>1003.9865061426913</v>
+        <v>997.49217837236961</v>
       </c>
       <c r="G167">
-        <v>7.3833741115171296</v>
+        <v>7.3356466335804651</v>
       </c>
       <c r="H167">
-        <v>30.621870194541135</v>
+        <v>30.404256175525202</v>
       </c>
       <c r="I167" t="s">
         <v>32</v>
@@ -6887,16 +6887,16 @@
         <v>1551911</v>
       </c>
       <c r="C168">
-        <v>645740802.93859506</v>
+        <v>651167196.24059987</v>
       </c>
       <c r="E168">
-        <v>347706586.19770497</v>
+        <v>350628490.28339994</v>
       </c>
       <c r="F168">
-        <v>416.09396604482799</v>
+        <v>419.59055399478439</v>
       </c>
       <c r="H168">
-        <v>224.05059710106119</v>
+        <v>225.93337522796085</v>
       </c>
       <c r="I168" t="s">
         <v>15</v>
@@ -6922,16 +6922,16 @@
         <v>1138255</v>
       </c>
       <c r="C169">
-        <v>506467865.77339196</v>
+        <v>508443354.1817978</v>
       </c>
       <c r="E169">
-        <v>272713466.18567264</v>
+        <v>273777190.71327573</v>
       </c>
       <c r="F169">
-        <v>444.95114519452318</v>
+        <v>446.68668635920579</v>
       </c>
       <c r="H169">
-        <v>239.58907818166631</v>
+        <v>240.52360034726468</v>
       </c>
       <c r="I169" t="s">
         <v>41</v>
@@ -6957,22 +6957,22 @@
         <v>1940463</v>
       </c>
       <c r="C170">
-        <v>2086513480.8844438</v>
+        <v>2080639162.2310891</v>
       </c>
       <c r="D170">
-        <v>11928525.586533379</v>
+        <v>12372662.701682061</v>
       </c>
       <c r="E170">
-        <v>50496634.298557207</v>
+        <v>51874623.234358877</v>
       </c>
       <c r="F170">
-        <v>1075.2657901152684</v>
+        <v>1072.238513298676</v>
       </c>
       <c r="G170">
-        <v>6.1472574259511141</v>
+        <v>6.3761394583055999</v>
       </c>
       <c r="H170">
-        <v>26.022982297810991</v>
+        <v>26.733116392509871</v>
       </c>
       <c r="I170" t="s">
         <v>33</v>
@@ -6998,16 +6998,16 @@
         <v>166824</v>
       </c>
       <c r="C171">
-        <v>154239444.48672545</v>
+        <v>153187992.50401327</v>
       </c>
       <c r="E171">
-        <v>165071847.8273479</v>
+        <v>164061691.90219745</v>
       </c>
       <c r="F171">
-        <v>924.56387861893643</v>
+        <v>918.26111653007524</v>
       </c>
       <c r="H171">
-        <v>989.49700179439355</v>
+        <v>983.44178237062681</v>
       </c>
       <c r="I171" t="s">
         <v>37</v>
@@ -7138,16 +7138,16 @@
         <v>334348.61</v>
       </c>
       <c r="C175">
-        <v>322296186.87099785</v>
+        <v>318205212.30550456</v>
       </c>
       <c r="E175">
-        <v>382105504.96932352</v>
+        <v>376888332.58531451</v>
       </c>
       <c r="F175">
-        <v>963.95252509348813</v>
+        <v>951.71686912502673</v>
       </c>
       <c r="H175">
-        <v>1142.8356318553965</v>
+        <v>1127.2316418043865</v>
       </c>
       <c r="I175" t="s">
         <v>36</v>
@@ -7249,16 +7249,16 @@
         <v>254563</v>
       </c>
       <c r="C178">
-        <v>34954931.49767372</v>
+        <v>34959971.70967634</v>
       </c>
       <c r="E178">
-        <v>139819725.99069488</v>
+        <v>139839886.83870536</v>
       </c>
       <c r="F178">
-        <v>137.31348034739423</v>
+        <v>137.33327981551261</v>
       </c>
       <c r="H178">
-        <v>549.25392138957693</v>
+        <v>549.33311926205045</v>
       </c>
       <c r="I178" t="s">
         <v>42</v>

--- a/r_map/data_boot_cq_remov_Se.xlsx
+++ b/r_map/data_boot_cq_remov_Se.xlsx
@@ -664,22 +664,22 @@
         <v>6578669</v>
       </c>
       <c r="C3">
-        <v>4419515354.0980797</v>
+        <v>4422122902.8514156</v>
       </c>
       <c r="D3">
-        <v>123868985.92483482</v>
+        <v>123992294.41711445</v>
       </c>
       <c r="E3">
-        <v>1029863418.5426314</v>
+        <v>1031931545.1790764</v>
       </c>
       <c r="F3">
-        <v>671.79475880274254</v>
+        <v>672.19112298421089</v>
       </c>
       <c r="G3">
-        <v>18.828882548253272</v>
+        <v>18.847626232162533</v>
       </c>
       <c r="H3">
-        <v>156.54586338705161</v>
+        <v>156.86023193735335</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -705,22 +705,22 @@
         <v>2726384</v>
       </c>
       <c r="C4">
-        <v>5101634564.7876892</v>
+        <v>5091275156.7761269</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3790204078.1569309</v>
+        <v>3801790801.9506888</v>
       </c>
       <c r="F4">
-        <v>1871.2091050958666</v>
+        <v>1867.4094173000308</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1390.1945133763002</v>
+        <v>1394.4443636518879</v>
       </c>
       <c r="I4" t="s">
         <v>9</v>
@@ -746,22 +746,22 @@
         <v>4273045</v>
       </c>
       <c r="C5">
-        <v>11932149058.652367</v>
+        <v>11995394669.5879</v>
       </c>
       <c r="D5">
-        <v>152320219.44612339</v>
+        <v>154976535.10541582</v>
       </c>
       <c r="E5">
-        <v>693187902.02150929</v>
+        <v>627285975.42668295</v>
       </c>
       <c r="F5">
-        <v>2792.4229814224673</v>
+        <v>2807.2240450516902</v>
       </c>
       <c r="G5">
-        <v>35.646762307938104</v>
+        <v>36.268406980365484</v>
       </c>
       <c r="H5">
-        <v>162.22340322217747</v>
+        <v>146.80069492052692</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
@@ -787,22 +787,22 @@
         <v>1657543</v>
       </c>
       <c r="C6">
-        <v>1633732936.2722969</v>
+        <v>1645783289.2013245</v>
       </c>
       <c r="D6">
-        <v>52571772.952662945</v>
+        <v>52923964.568646945</v>
       </c>
       <c r="E6">
-        <v>224372908.86033994</v>
+        <v>225758418.48637426</v>
       </c>
       <c r="F6">
-        <v>985.6353266686275</v>
+        <v>992.90533591063672</v>
       </c>
       <c r="G6">
-        <v>31.716687261001944</v>
+        <v>31.92916537830207</v>
       </c>
       <c r="H6">
-        <v>135.36475908036169</v>
+        <v>136.20064063880952</v>
       </c>
       <c r="I6" t="s">
         <v>9</v>
@@ -869,22 +869,22 @@
         <v>1380537</v>
       </c>
       <c r="C8">
-        <v>586427650.39588666</v>
+        <v>592676878.69828033</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>340928478.98766851</v>
+        <v>340150726.52065897</v>
       </c>
       <c r="F8">
-        <v>424.78227703849058</v>
+        <v>429.30894188151444</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>246.95352532215256</v>
+        <v>246.39015580216898</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -910,19 +910,19 @@
         <v>1368602</v>
       </c>
       <c r="C9">
-        <v>997798829.78173947</v>
+        <v>1003087600.1675357</v>
       </c>
       <c r="D9">
-        <v>12737431.95533002</v>
+        <v>12825886.343908701</v>
       </c>
       <c r="E9">
         <v>55148457.509437904</v>
       </c>
       <c r="F9">
-        <v>729.06427857166614</v>
+        <v>732.92863825095662</v>
       </c>
       <c r="G9">
-        <v>9.3068926943918093</v>
+        <v>9.37152389365842</v>
       </c>
       <c r="H9">
         <v>40.295467571608036</v>
@@ -951,22 +951,22 @@
         <v>1443465</v>
       </c>
       <c r="C10">
-        <v>588724670.3360436</v>
+        <v>584914819.98372102</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>317005591.71940804</v>
+        <v>314954133.83738822</v>
       </c>
       <c r="F10">
-        <v>407.8551751071509</v>
+        <v>405.21579670010772</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>219.61432505769662</v>
+        <v>218.19312130005801</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -1033,22 +1033,22 @@
         <v>2081937</v>
       </c>
       <c r="C12">
-        <v>1344781294.5472138</v>
+        <v>1340795666.9244261</v>
       </c>
       <c r="D12">
-        <v>18600799.634709869</v>
+        <v>18294700.514657684</v>
       </c>
       <c r="E12">
-        <v>79093779.265039206</v>
+        <v>78256656.780099586</v>
       </c>
       <c r="F12">
-        <v>645.92794813061766</v>
+        <v>644.01356377470893</v>
       </c>
       <c r="G12">
-        <v>8.9343719981487766</v>
+        <v>8.787345877736783</v>
       </c>
       <c r="H12">
-        <v>37.990476784378778</v>
+        <v>37.588388495953332</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
@@ -1074,22 +1074,22 @@
         <v>8921964</v>
       </c>
       <c r="C13">
-        <v>8212818024.6822023</v>
+        <v>8190095807.4731874</v>
       </c>
       <c r="D13">
-        <v>127256459.65059422</v>
+        <v>125359776.67476153</v>
       </c>
       <c r="E13">
-        <v>546035793.74058414</v>
+        <v>539632888.07222557</v>
       </c>
       <c r="F13">
-        <v>920.51683067564522</v>
+        <v>917.97005765470328</v>
       </c>
       <c r="G13">
-        <v>14.263278763576519</v>
+        <v>14.050692949978449</v>
       </c>
       <c r="H13">
-        <v>61.201299819253265</v>
+        <v>60.483643295604594</v>
       </c>
       <c r="I13" t="s">
         <v>16</v>
@@ -1115,22 +1115,22 @@
         <v>7744214</v>
       </c>
       <c r="C14">
-        <v>6374536250.6460171</v>
+        <v>6353447061.6926823</v>
       </c>
       <c r="D14">
-        <v>91170771.438324705</v>
+        <v>88837528.09584631</v>
       </c>
       <c r="E14">
-        <v>388765633.97247523</v>
+        <v>383428316.36230338</v>
       </c>
       <c r="F14">
-        <v>823.13534345073845</v>
+        <v>820.41212467691139</v>
       </c>
       <c r="G14">
-        <v>11.772759822794761</v>
+        <v>11.471471229468388</v>
       </c>
       <c r="H14">
-        <v>50.200786544957978</v>
+        <v>49.51158585781635</v>
       </c>
       <c r="I14" t="s">
         <v>17</v>
@@ -1156,22 +1156,22 @@
         <v>1912394</v>
       </c>
       <c r="C15">
-        <v>1110154895.2266388</v>
+        <v>1114157299.6423182</v>
       </c>
       <c r="D15">
-        <v>35730965.279070154</v>
+        <v>35834096.594271958</v>
       </c>
       <c r="E15">
-        <v>154694894.16500908</v>
+        <v>154394247.777394</v>
       </c>
       <c r="F15">
-        <v>580.50532224355379</v>
+        <v>582.59819871967716</v>
       </c>
       <c r="G15">
-        <v>18.683893213987364</v>
+        <v>18.737821073623927</v>
       </c>
       <c r="H15">
-        <v>80.890702525216597</v>
+        <v>80.733493086358777</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
@@ -1197,22 +1197,22 @@
         <v>3755194</v>
       </c>
       <c r="C16">
-        <v>1740504987.6312132</v>
+        <v>1741583626.7497487</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1071630099.1907527</v>
+        <v>1074019439.7659798</v>
       </c>
       <c r="F16">
-        <v>463.49269508611621</v>
+        <v>463.77993433887804</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>285.37276614490565</v>
+        <v>286.00904234667496</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
@@ -1238,22 +1238,22 @@
         <v>9164672</v>
       </c>
       <c r="C17">
-        <v>23898062485.691849</v>
+        <v>23991125888.882469</v>
       </c>
       <c r="D17">
-        <v>350269760.13518631</v>
+        <v>353766311.58163476</v>
       </c>
       <c r="E17">
-        <v>1503067070.9594922</v>
+        <v>1528401266.2072797</v>
       </c>
       <c r="F17">
-        <v>2607.6287820984589</v>
+        <v>2617.7833629924203</v>
       </c>
       <c r="G17">
-        <v>38.219563137140788</v>
+        <v>38.601088132956072</v>
       </c>
       <c r="H17">
-        <v>164.00664104067141</v>
+        <v>166.77097294996261</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
@@ -1320,22 +1320,22 @@
         <v>8636016</v>
       </c>
       <c r="C19">
-        <v>3351978778.7852354</v>
+        <v>3366395315.5895519</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1804911650.1151266</v>
+        <v>1812674400.7020664</v>
       </c>
       <c r="F19">
-        <v>388.13948223176465</v>
+        <v>389.80883263643233</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>208.99818274018097</v>
+        <v>209.89706372730973</v>
       </c>
       <c r="I19" t="s">
         <v>19</v>
@@ -1484,22 +1484,22 @@
         <v>3900879</v>
       </c>
       <c r="C23">
-        <v>3535393818.4311972</v>
+        <v>3533028107.699151</v>
       </c>
       <c r="D23">
-        <v>53587932.654858001</v>
+        <v>53382873.329583749</v>
       </c>
       <c r="E23">
-        <v>233499050.30209565</v>
+        <v>233397961.34692258</v>
       </c>
       <c r="F23">
-        <v>906.30696784781003</v>
+        <v>905.70051203822288</v>
       </c>
       <c r="G23">
-        <v>13.737399354057894</v>
+        <v>13.684831887783176</v>
       </c>
       <c r="H23">
-        <v>59.858060273619266</v>
+        <v>59.832145869411121</v>
       </c>
       <c r="I23" t="s">
         <v>17</v>
@@ -1525,22 +1525,22 @@
         <v>602337</v>
       </c>
       <c r="C24">
-        <v>435195377.72011334</v>
+        <v>437809242.04597437</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>69166987.516015187</v>
+        <v>67898152.229422942</v>
       </c>
       <c r="F24">
-        <v>722.51144744572116</v>
+        <v>726.85098548814767</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>114.83104560406414</v>
+        <v>112.72452502406948</v>
       </c>
       <c r="I24" t="s">
         <v>20</v>
@@ -1566,22 +1566,22 @@
         <v>4962679</v>
       </c>
       <c r="C25">
-        <v>3119789629.9291773</v>
+        <v>3110497647.299201</v>
       </c>
       <c r="D25">
-        <v>31830169.044946499</v>
+        <v>31321832.536927596</v>
       </c>
       <c r="E25">
-        <v>137766131.24943924</v>
+        <v>135799938.753021</v>
       </c>
       <c r="F25">
-        <v>628.65029753670899</v>
+        <v>626.77792524948745</v>
       </c>
       <c r="G25">
-        <v>6.4139085048512099</v>
+        <v>6.3114766312565447</v>
       </c>
       <c r="H25">
-        <v>27.760435693994964</v>
+        <v>27.364239910141478</v>
       </c>
       <c r="I25" t="s">
         <v>21</v>
@@ -1607,22 +1607,22 @@
         <v>9744872</v>
       </c>
       <c r="C26">
-        <v>9037814847.9279594</v>
+        <v>9070187630.0941849</v>
       </c>
       <c r="D26">
-        <v>114328131.29224196</v>
+        <v>113371178.51816572</v>
       </c>
       <c r="E26">
-        <v>1583168149.5487185</v>
+        <v>1585041205.6887672</v>
       </c>
       <c r="F26">
-        <v>927.44315655741389</v>
+        <v>930.76518912656672</v>
       </c>
       <c r="G26">
-        <v>11.732132683963624</v>
+        <v>11.633932032987783</v>
       </c>
       <c r="H26">
-        <v>162.46166697199496</v>
+        <v>162.6538763863463</v>
       </c>
       <c r="I26" t="s">
         <v>17</v>
@@ -1648,22 +1648,22 @@
         <v>2476429</v>
       </c>
       <c r="C27">
-        <v>2760982162.6823425</v>
+        <v>2751213361.6226711</v>
       </c>
       <c r="D27">
-        <v>40674335.533894777</v>
+        <v>40848547.038767964</v>
       </c>
       <c r="E27">
-        <v>172974340.82335925</v>
+        <v>175356355.57917988</v>
       </c>
       <c r="F27">
-        <v>1114.9046319043844</v>
+        <v>1110.9599191507898</v>
       </c>
       <c r="G27">
-        <v>16.424591835217072</v>
+        <v>16.494939705022016</v>
       </c>
       <c r="H27">
-        <v>69.848293984345702</v>
+        <v>70.810168827444627</v>
       </c>
       <c r="I27" t="s">
         <v>17</v>
@@ -1689,22 +1689,22 @@
         <v>786988</v>
       </c>
       <c r="C28">
-        <v>887107857.75893998</v>
+        <v>890437336.68860078</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>344986389.12847674</v>
+        <v>346281186.49001151</v>
       </c>
       <c r="F28">
-        <v>1127.2190398823616</v>
+        <v>1131.4497002350745</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>438.36295995425183</v>
+        <v>440.00821675808464</v>
       </c>
       <c r="I28" t="s">
         <v>17</v>
@@ -1730,22 +1730,22 @@
         <v>12851943</v>
       </c>
       <c r="C29">
-        <v>13904268257.667652</v>
+        <v>13816133148.047886</v>
       </c>
       <c r="D29">
-        <v>210777041.60667968</v>
+        <v>210499830.00050962</v>
       </c>
       <c r="E29">
-        <v>903536904.67358506</v>
+        <v>902235539.93267441</v>
       </c>
       <c r="F29">
-        <v>1081.8806352990869</v>
+        <v>1075.0229088354879</v>
       </c>
       <c r="G29">
-        <v>16.400402772302964</v>
+        <v>16.378833146125036</v>
       </c>
       <c r="H29">
-        <v>70.303525674957086</v>
+        <v>70.202267465135378</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
@@ -1771,22 +1771,22 @@
         <v>1157290</v>
       </c>
       <c r="C30">
-        <v>1389473034.6233199</v>
+        <v>1396203685.5719566</v>
       </c>
       <c r="D30">
-        <v>21326068.747031905</v>
+        <v>21350607.846583359</v>
       </c>
       <c r="E30">
-        <v>91413024.453568712</v>
+        <v>91575350.018933415</v>
       </c>
       <c r="F30">
-        <v>1200.6264934660455</v>
+        <v>1206.4423658477622</v>
       </c>
       <c r="G30">
-        <v>18.427592692438285</v>
+        <v>18.4487966253777</v>
       </c>
       <c r="H30">
-        <v>78.988865758425902</v>
+        <v>79.129129275232145</v>
       </c>
       <c r="I30" t="s">
         <v>22</v>
@@ -1812,22 +1812,22 @@
         <v>2981276</v>
       </c>
       <c r="C31">
-        <v>1040465965.8900619</v>
+        <v>1055879659.6027089</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>743170563.31320417</v>
+        <v>744903291.48158574</v>
       </c>
       <c r="F31">
-        <v>349.0002153071577</v>
+        <v>354.17038194474748</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>249.27935666245062</v>
+        <v>249.86056020361272</v>
       </c>
       <c r="I31" t="s">
         <v>23</v>
@@ -1853,22 +1853,22 @@
         <v>1265697</v>
       </c>
       <c r="C32">
-        <v>466484753.44249314</v>
+        <v>465275992.42491949</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>325859585.87455416</v>
+        <v>329947941.69097954</v>
       </c>
       <c r="F32">
-        <v>368.5595789849333</v>
+        <v>367.60456288109987</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>257.45465611007546</v>
+        <v>260.68477818228183</v>
       </c>
       <c r="I32" t="s">
         <v>23</v>
@@ -1894,22 +1894,22 @@
         <v>5057931</v>
       </c>
       <c r="C33">
-        <v>1676324488.1108279</v>
+        <v>1689354316.9530883</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1232401136.9714344</v>
+        <v>1224512008.3449433</v>
       </c>
       <c r="F33">
-        <v>331.42494195963286</v>
+        <v>334.00106030570373</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>243.65716672912984</v>
+        <v>242.09741262681189</v>
       </c>
       <c r="I33" t="s">
         <v>23</v>
@@ -1935,22 +1935,22 @@
         <v>1796131</v>
       </c>
       <c r="C34">
-        <v>371313185.94860005</v>
+        <v>359814706.91910601</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>798796556.68243194</v>
+        <v>796896982.52096939</v>
       </c>
       <c r="F34">
-        <v>206.72945678717201</v>
+        <v>200.32765255936567</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>444.73179110122368</v>
+        <v>443.67419888692382</v>
       </c>
       <c r="I34" t="s">
         <v>23</v>
@@ -1976,22 +1976,22 @@
         <v>2372033</v>
       </c>
       <c r="C35">
-        <v>753368838.6091367</v>
+        <v>757333366.95895684</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>532863069.58336991</v>
+        <v>533102535.55028403</v>
       </c>
       <c r="F35">
-        <v>317.60470390131024</v>
+        <v>319.27606696827439</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>224.64403723867665</v>
+        <v>224.74499113219926</v>
       </c>
       <c r="I35" t="s">
         <v>23</v>
@@ -2017,22 +2017,22 @@
         <v>4881045</v>
       </c>
       <c r="C36">
-        <v>1401548243.6554892</v>
+        <v>1429587611.0006206</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1053625993.6071007</v>
+        <v>1055410982.1199076</v>
       </c>
       <c r="F36">
-        <v>287.14102075590148</v>
+        <v>292.8855626204267</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>215.86074162543076</v>
+        <v>216.22643964968722</v>
       </c>
       <c r="I36" t="s">
         <v>23</v>
@@ -2058,22 +2058,22 @@
         <v>10305807</v>
       </c>
       <c r="C37">
-        <v>5629029676.5199738</v>
+        <v>5658570272.4808693</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>837519655.86565018</v>
+        <v>843143848.49461591</v>
       </c>
       <c r="F37">
-        <v>546.19979556379951</v>
+        <v>549.06619855008626</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>81.266770847314547</v>
+        <v>81.812501291225033</v>
       </c>
       <c r="I37" t="s">
         <v>23</v>
@@ -2099,22 +2099,22 @@
         <v>1880003</v>
       </c>
       <c r="C38">
-        <v>1005914984.2726319</v>
+        <v>997461917.17790389</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>391189160.55046797</v>
+        <v>387901856.680296</v>
       </c>
       <c r="F38">
-        <v>535.06030802750411</v>
+        <v>530.56400291802936</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>208.07900867736274</v>
+        <v>206.33044557923364</v>
       </c>
       <c r="I38" t="s">
         <v>23</v>
@@ -2140,22 +2140,22 @@
         <v>1542905</v>
       </c>
       <c r="C39">
-        <v>908066263.76939476</v>
+        <v>894198017.28369319</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>133454380.12051789</v>
+        <v>134178995.21978024</v>
       </c>
       <c r="F39">
-        <v>588.54321151943554</v>
+        <v>579.5548120485015</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>86.495526374286101</v>
+        <v>86.965169741351701</v>
       </c>
       <c r="I39" t="s">
         <v>23</v>
@@ -2181,22 +2181,22 @@
         <v>2219933</v>
       </c>
       <c r="C40">
-        <v>731193422.18695736</v>
+        <v>742685943.19711697</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>537414080.98669291</v>
+        <v>539023005.81890035</v>
       </c>
       <c r="F40">
-        <v>329.37634702802171</v>
+        <v>334.55331453567157</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>242.08572104955101</v>
+        <v>242.81048383843131</v>
       </c>
       <c r="I40" t="s">
         <v>23</v>
@@ -2222,22 +2222,22 @@
         <v>1928627</v>
       </c>
       <c r="C41">
-        <v>1679452986.3521609</v>
+        <v>1679151004.030333</v>
       </c>
       <c r="D41">
         <v>23892453.336072035</v>
       </c>
       <c r="E41">
-        <v>103898131.02806595</v>
+        <v>104589037.30291635</v>
       </c>
       <c r="F41">
-        <v>870.80238239543519</v>
+        <v>870.64580348109462</v>
       </c>
       <c r="G41">
         <v>12.388322540373039</v>
       </c>
       <c r="H41">
-        <v>53.871552678701455</v>
+        <v>54.229790054228395</v>
       </c>
       <c r="I41" t="s">
         <v>23</v>
@@ -2263,22 +2263,22 @@
         <v>1066912</v>
       </c>
       <c r="C42">
-        <v>1652802085.0770051</v>
+        <v>1644019979.2517457</v>
       </c>
       <c r="D42">
-        <v>26679127.939761855</v>
+        <v>26593224.101510663</v>
       </c>
       <c r="E42">
-        <v>113770443.86342888</v>
+        <v>113867823.92006482</v>
       </c>
       <c r="F42">
-        <v>1549.1456512599025</v>
+        <v>1540.914320254853</v>
       </c>
       <c r="G42">
-        <v>25.005931079378481</v>
+        <v>24.925414749773797</v>
       </c>
       <c r="H42">
-        <v>106.63526501101204</v>
+        <v>106.72653782136186</v>
       </c>
       <c r="I42" t="s">
         <v>23</v>
@@ -2304,22 +2304,22 @@
         <v>5225154</v>
       </c>
       <c r="C43">
-        <v>4465271617.6419477</v>
+        <v>4457108672.7885122</v>
       </c>
       <c r="D43">
-        <v>79036050.889453381</v>
+        <v>79101807.713860035</v>
       </c>
       <c r="E43">
-        <v>342622545.65585512</v>
+        <v>342349424.73301136</v>
       </c>
       <c r="F43">
-        <v>854.57225139047534</v>
+        <v>853.01001133909392</v>
       </c>
       <c r="G43">
-        <v>15.126071095598977</v>
+        <v>15.138655762846422</v>
       </c>
       <c r="H43">
-        <v>65.571760307132593</v>
+        <v>65.519489900778311</v>
       </c>
       <c r="I43" t="s">
         <v>24</v>
@@ -2345,22 +2345,22 @@
         <v>2992958</v>
       </c>
       <c r="C44">
-        <v>2647746894.438591</v>
+        <v>2625501397.4711566</v>
       </c>
       <c r="D44">
-        <v>35086203.207087897</v>
+        <v>33866677.970893972</v>
       </c>
       <c r="E44">
-        <v>432178298.99230283</v>
+        <v>423169830.19512743</v>
       </c>
       <c r="F44">
-        <v>884.65888744131757</v>
+        <v>877.22627496649022</v>
       </c>
       <c r="G44">
-        <v>11.722918666779787</v>
+        <v>11.315453798848488</v>
       </c>
       <c r="H44">
-        <v>144.39838413780041</v>
+        <v>141.38849599464055</v>
       </c>
       <c r="I44" t="s">
         <v>24</v>
@@ -2427,22 +2427,22 @@
         <v>8966852</v>
       </c>
       <c r="C46">
-        <v>10415363204.9016</v>
+        <v>10523606231.129457</v>
       </c>
       <c r="D46">
-        <v>130197234.95266417</v>
+        <v>131076352.7991903</v>
       </c>
       <c r="E46">
-        <v>557869769.83990252</v>
+        <v>562302040.14648378</v>
       </c>
       <c r="F46">
-        <v>1161.5406616392911</v>
+        <v>1173.6121250946774</v>
       </c>
       <c r="G46">
-        <v>14.519837614434159</v>
+        <v>14.617878470525698</v>
       </c>
       <c r="H46">
-        <v>62.21467353759185</v>
+        <v>62.708968559588556</v>
       </c>
       <c r="I46" t="s">
         <v>24</v>
@@ -2468,22 +2468,22 @@
         <v>1441562</v>
       </c>
       <c r="C47">
-        <v>1833504168.4789953</v>
+        <v>1822232176.0320368</v>
       </c>
       <c r="D47">
-        <v>29249383.134350084</v>
+        <v>28667460.780007638</v>
       </c>
       <c r="E47">
-        <v>123558422.994164</v>
+        <v>121345549.34502189</v>
       </c>
       <c r="F47">
-        <v>1271.8871394216796</v>
+        <v>1264.0678486475342</v>
       </c>
       <c r="G47">
-        <v>20.290062539349737</v>
+        <v>19.886387668381683</v>
       </c>
       <c r="H47">
-        <v>85.711487257685761</v>
+        <v>84.176434551564128</v>
       </c>
       <c r="I47" t="s">
         <v>24</v>
@@ -2509,22 +2509,22 @@
         <v>1650341</v>
       </c>
       <c r="C48">
-        <v>613214385.95227265</v>
+        <v>612862361.78805768</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>456611885.07285213</v>
+        <v>462948078.40197831</v>
       </c>
       <c r="F48">
-        <v>371.56829161504965</v>
+        <v>371.35498771954263</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>276.67729582725758</v>
+        <v>280.5166195361918</v>
       </c>
       <c r="I48" t="s">
         <v>24</v>
@@ -2591,22 +2591,22 @@
         <v>508325</v>
       </c>
       <c r="C50">
-        <v>868168189.52629137</v>
+        <v>867290323.71490216</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>467475178.97569525</v>
+        <v>467002482.00033188</v>
       </c>
       <c r="F50">
-        <v>1707.8998466065832</v>
+        <v>1706.1728691583182</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>919.63837894200606</v>
+        <v>918.7084680083251</v>
       </c>
       <c r="I50" t="s">
         <v>24</v>
@@ -2632,22 +2632,22 @@
         <v>2093626</v>
       </c>
       <c r="C51">
-        <v>1099713908.9085038</v>
+        <v>1106042046.2931437</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>806369831.22306323</v>
+        <v>817364489.11247873</v>
       </c>
       <c r="F51">
-        <v>525.26760219280027</v>
+        <v>528.29017517605519</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>385.1546700428172</v>
+        <v>390.40616094396933</v>
       </c>
       <c r="I51" t="s">
         <v>24</v>
@@ -2673,7 +2673,7 @@
         <v>1408704</v>
       </c>
       <c r="C52">
-        <v>1687068365.8960543</v>
+        <v>1687362139.2997305</v>
       </c>
       <c r="D52">
         <v>21768354.715604167</v>
@@ -2682,7 +2682,7 @@
         <v>98931749.09572503</v>
       </c>
       <c r="F52">
-        <v>1197.6031628333947</v>
+        <v>1197.8117044458811</v>
       </c>
       <c r="G52">
         <v>15.45275282501091</v>
@@ -2796,22 +2796,22 @@
         <v>245567</v>
       </c>
       <c r="C55">
-        <v>61160486.850176945</v>
+        <v>61897945.802877903</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>43817027.952399015</v>
+        <v>44099657.097323805</v>
       </c>
       <c r="F55">
-        <v>249.0582482588334</v>
+        <v>252.06133480018855</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>178.43206926174534</v>
+        <v>179.5829940396055</v>
       </c>
       <c r="I55" t="s">
         <v>25</v>
@@ -2837,22 +2837,22 @@
         <v>9501203</v>
       </c>
       <c r="C56">
-        <v>4394173538.6532364</v>
+        <v>4390451830.3083982</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1530272456.7554016</v>
+        <v>1535632869.222739</v>
       </c>
       <c r="F56">
-        <v>462.48601768147006</v>
+        <v>462.09430851107993</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>161.06091583933124</v>
+        <v>161.62509833994062</v>
       </c>
       <c r="I56" t="s">
         <v>25</v>
@@ -2878,22 +2878,22 @@
         <v>2526066</v>
       </c>
       <c r="C57">
-        <v>1243671847.246237</v>
+        <v>1242936509.9837379</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>383677425.78506774</v>
+        <v>381153402.91120774</v>
       </c>
       <c r="F57">
-        <v>492.33545253617166</v>
+        <v>492.0443527539415</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>151.88733223323055</v>
+        <v>150.88814105063278</v>
       </c>
       <c r="I57" t="s">
         <v>25</v>
@@ -2919,22 +2919,22 @@
         <v>1081826</v>
       </c>
       <c r="C58">
-        <v>374101796.48949116</v>
+        <v>355324657.39572352</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>258540246.76560211</v>
+        <v>263337949.92195603</v>
       </c>
       <c r="F58">
-        <v>345.80588420826564</v>
+        <v>328.4489903142682</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>238.98505560561691</v>
+        <v>243.41987521279395</v>
       </c>
       <c r="I58" t="s">
         <v>25</v>
@@ -2960,22 +2960,22 @@
         <v>250729</v>
       </c>
       <c r="C59">
-        <v>51664691.523781195</v>
+        <v>50321236.264134958</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>120431512.53531727</v>
+        <v>120747415.02499199</v>
       </c>
       <c r="F59">
-        <v>206.05790125506502</v>
+        <v>200.69970471758336</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>480.32542121301196</v>
+        <v>481.58535719837749</v>
       </c>
       <c r="I59" t="s">
         <v>25</v>
@@ -3001,22 +3001,22 @@
         <v>750815</v>
       </c>
       <c r="C60">
-        <v>521966445.09282774</v>
+        <v>522657629.04866189</v>
       </c>
       <c r="D60">
-        <v>7089979.5511427121</v>
+        <v>7007312.082820951</v>
       </c>
       <c r="E60">
-        <v>36993575.248126477</v>
+        <v>36716075.376664534</v>
       </c>
       <c r="F60">
-        <v>695.19980966393553</v>
+        <v>696.12038791002033</v>
       </c>
       <c r="G60">
-        <v>9.443044626362969</v>
+        <v>9.332940981228333</v>
       </c>
       <c r="H60">
-        <v>49.271225599017704</v>
+        <v>48.901627400444227</v>
       </c>
       <c r="I60" t="s">
         <v>25</v>
@@ -3042,22 +3042,22 @@
         <v>6981232</v>
       </c>
       <c r="C61">
-        <v>5025052800.1989641</v>
+        <v>4992470386.6844816</v>
       </c>
       <c r="D61">
-        <v>64571430.84829019</v>
+        <v>64129142.533110566</v>
       </c>
       <c r="E61">
-        <v>275896742.59584612</v>
+        <v>275207250.26394212</v>
       </c>
       <c r="F61">
-        <v>719.79455777991109</v>
+        <v>715.12741399862966</v>
       </c>
       <c r="G61">
-        <v>9.2492887857458665</v>
+        <v>9.1859348798479363</v>
       </c>
       <c r="H61">
-        <v>39.51977854279103</v>
+        <v>39.421014838633369</v>
       </c>
       <c r="I61" t="s">
         <v>13</v>
@@ -3083,22 +3083,22 @@
         <v>2191143</v>
       </c>
       <c r="C62">
-        <v>1362033499.9270163</v>
+        <v>1363760632.133455</v>
       </c>
       <c r="D62">
         <v>17533190.874929883</v>
       </c>
       <c r="E62">
-        <v>75483384.128743947</v>
+        <v>75801532.130161345</v>
       </c>
       <c r="F62">
-        <v>621.60867635157365</v>
+        <v>622.39690980162186</v>
       </c>
       <c r="G62">
         <v>8.0018469241532308</v>
       </c>
       <c r="H62">
-        <v>34.449318975869645</v>
+        <v>34.594516254831994</v>
       </c>
       <c r="I62" t="s">
         <v>13</v>
@@ -3124,22 +3124,22 @@
         <v>384251</v>
       </c>
       <c r="C63">
-        <v>135648174.19775596</v>
+        <v>135439558.32615268</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>97799294.63544929</v>
+        <v>95392547.565400943</v>
       </c>
       <c r="F63">
-        <v>353.01970378152811</v>
+        <v>352.47678815709702</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>254.51929763474732</v>
+        <v>248.25582123508056</v>
       </c>
       <c r="I63" t="s">
         <v>13</v>
@@ -3165,22 +3165,22 @@
         <v>1245893</v>
       </c>
       <c r="C64">
-        <v>1682847483.9035234</v>
+        <v>1670274500.9745522</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1230606020.2526073</v>
+        <v>1221673036.6070266</v>
       </c>
       <c r="F64">
-        <v>1350.715899281498</v>
+        <v>1340.624356164255</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>987.73010222595951</v>
+        <v>980.56015773989145</v>
       </c>
       <c r="I64" t="s">
         <v>26</v>
@@ -3206,22 +3206,22 @@
         <v>2032750</v>
       </c>
       <c r="C65">
-        <v>2212034329.0540628</v>
+        <v>2215072278.0176477</v>
       </c>
       <c r="D65">
-        <v>20173984.782441728</v>
+        <v>20013005.857320167</v>
       </c>
       <c r="E65">
-        <v>86730352.758273453</v>
+        <v>85590029.086594135</v>
       </c>
       <c r="F65">
-        <v>1088.1979235292401</v>
+        <v>1089.6924255405966</v>
       </c>
       <c r="G65">
-        <v>9.9244790468290383</v>
+        <v>9.845286364442341</v>
       </c>
       <c r="H65">
-        <v>42.666512241187284</v>
+        <v>42.10553638499281</v>
       </c>
       <c r="I65" t="s">
         <v>26</v>
@@ -3247,22 +3247,22 @@
         <v>11367897</v>
       </c>
       <c r="C66">
-        <v>13645293483.405888</v>
+        <v>13638119343.444517</v>
       </c>
       <c r="D66">
-        <v>123175278.59653652</v>
+        <v>122827434.67264722</v>
       </c>
       <c r="E66">
-        <v>530078097.13583612</v>
+        <v>526737154.02884138</v>
       </c>
       <c r="F66">
-        <v>1200.3357774446661</v>
+        <v>1199.704689745563</v>
       </c>
       <c r="G66">
-        <v>10.835361949227417</v>
+        <v>10.804763156514104</v>
       </c>
       <c r="H66">
-        <v>46.629389511167822</v>
+        <v>46.335496708744053</v>
       </c>
       <c r="I66" t="s">
         <v>26</v>
@@ -3288,22 +3288,22 @@
         <v>7935224</v>
       </c>
       <c r="C67">
-        <v>7878286348.4608707</v>
+        <v>7849965916.5307903</v>
       </c>
       <c r="D67">
-        <v>58662092.948341027</v>
+        <v>59579092.003422655</v>
       </c>
       <c r="E67">
-        <v>252379007.22306105</v>
+        <v>255496542.5441688</v>
       </c>
       <c r="F67">
-        <v>992.82469511394652</v>
+        <v>989.25574332001088</v>
       </c>
       <c r="G67">
-        <v>7.3926196599290739</v>
+        <v>7.5081802357970808</v>
       </c>
       <c r="H67">
-        <v>31.804900179637155</v>
+        <v>32.197773187520454</v>
       </c>
       <c r="I67" t="s">
         <v>26</v>
@@ -3329,22 +3329,22 @@
         <v>2300225</v>
       </c>
       <c r="C68">
-        <v>2980848934.4209566</v>
+        <v>2952959892.8579631</v>
       </c>
       <c r="D68">
-        <v>45973109.742791198</v>
+        <v>45790644.047167629</v>
       </c>
       <c r="E68">
-        <v>196988904.3416369</v>
+        <v>197027481.06152946</v>
       </c>
       <c r="F68">
-        <v>1295.894503546808</v>
+        <v>1283.7700193928695</v>
       </c>
       <c r="G68">
-        <v>19.986353397076893</v>
+        <v>19.907028246005339</v>
       </c>
       <c r="H68">
-        <v>85.638971988234587</v>
+        <v>85.655742834518122</v>
       </c>
       <c r="I68" t="s">
         <v>26</v>
@@ -3370,22 +3370,22 @@
         <v>12008149</v>
       </c>
       <c r="C69">
-        <v>11560509622.113163</v>
+        <v>11517905936.791639</v>
       </c>
       <c r="D69">
-        <v>178079540.62090781</v>
+        <v>178214235.63377672</v>
       </c>
       <c r="E69">
-        <v>763842968.32946301</v>
+        <v>764520771.10322046</v>
       </c>
       <c r="F69">
-        <v>962.72203335527922</v>
+        <v>959.17413556341114</v>
       </c>
       <c r="G69">
-        <v>14.829890986604831</v>
+        <v>14.841107953755131</v>
       </c>
       <c r="H69">
-        <v>63.610383942559594</v>
+        <v>63.666829176022091</v>
       </c>
       <c r="I69" t="s">
         <v>26</v>
@@ -3411,22 +3411,22 @@
         <v>6141807</v>
       </c>
       <c r="C70">
-        <v>2728702100.4975791</v>
+        <v>2730857399.7786946</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>1469301131.0371578</v>
+        <v>1470461676.8039126</v>
       </c>
       <c r="F70">
-        <v>444.28327046056302</v>
+        <v>444.63419312568675</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
-        <v>239.2294533249185</v>
+        <v>239.41841168306212</v>
       </c>
       <c r="I70" t="s">
         <v>26</v>
@@ -3452,22 +3452,22 @@
         <v>1488285</v>
       </c>
       <c r="C71">
-        <v>1316786237.0908241</v>
+        <v>1310685570.0508282</v>
       </c>
       <c r="D71">
-        <v>20168712.559090868</v>
+        <v>19855222.390534744</v>
       </c>
       <c r="E71">
-        <v>86720443.207113057</v>
+        <v>85106515.634655461</v>
       </c>
       <c r="F71">
-        <v>884.76752577014759</v>
+        <v>880.66840023975794</v>
       </c>
       <c r="G71">
-        <v>13.551646733717579</v>
+        <v>13.341008201073548</v>
       </c>
       <c r="H71">
-        <v>58.268707409611103</v>
+        <v>57.18428636629104</v>
       </c>
       <c r="I71" t="s">
         <v>26</v>
@@ -3493,22 +3493,22 @@
         <v>524509</v>
       </c>
       <c r="C72">
-        <v>657244301.03759181</v>
+        <v>658152739.60642719</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>247702124.51089245</v>
+        <v>247896317.99341616</v>
       </c>
       <c r="F72">
-        <v>1253.0658216304998</v>
+        <v>1254.7978006219669</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>472.2552415895484</v>
+        <v>472.625480198464</v>
       </c>
       <c r="I72" t="s">
         <v>26</v>
@@ -3534,22 +3534,22 @@
         <v>48329</v>
       </c>
       <c r="C73">
-        <v>55896209.735421382</v>
+        <v>56666510.060891956</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>40659270.083287761</v>
+        <v>40553392.891200908</v>
       </c>
       <c r="F73">
-        <v>1156.5769979809511</v>
+        <v>1172.5156750789786</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>841.30170463464503</v>
+        <v>839.1109456268681</v>
       </c>
       <c r="I73" t="s">
         <v>26</v>
@@ -3575,22 +3575,22 @@
         <v>402573</v>
       </c>
       <c r="C74">
-        <v>192293965.93451414</v>
+        <v>193253677.78298476</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>103542904.73396915</v>
+        <v>104059672.6523764</v>
       </c>
       <c r="F74">
-        <v>477.66235175859816</v>
+        <v>480.04629665423357</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>257.20280479309133</v>
+        <v>258.48646742920266</v>
       </c>
       <c r="I74" t="s">
         <v>21</v>
@@ -3616,22 +3616,22 @@
         <v>1336530</v>
       </c>
       <c r="C75">
-        <v>780091841.24057877</v>
+        <v>783222217.65662348</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>578650140.70052803</v>
+        <v>575249342.55404806</v>
       </c>
       <c r="F75">
-        <v>583.66953322452832</v>
+        <v>586.01170019125902</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>432.94960883820642</v>
+        <v>430.40511066272217</v>
       </c>
       <c r="I75" t="s">
         <v>21</v>
@@ -3657,22 +3657,22 @@
         <v>1349171</v>
       </c>
       <c r="C76">
-        <v>1109387489.3110676</v>
+        <v>1109087770.6065695</v>
       </c>
       <c r="D76">
-        <v>5241056.1326323217</v>
+        <v>5174208.7092236299</v>
       </c>
       <c r="E76">
-        <v>22397106.544613026</v>
+        <v>22063465.808069915</v>
       </c>
       <c r="F76">
-        <v>822.27344740664273</v>
+        <v>822.0512971347365</v>
       </c>
       <c r="G76">
-        <v>3.8846492643499761</v>
+        <v>3.835102228867675</v>
       </c>
       <c r="H76">
-        <v>16.600643316979852</v>
+        <v>16.353350174344033</v>
       </c>
       <c r="I76" t="s">
         <v>21</v>
@@ -3698,22 +3698,22 @@
         <v>518992</v>
       </c>
       <c r="C77">
-        <v>516643962.70142412</v>
+        <v>514228857.93030536</v>
       </c>
       <c r="D77">
-        <v>2520235.4713573661</v>
+        <v>2521646.2664589672</v>
       </c>
       <c r="E77">
-        <v>10834322.912404448</v>
+        <v>10795339.79127956</v>
       </c>
       <c r="F77">
-        <v>995.47577361775154</v>
+        <v>990.82232082634289</v>
       </c>
       <c r="G77">
-        <v>4.8560198834613368</v>
+        <v>4.8587382203559351</v>
       </c>
       <c r="H77">
-        <v>20.875703117590344</v>
+        <v>20.800589973023783</v>
       </c>
       <c r="I77" t="s">
         <v>21</v>
@@ -3739,22 +3739,22 @@
         <v>4238250</v>
       </c>
       <c r="C78">
-        <v>3317084689.7259569</v>
+        <v>3341091635.6999025</v>
       </c>
       <c r="D78">
-        <v>48250248.314788446</v>
+        <v>48182627.682280764</v>
       </c>
       <c r="E78">
-        <v>207702588.57571959</v>
+        <v>205827265.71311313</v>
       </c>
       <c r="F78">
-        <v>782.6543242437225</v>
+        <v>788.31867768534244</v>
       </c>
       <c r="G78">
-        <v>11.384474326617932</v>
+        <v>11.368519479096506</v>
       </c>
       <c r="H78">
-        <v>49.006686386060188</v>
+        <v>48.564210632481128</v>
       </c>
       <c r="I78" t="s">
         <v>21</v>
@@ -3780,22 +3780,22 @@
         <v>1825199</v>
       </c>
       <c r="C79">
-        <v>313102948.98289406</v>
+        <v>312401708.31701261</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>225107968.23597398</v>
+        <v>231304512.50407222</v>
       </c>
       <c r="F79">
-        <v>171.54455431045824</v>
+        <v>171.16035474324312</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>123.33338350282571</v>
+        <v>126.72838003092934</v>
       </c>
       <c r="I79" t="s">
         <v>27</v>
@@ -3821,22 +3821,22 @@
         <v>8749914</v>
       </c>
       <c r="C80">
-        <v>2749606858.1043892</v>
+        <v>2764039030.7790928</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>1887788883.5859175</v>
+        <v>1872604552.2431736</v>
       </c>
       <c r="F80">
-        <v>314.24387235170417</v>
+        <v>315.89327972584562</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>215.74942148984749</v>
+        <v>214.01405228019081</v>
       </c>
       <c r="I80" t="s">
         <v>27</v>
@@ -3862,22 +3862,22 @@
         <v>992174</v>
       </c>
       <c r="C81">
-        <v>326780632.61374611</v>
+        <v>323630420.81069309</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>237010942.72163099</v>
+        <v>244616659.07869065</v>
       </c>
       <c r="F81">
-        <v>329.3581898071771</v>
+        <v>326.18312998596321</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>238.88042089555964</v>
+        <v>246.54612908490915</v>
       </c>
       <c r="I81" t="s">
         <v>27</v>
@@ -3903,22 +3903,22 @@
         <v>1769518</v>
       </c>
       <c r="C82">
-        <v>615982828.05829525</v>
+        <v>602882488.8334645</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>433683752.3357327</v>
+        <v>437736815.70076287</v>
       </c>
       <c r="F82">
-        <v>348.10769263624064</v>
+        <v>340.70435499015241</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <v>245.08580999782581</v>
+        <v>247.37630004371974</v>
       </c>
       <c r="I82" t="s">
         <v>27</v>
@@ -3944,22 +3944,22 @@
         <v>16149545</v>
       </c>
       <c r="C83">
-        <v>11124783177.010775</v>
+        <v>11113438363.463783</v>
       </c>
       <c r="D83">
-        <v>170937841.45183438</v>
+        <v>170686245.63932529</v>
       </c>
       <c r="E83">
-        <v>733552896.74828529</v>
+        <v>732023314.41734731</v>
       </c>
       <c r="F83">
-        <v>688.86047111610731</v>
+        <v>688.15798608962564</v>
       </c>
       <c r="G83">
-        <v>10.584684673892323</v>
+        <v>10.569105546894683</v>
       </c>
       <c r="H83">
-        <v>45.422511702235902</v>
+        <v>45.327798053588957</v>
       </c>
       <c r="I83" t="s">
         <v>27</v>
@@ -3985,22 +3985,22 @@
         <v>1806150</v>
       </c>
       <c r="C84">
-        <v>891760030.0299046</v>
+        <v>896949097.73641062</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>647282969.48477125</v>
+        <v>641544306.82715559</v>
       </c>
       <c r="F84">
-        <v>493.73530992990868</v>
+        <v>496.60830924143102</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>358.37719429990381</v>
+        <v>355.19990412045269</v>
       </c>
       <c r="I84" t="s">
         <v>27</v>
@@ -4026,22 +4026,22 @@
         <v>5446539</v>
       </c>
       <c r="C85">
-        <v>2555838029.6753078</v>
+        <v>2554559950.7550764</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>1870186890.3320436</v>
+        <v>1869743612.1053312</v>
       </c>
       <c r="F85">
-        <v>469.25910742130145</v>
+        <v>469.02444850850725</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>343.37161458534376</v>
+        <v>343.29022744633448</v>
       </c>
       <c r="I85" t="s">
         <v>27</v>
@@ -4067,22 +4067,22 @@
         <v>2101351</v>
       </c>
       <c r="C86">
-        <v>718107638.97406626</v>
+        <v>717216223.08078098</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>518397984.92663276</v>
+        <v>522120677.00771087</v>
       </c>
       <c r="F86">
-        <v>341.73616829081209</v>
+        <v>341.31195744108481</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>246.69747458974382</v>
+        <v>248.46904539399219</v>
       </c>
       <c r="I86" t="s">
         <v>27</v>
@@ -4108,22 +4108,22 @@
         <v>1738999</v>
       </c>
       <c r="C87">
-        <v>655012747.78518414</v>
+        <v>650157619.64462793</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>207059181.25830835</v>
+        <v>205250473.94969207</v>
       </c>
       <c r="F87">
-        <v>376.66079611614737</v>
+        <v>373.86888643675354</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <v>119.06802778972751</v>
+        <v>118.02794248282608</v>
       </c>
       <c r="I87" t="s">
         <v>27</v>
@@ -4152,19 +4152,19 @@
         <v>209176727.06610548</v>
       </c>
       <c r="D88">
-        <v>3253749.063975736</v>
+        <v>3253898.4476295728</v>
       </c>
       <c r="E88">
-        <v>13854099.635983851</v>
+        <v>13890076.388633346</v>
       </c>
       <c r="F88">
         <v>1018.3524761381329</v>
       </c>
       <c r="G88">
-        <v>15.840497470756771</v>
+        <v>15.841224727636218</v>
       </c>
       <c r="H88">
-        <v>67.447066730850707</v>
+        <v>67.622215351148427</v>
       </c>
       <c r="I88" t="s">
         <v>27</v>
@@ -4190,22 +4190,22 @@
         <v>500876</v>
       </c>
       <c r="C89">
-        <v>181318521.11399722</v>
+        <v>183487666.99415234</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>131517063.26180178</v>
+        <v>130588696.07485291</v>
       </c>
       <c r="F89">
-        <v>362.00281329909444</v>
+        <v>366.33351766535498</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>262.57409670617432</v>
+        <v>260.72060964161375</v>
       </c>
       <c r="I89" t="s">
         <v>27</v>
@@ -4231,22 +4231,22 @@
         <v>869762</v>
       </c>
       <c r="C90">
-        <v>299624267.41438287</v>
+        <v>282375947.08897197</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>209300387.58416501</v>
+        <v>210160295.35360131</v>
       </c>
       <c r="F90">
-        <v>344.48994945097957</v>
+        <v>324.65886885029693</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
-        <v>240.64098866605462</v>
+        <v>241.62965886484039</v>
       </c>
       <c r="I90" t="s">
         <v>27</v>
@@ -4272,22 +4272,22 @@
         <v>285146</v>
       </c>
       <c r="C91">
-        <v>94037851.272234112</v>
+        <v>94307105.193394527</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>50635766.069664516</v>
+        <v>50780748.950289354</v>
       </c>
       <c r="F91">
-        <v>329.78842863737913</v>
+        <v>330.73269550824676</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>177.57838465089642</v>
+        <v>178.08683604290206</v>
       </c>
       <c r="I91" t="s">
         <v>27</v>
@@ -4313,22 +4313,22 @@
         <v>6959580</v>
       </c>
       <c r="C92">
-        <v>2850020394.65939</v>
+        <v>2886796103.2829533</v>
       </c>
       <c r="D92">
-        <v>16510708.905569045</v>
+        <v>16734128.510453636</v>
       </c>
       <c r="E92">
-        <v>913693562.04668307</v>
+        <v>924843423.4479394</v>
       </c>
       <c r="F92">
-        <v>409.51040072236975</v>
+        <v>414.79458577715224</v>
       </c>
       <c r="G92">
-        <v>2.3723714513762388</v>
+        <v>2.4044739065365488</v>
       </c>
       <c r="H92">
-        <v>131.2857330538169</v>
+        <v>132.88782131219691</v>
       </c>
       <c r="I92" t="s">
         <v>28</v>
@@ -4354,22 +4354,22 @@
         <v>3030017</v>
       </c>
       <c r="C93">
-        <v>1574731739.3722198</v>
+        <v>1577475682.1675277</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>235151574.62751204</v>
+        <v>233175510.97518</v>
       </c>
       <c r="F93">
-        <v>519.71052946970917</v>
+        <v>520.61611607048007</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93">
-        <v>77.607344984372048</v>
+        <v>76.95518242147817</v>
       </c>
       <c r="I93" t="s">
         <v>28</v>
@@ -4395,22 +4395,22 @@
         <v>296202</v>
       </c>
       <c r="C94">
-        <v>52861422.013617948</v>
+        <v>53359859.786162794</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>39508186.851533413</v>
+        <v>39703132.961999997</v>
       </c>
       <c r="F94">
-        <v>178.46409549435165</v>
+        <v>180.14685851602215</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>133.38257962989249</v>
+        <v>134.04073220977574</v>
       </c>
       <c r="I94" t="s">
         <v>28</v>
@@ -4436,22 +4436,22 @@
         <v>1615868</v>
       </c>
       <c r="C95">
-        <v>358925223.91468275</v>
+        <v>358952793.29134071</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>248966290.1193451</v>
+        <v>253432448.43488827</v>
       </c>
       <c r="F95">
-        <v>222.1253369177945</v>
+        <v>222.14239856927713</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>154.07588374752461</v>
+        <v>156.83982134362972</v>
       </c>
       <c r="I95" t="s">
         <v>29</v>
@@ -4477,22 +4477,22 @@
         <v>1079076</v>
       </c>
       <c r="C96">
-        <v>503159287.59175283</v>
+        <v>496376088.14928329</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>270931924.08786684</v>
+        <v>267279432.0803833</v>
       </c>
       <c r="F96">
-        <v>466.28716382511783</v>
+        <v>460.00104547713346</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>251.07770359814029</v>
+        <v>247.6928706415334</v>
       </c>
       <c r="I96" t="s">
         <v>30</v>
@@ -4518,22 +4518,22 @@
         <v>3480059</v>
       </c>
       <c r="C97">
-        <v>1378202175.0300202</v>
+        <v>1378060366.4779732</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>742108863.47770309</v>
+        <v>742032505.02660096</v>
       </c>
       <c r="F97">
-        <v>396.02839349275979</v>
+        <v>395.98764459969595</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>213.24605803456294</v>
+        <v>213.2241163229132</v>
       </c>
       <c r="I97" t="s">
         <v>30</v>
@@ -4559,22 +4559,22 @@
         <v>1420063</v>
       </c>
       <c r="C98">
-        <v>529098591.94382203</v>
+        <v>525767874.15411842</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>371727858.21671081</v>
+        <v>370286987.29531646</v>
       </c>
       <c r="F98">
-        <v>372.58811189631871</v>
+        <v>370.24264004774324</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>261.76856816684244</v>
+        <v>260.75391535116148</v>
       </c>
       <c r="I98" t="s">
         <v>30</v>
@@ -4600,22 +4600,22 @@
         <v>2037047</v>
       </c>
       <c r="C99">
-        <v>608460549.35489655</v>
+        <v>613068574.48878455</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>443103599.4678008</v>
+        <v>443193375.4332177</v>
       </c>
       <c r="F99">
-        <v>298.69735423625303</v>
+        <v>300.95946460184007</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <v>217.52252131040709</v>
+        <v>217.56659293242507</v>
       </c>
       <c r="I99" t="s">
         <v>30</v>
@@ -4682,22 +4682,22 @@
         <v>16042082</v>
       </c>
       <c r="C101">
-        <v>5216802826.9362335</v>
+        <v>5306528508.8757277</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>3702178964.6482887</v>
+        <v>3758111796.5489893</v>
       </c>
       <c r="F101">
-        <v>325.19487351680618</v>
+        <v>330.78801796897233</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
-        <v>230.77920712836953</v>
+        <v>234.26583884491984</v>
       </c>
       <c r="I101" t="s">
         <v>30</v>
@@ -4723,22 +4723,22 @@
         <v>2119428</v>
       </c>
       <c r="C102">
-        <v>743515907.80344748</v>
+        <v>727379472.46108615</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>522068772.65209275</v>
+        <v>518763061.45073736</v>
       </c>
       <c r="F102">
-        <v>350.80970328005833</v>
+        <v>343.19612294500507</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>246.32531638352083</v>
+        <v>244.76559781730606</v>
       </c>
       <c r="I102" t="s">
         <v>30</v>
@@ -4764,22 +4764,22 @@
         <v>4495381</v>
       </c>
       <c r="C103">
-        <v>3485713387.175518</v>
+        <v>3505010609.4016724</v>
       </c>
       <c r="D103">
-        <v>53812189.593654417</v>
+        <v>53089032.268903792</v>
       </c>
       <c r="E103">
-        <v>230253768.49207625</v>
+        <v>228522453.69610196</v>
       </c>
       <c r="F103">
-        <v>775.39887879926482</v>
+        <v>779.69155660035767</v>
       </c>
       <c r="G103">
-        <v>11.970551460188673</v>
+        <v>11.809684711686016</v>
       </c>
       <c r="H103">
-        <v>51.220078674549775</v>
+        <v>50.834946736684159</v>
       </c>
       <c r="I103" t="s">
         <v>30</v>
@@ -4805,22 +4805,22 @@
         <v>201976</v>
       </c>
       <c r="C104">
-        <v>109869892.68839504</v>
+        <v>109535385.08965729</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>16164137.446831668</v>
+        <v>16155438.858250791</v>
       </c>
       <c r="F104">
-        <v>543.97499053548461</v>
+        <v>542.31881555064604</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>80.029990923830894</v>
+        <v>79.986923487200414</v>
       </c>
       <c r="I104" t="s">
         <v>30</v>
@@ -4846,22 +4846,22 @@
         <v>6594728</v>
       </c>
       <c r="C105">
-        <v>2130409951.8918684</v>
+        <v>2127915220.865442</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>1501179158.8761206</v>
+        <v>1507225065.9115787</v>
       </c>
       <c r="F105">
-        <v>323.04743302405626</v>
+        <v>322.66914129975368</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105">
-        <v>227.63321836414187</v>
+        <v>228.54999719648461</v>
       </c>
       <c r="I105" t="s">
         <v>30</v>
@@ -4887,22 +4887,22 @@
         <v>7672769</v>
       </c>
       <c r="C106">
-        <v>2420393032.7625299</v>
+        <v>2468708581.394022</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>1723631272.5987239</v>
+        <v>1722965893.3079121</v>
       </c>
       <c r="F106">
-        <v>315.4523526985538</v>
+        <v>321.74936863002415</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106">
-        <v>224.64266454505849</v>
+        <v>224.55594496692291</v>
       </c>
       <c r="I106" t="s">
         <v>30</v>
@@ -4928,22 +4928,22 @@
         <v>423587</v>
       </c>
       <c r="C107">
-        <v>73713115.172002047</v>
+        <v>73630115.630752265</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>142128758.25871885</v>
+        <v>141968724.02727512</v>
       </c>
       <c r="F107">
-        <v>174.02119321887133</v>
+        <v>173.82524872281789</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>335.53616673485931</v>
+        <v>335.1583595041281</v>
       </c>
       <c r="I107" t="s">
         <v>11</v>
@@ -4969,22 +4969,22 @@
         <v>969633</v>
       </c>
       <c r="C108">
-        <v>457682465.10099745</v>
+        <v>453836393.96569502</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>246444404.28515247</v>
+        <v>244373442.90460497</v>
       </c>
       <c r="F108">
-        <v>472.01618045280787</v>
+        <v>468.04965792799442</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108">
-        <v>254.16255870535807</v>
+        <v>252.02673888430465</v>
       </c>
       <c r="I108" t="s">
         <v>11</v>
@@ -5010,22 +5010,22 @@
         <v>3095082</v>
       </c>
       <c r="C109">
-        <v>1154875875.9476106</v>
+        <v>1093514339.3612838</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>802769475.52191496</v>
+        <v>791886508.16040683</v>
       </c>
       <c r="F109">
-        <v>373.13256189904195</v>
+        <v>353.30706564843314</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
-        <v>259.36937228865503</v>
+        <v>255.85315935422932</v>
       </c>
       <c r="I109" t="s">
         <v>11</v>
@@ -5051,22 +5051,22 @@
         <v>134547</v>
       </c>
       <c r="C110">
-        <v>114573403.68916437</v>
+        <v>114185469.5691027</v>
       </c>
       <c r="D110">
-        <v>1696978.0706031257</v>
+        <v>1675089.9765867942</v>
       </c>
       <c r="E110">
-        <v>7358782.6195454104</v>
+        <v>7178183.0711189425</v>
       </c>
       <c r="F110">
-        <v>851.5493001639901</v>
+        <v>848.6660391469353</v>
       </c>
       <c r="G110">
-        <v>12.612529975422163</v>
+        <v>12.449850064191653</v>
       </c>
       <c r="H110">
-        <v>54.693026374021052</v>
+        <v>53.350747851077635</v>
       </c>
       <c r="I110" t="s">
         <v>31</v>
@@ -5092,22 +5092,22 @@
         <v>265550</v>
       </c>
       <c r="C111">
-        <v>186798833.70827624</v>
+        <v>189806126.2535761</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>29275037.758259997</v>
+        <v>28991189.902894489</v>
       </c>
       <c r="F111">
-        <v>703.44128679448784</v>
+        <v>714.76605631171572</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>110.24303429960459</v>
+        <v>109.1741288002052</v>
       </c>
       <c r="I111" t="s">
         <v>31</v>
@@ -5139,7 +5139,7 @@
         <v>116022258.37290922</v>
       </c>
       <c r="E112">
-        <v>513370868.95289111</v>
+        <v>516258211.87556338</v>
       </c>
       <c r="F112">
         <v>887.60927635516271</v>
@@ -5148,7 +5148,7 @@
         <v>11.405759351312691</v>
       </c>
       <c r="H112">
-        <v>50.467769472570197</v>
+        <v>50.751614477852435</v>
       </c>
       <c r="I112" t="s">
         <v>12</v>
@@ -5174,22 +5174,22 @@
         <v>9007455</v>
       </c>
       <c r="C113">
-        <v>8820037599.929821</v>
+        <v>8774337923.2462482</v>
       </c>
       <c r="D113">
-        <v>112592463.95100795</v>
+        <v>112009083.30877474</v>
       </c>
       <c r="E113">
-        <v>473288837.28094971</v>
+        <v>463678911.65087974</v>
       </c>
       <c r="F113">
-        <v>979.19307950245889</v>
+        <v>974.11954023042563</v>
       </c>
       <c r="G113">
-        <v>12.499919672205738</v>
+        <v>12.435153249033688</v>
       </c>
       <c r="H113">
-        <v>52.544124536947422</v>
+        <v>51.477238759547483</v>
       </c>
       <c r="I113" t="s">
         <v>12</v>
@@ -5215,22 +5215,22 @@
         <v>531521</v>
       </c>
       <c r="C114">
-        <v>662946973.67446816</v>
+        <v>659587647.00482225</v>
       </c>
       <c r="D114">
-        <v>10187610.170733867</v>
+        <v>10151048.611585308</v>
       </c>
       <c r="E114">
-        <v>43592044.171134219</v>
+        <v>43620296.800321497</v>
       </c>
       <c r="F114">
-        <v>1247.2639343966996</v>
+        <v>1240.9437200126097</v>
       </c>
       <c r="G114">
-        <v>19.166900594207693</v>
+        <v>19.098113925104197</v>
       </c>
       <c r="H114">
-        <v>82.013775883049249</v>
+        <v>82.066930187747047</v>
       </c>
       <c r="I114" t="s">
         <v>32</v>
@@ -5338,22 +5338,22 @@
         <v>1438500</v>
       </c>
       <c r="C117">
-        <v>1510806899.0100179</v>
+        <v>1516062898.3476138</v>
       </c>
       <c r="D117">
-        <v>23164702.507516257</v>
+        <v>23216275.784688994</v>
       </c>
       <c r="E117">
-        <v>99110042.377421767</v>
+        <v>99648392.608083814</v>
       </c>
       <c r="F117">
-        <v>1050.2654841918788</v>
+        <v>1053.919289779363</v>
       </c>
       <c r="G117">
-        <v>16.103373310751657</v>
+        <v>16.139225432526239</v>
       </c>
       <c r="H117">
-        <v>68.898187262719333</v>
+        <v>69.272431427239354</v>
       </c>
       <c r="I117" t="s">
         <v>33</v>
@@ -5379,22 +5379,22 @@
         <v>4871389</v>
       </c>
       <c r="C118">
-        <v>6157550732.8563995</v>
+        <v>6170522966.9220371</v>
       </c>
       <c r="D118">
-        <v>94735789.710159451</v>
+        <v>95969980.939276561</v>
       </c>
       <c r="E118">
-        <v>408320534.85188752</v>
+        <v>410753636.28910887</v>
       </c>
       <c r="F118">
-        <v>1264.0236147957798</v>
+        <v>1266.6865583762735</v>
       </c>
       <c r="G118">
-        <v>19.447387533649941</v>
+        <v>19.700742629930922</v>
       </c>
       <c r="H118">
-        <v>83.820145517405308</v>
+        <v>84.319613212804171</v>
       </c>
       <c r="I118" t="s">
         <v>33</v>
@@ -5420,22 +5420,22 @@
         <v>1656996</v>
       </c>
       <c r="C119">
-        <v>3352496275.7152758</v>
+        <v>3341391957.4147582</v>
       </c>
       <c r="D119">
-        <v>53097200.520514607</v>
+        <v>53138089.86592935</v>
       </c>
       <c r="E119">
-        <v>228658544.59888047</v>
+        <v>228092978.3176955</v>
       </c>
       <c r="F119">
-        <v>2023.237398107947</v>
+        <v>2016.5359224854847</v>
       </c>
       <c r="G119">
-        <v>32.044253891086406</v>
+        <v>32.06893068295237</v>
       </c>
       <c r="H119">
-        <v>137.99583378528402</v>
+        <v>137.65451353998168</v>
       </c>
       <c r="I119" t="s">
         <v>33</v>
@@ -5461,22 +5461,22 @@
         <v>4082513</v>
       </c>
       <c r="C120">
-        <v>4757694915.7006321</v>
+        <v>4741880731.352005</v>
       </c>
       <c r="D120">
-        <v>64060306.378782466</v>
+        <v>63870278.711875714</v>
       </c>
       <c r="E120">
-        <v>274935225.40959334</v>
+        <v>274636533.39911318</v>
       </c>
       <c r="F120">
-        <v>1165.3838985205025</v>
+        <v>1161.5102588410632</v>
       </c>
       <c r="G120">
-        <v>15.691390665206079</v>
+        <v>15.644843926247317</v>
       </c>
       <c r="H120">
-        <v>67.344605004220028</v>
+        <v>67.271441241978451</v>
       </c>
       <c r="I120" t="s">
         <v>33</v>
@@ -5502,22 +5502,22 @@
         <v>7658910</v>
       </c>
       <c r="C121">
-        <v>10978931536.95216</v>
+        <v>11030173931.02092</v>
       </c>
       <c r="D121">
-        <v>178191257.97467703</v>
+        <v>181477832.82609797</v>
       </c>
       <c r="E121">
-        <v>762647333.59793186</v>
+        <v>779690125.23157835</v>
       </c>
       <c r="F121">
-        <v>1433.4848610248926</v>
+        <v>1440.1754206565843</v>
       </c>
       <c r="G121">
-        <v>23.265876994856583</v>
+        <v>23.694994826430648</v>
       </c>
       <c r="H121">
-        <v>99.57648459087936</v>
+        <v>101.80170875902424</v>
       </c>
       <c r="I121" t="s">
         <v>33</v>
@@ -5543,22 +5543,22 @@
         <v>500630</v>
       </c>
       <c r="C122">
-        <v>167222270.84546995</v>
+        <v>165452790.52834931</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>116789026.46696445</v>
+        <v>116005842.07171202</v>
       </c>
       <c r="F122">
-        <v>334.02367186439079</v>
+        <v>330.4891647091651</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122">
-        <v>233.28411494909304</v>
+        <v>231.7197172996265</v>
       </c>
       <c r="I122" t="s">
         <v>34</v>
@@ -5584,22 +5584,22 @@
         <v>3581670</v>
       </c>
       <c r="C123">
-        <v>1799362762.419302</v>
+        <v>1793479781.1738844</v>
       </c>
       <c r="D123">
-        <v>27559320.933919795</v>
+        <v>27541023.303044349</v>
       </c>
       <c r="E123">
-        <v>118583384.38073683</v>
+        <v>118816822.27961618</v>
       </c>
       <c r="F123">
-        <v>502.38094587700766</v>
+        <v>500.73842123196283</v>
       </c>
       <c r="G123">
-        <v>7.6945449843005624</v>
+        <v>7.6894362973262051</v>
       </c>
       <c r="H123">
-        <v>33.108405961670627</v>
+        <v>33.173581675479923</v>
       </c>
       <c r="I123" t="s">
         <v>34</v>
@@ -5625,7 +5625,7 @@
         <v>4902363</v>
       </c>
       <c r="C124">
-        <v>4190947697.9680004</v>
+        <v>4209131008.9031129</v>
       </c>
       <c r="D124">
         <v>61973818.050998136</v>
@@ -5634,7 +5634,7 @@
         <v>255432781.77533656</v>
       </c>
       <c r="F124">
-        <v>854.88318551033456</v>
+        <v>858.59227660275519</v>
       </c>
       <c r="G124">
         <v>12.641621612067107</v>
@@ -5666,22 +5666,22 @@
         <v>8835500</v>
       </c>
       <c r="C125">
-        <v>8186327010.3576241</v>
+        <v>8096911387.9402847</v>
       </c>
       <c r="D125">
-        <v>166366511.26632503</v>
+        <v>164279215.36853218</v>
       </c>
       <c r="E125">
-        <v>714488288.26602089</v>
+        <v>704862712.65705633</v>
       </c>
       <c r="F125">
-        <v>926.52673989673747</v>
+        <v>916.40669887842057</v>
       </c>
       <c r="G125">
-        <v>18.829326157696229</v>
+        <v>18.593086454477074</v>
       </c>
       <c r="H125">
-        <v>80.86563162990447</v>
+        <v>79.776211041486761</v>
       </c>
       <c r="I125" t="s">
         <v>35</v>
@@ -5707,22 +5707,22 @@
         <v>6233147</v>
       </c>
       <c r="C126">
-        <v>6381865724.8679724</v>
+        <v>6410699356.3683186</v>
       </c>
       <c r="D126">
-        <v>98797352.039323479</v>
+        <v>98460453.554929614</v>
       </c>
       <c r="E126">
-        <v>423866873.09804285</v>
+        <v>423176439.82902491</v>
       </c>
       <c r="F126">
-        <v>1023.8593321909418</v>
+        <v>1028.485186755313</v>
       </c>
       <c r="G126">
-        <v>15.850316387424119</v>
+        <v>15.796266886522909</v>
       </c>
       <c r="H126">
-        <v>68.002065906362049</v>
+        <v>67.891297899604311</v>
       </c>
       <c r="I126" t="s">
         <v>35</v>
@@ -5748,22 +5748,22 @@
         <v>2753681</v>
       </c>
       <c r="C127">
-        <v>1047861758.2801876</v>
+        <v>1057334468.522637</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>777775054.06394696</v>
+        <v>784918269.06001437</v>
       </c>
       <c r="F127">
-        <v>380.53128095817476</v>
+        <v>383.97129824501712</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
       <c r="H127">
-        <v>282.44922126562477</v>
+        <v>285.04328172363262</v>
       </c>
       <c r="I127" t="s">
         <v>35</v>
@@ -5789,22 +5789,22 @@
         <v>5168266</v>
       </c>
       <c r="C128">
-        <v>5637689010.4152107</v>
+        <v>5627176091.690773</v>
       </c>
       <c r="D128">
-        <v>86089491.514845446</v>
+        <v>86875231.630467236</v>
       </c>
       <c r="E128">
-        <v>370259021.20306134</v>
+        <v>372388597.40071499</v>
       </c>
       <c r="F128">
-        <v>1090.8279508862761</v>
+        <v>1088.7938220847714</v>
       </c>
       <c r="G128">
-        <v>16.657325980289219</v>
+        <v>16.809357651186538</v>
       </c>
       <c r="H128">
-        <v>71.640860049204377</v>
+        <v>72.052908538514657</v>
       </c>
       <c r="I128" t="s">
         <v>35</v>
@@ -5830,22 +5830,22 @@
         <v>9849064</v>
       </c>
       <c r="C129">
-        <v>8884244472.4892807</v>
+        <v>8836921668.6479225</v>
       </c>
       <c r="D129">
-        <v>137877938.32414785</v>
+        <v>134375393.61656821</v>
       </c>
       <c r="E129">
-        <v>594150597.9664166</v>
+        <v>577370743.7582674</v>
       </c>
       <c r="F129">
-        <v>902.03947019628265</v>
+        <v>897.23466805047894</v>
       </c>
       <c r="G129">
-        <v>13.999090504858923</v>
+        <v>13.643468416548842</v>
       </c>
       <c r="H129">
-        <v>60.325590123733242</v>
+        <v>58.621889730665515</v>
       </c>
       <c r="I129" t="s">
         <v>35</v>
@@ -5871,22 +5871,22 @@
         <v>8843344</v>
       </c>
       <c r="C130">
-        <v>10284790910.502577</v>
+        <v>10197516896.095173</v>
       </c>
       <c r="D130">
-        <v>148834536.5014745</v>
+        <v>145901170.45147043</v>
       </c>
       <c r="E130">
-        <v>638839163.06734252</v>
+        <v>625719258.70912504</v>
       </c>
       <c r="F130">
-        <v>1162.9979463088371</v>
+        <v>1153.1290534547986</v>
       </c>
       <c r="G130">
-        <v>16.830119522826941</v>
+        <v>16.498416261028684</v>
       </c>
       <c r="H130">
-        <v>72.23954683514998</v>
+        <v>70.755955971985827</v>
       </c>
       <c r="I130" t="s">
         <v>35</v>
@@ -5912,22 +5912,22 @@
         <v>3681044</v>
       </c>
       <c r="C131">
-        <v>3655912598.8357444</v>
+        <v>3611936770.2961836</v>
       </c>
       <c r="D131">
-        <v>51081590.174532913</v>
+        <v>50061821.417567477</v>
       </c>
       <c r="E131">
-        <v>218924229.38677639</v>
+        <v>216677053.57827955</v>
       </c>
       <c r="F131">
-        <v>993.17275176165901</v>
+        <v>981.22618754249709</v>
       </c>
       <c r="G131">
-        <v>13.87693007052698</v>
+        <v>13.599897588175386</v>
       </c>
       <c r="H131">
-        <v>59.47340737757451</v>
+        <v>58.862934965808492</v>
       </c>
       <c r="I131" t="s">
         <v>35</v>
@@ -5953,22 +5953,22 @@
         <v>4626240</v>
       </c>
       <c r="C132">
-        <v>1568904726.9241343</v>
+        <v>1579988170.023777</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>1147903053.3558674</v>
+        <v>1140736857.5227485</v>
       </c>
       <c r="F132">
-        <v>339.13171969550524</v>
+        <v>341.52749749770373</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132">
-        <v>248.12872945542543</v>
+        <v>246.57969701588081</v>
       </c>
       <c r="I132" t="s">
         <v>18</v>
@@ -5994,22 +5994,22 @@
         <v>6322841</v>
       </c>
       <c r="C133">
-        <v>2115161960.1383841</v>
+        <v>2088111521.2253425</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>1535448514.4035463</v>
+        <v>1483122731.2779198</v>
       </c>
       <c r="F133">
-        <v>334.52714691677113</v>
+        <v>330.24893734087931</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133">
-        <v>242.84155087935096</v>
+        <v>234.56587494101461</v>
       </c>
       <c r="I133" t="s">
         <v>18</v>
@@ -6035,22 +6035,22 @@
         <v>9036684</v>
       </c>
       <c r="C134">
-        <v>6696933187.1670055</v>
+        <v>6646516381.6367569</v>
       </c>
       <c r="D134">
-        <v>52138101.663528174</v>
+        <v>51020408.825846113</v>
       </c>
       <c r="E134">
-        <v>2655715140.9297948</v>
+        <v>2623364449.602036</v>
       </c>
       <c r="F134">
-        <v>741.0830330204094</v>
+        <v>735.50390625994635</v>
       </c>
       <c r="G134">
-        <v>5.7696054950608184</v>
+        <v>5.64592153779485</v>
       </c>
       <c r="H134">
-        <v>293.88159870698087</v>
+        <v>290.301669240845</v>
       </c>
       <c r="I134" t="s">
         <v>36</v>
@@ -6076,22 +6076,22 @@
         <v>916991</v>
       </c>
       <c r="C135">
-        <v>859358806.25284576</v>
+        <v>870909366.89092886</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>656007290.04428506</v>
+        <v>650374731.14820933</v>
       </c>
       <c r="F135">
-        <v>937.15075311845567</v>
+        <v>949.74690797502797</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135">
-        <v>715.39119799898265</v>
+        <v>709.24876159985138</v>
       </c>
       <c r="I135" t="s">
         <v>36</v>
@@ -6117,22 +6117,22 @@
         <v>317344</v>
       </c>
       <c r="C136">
-        <v>276665197.18261927</v>
+        <v>276663634.33217472</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>199987036.19380149</v>
+        <v>200391304.01244336</v>
       </c>
       <c r="F136">
-        <v>871.81480406946173</v>
+        <v>871.8098792861208</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136">
-        <v>630.19006565052905</v>
+        <v>631.46397604001766</v>
       </c>
       <c r="I136" t="s">
         <v>36</v>
@@ -6158,22 +6158,22 @@
         <v>4850745</v>
       </c>
       <c r="C137">
-        <v>3453703696.9604321</v>
+        <v>3447481246.6831174</v>
       </c>
       <c r="D137">
-        <v>52335518.791142598</v>
+        <v>51840038.463589817</v>
       </c>
       <c r="E137">
-        <v>224284092.43902814</v>
+        <v>222232611.11348972</v>
       </c>
       <c r="F137">
-        <v>711.99448681809326</v>
+        <v>710.71170442542689</v>
       </c>
       <c r="G137">
-        <v>10.789171311034201</v>
+        <v>10.68702610910073</v>
       </c>
       <c r="H137">
-        <v>46.237040380194827</v>
+        <v>45.814119504012211</v>
       </c>
       <c r="I137" t="s">
         <v>36</v>
@@ -6199,22 +6199,22 @@
         <v>3399679</v>
       </c>
       <c r="C138">
-        <v>1858485734.8324838</v>
+        <v>1845971133.0616288</v>
       </c>
       <c r="D138">
-        <v>28100554.804773074</v>
+        <v>28720586.703925133</v>
       </c>
       <c r="E138">
-        <v>121276493.98872787</v>
+        <v>123105366.6683027</v>
       </c>
       <c r="F138">
-        <v>546.6650630346229</v>
+        <v>542.98395026754849</v>
       </c>
       <c r="G138">
-        <v>8.265649434776952</v>
+        <v>8.448028976831381</v>
       </c>
       <c r="H138">
-        <v>35.6729249993096</v>
+        <v>36.210879517831742</v>
       </c>
       <c r="I138" t="s">
         <v>36</v>
@@ -6281,22 +6281,22 @@
         <v>3198891</v>
       </c>
       <c r="C140">
-        <v>3581564871.3613586</v>
+        <v>3568400725.7632461</v>
       </c>
       <c r="D140">
-        <v>46029057.904060982</v>
+        <v>45822979.983305141</v>
       </c>
       <c r="E140">
-        <v>197429474.82307047</v>
+        <v>196432463.74650314</v>
       </c>
       <c r="F140">
-        <v>1119.6270430475308</v>
+        <v>1115.5118213666067</v>
       </c>
       <c r="G140">
-        <v>14.389067306157347</v>
+        <v>14.324645629783928</v>
       </c>
       <c r="H140">
-        <v>61.718100061262</v>
+        <v>61.40642608532243</v>
       </c>
       <c r="I140" t="s">
         <v>16</v>
@@ -6322,22 +6322,22 @@
         <v>3734928</v>
       </c>
       <c r="C141">
-        <v>5273325285.6182537</v>
+        <v>5313970398.8132744</v>
       </c>
       <c r="D141">
-        <v>81845221.95730859</v>
+        <v>82132135.086909756</v>
       </c>
       <c r="E141">
-        <v>348777952.80257404</v>
+        <v>353278865.69681585</v>
       </c>
       <c r="F141">
-        <v>1411.8947635987236</v>
+        <v>1422.7771991356392</v>
       </c>
       <c r="G141">
-        <v>21.913467129033972</v>
+        <v>21.990286047524812</v>
       </c>
       <c r="H141">
-        <v>93.382778142597132</v>
+        <v>94.587865066425877</v>
       </c>
       <c r="I141" t="s">
         <v>16</v>
@@ -6363,22 +6363,22 @@
         <v>2487210</v>
       </c>
       <c r="C142">
-        <v>2953654340.3932014</v>
+        <v>2955624092.0183134</v>
       </c>
       <c r="D142">
-        <v>45435067.544065773</v>
+        <v>45206737.561211735</v>
       </c>
       <c r="E142">
-        <v>196034838.21116325</v>
+        <v>194751903.67463404</v>
       </c>
       <c r="F142">
-        <v>1187.5371763514947</v>
+        <v>1188.3291286293934</v>
       </c>
       <c r="G142">
-        <v>18.267483463023137</v>
+        <v>18.17568181263815</v>
       </c>
       <c r="H142">
-        <v>78.817163894951875</v>
+        <v>78.301351182503296</v>
       </c>
       <c r="I142" t="s">
         <v>37</v>
@@ -6404,22 +6404,22 @@
         <v>14438617</v>
       </c>
       <c r="C143">
-        <v>13443988582.297915</v>
+        <v>13505307532.861904</v>
       </c>
       <c r="D143">
-        <v>211585828.78964233</v>
+        <v>209762144.26547191</v>
       </c>
       <c r="E143">
-        <v>903928696.31307292</v>
+        <v>903299642.62043047</v>
       </c>
       <c r="F143">
-        <v>931.11331800669791</v>
+        <v>935.36018947395758</v>
       </c>
       <c r="G143">
-        <v>14.654161737903452</v>
+        <v>14.527855698746764</v>
       </c>
       <c r="H143">
-        <v>62.604936214671596</v>
+        <v>62.561368766858379</v>
       </c>
       <c r="I143" t="s">
         <v>37</v>
@@ -6445,22 +6445,22 @@
         <v>3826403</v>
       </c>
       <c r="C144">
-        <v>1510964445.9766357</v>
+        <v>1544397951.4584949</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>786074575.71060753</v>
+        <v>787196025.23764789</v>
       </c>
       <c r="F144">
-        <v>394.87854415142255</v>
+        <v>403.61612497651055</v>
       </c>
       <c r="G144">
         <v>0</v>
       </c>
       <c r="H144">
-        <v>205.43434021732878</v>
+        <v>205.72742213448188</v>
       </c>
       <c r="I144" t="s">
         <v>37</v>
@@ -6486,22 +6486,22 @@
         <v>3857821</v>
       </c>
       <c r="C145">
-        <v>3785543406.9869666</v>
+        <v>3835853212.4362192</v>
       </c>
       <c r="D145">
-        <v>57449326.179891214</v>
+        <v>58305505.57870958</v>
       </c>
       <c r="E145">
-        <v>246382817.48208788</v>
+        <v>249976985.37320998</v>
       </c>
       <c r="F145">
-        <v>981.26465872495555</v>
+        <v>994.30564881994769</v>
       </c>
       <c r="G145">
-        <v>14.891651577377804</v>
+        <v>15.113584994925784</v>
       </c>
       <c r="H145">
-        <v>63.865798201131646</v>
+        <v>64.797455707045501</v>
       </c>
       <c r="I145" t="s">
         <v>37</v>
@@ -6527,22 +6527,22 @@
         <v>15093419</v>
       </c>
       <c r="C146">
-        <v>7595011681.9142971</v>
+        <v>7658835309.4934082</v>
       </c>
       <c r="D146">
-        <v>31637656.52482298</v>
+        <v>31652896.541375645</v>
       </c>
       <c r="E146">
-        <v>2903017447.1379914</v>
+        <v>2927374188.1014414</v>
       </c>
       <c r="F146">
-        <v>503.20021473691924</v>
+        <v>507.42878797000259</v>
       </c>
       <c r="G146">
-        <v>2.0961225899064342</v>
+        <v>2.0971323025866866</v>
       </c>
       <c r="H146">
-        <v>192.33663672478659</v>
+        <v>193.95036923717822</v>
       </c>
       <c r="I146" t="s">
         <v>15</v>
@@ -6568,22 +6568,22 @@
         <v>7629351</v>
       </c>
       <c r="C147">
-        <v>11372426003.080593</v>
+        <v>11386118363.251257</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>1919756555.9122324</v>
+        <v>1900278842.216208</v>
       </c>
       <c r="F147">
-        <v>1490.6151261202419</v>
+        <v>1492.409821392574</v>
       </c>
       <c r="G147">
         <v>0</v>
       </c>
       <c r="H147">
-        <v>251.62776701612395</v>
+        <v>249.07476955984959</v>
       </c>
       <c r="I147" t="s">
         <v>15</v>
@@ -6609,22 +6609,22 @@
         <v>393144</v>
       </c>
       <c r="C148">
-        <v>136122798.39081275</v>
+        <v>137274346.98395622</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148">
-        <v>89227175.675508007</v>
+        <v>89456940.370905742</v>
       </c>
       <c r="F148">
-        <v>346.24157659995512</v>
+        <v>349.17065244275943</v>
       </c>
       <c r="G148">
         <v>0</v>
       </c>
       <c r="H148">
-        <v>226.95799929671571</v>
+        <v>227.54242814568133</v>
       </c>
       <c r="I148" t="s">
         <v>38</v>
@@ -6650,22 +6650,22 @@
         <v>6581975</v>
       </c>
       <c r="C149">
-        <v>8964143414.8971596</v>
+        <v>8970594325.5737419</v>
       </c>
       <c r="D149">
-        <v>78893975.863852352</v>
+        <v>79698258.048410818</v>
       </c>
       <c r="E149">
-        <v>338227098.31310576</v>
+        <v>342869286.82277215</v>
       </c>
       <c r="F149">
-        <v>1361.9230420804029</v>
+        <v>1362.9031294670281</v>
       </c>
       <c r="G149">
-        <v>11.986368204657774</v>
+        <v>12.108562862729016</v>
       </c>
       <c r="H149">
-        <v>51.386870705693319</v>
+        <v>52.092158785588239</v>
       </c>
       <c r="I149" t="s">
         <v>38</v>
@@ -6691,22 +6691,22 @@
         <v>261201</v>
       </c>
       <c r="C150">
-        <v>212657184.57778761</v>
+        <v>214118113.39346096</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>154097150.14486712</v>
+        <v>151734707.90450972</v>
       </c>
       <c r="F150">
-        <v>814.1514947407843</v>
+        <v>819.74461580721731</v>
       </c>
       <c r="G150">
         <v>0</v>
       </c>
       <c r="H150">
-        <v>589.9562028662491</v>
+        <v>580.91166536311016</v>
       </c>
       <c r="I150" t="s">
         <v>38</v>
@@ -6732,22 +6732,22 @@
         <v>14072154</v>
       </c>
       <c r="C151">
-        <v>20554944350.628876</v>
+        <v>20551407487.275375</v>
       </c>
       <c r="D151">
-        <v>314214105.17569238</v>
+        <v>315711906.59226835</v>
       </c>
       <c r="E151">
-        <v>1347324930.4814224</v>
+        <v>1351393411.3566756</v>
       </c>
       <c r="F151">
-        <v>1460.6821635571125</v>
+        <v>1460.4308258192295</v>
       </c>
       <c r="G151">
-        <v>22.328785285869696</v>
+        <v>22.435222538942394</v>
       </c>
       <c r="H151">
-        <v>95.744043909796787</v>
+        <v>96.033159625504069</v>
       </c>
       <c r="I151" t="s">
         <v>39</v>
@@ -6773,22 +6773,22 @@
         <v>543145</v>
       </c>
       <c r="C152">
-        <v>542947368.98566055</v>
+        <v>558130790.58362651</v>
       </c>
       <c r="D152">
         <v>0</v>
       </c>
       <c r="E152">
-        <v>390038279.02698219</v>
+        <v>385666086.65994072</v>
       </c>
       <c r="F152">
-        <v>999.6361358120954</v>
+        <v>1027.5907733360825</v>
       </c>
       <c r="G152">
         <v>0</v>
       </c>
       <c r="H152">
-        <v>718.1107789392928</v>
+        <v>710.06100886492686</v>
       </c>
       <c r="I152" t="s">
         <v>39</v>
@@ -6814,22 +6814,22 @@
         <v>7296430</v>
       </c>
       <c r="C153">
-        <v>7094724876.5991859</v>
+        <v>7083482244.429451</v>
       </c>
       <c r="D153">
-        <v>109807732.57581472</v>
+        <v>108542242.02850187</v>
       </c>
       <c r="E153">
-        <v>471693968.39307624</v>
+        <v>467449361.17937648</v>
       </c>
       <c r="F153">
-        <v>972.35564195081508</v>
+        <v>970.81480181807422</v>
       </c>
       <c r="G153">
-        <v>15.049514978669668</v>
+        <v>14.876075290039358</v>
       </c>
       <c r="H153">
-        <v>64.64722725950584</v>
+        <v>64.065489722970895</v>
       </c>
       <c r="I153" t="s">
         <v>39</v>
@@ -6855,22 +6855,22 @@
         <v>11269955</v>
       </c>
       <c r="C154">
-        <v>2834097425.6152611</v>
+        <v>2829533860.5631752</v>
       </c>
       <c r="D154">
-        <v>42531984.938181922</v>
+        <v>42637863.654548608</v>
       </c>
       <c r="E154">
-        <v>180514027.53139281</v>
+        <v>181714615.72439656</v>
       </c>
       <c r="F154">
-        <v>251.4737126825494</v>
+        <v>251.06878071502283</v>
       </c>
       <c r="G154">
-        <v>3.7739267759438189</v>
+        <v>3.7833215531515969</v>
       </c>
       <c r="H154">
-        <v>16.017280240372994</v>
+        <v>16.123810230333355</v>
       </c>
       <c r="I154" t="s">
         <v>39</v>
@@ -6896,22 +6896,22 @@
         <v>5367819</v>
       </c>
       <c r="C155">
-        <v>9229155328.9222755</v>
+        <v>9348202763.3093739</v>
       </c>
       <c r="D155">
-        <v>140290114.69606352</v>
+        <v>143444262.69332427</v>
       </c>
       <c r="E155">
-        <v>601509951.35128772</v>
+        <v>614870067.64783013</v>
       </c>
       <c r="F155">
-        <v>1719.3492047556513</v>
+        <v>1741.5271944358358</v>
       </c>
       <c r="G155">
-        <v>26.135403353962477</v>
+        <v>26.723006623979732</v>
       </c>
       <c r="H155">
-        <v>112.0585383656356</v>
+        <v>114.54746660567916</v>
       </c>
       <c r="I155" t="s">
         <v>39</v>
@@ -6937,22 +6937,22 @@
         <v>9846148</v>
       </c>
       <c r="C156">
-        <v>9718203320.7291222</v>
+        <v>9708925275.9552498</v>
       </c>
       <c r="D156">
-        <v>150275263.50628209</v>
+        <v>148967416.21207643</v>
       </c>
       <c r="E156">
-        <v>642753851.40078592</v>
+        <v>637314248.40069544</v>
       </c>
       <c r="F156">
-        <v>987.00561079613283</v>
+        <v>986.06330881429471</v>
       </c>
       <c r="G156">
-        <v>15.262340511871454</v>
+        <v>15.129512192186876</v>
       </c>
       <c r="H156">
-        <v>65.279726792730102</v>
+        <v>64.727266785010286</v>
       </c>
       <c r="I156" t="s">
         <v>39</v>
@@ -6978,22 +6978,22 @@
         <v>5178344</v>
       </c>
       <c r="C157">
-        <v>2983966985.2539101</v>
+        <v>2990748740.1371031</v>
       </c>
       <c r="D157">
-        <v>41220028.792305864</v>
+        <v>41499346.295403466</v>
       </c>
       <c r="E157">
-        <v>176146448.2023806</v>
+        <v>177711718.65963149</v>
       </c>
       <c r="F157">
-        <v>576.23962124839716</v>
+        <v>577.54925901738147</v>
       </c>
       <c r="G157">
-        <v>7.9600792825478308</v>
+        <v>8.0140188244356629</v>
       </c>
       <c r="H157">
-        <v>34.015980437448846</v>
+        <v>34.31825283519818</v>
       </c>
       <c r="I157" t="s">
         <v>40</v>
@@ -7019,22 +7019,22 @@
         <v>3896653</v>
       </c>
       <c r="C158">
-        <v>1308701486.7560847</v>
+        <v>1307725714.6205001</v>
       </c>
       <c r="D158">
         <v>0</v>
       </c>
       <c r="E158">
-        <v>918218836.14552844</v>
+        <v>933730086.50307655</v>
       </c>
       <c r="F158">
-        <v>335.85271430534993</v>
+        <v>335.60230141624106</v>
       </c>
       <c r="G158">
         <v>0</v>
       </c>
       <c r="H158">
-        <v>235.64295721110616</v>
+        <v>239.62361711527214</v>
       </c>
       <c r="I158" t="s">
         <v>40</v>
@@ -7060,22 +7060,22 @@
         <v>419820</v>
       </c>
       <c r="C159">
-        <v>131367061.50762233</v>
+        <v>128970205.23181148</v>
       </c>
       <c r="D159">
         <v>0</v>
       </c>
       <c r="E159">
-        <v>94171721.768946275</v>
+        <v>94512545.323878288</v>
       </c>
       <c r="F159">
-        <v>312.91282337102172</v>
+        <v>307.20357589398191</v>
       </c>
       <c r="G159">
         <v>0</v>
       </c>
       <c r="H159">
-        <v>224.31451995842571</v>
+        <v>225.12635254127551</v>
       </c>
       <c r="I159" t="s">
         <v>40</v>
@@ -7101,22 +7101,22 @@
         <v>4404857</v>
       </c>
       <c r="C160">
-        <v>1613361050.6091802</v>
+        <v>1623693753.6508517</v>
       </c>
       <c r="D160">
         <v>0</v>
       </c>
       <c r="E160">
-        <v>869560938.69984698</v>
+        <v>875089098.55540061</v>
       </c>
       <c r="F160">
-        <v>366.26865539770762</v>
+        <v>368.61440760752316</v>
       </c>
       <c r="G160">
         <v>0</v>
       </c>
       <c r="H160">
-        <v>197.40957281924179</v>
+        <v>198.66458742143061</v>
       </c>
       <c r="I160" t="s">
         <v>40</v>
@@ -7142,7 +7142,7 @@
         <v>1376677</v>
       </c>
       <c r="C161">
-        <v>811277979.39743531</v>
+        <v>807203422.96792293</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -7151,7 +7151,7 @@
         <v>120128497.22856466</v>
       </c>
       <c r="F161">
-        <v>589.30161497390839</v>
+        <v>586.34191096961956</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -7183,22 +7183,22 @@
         <v>5140970</v>
       </c>
       <c r="C162">
-        <v>2406000604.6275048</v>
+        <v>2369115908.5889072</v>
       </c>
       <c r="D162">
         <v>0</v>
       </c>
       <c r="E162">
-        <v>1396424165.5447993</v>
+        <v>1385799728.7767115</v>
       </c>
       <c r="F162">
-        <v>468.00518280159287</v>
+        <v>460.83052587136422</v>
       </c>
       <c r="G162">
         <v>0</v>
       </c>
       <c r="H162">
-        <v>271.62659294740087</v>
+        <v>269.55997190738549</v>
       </c>
       <c r="I162" t="s">
         <v>41</v>
@@ -7230,7 +7230,7 @@
         <v>3078041.0523314844</v>
       </c>
       <c r="E163">
-        <v>135769470.5239346</v>
+        <v>136270111.90236837</v>
       </c>
       <c r="F163">
         <v>118.99425104361514</v>
@@ -7239,7 +7239,7 @@
         <v>0.62825870203880996</v>
       </c>
       <c r="H163">
-        <v>27.711895285884431</v>
+        <v>27.81408115581085</v>
       </c>
       <c r="I163" t="s">
         <v>41</v>
@@ -7265,22 +7265,22 @@
         <v>214384</v>
       </c>
       <c r="C164">
-        <v>216095659.84506711</v>
+        <v>217051506.41513944</v>
       </c>
       <c r="D164">
-        <v>3271447.2757841256</v>
+        <v>3273645.645079039</v>
       </c>
       <c r="E164">
-        <v>14141993.660365397</v>
+        <v>13978929.083825801</v>
       </c>
       <c r="F164">
-        <v>1007.9840839104929</v>
+        <v>1012.4426562389891</v>
       </c>
       <c r="G164">
-        <v>15.259754812785122</v>
+        <v>15.270009166164634</v>
       </c>
       <c r="H164">
-        <v>65.965714140819259</v>
+        <v>65.205094987619418</v>
       </c>
       <c r="I164" t="s">
         <v>27</v>
@@ -7347,22 +7347,22 @@
         <v>13572760</v>
       </c>
       <c r="C166">
-        <v>7256283584.1679211</v>
+        <v>7097694839.4368763</v>
       </c>
       <c r="D166">
-        <v>232949348.17016691</v>
+        <v>228782182.08468825</v>
       </c>
       <c r="E166">
-        <v>980940041.96739876</v>
+        <v>959333302.06118059</v>
       </c>
       <c r="F166">
-        <v>534.62107811292037</v>
+        <v>522.93673795432005</v>
       </c>
       <c r="G166">
-        <v>17.163005031413427</v>
+        <v>16.855980808965032</v>
       </c>
       <c r="H166">
-        <v>72.272702233547108</v>
+        <v>70.680782837181283</v>
       </c>
       <c r="I166" t="s">
         <v>14</v>
@@ -7388,22 +7388,22 @@
         <v>17815891</v>
       </c>
       <c r="C167">
-        <v>9645338759.7151871</v>
+        <v>9700175438.1564388</v>
       </c>
       <c r="D167">
-        <v>136922076.30521402</v>
+        <v>139819059.68493178</v>
       </c>
       <c r="E167">
-        <v>587346840.85906899</v>
+        <v>599771604.56902766</v>
       </c>
       <c r="F167">
-        <v>541.38963690983439</v>
+        <v>544.4676013204413</v>
       </c>
       <c r="G167">
-        <v>7.6853903240210677</v>
+        <v>7.8479970316910777</v>
       </c>
       <c r="H167">
-        <v>32.967581630302348</v>
+        <v>33.664979459575029</v>
       </c>
       <c r="I167" t="s">
         <v>9</v>
@@ -7429,22 +7429,22 @@
         <v>7047532</v>
       </c>
       <c r="C168">
-        <v>7112976340.1694822</v>
+        <v>7162240883.074482</v>
       </c>
       <c r="D168">
-        <v>105410651.69208199</v>
+        <v>104420103.58523643</v>
       </c>
       <c r="E168">
-        <v>450904239.9710328</v>
+        <v>446950308.32501483</v>
       </c>
       <c r="F168">
-        <v>1009.286135936592</v>
+        <v>1016.2764614725385</v>
       </c>
       <c r="G168">
-        <v>14.957101534563019</v>
+        <v>14.816549053659697</v>
       </c>
       <c r="H168">
-        <v>63.980445916532595</v>
+        <v>63.419408145293254</v>
       </c>
       <c r="I168" t="s">
         <v>39</v>
@@ -7470,22 +7470,22 @@
         <v>6223129</v>
       </c>
       <c r="C169">
-        <v>2149253837.9823942</v>
+        <v>2111184989.9584591</v>
       </c>
       <c r="D169">
         <v>0</v>
       </c>
       <c r="E169">
-        <v>1497999330.6744699</v>
+        <v>1472410487.3909984</v>
       </c>
       <c r="F169">
-        <v>345.36546454081127</v>
+        <v>339.24814831228133</v>
       </c>
       <c r="G169">
         <v>0</v>
       </c>
       <c r="H169">
-        <v>240.71481254437597</v>
+        <v>236.6029191088596</v>
       </c>
       <c r="I169" t="s">
         <v>42</v>
@@ -7511,22 +7511,22 @@
         <v>2129192</v>
       </c>
       <c r="C170">
-        <v>1253410113.6497791</v>
+        <v>1251836892.006438</v>
       </c>
       <c r="D170">
-        <v>17209083.206673827</v>
+        <v>17279786.488808662</v>
       </c>
       <c r="E170">
-        <v>73368582.234284684</v>
+        <v>74539357.726241201</v>
       </c>
       <c r="F170">
-        <v>588.67876342282852</v>
+        <v>587.9398814228299</v>
       </c>
       <c r="G170">
-        <v>8.0824478049296768</v>
+        <v>8.1156544307928371</v>
       </c>
       <c r="H170">
-        <v>34.458415321062958</v>
+        <v>35.008283765034435</v>
       </c>
       <c r="I170" t="s">
         <v>23</v>
@@ -7552,22 +7552,22 @@
         <v>4998069</v>
       </c>
       <c r="C171">
-        <v>1452017443.7599285</v>
+        <v>1456885039.0035744</v>
       </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="E171">
-        <v>1049371550.3004014</v>
+        <v>1064007243.9991577</v>
       </c>
       <c r="F171">
-        <v>290.5156859098841</v>
+        <v>291.48958107692681</v>
       </c>
       <c r="G171">
         <v>0</v>
       </c>
       <c r="H171">
-        <v>209.95539483356501</v>
+        <v>212.88366447105025</v>
       </c>
       <c r="I171" t="s">
         <v>23</v>
@@ -7593,22 +7593,22 @@
         <v>4031692</v>
       </c>
       <c r="C172">
-        <v>4603999866.5230389</v>
+        <v>4602897011.9359303</v>
       </c>
       <c r="D172">
-        <v>148102315.70097286</v>
+        <v>147989736.40844414</v>
       </c>
       <c r="E172">
-        <v>637471529.65207899</v>
+        <v>638890493.62783909</v>
       </c>
       <c r="F172">
-        <v>1141.9522787264104</v>
+        <v>1141.6787323872782</v>
       </c>
       <c r="G172">
-        <v>36.734531234274058</v>
+        <v>36.706607649702441</v>
       </c>
       <c r="H172">
-        <v>158.11513618899434</v>
+        <v>158.46708866347902</v>
       </c>
       <c r="I172" t="s">
         <v>26</v>
@@ -7634,22 +7634,22 @@
         <v>5936999</v>
       </c>
       <c r="C173">
-        <v>5671783639.7166605</v>
+        <v>5658610361.2062941</v>
       </c>
       <c r="D173">
-        <v>86205723.720808282</v>
+        <v>87182031.750195295</v>
       </c>
       <c r="E173">
-        <v>369568380.30544925</v>
+        <v>374013671.17975962</v>
       </c>
       <c r="F173">
-        <v>955.3283805027861</v>
+        <v>953.10953584568472</v>
       </c>
       <c r="G173">
-        <v>14.520083921322588</v>
+        <v>14.684528622995439</v>
       </c>
       <c r="H173">
-        <v>62.248348080477903</v>
+        <v>62.997091826991991</v>
       </c>
       <c r="I173" t="s">
         <v>35</v>
@@ -7719,19 +7719,19 @@
         <v>4283920653.7798357</v>
       </c>
       <c r="D175">
-        <v>71137540.954111189</v>
+        <v>70799241.043115571</v>
       </c>
       <c r="E175">
-        <v>291565828.48088813</v>
+        <v>294355289.58929598</v>
       </c>
       <c r="F175">
         <v>484.92643830553283</v>
       </c>
       <c r="G175">
-        <v>8.0525474565580026</v>
+        <v>8.0142529632243242</v>
       </c>
       <c r="H175">
-        <v>33.004341154658867</v>
+        <v>33.320099439980638</v>
       </c>
       <c r="I175" t="s">
         <v>34</v>
@@ -7757,22 +7757,22 @@
         <v>3440952</v>
       </c>
       <c r="C176">
-        <v>2932604204.8464756</v>
+        <v>2899252845.7013183</v>
       </c>
       <c r="D176">
-        <v>94383575.870572075</v>
+        <v>93272311.456148058</v>
       </c>
       <c r="E176">
-        <v>405356790.46610129</v>
+        <v>401526564.10038662</v>
       </c>
       <c r="F176">
-        <v>852.26536285495285</v>
+        <v>842.57288265030093</v>
       </c>
       <c r="G176">
-        <v>27.429495055604402</v>
+        <v>27.106542449923179</v>
       </c>
       <c r="H176">
-        <v>117.80367481618497</v>
+        <v>116.69054497138775</v>
       </c>
       <c r="I176" t="s">
         <v>35</v>
@@ -7798,22 +7798,22 @@
         <v>5568642</v>
       </c>
       <c r="C177">
-        <v>6304166269.6352863</v>
+        <v>6300975276.6332188</v>
       </c>
       <c r="D177">
-        <v>145763943.98529005</v>
+        <v>145817561.57404462</v>
       </c>
       <c r="E177">
-        <v>1768410132.3069358</v>
+        <v>1766957609.4836843</v>
       </c>
       <c r="F177">
-        <v>1132.083238540974</v>
+        <v>1131.510209604643</v>
       </c>
       <c r="G177">
-        <v>26.175851129465684</v>
+        <v>26.185479614966201</v>
       </c>
       <c r="H177">
-        <v>317.56577856988037</v>
+        <v>317.30493888522273</v>
       </c>
       <c r="I177" t="s">
         <v>26</v>
@@ -7839,22 +7839,22 @@
         <v>4469578</v>
       </c>
       <c r="C178">
-        <v>3487834995.1303129</v>
+        <v>3470874303.3795838</v>
       </c>
       <c r="D178">
-        <v>54825519.940499574</v>
+        <v>54050002.016451314</v>
       </c>
       <c r="E178">
-        <v>235075432.87337199</v>
+        <v>231949117.91373134</v>
       </c>
       <c r="F178">
-        <v>780.34995588628567</v>
+        <v>776.55525944050737</v>
       </c>
       <c r="G178">
-        <v>12.266375022541183</v>
+        <v>12.092864699184423</v>
       </c>
       <c r="H178">
-        <v>52.594547600102736</v>
+        <v>51.8950822457358</v>
       </c>
       <c r="I178" t="s">
         <v>22</v>
@@ -7880,22 +7880,22 @@
         <v>5464804</v>
       </c>
       <c r="C179">
-        <v>2042991498.6348851</v>
+        <v>2062214178.4115081</v>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179">
-        <v>1444661658.3464398</v>
+        <v>1462407978.427191</v>
       </c>
       <c r="F179">
-        <v>373.84533802765571</v>
+        <v>377.36288042746054</v>
       </c>
       <c r="G179">
         <v>0</v>
       </c>
       <c r="H179">
-        <v>264.35745149257684</v>
+        <v>267.60483604301106</v>
       </c>
       <c r="I179" t="s">
         <v>10</v>
@@ -7962,22 +7962,22 @@
         <v>1204962</v>
       </c>
       <c r="C181">
-        <v>459187720.92340237</v>
+        <v>473300918.29440314</v>
       </c>
       <c r="D181">
         <v>0</v>
       </c>
       <c r="E181">
-        <v>330044794.69234729</v>
+        <v>335638774.26340401</v>
       </c>
       <c r="F181">
-        <v>381.08066555078284</v>
+        <v>392.79323189810395</v>
       </c>
       <c r="G181">
         <v>0</v>
       </c>
       <c r="H181">
-        <v>273.90473283999603</v>
+        <v>278.547185938979</v>
       </c>
       <c r="I181" t="s">
         <v>13</v>
@@ -8003,22 +8003,22 @@
         <v>9406012</v>
       </c>
       <c r="C182">
-        <v>4849603926.5600758</v>
+        <v>4888271906.5023127</v>
       </c>
       <c r="D182">
-        <v>62237952.523411356</v>
+        <v>62523136.001839451</v>
       </c>
       <c r="E182">
-        <v>264977314.29009783</v>
+        <v>267155128.75342646</v>
       </c>
       <c r="F182">
-        <v>515.585555978461</v>
+        <v>519.69654158450066</v>
       </c>
       <c r="G182">
-        <v>6.6168268255889275</v>
+        <v>6.6471461020716802</v>
       </c>
       <c r="H182">
-        <v>28.171058498553673</v>
+        <v>28.402592804838701</v>
       </c>
       <c r="I182" t="s">
         <v>30</v>
@@ -8044,22 +8044,22 @@
         <v>11346108</v>
       </c>
       <c r="C183">
-        <v>7510078069.6272554</v>
+        <v>7540831743.4102516</v>
       </c>
       <c r="D183">
-        <v>102609598.81976196</v>
+        <v>102929187.0436556</v>
       </c>
       <c r="E183">
-        <v>436047305.56926537</v>
+        <v>437807120.18211889</v>
       </c>
       <c r="F183">
-        <v>661.90786035416329</v>
+        <v>664.61836458900723</v>
       </c>
       <c r="G183">
-        <v>9.0435944043333585</v>
+        <v>9.0717616158470911</v>
       </c>
       <c r="H183">
-        <v>38.431443237563521</v>
+        <v>38.586546169146189</v>
       </c>
       <c r="I183" t="s">
         <v>13</v>
@@ -8085,22 +8085,22 @@
         <v>8278514</v>
       </c>
       <c r="C184">
-        <v>7973971356.1855392</v>
+        <v>7956671982.2333307</v>
       </c>
       <c r="D184">
-        <v>41389047.378798068</v>
+        <v>41547951.063256145</v>
       </c>
       <c r="E184">
-        <v>178206652.39547151</v>
+        <v>179312737.59852499</v>
       </c>
       <c r="F184">
-        <v>963.21288533008931</v>
+        <v>961.12321392865078</v>
       </c>
       <c r="G184">
-        <v>4.9995744862904221</v>
+        <v>5.0187691973772282</v>
       </c>
       <c r="H184">
-        <v>21.526405873743951</v>
+        <v>21.660015021841478</v>
       </c>
       <c r="I184" t="s">
         <v>26</v>
@@ -8126,22 +8126,22 @@
         <v>2439887</v>
       </c>
       <c r="C185">
-        <v>1173194232.9608126</v>
+        <v>1169709892.709271</v>
       </c>
       <c r="D185">
-        <v>18073442.621962883</v>
+        <v>17619282.228705831</v>
       </c>
       <c r="E185">
-        <v>77345857.453845948</v>
+        <v>75871077.872237861</v>
       </c>
       <c r="F185">
-        <v>480.83957698074238</v>
+        <v>479.41150254469613</v>
       </c>
       <c r="G185">
-        <v>7.407491667426763</v>
+        <v>7.2213517383001058</v>
       </c>
       <c r="H185">
-        <v>31.700590008408565</v>
+        <v>31.096144154314466</v>
       </c>
       <c r="I185" t="s">
         <v>29</v>
@@ -8167,19 +8167,19 @@
         <v>14844275</v>
       </c>
       <c r="C186">
-        <v>3454241061.0597029</v>
+        <v>3451202889.5126729</v>
       </c>
       <c r="D186">
-        <v>145078124.56450751</v>
+        <v>144950521.3595323</v>
       </c>
       <c r="E186">
         <v>644899875.97351193</v>
       </c>
       <c r="F186">
-        <v>232.69853603895797</v>
+        <v>232.49386645778745</v>
       </c>
       <c r="G186">
-        <v>9.7733385136362347</v>
+        <v>9.7647423912270757</v>
       </c>
       <c r="H186">
         <v>43.444349823316529</v>
@@ -8208,22 +8208,22 @@
         <v>8797020</v>
       </c>
       <c r="C187">
-        <v>3670364732.2290001</v>
+        <v>3639778359.4604249</v>
       </c>
       <c r="D187">
         <v>0</v>
       </c>
       <c r="E187">
-        <v>1976350240.4309998</v>
+        <v>1959880655.0940747</v>
       </c>
       <c r="F187">
-        <v>417.22819002673634</v>
+        <v>413.75128844318016</v>
       </c>
       <c r="G187">
         <v>0</v>
       </c>
       <c r="H187">
-        <v>224.66133309131953</v>
+        <v>222.78915531555853</v>
       </c>
       <c r="I187" t="s">
         <v>11</v>
@@ -8249,22 +8249,22 @@
         <v>614883</v>
       </c>
       <c r="C188">
-        <v>348353594.01724744</v>
+        <v>354854900.46030778</v>
       </c>
       <c r="D188">
-        <v>5055438.8918118747</v>
+        <v>5141705.2723704772</v>
       </c>
       <c r="E188">
-        <v>22194735.067236952</v>
+        <v>22338205.925250012</v>
       </c>
       <c r="F188">
-        <v>566.53638825150063</v>
+        <v>577.10962973493781</v>
       </c>
       <c r="G188">
-        <v>8.2217899857564358</v>
+        <v>8.3620872139422904</v>
       </c>
       <c r="H188">
-        <v>36.095867127952722</v>
+        <v>36.32919746561543</v>
       </c>
       <c r="I188" t="s">
         <v>32</v>
@@ -8290,22 +8290,22 @@
         <v>5372955</v>
       </c>
       <c r="C189">
-        <v>4722865643.7574148</v>
+        <v>4697162074.0369987</v>
       </c>
       <c r="D189">
-        <v>72760039.729334265</v>
+        <v>72664739.750984684</v>
       </c>
       <c r="E189">
-        <v>311747756.60461664</v>
+        <v>311302684.95612919</v>
       </c>
       <c r="F189">
-        <v>879.00710945046342</v>
+        <v>874.22322986829386</v>
       </c>
       <c r="G189">
-        <v>13.541903799554298</v>
+        <v>13.524166822723192</v>
       </c>
       <c r="H189">
-        <v>58.021657840911871</v>
+        <v>57.938822297251548</v>
       </c>
       <c r="I189" t="s">
         <v>24</v>
@@ -8372,22 +8372,22 @@
         <v>12160150</v>
       </c>
       <c r="C191">
-        <v>4606038077.5063925</v>
+        <v>4644304651.6239233</v>
       </c>
       <c r="D191">
-        <v>126371312.80801839</v>
+        <v>127656640.74362952</v>
       </c>
       <c r="E191">
-        <v>1401352132.521342</v>
+        <v>1409748461.6213965</v>
       </c>
       <c r="F191">
-        <v>378.78135364336725</v>
+        <v>381.92823703851707</v>
       </c>
       <c r="G191">
-        <v>10.392249504160588</v>
+        <v>10.497949510789711</v>
       </c>
       <c r="H191">
-        <v>115.24135249329507</v>
+        <v>115.93183156633731</v>
       </c>
       <c r="I191" t="s">
         <v>28</v>
@@ -8413,22 +8413,22 @@
         <v>13610817</v>
       </c>
       <c r="C192">
-        <v>13670518605.827473</v>
+        <v>13740632471.443375</v>
       </c>
       <c r="D192">
-        <v>427275840.35278189</v>
+        <v>428752302.64749324</v>
       </c>
       <c r="E192">
-        <v>1826652961.504674</v>
+        <v>1833281086.4540613</v>
       </c>
       <c r="F192">
-        <v>1004.3863352087882</v>
+        <v>1009.5376692996001</v>
       </c>
       <c r="G192">
-        <v>31.392372724780731</v>
+        <v>31.500849849608091</v>
       </c>
       <c r="H192">
-        <v>134.20597466740418</v>
+        <v>134.69294947203105</v>
       </c>
       <c r="I192" t="s">
         <v>36</v>
@@ -8454,22 +8454,22 @@
         <v>5621453</v>
       </c>
       <c r="C193">
-        <v>1782742080.7723961</v>
+        <v>1778721372.9623704</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193">
-        <v>1306596590.8917804</v>
+        <v>1305110199.8940396</v>
       </c>
       <c r="F193">
-        <v>317.13190180054801</v>
+        <v>316.41665828432087</v>
       </c>
       <c r="G193">
         <v>0</v>
       </c>
       <c r="H193">
-        <v>232.430403828295</v>
+        <v>232.16598980620128</v>
       </c>
       <c r="I193" t="s">
         <v>18</v>
@@ -8495,22 +8495,22 @@
         <v>8681175</v>
       </c>
       <c r="C194">
-        <v>3120773300.8853478</v>
+        <v>3123916472.6491861</v>
       </c>
       <c r="D194">
         <v>0</v>
       </c>
       <c r="E194">
-        <v>1979230165.0079989</v>
+        <v>2000612012.6666377</v>
       </c>
       <c r="F194">
-        <v>359.48743123889886</v>
+        <v>359.84949878895264</v>
       </c>
       <c r="G194">
         <v>0</v>
       </c>
       <c r="H194">
-        <v>227.99104556790977</v>
+        <v>230.45405865757084</v>
       </c>
       <c r="I194" t="s">
         <v>11</v>
@@ -8618,22 +8618,22 @@
         <v>2383346</v>
       </c>
       <c r="C197">
-        <v>758498403.03638637</v>
+        <v>792342351.16124558</v>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197">
-        <v>562137781.08910811</v>
+        <v>552520518.14613461</v>
       </c>
       <c r="F197">
-        <v>318.24938680174273</v>
+        <v>332.44956928672781</v>
       </c>
       <c r="G197">
         <v>0</v>
       </c>
       <c r="H197">
-        <v>235.86075252569628</v>
+        <v>231.82555875065333</v>
       </c>
       <c r="I197" t="s">
         <v>45</v>
@@ -8659,22 +8659,22 @@
         <v>14585886</v>
       </c>
       <c r="C198">
-        <v>15145955529.782021</v>
+        <v>15039178742.831827</v>
       </c>
       <c r="D198">
-        <v>236855177.42978498</v>
+        <v>236672087.37294072</v>
       </c>
       <c r="E198">
-        <v>1012219671.2581515</v>
+        <v>1017495230.6696639</v>
       </c>
       <c r="F198">
-        <v>1038.3980465624111</v>
+        <v>1031.0774911329916</v>
       </c>
       <c r="G198">
-        <v>16.238655466646659</v>
+        <v>16.2261029170899</v>
       </c>
       <c r="H198">
-        <v>69.397201600105163</v>
+        <v>69.758890935364775</v>
       </c>
       <c r="I198" t="s">
         <v>24</v>
@@ -8700,22 +8700,22 @@
         <v>93260</v>
       </c>
       <c r="C199">
-        <v>39852899.807906449</v>
+        <v>40479479.89006225</v>
       </c>
       <c r="D199">
         <v>0</v>
       </c>
       <c r="E199">
-        <v>30174986.765585452</v>
+        <v>29683900.625269517</v>
       </c>
       <c r="F199">
-        <v>427.33111524669147</v>
+        <v>434.04975219882317</v>
       </c>
       <c r="G199">
         <v>0</v>
       </c>
       <c r="H199">
-        <v>323.5576535018813</v>
+        <v>318.29187888987258</v>
       </c>
       <c r="I199" t="s">
         <v>22</v>
@@ -8741,22 +8741,22 @@
         <v>2184313</v>
       </c>
       <c r="C200">
-        <v>1429595910.6325037</v>
+        <v>1429925565.4408379</v>
       </c>
       <c r="D200">
-        <v>19517365.694848087</v>
+        <v>19508598.629347432</v>
       </c>
       <c r="E200">
-        <v>83574143.424591601</v>
+        <v>82737566.196141303</v>
       </c>
       <c r="F200">
-        <v>654.48308490244017</v>
+        <v>654.63400411975658</v>
       </c>
       <c r="G200">
-        <v>8.9352421996518299</v>
+        <v>8.9312285507376608</v>
       </c>
       <c r="H200">
-        <v>38.261065801737935</v>
+        <v>37.878072508903855</v>
       </c>
       <c r="I200" t="s">
         <v>15</v>
@@ -8782,22 +8782,22 @@
         <v>2459453</v>
       </c>
       <c r="C201">
-        <v>2737590277.1878929</v>
+        <v>2737012008.2705708</v>
       </c>
       <c r="D201">
-        <v>39736603.638382867</v>
+        <v>38345058.659586981</v>
       </c>
       <c r="E201">
-        <v>170270164.30489931</v>
+        <v>169772030.29989058</v>
       </c>
       <c r="F201">
-        <v>1113.0890800466173</v>
+        <v>1112.8539591000806</v>
       </c>
       <c r="G201">
-        <v>16.156683473269407</v>
+        <v>15.590888973925088</v>
       </c>
       <c r="H201">
-        <v>69.230907972178898</v>
+        <v>69.028369438200514</v>
       </c>
       <c r="I201" t="s">
         <v>24</v>
@@ -8864,22 +8864,22 @@
         <v>6130440</v>
       </c>
       <c r="C203">
-        <v>855831086.03495991</v>
+        <v>848639228.16912007</v>
       </c>
       <c r="D203">
         <v>0</v>
       </c>
       <c r="E203">
-        <v>3423324344.1398396</v>
+        <v>3394556912.6764803</v>
       </c>
       <c r="F203">
-        <v>139.60353352042591</v>
+        <v>138.43039458327951</v>
       </c>
       <c r="G203">
         <v>0</v>
       </c>
       <c r="H203">
-        <v>558.41413408170365</v>
+        <v>553.72157833311803</v>
       </c>
       <c r="I203" t="s">
         <v>15</v>
@@ -8905,22 +8905,22 @@
         <v>9975515</v>
       </c>
       <c r="C204">
-        <v>46856576501.767105</v>
+        <v>47378373480.335648</v>
       </c>
       <c r="D204">
-        <v>666972248.56071639</v>
+        <v>672085885.49904168</v>
       </c>
       <c r="E204">
-        <v>2874982133.2621965</v>
+        <v>2881950428.7143869</v>
       </c>
       <c r="F204">
-        <v>4697.158643114376</v>
+        <v>4749.4664165544982</v>
       </c>
       <c r="G204">
-        <v>66.860933852609747</v>
+        <v>67.373552693674625</v>
       </c>
       <c r="H204">
-        <v>288.20388052769169</v>
+        <v>288.9024204479054</v>
       </c>
       <c r="I204" t="s">
         <v>15</v>
@@ -8946,22 +8946,22 @@
         <v>4778869</v>
       </c>
       <c r="C205">
-        <v>7785678781.5028172</v>
+        <v>7788636066.1853542</v>
       </c>
       <c r="D205">
-        <v>59689236.272875011</v>
+        <v>59296037.287302278</v>
       </c>
       <c r="E205">
-        <v>883196090.16942358</v>
+        <v>885272197.22539234</v>
       </c>
       <c r="F205">
-        <v>1629.188576105103</v>
+        <v>1629.8074013297612</v>
       </c>
       <c r="G205">
-        <v>12.490243250625831</v>
+        <v>12.407964580594756</v>
       </c>
       <c r="H205">
-        <v>184.81278523630249</v>
+        <v>185.24722004838222</v>
       </c>
       <c r="I205" t="s">
         <v>15</v>
@@ -8987,22 +8987,22 @@
         <v>7465222</v>
       </c>
       <c r="C206">
-        <v>2481703710.3332195</v>
+        <v>2440333277.822926</v>
       </c>
       <c r="D206">
         <v>0</v>
       </c>
       <c r="E206">
-        <v>1737156689.0165401</v>
+        <v>1722343389.7526102</v>
       </c>
       <c r="F206">
-        <v>332.43535293836129</v>
+        <v>326.89359778221279</v>
       </c>
       <c r="G206">
         <v>0</v>
       </c>
       <c r="H206">
-        <v>232.69993699002387</v>
+        <v>230.71562905331015</v>
       </c>
       <c r="I206" t="s">
         <v>30</v>
@@ -9028,22 +9028,22 @@
         <v>9630419</v>
       </c>
       <c r="C207">
-        <v>6177825281.1357555</v>
+        <v>6159644301.8362818</v>
       </c>
       <c r="D207">
-        <v>62450853.675411537</v>
+        <v>62335496.251476958</v>
       </c>
       <c r="E207">
-        <v>267596372.34680295</v>
+        <v>266643212.82570714</v>
       </c>
       <c r="F207">
-        <v>641.49080960400124</v>
+        <v>639.60293958510863</v>
       </c>
       <c r="G207">
-        <v>6.4847493837403682</v>
+        <v>6.4727709408569822</v>
       </c>
       <c r="H207">
-        <v>27.786576300242277</v>
+        <v>27.687602463164598</v>
       </c>
       <c r="I207" t="s">
         <v>46</v>
@@ -9069,22 +9069,22 @@
         <v>12442473</v>
       </c>
       <c r="C208">
-        <v>19488070329.246433</v>
+        <v>19620702376.399128</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208">
-        <v>14105871157.626179</v>
+        <v>13981124253.130625</v>
       </c>
       <c r="F208">
-        <v>1566.2537768212503</v>
+        <v>1576.9133978750951</v>
       </c>
       <c r="G208">
         <v>0</v>
       </c>
       <c r="H208">
-        <v>1133.6871020436354</v>
+        <v>1123.6612089196919</v>
       </c>
       <c r="I208" t="s">
         <v>24</v>
@@ -9110,22 +9110,22 @@
         <v>6659324</v>
       </c>
       <c r="C209">
-        <v>4416990431.0303154</v>
+        <v>4415081016.4958286</v>
       </c>
       <c r="D209">
-        <v>60692927.355898082</v>
+        <v>59889573.046948954</v>
       </c>
       <c r="E209">
-        <v>261139290.96481094</v>
+        <v>257630534.49343067</v>
       </c>
       <c r="F209">
-        <v>663.27910025556878</v>
+        <v>662.992372273196</v>
       </c>
       <c r="G209">
-        <v>9.1139772379145523</v>
+        <v>8.9933412230654266</v>
       </c>
       <c r="H209">
-        <v>39.214084036879861</v>
+        <v>38.687190245350834</v>
       </c>
       <c r="I209" t="s">
         <v>40</v>
@@ -9151,22 +9151,22 @@
         <v>4935387</v>
       </c>
       <c r="C210">
-        <v>2522448798.190815</v>
+        <v>2552934558.1487727</v>
       </c>
       <c r="D210">
-        <v>81181133.685702935</v>
+        <v>82111365.959258184</v>
       </c>
       <c r="E210">
-        <v>349758481.73220521</v>
+        <v>352684820.00643873</v>
       </c>
       <c r="F210">
-        <v>511.09442849989574</v>
+        <v>517.27140306297611</v>
       </c>
       <c r="G210">
-        <v>16.448787842919497</v>
+        <v>16.637269976854537</v>
       </c>
       <c r="H210">
-        <v>70.867488554029336</v>
+        <v>71.460418404157309</v>
       </c>
       <c r="I210" t="s">
         <v>14</v>
@@ -9233,22 +9233,22 @@
         <v>8727176</v>
       </c>
       <c r="C212">
-        <v>5557995866.0025091</v>
+        <v>5581387770.0042706</v>
       </c>
       <c r="D212">
-        <v>75982969.089664668</v>
+        <v>75988273.214131981</v>
       </c>
       <c r="E212">
-        <v>322945449.12588578</v>
+        <v>324196327.29122841</v>
       </c>
       <c r="F212">
-        <v>636.86075151945022</v>
+        <v>639.54110356022045</v>
       </c>
       <c r="G212">
-        <v>8.7064783716593617</v>
+        <v>8.7070861426573707</v>
       </c>
       <c r="H212">
-        <v>37.004576179727074</v>
+        <v>37.147907558095355</v>
       </c>
       <c r="I212" t="s">
         <v>15</v>
@@ -9274,22 +9274,22 @@
         <v>11925993</v>
       </c>
       <c r="C213">
-        <v>59714816928.033844</v>
+        <v>58677840025.076569</v>
       </c>
       <c r="D213">
-        <v>762291350.36387897</v>
+        <v>758098302.31027031</v>
       </c>
       <c r="E213">
-        <v>3390865406.4763632</v>
+        <v>3303448252.1710024</v>
       </c>
       <c r="F213">
-        <v>5007.1148732045913</v>
+        <v>4920.1638827958868</v>
       </c>
       <c r="G213">
-        <v>63.918480445517531</v>
+        <v>63.566891437071135</v>
       </c>
       <c r="H213">
-        <v>284.32562441352792</v>
+        <v>276.99565580585215</v>
       </c>
       <c r="I213" t="s">
         <v>15</v>
@@ -9315,22 +9315,22 @@
         <v>3197035</v>
       </c>
       <c r="C214">
-        <v>1364312407.4599302</v>
+        <v>1363505354.3016047</v>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>734629757.86303926</v>
+        <v>734195190.77778697</v>
       </c>
       <c r="F214">
-        <v>426.74303142127945</v>
+        <v>426.49059340970769</v>
       </c>
       <c r="G214">
         <v>0</v>
       </c>
       <c r="H214">
-        <v>229.78470922684275</v>
+        <v>229.64878106676559</v>
       </c>
       <c r="I214" t="s">
         <v>15</v>
@@ -9356,22 +9356,22 @@
         <v>2169628</v>
       </c>
       <c r="C215">
-        <v>17162379264.439886</v>
+        <v>17206082730.98196</v>
       </c>
       <c r="D215">
-        <v>244183315.63314295</v>
+        <v>239997985.48227164</v>
       </c>
       <c r="E215">
-        <v>1040049746.4486756</v>
+        <v>1031084783.6176636</v>
       </c>
       <c r="F215">
-        <v>7910.2865857372262</v>
+        <v>7930.4298852070306</v>
       </c>
       <c r="G215">
-        <v>112.54616719232189</v>
+        <v>110.61711292547461</v>
       </c>
       <c r="H215">
-        <v>479.36777477460453</v>
+        <v>475.23574715004764</v>
       </c>
       <c r="I215" t="s">
         <v>15</v>
@@ -9397,22 +9397,22 @@
         <v>2005494</v>
       </c>
       <c r="C216">
-        <v>1297715190.6509452</v>
+        <v>1301861647.9884834</v>
       </c>
       <c r="D216">
         <v>0</v>
       </c>
       <c r="E216">
-        <v>504667018.58647883</v>
+        <v>506279529.7732991</v>
       </c>
       <c r="F216">
-        <v>647.08006638311815</v>
+        <v>649.14761549447837</v>
       </c>
       <c r="G216">
         <v>0</v>
       </c>
       <c r="H216">
-        <v>251.64224803787937</v>
+        <v>252.44629491451937</v>
       </c>
       <c r="I216" t="s">
         <v>10</v>
@@ -9438,22 +9438,22 @@
         <v>5753937</v>
       </c>
       <c r="C217">
-        <v>2216161743.8586287</v>
+        <v>2264923770.7866721</v>
       </c>
       <c r="D217">
         <v>0</v>
       </c>
       <c r="E217">
-        <v>1323033315.2201242</v>
+        <v>1310719537.5463557</v>
       </c>
       <c r="F217">
-        <v>385.1557192681513</v>
+        <v>393.63026928982225</v>
       </c>
       <c r="G217">
         <v>0</v>
       </c>
       <c r="H217">
-        <v>229.93531476276578</v>
+        <v>227.79525350144704</v>
       </c>
       <c r="I217" t="s">
         <v>15</v>
@@ -9520,22 +9520,22 @@
         <v>1861832</v>
       </c>
       <c r="C219">
-        <v>837172392.09490001</v>
+        <v>828406249.12502646</v>
       </c>
       <c r="D219">
         <v>0</v>
       </c>
       <c r="E219">
-        <v>344960235.41790426</v>
+        <v>341930415.044424</v>
       </c>
       <c r="F219">
-        <v>449.64980304071474</v>
+        <v>444.94146041373574</v>
       </c>
       <c r="G219">
         <v>0</v>
       </c>
       <c r="H219">
-        <v>185.28000132015362</v>
+        <v>183.65266847085238</v>
       </c>
       <c r="I219" t="s">
         <v>30</v>
@@ -9561,22 +9561,22 @@
         <v>10724956</v>
       </c>
       <c r="C220">
-        <v>3957492936.4598756</v>
+        <v>3989445765.6967144</v>
       </c>
       <c r="D220">
-        <v>111260048.31093618</v>
+        <v>112020166.0729796</v>
       </c>
       <c r="E220">
-        <v>2482124409.1197014</v>
+        <v>2492071010.6177101</v>
       </c>
       <c r="F220">
-        <v>368.9985242326286</v>
+        <v>371.97782123271315</v>
       </c>
       <c r="G220">
-        <v>10.373939838162149</v>
+        <v>10.444813579932598</v>
       </c>
       <c r="H220">
-        <v>231.43446081454334</v>
+        <v>232.36188667046375</v>
       </c>
       <c r="I220" t="s">
         <v>41</v>
@@ -9602,22 +9602,22 @@
         <v>5178428</v>
       </c>
       <c r="C221">
-        <v>4848366780.1521101</v>
+        <v>4850307174.0283737</v>
       </c>
       <c r="D221">
-        <v>75413811.540719897</v>
+        <v>75434471.461180568</v>
       </c>
       <c r="E221">
-        <v>323221138.05582654</v>
+        <v>329584593.93097091</v>
       </c>
       <c r="F221">
-        <v>936.26227499003755</v>
+        <v>936.63698211665269</v>
       </c>
       <c r="G221">
-        <v>14.563070402971693</v>
+        <v>14.56706001535226</v>
       </c>
       <c r="H221">
-        <v>62.416845045605839</v>
+        <v>63.645684352658932</v>
       </c>
       <c r="I221" t="s">
         <v>24</v>
@@ -9643,22 +9643,22 @@
         <v>3427166</v>
       </c>
       <c r="C222">
-        <v>1556374242.6414001</v>
+        <v>1543404457.2860551</v>
       </c>
       <c r="D222">
         <v>0</v>
       </c>
       <c r="E222">
-        <v>838047669.11459994</v>
+        <v>831063938.53864491</v>
       </c>
       <c r="F222">
-        <v>454.12864233637941</v>
+        <v>450.34423698357625</v>
       </c>
       <c r="G222">
         <v>0</v>
       </c>
       <c r="H222">
-        <v>244.53080741189657</v>
+        <v>242.49305068346411</v>
       </c>
       <c r="I222" t="s">
         <v>19</v>
@@ -9684,22 +9684,22 @@
         <v>3910602</v>
       </c>
       <c r="C223">
-        <v>6013849770.5728645</v>
+        <v>6019951512.7561264</v>
       </c>
       <c r="D223">
-        <v>91660660.032908961</v>
+        <v>91393826.054051861</v>
       </c>
       <c r="E223">
-        <v>393211814.12343073</v>
+        <v>392402429.164015</v>
       </c>
       <c r="F223">
-        <v>1537.8322239319841</v>
+        <v>1539.3925315734321</v>
       </c>
       <c r="G223">
-        <v>23.439015280232802</v>
+        <v>23.370781801382975</v>
       </c>
       <c r="H223">
-        <v>100.55020023091859</v>
+        <v>100.3432282712521</v>
       </c>
       <c r="I223" t="s">
         <v>16</v>
@@ -9725,22 +9725,22 @@
         <v>3855966</v>
       </c>
       <c r="C224">
-        <v>1696783188.3993466</v>
+        <v>1705694077.4605012</v>
       </c>
       <c r="D224">
         <v>0</v>
       </c>
       <c r="E224">
-        <v>659860128.8219682</v>
+        <v>663325474.56797278</v>
       </c>
       <c r="F224">
-        <v>440.04101395067971</v>
+        <v>442.3519495401415</v>
       </c>
       <c r="G224">
         <v>0</v>
       </c>
       <c r="H224">
-        <v>171.12706098081989</v>
+        <v>172.0257581544995</v>
       </c>
       <c r="I224" t="s">
         <v>25</v>
@@ -9766,22 +9766,22 @@
         <v>16989297</v>
       </c>
       <c r="C225">
-        <v>11123961455.339632</v>
+        <v>11068745238.847013</v>
       </c>
       <c r="D225">
-        <v>80295171.512352705</v>
+        <v>80018610.605912477</v>
       </c>
       <c r="E225">
-        <v>346612606.1029278</v>
+        <v>344644125.25877243</v>
       </c>
       <c r="F225">
-        <v>654.76290486531798</v>
+        <v>651.51284593158937</v>
       </c>
       <c r="G225">
-        <v>4.7262209561909891</v>
+        <v>4.70994241880123</v>
       </c>
       <c r="H225">
-        <v>20.401821576427075</v>
+        <v>20.285955637762552</v>
       </c>
       <c r="I225" t="s">
         <v>22</v>
@@ -9807,22 +9807,22 @@
         <v>7463219</v>
       </c>
       <c r="C226">
-        <v>7318507563.2226219</v>
+        <v>7361431089.0618591</v>
       </c>
       <c r="D226">
-        <v>109022594.395798</v>
+        <v>109337676.48366871</v>
       </c>
       <c r="E226">
-        <v>467464311.18114054</v>
+        <v>471781604.48165214</v>
       </c>
       <c r="F226">
-        <v>980.61005086714215</v>
+        <v>986.36139299434456</v>
       </c>
       <c r="G226">
-        <v>14.607985427708606</v>
+        <v>14.650203415398733</v>
       </c>
       <c r="H226">
-        <v>62.63574888813266</v>
+        <v>63.214224918450356</v>
       </c>
       <c r="I226" t="s">
         <v>39</v>
@@ -9889,22 +9889,22 @@
         <v>10860909</v>
       </c>
       <c r="C228">
-        <v>5854389141.2794704</v>
+        <v>5830704666.5665197</v>
       </c>
       <c r="D228">
-        <v>75153934.840518191</v>
+        <v>74887731.280056611</v>
       </c>
       <c r="E228">
-        <v>322329316.66258764</v>
+        <v>321210205.25307143</v>
       </c>
       <c r="F228">
-        <v>539.03307184320124</v>
+        <v>536.8523635145566</v>
       </c>
       <c r="G228">
-        <v>6.9196726388664329</v>
+        <v>6.8951623920296736</v>
       </c>
       <c r="H228">
-        <v>29.677931806866962</v>
+        <v>29.574891498775234</v>
       </c>
       <c r="I228" t="s">
         <v>46</v>
@@ -9930,22 +9930,22 @@
         <v>2584028</v>
       </c>
       <c r="C229">
-        <v>2143985629.8690422</v>
+        <v>2151886204.5246859</v>
       </c>
       <c r="D229">
-        <v>34040464.644171216</v>
+        <v>33455956.73471123</v>
       </c>
       <c r="E229">
-        <v>145837002.43117031</v>
+        <v>143380101.00576258</v>
       </c>
       <c r="F229">
-        <v>829.70681040183854</v>
+        <v>832.76427520316565</v>
       </c>
       <c r="G229">
-        <v>13.173411682911802</v>
+        <v>12.947211382659642</v>
       </c>
       <c r="H229">
-        <v>56.437856877390772</v>
+        <v>55.487053935082194</v>
       </c>
       <c r="I229" t="s">
         <v>26</v>
@@ -9971,22 +9971,22 @@
         <v>5184267</v>
       </c>
       <c r="C230">
-        <v>1847080410.6096525</v>
+        <v>1849784202.8350177</v>
       </c>
       <c r="D230">
         <v>0</v>
       </c>
       <c r="E230">
-        <v>1300841608.4863682</v>
+        <v>1286291203.1199069</v>
       </c>
       <c r="F230">
-        <v>356.28574118764573</v>
+        <v>356.80727918431239</v>
       </c>
       <c r="G230">
         <v>0</v>
       </c>
       <c r="H230">
-        <v>250.92102865966746</v>
+        <v>248.11438205630745</v>
       </c>
       <c r="I230" t="s">
         <v>42</v>
@@ -10012,7 +10012,7 @@
         <v>4104611</v>
       </c>
       <c r="C231">
-        <v>23646687195.391644</v>
+        <v>23098888898.533607</v>
       </c>
       <c r="D231">
         <v>330676754.8275857</v>
@@ -10021,7 +10021,7 @@
         <v>1411150292.7340012</v>
       </c>
       <c r="F231">
-        <v>5761.0056581224489</v>
+        <v>5627.5464102526666</v>
       </c>
       <c r="G231">
         <v>80.562263958164536</v>
@@ -10053,22 +10053,22 @@
         <v>3995922</v>
       </c>
       <c r="C232">
-        <v>1864595992.6062934</v>
+        <v>1857641526.61079</v>
       </c>
       <c r="D232">
         <v>0</v>
       </c>
       <c r="E232">
-        <v>725120663.79133642</v>
+        <v>722416149.23752952</v>
       </c>
       <c r="F232">
-        <v>466.62472205570913</v>
+        <v>464.88433122838484</v>
       </c>
       <c r="G232">
         <v>0</v>
       </c>
       <c r="H232">
-        <v>181.46516968833137</v>
+        <v>180.7883510332608</v>
       </c>
       <c r="I232" t="s">
         <v>25</v>
@@ -10094,22 +10094,22 @@
         <v>5491581</v>
       </c>
       <c r="C233">
-        <v>5161309412.4445362</v>
+        <v>5150538395.9671688</v>
       </c>
       <c r="D233">
-        <v>80896227.459442526</v>
+        <v>79668261.34219633</v>
       </c>
       <c r="E233">
-        <v>347693365.5934208</v>
+        <v>343590143.1294418</v>
       </c>
       <c r="F233">
-        <v>939.85856030249511</v>
+        <v>937.89719134929794</v>
       </c>
       <c r="G233">
-        <v>14.730954065767676</v>
+        <v>14.507345214829087</v>
       </c>
       <c r="H233">
-        <v>63.313891863458046</v>
+        <v>62.566707680254886</v>
       </c>
       <c r="I233" t="s">
         <v>24</v>
@@ -10176,22 +10176,22 @@
         <v>1299004</v>
       </c>
       <c r="C235">
-        <v>440567181.74626863</v>
+        <v>455287821.69095188</v>
       </c>
       <c r="D235">
         <v>0</v>
       </c>
       <c r="E235">
-        <v>322028273.24005592</v>
+        <v>316661135.35272163</v>
       </c>
       <c r="F235">
-        <v>339.15767907278854</v>
+        <v>350.48993050902993</v>
       </c>
       <c r="G235">
         <v>0</v>
       </c>
       <c r="H235">
-        <v>247.90398893310254</v>
+        <v>243.77225578421746</v>
       </c>
       <c r="I235" t="s">
         <v>30</v>
@@ -10217,22 +10217,22 @@
         <v>2477354</v>
       </c>
       <c r="C236">
-        <v>912421512.96791661</v>
+        <v>937152229.64890397</v>
       </c>
       <c r="D236">
         <v>0</v>
       </c>
       <c r="E236">
-        <v>641646768.12087154</v>
+        <v>636254778.47279692</v>
       </c>
       <c r="F236">
-        <v>368.30485791207741</v>
+        <v>378.28757200178251</v>
       </c>
       <c r="G236">
         <v>0</v>
       </c>
       <c r="H236">
-        <v>259.00487702640459</v>
+        <v>256.82836545475413</v>
       </c>
       <c r="I236" t="s">
         <v>18</v>
@@ -10258,22 +10258,22 @@
         <v>3250811</v>
       </c>
       <c r="C237">
-        <v>2456275954.2807655</v>
+        <v>2452039131.6747742</v>
       </c>
       <c r="D237">
-        <v>37525793.302221209</v>
+        <v>38214511.536681756</v>
       </c>
       <c r="E237">
-        <v>161417268.9398962</v>
+        <v>164355639.96686089</v>
       </c>
       <c r="F237">
-        <v>755.58866826793849</v>
+        <v>754.28535576961383</v>
       </c>
       <c r="G237">
-        <v>11.543517387575349</v>
+        <v>11.755377823159131</v>
       </c>
       <c r="H237">
-        <v>49.654461283629281</v>
+        <v>50.558349890799832</v>
       </c>
       <c r="I237" t="s">
         <v>26</v>
@@ -10299,22 +10299,22 @@
         <v>2434413</v>
       </c>
       <c r="C238">
-        <v>9160521392.8222313</v>
+        <v>9056075474.8624878</v>
       </c>
       <c r="D238">
         <v>0</v>
       </c>
       <c r="E238">
-        <v>4932588442.2888927</v>
+        <v>4876348332.6182613</v>
       </c>
       <c r="F238">
-        <v>3762.9282265672387</v>
+        <v>3720.0242830047687</v>
       </c>
       <c r="G238">
         <v>0</v>
       </c>
       <c r="H238">
-        <v>2026.1921219977435</v>
+        <v>2003.0899985410288</v>
       </c>
       <c r="I238" t="s">
         <v>15</v>
@@ -10340,22 +10340,22 @@
         <v>2199703</v>
       </c>
       <c r="C239">
-        <v>2075522611.6478333</v>
+        <v>2066431600.0218315</v>
       </c>
       <c r="D239">
         <v>0</v>
       </c>
       <c r="E239">
-        <v>1117589098.5796025</v>
+        <v>1112693938.4732938</v>
       </c>
       <c r="F239">
-        <v>943.54674774177852</v>
+        <v>939.41391179710695</v>
       </c>
       <c r="G239">
         <v>0</v>
       </c>
       <c r="H239">
-        <v>508.06363339941913</v>
+        <v>505.83826019844213</v>
       </c>
       <c r="I239" t="s">
         <v>16</v>
@@ -10381,22 +10381,22 @@
         <v>5484916</v>
       </c>
       <c r="C240">
-        <v>8005165332.8884096</v>
+        <v>8023189815.2253056</v>
       </c>
       <c r="D240">
-        <v>102842355.96347615</v>
+        <v>103100056.21034077</v>
       </c>
       <c r="E240">
-        <v>441072021.95563853</v>
+        <v>441695477.94546437</v>
       </c>
       <c r="F240">
-        <v>1459.4873162849549</v>
+        <v>1462.773507420224</v>
       </c>
       <c r="G240">
-        <v>18.750032992934834</v>
+        <v>18.797016437506201</v>
       </c>
       <c r="H240">
-        <v>80.41545612651835</v>
+        <v>80.529123498967778</v>
       </c>
       <c r="I240" t="s">
         <v>38</v>
@@ -10422,22 +10422,22 @@
         <v>4229531</v>
       </c>
       <c r="C241">
-        <v>2307485756.1126199</v>
+        <v>2300344817.9002876</v>
       </c>
       <c r="D241">
         <v>0</v>
       </c>
       <c r="E241">
-        <v>348459807.53498727</v>
+        <v>352564302.43271601</v>
       </c>
       <c r="F241">
-        <v>545.56539628451003</v>
+        <v>543.87704402693532</v>
       </c>
       <c r="G241">
         <v>0</v>
       </c>
       <c r="H241">
-        <v>82.38733976296362</v>
+        <v>83.357777122975577</v>
       </c>
       <c r="I241" t="s">
         <v>25</v>
@@ -10463,22 +10463,22 @@
         <v>602999</v>
       </c>
       <c r="C242">
-        <v>270811006.107876</v>
+        <v>250285840.34920636</v>
       </c>
       <c r="D242">
         <v>0</v>
       </c>
       <c r="E242">
-        <v>182003202.73482749</v>
+        <v>186021145.64774698</v>
       </c>
       <c r="F242">
-        <v>449.10689090342771</v>
+        <v>415.0684169446489</v>
       </c>
       <c r="G242">
         <v>0</v>
       </c>
       <c r="H242">
-        <v>301.83002415398283</v>
+        <v>308.49329044948166</v>
       </c>
       <c r="I242" t="s">
         <v>41</v>
@@ -10510,7 +10510,7 @@
         <v>22958198.931619395</v>
       </c>
       <c r="E243">
-        <v>94546582.608847618</v>
+        <v>97148782.130192041</v>
       </c>
       <c r="F243">
         <v>527.91300437905579</v>
@@ -10519,7 +10519,7 @@
         <v>6.7390898555001701</v>
       </c>
       <c r="H243">
-        <v>27.75295734779796</v>
+        <v>28.51680021058139</v>
       </c>
       <c r="I243" t="s">
         <v>46</v>
@@ -10586,7 +10586,7 @@
         <v>4859658</v>
       </c>
       <c r="C245">
-        <v>2587031048.889576</v>
+        <v>2585150674.6461439</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>683052999.60847592</v>
       </c>
       <c r="F245">
-        <v>532.3483769618307</v>
+        <v>531.961441452494</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -10627,22 +10627,22 @@
         <v>12498933</v>
       </c>
       <c r="C246">
-        <v>19511157949.849442</v>
+        <v>19485353216.88678</v>
       </c>
       <c r="D246">
-        <v>309208541.15221846</v>
+        <v>308535650.52085656</v>
       </c>
       <c r="E246">
-        <v>1333880566.2377825</v>
+        <v>1328178718.9585888</v>
       </c>
       <c r="F246">
-        <v>1561.0258851575124</v>
+        <v>1558.9613302900959</v>
       </c>
       <c r="G246">
-        <v>24.738794995718312</v>
+        <v>24.684959149781552</v>
       </c>
       <c r="H246">
-        <v>106.71955488022718</v>
+        <v>106.26336815779305</v>
       </c>
       <c r="I246" t="s">
         <v>33</v>
@@ -10668,22 +10668,22 @@
         <v>13439341</v>
       </c>
       <c r="C247">
-        <v>7268306920.6621571</v>
+        <v>7310025762.0645142</v>
       </c>
       <c r="D247">
-        <v>113532424.83544897</v>
+        <v>113989958.92446105</v>
       </c>
       <c r="E247">
-        <v>474466041.03697568</v>
+        <v>477250203.92784792</v>
       </c>
       <c r="F247">
-        <v>540.8231639231534</v>
+        <v>543.92739659366589</v>
       </c>
       <c r="G247">
-        <v>8.4477672555111862</v>
+        <v>8.4818116397568186</v>
       </c>
       <c r="H247">
-        <v>35.304263879975636</v>
+        <v>35.511429014848865</v>
       </c>
       <c r="I247" t="s">
         <v>41</v>
@@ -10709,22 +10709,22 @@
         <v>5988318</v>
       </c>
       <c r="C248">
-        <v>3704286678.8565111</v>
+        <v>3689699055.6586127</v>
       </c>
       <c r="D248">
-        <v>31469310.490788478</v>
+        <v>31568114.219881691</v>
       </c>
       <c r="E248">
-        <v>135329061.68046319</v>
+        <v>135808606.97181761</v>
       </c>
       <c r="F248">
-        <v>618.58549910951808</v>
+        <v>616.14948565834561</v>
       </c>
       <c r="G248">
-        <v>5.2551167941963799</v>
+        <v>5.2716162067347945</v>
       </c>
       <c r="H248">
-        <v>22.598843561825408</v>
+        <v>22.678923693066668</v>
       </c>
       <c r="I248" t="s">
         <v>46</v>
@@ -10750,22 +10750,22 @@
         <v>14171621</v>
       </c>
       <c r="C249">
-        <v>13634570660.574041</v>
+        <v>13524418807.246799</v>
       </c>
       <c r="D249">
-        <v>202268661.86753124</v>
+        <v>203522201.80187267</v>
       </c>
       <c r="E249">
-        <v>868281952.16743684</v>
+        <v>870728124.15629375</v>
       </c>
       <c r="F249">
-        <v>962.10381723968214</v>
+        <v>954.33111055162988</v>
       </c>
       <c r="G249">
-        <v>14.272796447740964</v>
+        <v>14.361250685568903</v>
       </c>
       <c r="H249">
-        <v>61.269063868377287</v>
+        <v>61.441674467324077</v>
       </c>
       <c r="I249" t="s">
         <v>35</v>
@@ -10791,22 +10791,22 @@
         <v>1551911</v>
       </c>
       <c r="C250">
-        <v>645740802.93859506</v>
+        <v>640314409.63659</v>
       </c>
       <c r="D250">
         <v>0</v>
       </c>
       <c r="E250">
-        <v>347706586.19770497</v>
+        <v>344784682.11201</v>
       </c>
       <c r="F250">
-        <v>416.09396604482799</v>
+        <v>412.59737809487143</v>
       </c>
       <c r="G250">
         <v>0</v>
       </c>
       <c r="H250">
-        <v>224.05059710106119</v>
+        <v>222.16781897416155</v>
       </c>
       <c r="I250" t="s">
         <v>19</v>
@@ -10873,22 +10873,22 @@
         <v>10047182</v>
       </c>
       <c r="C252">
-        <v>4835887570.6176271</v>
+        <v>4905790562.5350552</v>
       </c>
       <c r="D252">
         <v>0</v>
       </c>
       <c r="E252">
-        <v>2603939461.101799</v>
+        <v>2641579533.6727219</v>
       </c>
       <c r="F252">
-        <v>481.31780340175254</v>
+        <v>488.2752758470042</v>
       </c>
       <c r="G252">
         <v>0</v>
       </c>
       <c r="H252">
-        <v>259.17112490863599</v>
+        <v>262.91745622530993</v>
       </c>
       <c r="I252" t="s">
         <v>14</v>
@@ -10914,22 +10914,22 @@
         <v>1425257</v>
       </c>
       <c r="C253">
-        <v>639042980.64090621</v>
+        <v>639195710.19460297</v>
       </c>
       <c r="D253">
         <v>0</v>
       </c>
       <c r="E253">
-        <v>344100066.49894947</v>
+        <v>344182305.48940164</v>
       </c>
       <c r="F253">
-        <v>448.37035049882667</v>
+        <v>448.47750980672464</v>
       </c>
       <c r="G253">
         <v>0</v>
       </c>
       <c r="H253">
-        <v>241.43018873013742</v>
+        <v>241.4878898959287</v>
       </c>
       <c r="I253" t="s">
         <v>47</v>
@@ -10955,22 +10955,22 @@
         <v>1940463</v>
       </c>
       <c r="C254">
-        <v>2002647108.899488</v>
+        <v>1996830906.7359734</v>
       </c>
       <c r="D254">
-        <v>29734298.603503108</v>
+        <v>29858001.706143718</v>
       </c>
       <c r="E254">
-        <v>127487412.10851754</v>
+        <v>128682127.22863498</v>
       </c>
       <c r="F254">
-        <v>1032.0460162855402</v>
+        <v>1029.0486892746594</v>
       </c>
       <c r="G254">
-        <v>15.323300987188681</v>
+        <v>15.387050258697908</v>
       </c>
       <c r="H254">
-        <v>65.699481056076593</v>
+        <v>66.315166652822029</v>
       </c>
       <c r="I254" t="s">
         <v>36</v>
@@ -10996,22 +10996,22 @@
         <v>825950</v>
       </c>
       <c r="C255">
-        <v>268192667.63749382</v>
+        <v>271828297.41437006</v>
       </c>
       <c r="D255">
         <v>0</v>
       </c>
       <c r="E255">
-        <v>194726363.91714138</v>
+        <v>192632260.59913802</v>
       </c>
       <c r="F255">
-        <v>324.70811506446375</v>
+        <v>329.10987034853207</v>
       </c>
       <c r="G255">
         <v>0</v>
       </c>
       <c r="H255">
-        <v>235.76047450468113</v>
+        <v>233.22508698969432</v>
       </c>
       <c r="I255" t="s">
         <v>28</v>
@@ -11037,22 +11037,22 @@
         <v>166824</v>
       </c>
       <c r="C256">
-        <v>183866734.92942008</v>
+        <v>184201661.06138188</v>
       </c>
       <c r="D256">
         <v>0</v>
       </c>
       <c r="E256">
-        <v>133935318.57078947</v>
+        <v>133985487.2813828</v>
       </c>
       <c r="F256">
-        <v>1102.1599705643077</v>
+        <v>1104.1676321235666</v>
       </c>
       <c r="G256">
         <v>0</v>
       </c>
       <c r="H256">
-        <v>802.85401723246935</v>
+        <v>803.15474560844245</v>
       </c>
       <c r="I256" t="s">
         <v>40</v>
@@ -11119,22 +11119,22 @@
         <v>97358</v>
       </c>
       <c r="C258">
-        <v>5220232.7892000005</v>
+        <v>6928672.6111200005</v>
       </c>
       <c r="D258">
         <v>0</v>
       </c>
       <c r="E258">
-        <v>20880931.156800002</v>
+        <v>27714690.444480002</v>
       </c>
       <c r="F258">
-        <v>53.618940294582885</v>
+        <v>71.166957118264548</v>
       </c>
       <c r="G258">
         <v>0</v>
       </c>
       <c r="H258">
-        <v>214.47576117833154</v>
+        <v>284.66782847305819</v>
       </c>
       <c r="I258" t="s">
         <v>21</v>
@@ -11201,22 +11201,22 @@
         <v>334348.61</v>
       </c>
       <c r="C260">
-        <v>411750985.97419953</v>
+        <v>407583726.35358012</v>
       </c>
       <c r="D260">
         <v>0</v>
       </c>
       <c r="E260">
-        <v>298962018.11401314</v>
+        <v>304457113.36976188</v>
       </c>
       <c r="F260">
-        <v>1231.5020121489351</v>
+        <v>1219.0381959523629</v>
       </c>
       <c r="G260">
         <v>0</v>
       </c>
       <c r="H260">
-        <v>894.16258710934414</v>
+        <v>910.59781396956282</v>
       </c>
       <c r="I260" t="s">
         <v>39</v>
@@ -11283,22 +11283,22 @@
         <v>681233</v>
       </c>
       <c r="C262">
-        <v>772800910.95165825</v>
+        <v>773152547.61928213</v>
       </c>
       <c r="D262">
         <v>0</v>
       </c>
       <c r="E262">
-        <v>416123567.43550825</v>
+        <v>416312910.25653648</v>
       </c>
       <c r="F262">
-        <v>1134.4149666144451</v>
+        <v>1134.9311434109652</v>
       </c>
       <c r="G262">
         <v>0</v>
       </c>
       <c r="H262">
-        <v>610.83882817700885</v>
+        <v>611.11676952898119</v>
       </c>
       <c r="I262" t="s">
         <v>17</v>
@@ -11324,22 +11324,22 @@
         <v>335919</v>
       </c>
       <c r="C263">
-        <v>639161657.6515789</v>
+        <v>637272781.47809732</v>
       </c>
       <c r="D263">
         <v>0</v>
       </c>
       <c r="E263">
-        <v>344163969.50469625</v>
+        <v>343146882.33436</v>
       </c>
       <c r="F263">
-        <v>1902.7255310106868</v>
+        <v>1897.1025201852153</v>
       </c>
       <c r="G263">
         <v>0</v>
       </c>
       <c r="H263">
-        <v>1024.5445166980619</v>
+        <v>1021.5167416381926</v>
       </c>
       <c r="I263" t="s">
         <v>38</v>
@@ -11406,22 +11406,22 @@
         <v>560883</v>
       </c>
       <c r="C265">
-        <v>577950760.16583753</v>
+        <v>579413926.64726996</v>
       </c>
       <c r="D265">
         <v>0</v>
       </c>
       <c r="E265">
-        <v>311204255.47391248</v>
+        <v>311992114.34852993</v>
       </c>
       <c r="F265">
-        <v>1030.4301613096447</v>
+        <v>1033.0388452623274</v>
       </c>
       <c r="G265">
         <v>0</v>
       </c>
       <c r="H265">
-        <v>554.84700993596255</v>
+        <v>556.25168591048384</v>
       </c>
       <c r="I265" t="s">
         <v>38</v>
@@ -11447,22 +11447,22 @@
         <v>23793</v>
       </c>
       <c r="C266">
-        <v>33772414.199647494</v>
+        <v>33206000.5443075</v>
       </c>
       <c r="D266">
         <v>0</v>
       </c>
       <c r="E266">
-        <v>18185146.107502494</v>
+        <v>17880154.1392425</v>
       </c>
       <c r="F266">
-        <v>1419.4264783611775</v>
+        <v>1395.6205835458959</v>
       </c>
       <c r="G266">
         <v>0</v>
       </c>
       <c r="H266">
-        <v>764.30656527140309</v>
+        <v>751.48800652471311</v>
       </c>
       <c r="I266" t="s">
         <v>33</v>
@@ -11532,19 +11532,19 @@
         <v>9806840767.484726</v>
       </c>
       <c r="D268">
-        <v>146014678.90687704</v>
+        <v>146770526.77797258</v>
       </c>
       <c r="E268">
-        <v>637652681.76434612</v>
+        <v>642720720.3464005</v>
       </c>
       <c r="F268">
         <v>882.95531549483678</v>
       </c>
       <c r="G268">
-        <v>13.146378118889928</v>
+        <v>13.214430605038372</v>
       </c>
       <c r="H268">
-        <v>57.410825581067421</v>
+        <v>57.867124577987461</v>
       </c>
       <c r="I268" t="s">
         <v>23</v>
@@ -11570,22 +11570,22 @@
         <v>7123683</v>
       </c>
       <c r="C269">
-        <v>4499732587.903966</v>
+        <v>4458786657.051302</v>
       </c>
       <c r="D269">
-        <v>57821956.632031001</v>
+        <v>57246709.257109001</v>
       </c>
       <c r="E269">
-        <v>246951823.23260576</v>
+        <v>244863860.76657745</v>
       </c>
       <c r="F269">
-        <v>631.65817287265111</v>
+        <v>625.91031311349786</v>
       </c>
       <c r="G269">
-        <v>8.116862672304622</v>
+        <v>8.036111272372592</v>
       </c>
       <c r="H269">
-        <v>34.66631280934395</v>
+        <v>34.373211268184932</v>
       </c>
       <c r="I269" t="s">
         <v>40</v>
@@ -11611,22 +11611,22 @@
         <v>254563</v>
       </c>
       <c r="C270">
-        <v>34897160.147990972</v>
+        <v>34959971.70967634</v>
       </c>
       <c r="D270">
         <v>0</v>
       </c>
       <c r="E270">
-        <v>139588640.59196389</v>
+        <v>139839886.83870536</v>
       </c>
       <c r="F270">
-        <v>137.08653711651328</v>
+        <v>137.33327981551261</v>
       </c>
       <c r="G270">
         <v>0</v>
       </c>
       <c r="H270">
-        <v>548.34614846605314</v>
+        <v>549.33311926205045</v>
       </c>
       <c r="I270" t="s">
         <v>46</v>
@@ -11652,22 +11652,22 @@
         <v>4062213</v>
       </c>
       <c r="C271">
-        <v>1388336372.5309086</v>
+        <v>1396353535.7714906</v>
       </c>
       <c r="D271">
         <v>0</v>
       </c>
       <c r="E271">
-        <v>747565739.05510449</v>
+        <v>751882673.10772562</v>
       </c>
       <c r="F271">
-        <v>341.76848248255533</v>
+        <v>343.74207747636342</v>
       </c>
       <c r="G271">
         <v>0</v>
       </c>
       <c r="H271">
-        <v>184.02918287522206</v>
+        <v>185.09188787188796</v>
       </c>
       <c r="I271" t="s">
         <v>42</v>
@@ -11693,22 +11693,22 @@
         <v>3230316</v>
       </c>
       <c r="C272">
-        <v>1151383379.6405818</v>
+        <v>1155523504.5575476</v>
       </c>
       <c r="D272">
         <v>0</v>
       </c>
       <c r="E272">
-        <v>619975665.9603132</v>
+        <v>622204963.99252558</v>
       </c>
       <c r="F272">
-        <v>356.43057200613868</v>
+        <v>357.71221903911186</v>
       </c>
       <c r="G272">
         <v>0</v>
       </c>
       <c r="H272">
-        <v>191.92415415715155</v>
+        <v>192.61427179029099</v>
       </c>
       <c r="I272" t="s">
         <v>42</v>
@@ -11775,22 +11775,22 @@
         <v>3492531</v>
       </c>
       <c r="C274">
-        <v>1185169695.8129876</v>
+        <v>1176278648.555584</v>
       </c>
       <c r="D274">
         <v>0</v>
       </c>
       <c r="E274">
-        <v>638168297.74545479</v>
+        <v>633380810.76069903</v>
       </c>
       <c r="F274">
-        <v>339.34407334193673</v>
+        <v>336.79834153385724</v>
       </c>
       <c r="G274">
         <v>0</v>
       </c>
       <c r="H274">
-        <v>182.72373179950438</v>
+        <v>181.35295313361544</v>
       </c>
       <c r="I274" t="s">
         <v>15</v>

--- a/r_map/data_boot_cq_remov_Se.xlsx
+++ b/r_map/data_boot_cq_remov_Se.xlsx
@@ -664,22 +664,22 @@
         <v>6578669</v>
       </c>
       <c r="C3">
-        <v>4422122902.8514156</v>
+        <v>4446674490.8392353</v>
       </c>
       <c r="D3">
-        <v>123992294.41711445</v>
+        <v>124620887.08630282</v>
       </c>
       <c r="E3">
-        <v>1031931545.1790764</v>
+        <v>1035391082.7743216</v>
       </c>
       <c r="F3">
-        <v>672.19112298421089</v>
+        <v>675.92312226671311</v>
       </c>
       <c r="G3">
-        <v>18.847626232162533</v>
+        <v>18.943176360796205</v>
       </c>
       <c r="H3">
-        <v>156.86023193735335</v>
+        <v>157.38610390252521</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -705,22 +705,22 @@
         <v>2726384</v>
       </c>
       <c r="C4">
-        <v>5091275156.7761269</v>
+        <v>5069965113.942934</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3801790801.9506888</v>
+        <v>3769575705.0252123</v>
       </c>
       <c r="F4">
-        <v>1867.4094173000308</v>
+        <v>1859.5931878792328</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1394.4443636518879</v>
+        <v>1382.6283109881851</v>
       </c>
       <c r="I4" t="s">
         <v>9</v>
@@ -746,22 +746,22 @@
         <v>4273045</v>
       </c>
       <c r="C5">
-        <v>11995394669.5879</v>
+        <v>11932149058.652367</v>
       </c>
       <c r="D5">
-        <v>154976535.10541582</v>
+        <v>152320219.44612339</v>
       </c>
       <c r="E5">
-        <v>627285975.42668295</v>
+        <v>693187902.02150929</v>
       </c>
       <c r="F5">
-        <v>2807.2240450516902</v>
+        <v>2792.4229814224673</v>
       </c>
       <c r="G5">
-        <v>36.268406980365484</v>
+        <v>35.646762307938104</v>
       </c>
       <c r="H5">
-        <v>146.80069492052692</v>
+        <v>162.22340322217747</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
@@ -787,22 +787,22 @@
         <v>1657543</v>
       </c>
       <c r="C6">
-        <v>1645783289.2013245</v>
+        <v>1652279653.6118093</v>
       </c>
       <c r="D6">
-        <v>52923964.568646945</v>
+        <v>53197480.266257703</v>
       </c>
       <c r="E6">
-        <v>225758418.48637426</v>
+        <v>226367200.68602976</v>
       </c>
       <c r="F6">
-        <v>992.90533591063672</v>
+        <v>996.82460944410445</v>
       </c>
       <c r="G6">
-        <v>31.92916537830207</v>
+        <v>32.094178109561987</v>
       </c>
       <c r="H6">
-        <v>136.20064063880952</v>
+        <v>136.56792052214016</v>
       </c>
       <c r="I6" t="s">
         <v>9</v>
@@ -869,22 +869,22 @@
         <v>1380537</v>
       </c>
       <c r="C8">
-        <v>592676878.69828033</v>
+        <v>839835928.0623374</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>340150726.52065897</v>
+        <v>93194082.166632429</v>
       </c>
       <c r="F8">
-        <v>429.30894188151444</v>
+        <v>608.34003584281868</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>246.39015580216898</v>
+        <v>67.50567508631238</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -910,19 +910,19 @@
         <v>1368602</v>
       </c>
       <c r="C9">
-        <v>1003087600.1675357</v>
+        <v>997798829.78173947</v>
       </c>
       <c r="D9">
-        <v>12825886.343908701</v>
+        <v>12737431.95533002</v>
       </c>
       <c r="E9">
         <v>55148457.509437904</v>
       </c>
       <c r="F9">
-        <v>732.92863825095662</v>
+        <v>729.06427857166614</v>
       </c>
       <c r="G9">
-        <v>9.37152389365842</v>
+        <v>9.3068926943918093</v>
       </c>
       <c r="H9">
         <v>40.295467571608036</v>
@@ -951,22 +951,22 @@
         <v>1443465</v>
       </c>
       <c r="C10">
-        <v>584914819.98372102</v>
+        <v>911337587.70360017</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>314954133.83738822</v>
+        <v>1826327.8310693407</v>
       </c>
       <c r="F10">
-        <v>405.21579670010772</v>
+        <v>631.3541289214495</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>218.19312130005801</v>
+        <v>1.2652387353135273</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -992,22 +992,22 @@
         <v>4446401</v>
       </c>
       <c r="C11">
-        <v>3164910053.5144262</v>
+        <v>3148223093.6098871</v>
       </c>
       <c r="D11">
-        <v>40467828.162057057</v>
+        <v>40188739.69197391</v>
       </c>
       <c r="E11">
-        <v>175849584.67710942</v>
+        <v>174002656.97460669</v>
       </c>
       <c r="F11">
-        <v>711.79141366566489</v>
+        <v>708.03849981364419</v>
       </c>
       <c r="G11">
-        <v>9.1012547365964203</v>
+        <v>9.0384874625509291</v>
       </c>
       <c r="H11">
-        <v>39.548746205551282</v>
+        <v>39.133370331332394</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
@@ -1033,22 +1033,22 @@
         <v>2081937</v>
       </c>
       <c r="C12">
-        <v>1340795666.9244261</v>
+        <v>1337238230.4700451</v>
       </c>
       <c r="D12">
         <v>18294700.514657684</v>
       </c>
       <c r="E12">
-        <v>78256656.780099586</v>
+        <v>77896788.829454333</v>
       </c>
       <c r="F12">
-        <v>644.01356377470893</v>
+        <v>642.30484902763396</v>
       </c>
       <c r="G12">
         <v>8.787345877736783</v>
       </c>
       <c r="H12">
-        <v>37.588388495953332</v>
+        <v>37.415536027004819</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
@@ -1074,22 +1074,22 @@
         <v>8921964</v>
       </c>
       <c r="C13">
-        <v>8190095807.4731874</v>
+        <v>8210262992.6402264</v>
       </c>
       <c r="D13">
-        <v>125359776.67476153</v>
+        <v>126878148.71103553</v>
       </c>
       <c r="E13">
-        <v>539632888.07222557</v>
+        <v>544048316.79859114</v>
       </c>
       <c r="F13">
-        <v>917.97005765470328</v>
+        <v>920.23045515989827</v>
       </c>
       <c r="G13">
-        <v>14.050692949978449</v>
+        <v>14.220876559357954</v>
       </c>
       <c r="H13">
-        <v>60.483643295604594</v>
+        <v>60.978537550542811</v>
       </c>
       <c r="I13" t="s">
         <v>16</v>
@@ -1115,22 +1115,22 @@
         <v>7744214</v>
       </c>
       <c r="C14">
-        <v>6353447061.6926823</v>
+        <v>6434466344.9377308</v>
       </c>
       <c r="D14">
-        <v>88837528.09584631</v>
+        <v>91430956.318895191</v>
       </c>
       <c r="E14">
-        <v>383428316.36230338</v>
+        <v>388567503.62637722</v>
       </c>
       <c r="F14">
-        <v>820.41212467691139</v>
+        <v>830.87403640159357</v>
       </c>
       <c r="G14">
-        <v>11.471471229468388</v>
+        <v>11.806357148562164</v>
       </c>
       <c r="H14">
-        <v>49.51158585781635</v>
+        <v>50.175202238261654</v>
       </c>
       <c r="I14" t="s">
         <v>17</v>
@@ -1156,22 +1156,22 @@
         <v>1912394</v>
       </c>
       <c r="C15">
-        <v>1114157299.6423182</v>
+        <v>1110274950.1107504</v>
       </c>
       <c r="D15">
-        <v>35834096.594271958</v>
+        <v>35710606.94616615</v>
       </c>
       <c r="E15">
-        <v>154394247.777394</v>
+        <v>154210643.54864073</v>
       </c>
       <c r="F15">
-        <v>582.59819871967716</v>
+        <v>580.56809951858793</v>
       </c>
       <c r="G15">
-        <v>18.737821073623927</v>
+        <v>18.673247744014127</v>
       </c>
       <c r="H15">
-        <v>80.733493086358777</v>
+        <v>80.637485554044162</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
@@ -1197,22 +1197,22 @@
         <v>3755194</v>
       </c>
       <c r="C16">
-        <v>1741583626.7497487</v>
+        <v>2182003514.459887</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1074019439.7659798</v>
+        <v>591659147.66089618</v>
       </c>
       <c r="F16">
-        <v>463.77993433887804</v>
+        <v>581.06279314993765</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>286.00904234667496</v>
+        <v>157.5575450059028</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
@@ -1238,22 +1238,22 @@
         <v>9164672</v>
       </c>
       <c r="C17">
-        <v>23991125888.882469</v>
+        <v>23668827492.539467</v>
       </c>
       <c r="D17">
-        <v>353766311.58163476</v>
+        <v>350247774.77395141</v>
       </c>
       <c r="E17">
-        <v>1528401266.2072797</v>
+        <v>1504954541.1927803</v>
       </c>
       <c r="F17">
-        <v>2617.7833629924203</v>
+        <v>2582.6158854937162</v>
       </c>
       <c r="G17">
-        <v>38.601088132956072</v>
+        <v>38.217164212090886</v>
       </c>
       <c r="H17">
-        <v>166.77097294996261</v>
+        <v>164.21259169916613</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
@@ -1279,22 +1279,22 @@
         <v>1901037</v>
       </c>
       <c r="C18">
-        <v>504854327.88365257</v>
+        <v>775145568.04290032</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>271844638.09119749</v>
+        <v>1553397.9319497014</v>
       </c>
       <c r="F18">
-        <v>265.56786000675032</v>
+        <v>407.74880659497967</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>142.99807846517322</v>
+        <v>0.8171318769438477</v>
       </c>
       <c r="I18" t="s">
         <v>19</v>
@@ -1320,22 +1320,22 @@
         <v>8636016</v>
       </c>
       <c r="C19">
-        <v>3366395315.5895519</v>
+        <v>5168711576.8590355</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1812674400.7020664</v>
+        <v>10358139.432583246</v>
       </c>
       <c r="F19">
-        <v>389.80883263643233</v>
+        <v>598.50648457101465</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>209.89706372730973</v>
+        <v>1.1994117927274852</v>
       </c>
       <c r="I19" t="s">
         <v>19</v>
@@ -1361,22 +1361,22 @@
         <v>1057147</v>
       </c>
       <c r="C20">
-        <v>275193155.90217751</v>
+        <v>434833959.3215766</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>148180930.10117251</v>
+        <v>871410.7401234007</v>
       </c>
       <c r="F20">
-        <v>260.3168300171854</v>
+        <v>411.32780901953709</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>140.17060077848444</v>
+        <v>0.82430422649205903</v>
       </c>
       <c r="I20" t="s">
         <v>19</v>
@@ -1443,22 +1443,22 @@
         <v>2877284</v>
       </c>
       <c r="C22">
-        <v>831987119.47815752</v>
+        <v>1277420223.4449248</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>447993064.33439243</v>
+        <v>2559960.3676251019</v>
       </c>
       <c r="F22">
-        <v>289.1571077023184</v>
+        <v>443.9673745952519</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>155.69998107047911</v>
+        <v>0.88971417754559579</v>
       </c>
       <c r="I22" t="s">
         <v>19</v>
@@ -1484,22 +1484,22 @@
         <v>3900879</v>
       </c>
       <c r="C23">
-        <v>3533028107.699151</v>
+        <v>3534043843.3199759</v>
       </c>
       <c r="D23">
-        <v>53382873.329583749</v>
+        <v>53601049.052731141</v>
       </c>
       <c r="E23">
-        <v>233397961.34692258</v>
+        <v>234512155.8231672</v>
       </c>
       <c r="F23">
-        <v>905.70051203822288</v>
+        <v>905.96089838212765</v>
       </c>
       <c r="G23">
-        <v>13.684831887783176</v>
+        <v>13.740761775161737</v>
       </c>
       <c r="H23">
-        <v>59.832145869411121</v>
+        <v>60.117772384933552</v>
       </c>
       <c r="I23" t="s">
         <v>17</v>
@@ -1525,22 +1525,22 @@
         <v>602337</v>
       </c>
       <c r="C24">
-        <v>437809242.04597437</v>
+        <v>552637126.18343127</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>67898152.229422942</v>
+        <v>395239.92866292963</v>
       </c>
       <c r="F24">
-        <v>726.85098548814767</v>
+        <v>917.48826019891067</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>112.72452502406948</v>
+        <v>0.65617740345177145</v>
       </c>
       <c r="I24" t="s">
         <v>20</v>
@@ -1566,22 +1566,22 @@
         <v>4962679</v>
       </c>
       <c r="C25">
-        <v>3110497647.299201</v>
+        <v>3115184293.4226375</v>
       </c>
       <c r="D25">
-        <v>31321832.536927596</v>
+        <v>31369025.73932901</v>
       </c>
       <c r="E25">
-        <v>135799938.753021</v>
+        <v>135994290.06179357</v>
       </c>
       <c r="F25">
-        <v>626.77792524948745</v>
+        <v>627.72230350232962</v>
       </c>
       <c r="G25">
-        <v>6.3114766312565447</v>
+        <v>6.3209862534588694</v>
       </c>
       <c r="H25">
-        <v>27.364239910141478</v>
+        <v>27.403402489218738</v>
       </c>
       <c r="I25" t="s">
         <v>21</v>
@@ -1607,22 +1607,22 @@
         <v>9744872</v>
       </c>
       <c r="C26">
-        <v>9070187630.0941849</v>
+        <v>9070149804.1860657</v>
       </c>
       <c r="D26">
-        <v>113371178.51816572</v>
+        <v>113356293.95011273</v>
       </c>
       <c r="E26">
-        <v>1585041205.6887672</v>
+        <v>1588611330.7580113</v>
       </c>
       <c r="F26">
-        <v>930.76518912656672</v>
+        <v>930.76130750471282</v>
       </c>
       <c r="G26">
-        <v>11.633932032987783</v>
+        <v>11.632404607275779</v>
       </c>
       <c r="H26">
-        <v>162.6538763863463</v>
+        <v>163.02023574635064</v>
       </c>
       <c r="I26" t="s">
         <v>17</v>
@@ -1648,22 +1648,22 @@
         <v>2476429</v>
       </c>
       <c r="C27">
-        <v>2751213361.6226711</v>
+        <v>2754363350.7040281</v>
       </c>
       <c r="D27">
-        <v>40848547.038767964</v>
+        <v>40766373.153654069</v>
       </c>
       <c r="E27">
-        <v>175356355.57917988</v>
+        <v>174917929.30090415</v>
       </c>
       <c r="F27">
-        <v>1110.9599191507898</v>
+        <v>1112.2319075992198</v>
       </c>
       <c r="G27">
-        <v>16.494939705022016</v>
+        <v>16.461757293931733</v>
       </c>
       <c r="H27">
-        <v>70.810168827444627</v>
+        <v>70.63312911490867</v>
       </c>
       <c r="I27" t="s">
         <v>17</v>
@@ -1689,22 +1689,22 @@
         <v>786988</v>
       </c>
       <c r="C28">
-        <v>890437336.68860078</v>
+        <v>1235278823.3667834</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>346281186.49001151</v>
+        <v>1979613.4989852866</v>
       </c>
       <c r="F28">
-        <v>1131.4497002350745</v>
+        <v>1569.6285373687824</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>440.00821675808464</v>
+        <v>2.51543034834748</v>
       </c>
       <c r="I28" t="s">
         <v>17</v>
@@ -1730,22 +1730,22 @@
         <v>12851943</v>
       </c>
       <c r="C29">
-        <v>13816133148.047886</v>
+        <v>13815755340.629807</v>
       </c>
       <c r="D29">
-        <v>210499830.00050962</v>
+        <v>210363968.47774112</v>
       </c>
       <c r="E29">
-        <v>902235539.93267441</v>
+        <v>902554817.00302267</v>
       </c>
       <c r="F29">
-        <v>1075.0229088354879</v>
+        <v>1074.9935119249913</v>
       </c>
       <c r="G29">
-        <v>16.378833146125036</v>
+        <v>16.368261863419495</v>
       </c>
       <c r="H29">
-        <v>70.202267465135378</v>
+        <v>70.227110173381774</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
@@ -1771,22 +1771,22 @@
         <v>1157290</v>
       </c>
       <c r="C30">
-        <v>1396203685.5719566</v>
+        <v>1396517670.2125666</v>
       </c>
       <c r="D30">
-        <v>21350607.846583359</v>
+        <v>21102718.512683272</v>
       </c>
       <c r="E30">
-        <v>91575350.018933415</v>
+        <v>90746789.049572915</v>
       </c>
       <c r="F30">
-        <v>1206.4423658477622</v>
+        <v>1206.7136760989611</v>
       </c>
       <c r="G30">
-        <v>18.4487966253777</v>
+        <v>18.234598512631468</v>
       </c>
       <c r="H30">
-        <v>79.129129275232145</v>
+        <v>78.413179971807338</v>
       </c>
       <c r="I30" t="s">
         <v>22</v>
@@ -1812,22 +1812,22 @@
         <v>2981276</v>
       </c>
       <c r="C31">
-        <v>1055879659.6027089</v>
+        <v>1075179806.3716199</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>744903291.48158574</v>
+        <v>750079543.37945771</v>
       </c>
       <c r="F31">
-        <v>354.17038194474748</v>
+        <v>360.64416926564996</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>249.86056020361272</v>
+        <v>251.59681404185915</v>
       </c>
       <c r="I31" t="s">
         <v>23</v>
@@ -1894,22 +1894,22 @@
         <v>5057931</v>
       </c>
       <c r="C33">
-        <v>1689354316.9530883</v>
+        <v>1682727674.2703693</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1224512008.3449433</v>
+        <v>1221746972.5782914</v>
       </c>
       <c r="F33">
-        <v>334.00106030570373</v>
+        <v>332.69091141622323</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>242.09741262681189</v>
+        <v>241.55073933952269</v>
       </c>
       <c r="I33" t="s">
         <v>23</v>
@@ -1935,22 +1935,22 @@
         <v>1796131</v>
       </c>
       <c r="C34">
-        <v>359814706.91910601</v>
+        <v>362402436.56342632</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>796896982.52096939</v>
+        <v>798763315.30283546</v>
       </c>
       <c r="F34">
-        <v>200.32765255936567</v>
+        <v>201.76837689646598</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>443.67419888692382</v>
+        <v>444.7132838878876</v>
       </c>
       <c r="I34" t="s">
         <v>23</v>
@@ -1976,22 +1976,22 @@
         <v>2372033</v>
       </c>
       <c r="C35">
-        <v>757333366.95895684</v>
+        <v>719320841.74474227</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>533102535.55028403</v>
+        <v>523390043.6051318</v>
       </c>
       <c r="F35">
-        <v>319.27606696827439</v>
+        <v>303.25077338500023</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>224.74499113219926</v>
+        <v>220.65040562468221</v>
       </c>
       <c r="I35" t="s">
         <v>23</v>
@@ -2017,22 +2017,22 @@
         <v>4881045</v>
       </c>
       <c r="C36">
-        <v>1429587611.0006206</v>
+        <v>1409313328.7275736</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1055410982.1199076</v>
+        <v>1056828825.1819232</v>
       </c>
       <c r="F36">
-        <v>292.8855626204267</v>
+        <v>288.73188604644571</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>216.22643964968722</v>
+        <v>216.51691905768604</v>
       </c>
       <c r="I36" t="s">
         <v>23</v>
@@ -2058,22 +2058,22 @@
         <v>10305807</v>
       </c>
       <c r="C37">
-        <v>5658570272.4808693</v>
+        <v>6501439939.6258068</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>843143848.49461591</v>
+        <v>4771761.6510583246</v>
       </c>
       <c r="F37">
-        <v>549.06619855008626</v>
+        <v>630.85209529208214</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>81.812501291225033</v>
+        <v>0.46301678762840454</v>
       </c>
       <c r="I37" t="s">
         <v>23</v>
@@ -2099,22 +2099,22 @@
         <v>1880003</v>
       </c>
       <c r="C38">
-        <v>997461917.17790389</v>
+        <v>1394868778.1913829</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>387901856.680296</v>
+        <v>2235366.6317170239</v>
       </c>
       <c r="F38">
-        <v>530.56400291802936</v>
+        <v>741.95029379813911</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>206.33044557923364</v>
+        <v>1.1890229067278211</v>
       </c>
       <c r="I38" t="s">
         <v>23</v>
@@ -2140,22 +2140,22 @@
         <v>1542905</v>
       </c>
       <c r="C39">
-        <v>894198017.28369319</v>
+        <v>902374784.56019926</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>134178995.21978024</v>
+        <v>134650911.44827789</v>
       </c>
       <c r="F39">
-        <v>579.5548120485015</v>
+        <v>584.85440423110902</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>86.965169741351701</v>
+        <v>87.271031883542989</v>
       </c>
       <c r="I39" t="s">
         <v>23</v>
@@ -2181,22 +2181,22 @@
         <v>2219933</v>
       </c>
       <c r="C40">
-        <v>742685943.19711697</v>
+        <v>769968787.0492624</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>539023005.81890035</v>
+        <v>534621847.98352188</v>
       </c>
       <c r="F40">
-        <v>334.55331453567157</v>
+        <v>346.84325475104987</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>242.81048383843131</v>
+        <v>240.82792047486203</v>
       </c>
       <c r="I40" t="s">
         <v>23</v>
@@ -2222,22 +2222,22 @@
         <v>1928627</v>
       </c>
       <c r="C41">
-        <v>1679151004.030333</v>
+        <v>1684783837.6279283</v>
       </c>
       <c r="D41">
-        <v>23892453.336072035</v>
+        <v>23954308.162324965</v>
       </c>
       <c r="E41">
-        <v>104589037.30291635</v>
+        <v>104824076.63191888</v>
       </c>
       <c r="F41">
-        <v>870.64580348109462</v>
+        <v>873.56644785535423</v>
       </c>
       <c r="G41">
-        <v>12.388322540373039</v>
+        <v>12.420394489097667</v>
       </c>
       <c r="H41">
-        <v>54.229790054228395</v>
+        <v>54.351658787271397</v>
       </c>
       <c r="I41" t="s">
         <v>23</v>
@@ -2263,22 +2263,22 @@
         <v>1066912</v>
       </c>
       <c r="C42">
-        <v>1644019979.2517457</v>
+        <v>1654915493.0336227</v>
       </c>
       <c r="D42">
-        <v>26593224.101510663</v>
+        <v>26394055.58936524</v>
       </c>
       <c r="E42">
-        <v>113867823.92006482</v>
+        <v>113180592.01839277</v>
       </c>
       <c r="F42">
-        <v>1540.914320254853</v>
+        <v>1551.1265156204286</v>
       </c>
       <c r="G42">
-        <v>24.925414749773797</v>
+        <v>24.738737205472653</v>
       </c>
       <c r="H42">
-        <v>106.72653782136186</v>
+        <v>106.08240606384854</v>
       </c>
       <c r="I42" t="s">
         <v>23</v>
@@ -2304,22 +2304,22 @@
         <v>5225154</v>
       </c>
       <c r="C43">
-        <v>4457108672.7885122</v>
+        <v>4463773000.5848732</v>
       </c>
       <c r="D43">
-        <v>79101807.713860035</v>
+        <v>79845154.058216542</v>
       </c>
       <c r="E43">
-        <v>342349424.73301136</v>
+        <v>344738548.56976432</v>
       </c>
       <c r="F43">
-        <v>853.01001133909392</v>
+        <v>854.2854431821288</v>
       </c>
       <c r="G43">
-        <v>15.138655762846422</v>
+        <v>15.280918812769258</v>
       </c>
       <c r="H43">
-        <v>65.519489900778311</v>
+        <v>65.97672500557195</v>
       </c>
       <c r="I43" t="s">
         <v>24</v>
@@ -2345,22 +2345,22 @@
         <v>2992958</v>
       </c>
       <c r="C44">
-        <v>2625501397.4711566</v>
+        <v>2625619615.5813642</v>
       </c>
       <c r="D44">
-        <v>33866677.970893972</v>
+        <v>34185608.912614442</v>
       </c>
       <c r="E44">
-        <v>423169830.19512743</v>
+        <v>430117273.33713597</v>
       </c>
       <c r="F44">
-        <v>877.22627496649022</v>
+        <v>877.26577371996677</v>
       </c>
       <c r="G44">
-        <v>11.315453798848488</v>
+        <v>11.422014245644089</v>
       </c>
       <c r="H44">
-        <v>141.38849599464055</v>
+        <v>143.70975915369877</v>
       </c>
       <c r="I44" t="s">
         <v>24</v>
@@ -2427,22 +2427,22 @@
         <v>8966852</v>
       </c>
       <c r="C46">
-        <v>10523606231.129457</v>
+        <v>10472982560.268034</v>
       </c>
       <c r="D46">
-        <v>131076352.7991903</v>
+        <v>130709613.63875227</v>
       </c>
       <c r="E46">
-        <v>562302040.14648378</v>
+        <v>561903645.72261715</v>
       </c>
       <c r="F46">
-        <v>1173.6121250946774</v>
+        <v>1167.9664792357489</v>
       </c>
       <c r="G46">
-        <v>14.617878470525698</v>
+        <v>14.576979037766238</v>
       </c>
       <c r="H46">
-        <v>62.708968559588556</v>
+        <v>62.66453887302</v>
       </c>
       <c r="I46" t="s">
         <v>24</v>
@@ -2468,22 +2468,22 @@
         <v>1441562</v>
       </c>
       <c r="C47">
-        <v>1822232176.0320368</v>
+        <v>1836771396.9161043</v>
       </c>
       <c r="D47">
-        <v>28667460.780007638</v>
+        <v>29298142.620841634</v>
       </c>
       <c r="E47">
-        <v>121345549.34502189</v>
+        <v>123821372.48825803</v>
       </c>
       <c r="F47">
-        <v>1264.0678486475342</v>
+        <v>1274.153589589698</v>
       </c>
       <c r="G47">
-        <v>19.886387668381683</v>
+        <v>20.323886604143031</v>
       </c>
       <c r="H47">
-        <v>84.176434551564128</v>
+        <v>85.893893213235387</v>
       </c>
       <c r="I47" t="s">
         <v>24</v>
@@ -2509,22 +2509,22 @@
         <v>1650341</v>
       </c>
       <c r="C48">
-        <v>612862361.78805768</v>
+        <v>615095152.01272297</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>462948078.40197831</v>
+        <v>459850028.45069325</v>
       </c>
       <c r="F48">
-        <v>371.35498771954263</v>
+        <v>372.70791431148047</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>280.5166195361918</v>
+        <v>278.6394014635116</v>
       </c>
       <c r="I48" t="s">
         <v>24</v>
@@ -2553,19 +2553,19 @@
         <v>4299053798.1384144</v>
       </c>
       <c r="D49">
-        <v>63572441.623755351</v>
+        <v>63980157.135129407</v>
       </c>
       <c r="E49">
-        <v>261804382.8929646</v>
+        <v>264711921.5738796</v>
       </c>
       <c r="F49">
         <v>862.52824110410552</v>
       </c>
       <c r="G49">
-        <v>12.754673198129096</v>
+        <v>12.836474022079846</v>
       </c>
       <c r="H49">
-        <v>52.526366147778113</v>
+        <v>53.10971177268695</v>
       </c>
       <c r="I49" t="s">
         <v>24</v>
@@ -2591,22 +2591,22 @@
         <v>508325</v>
       </c>
       <c r="C50">
-        <v>867290323.71490216</v>
+        <v>869574216.96943188</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>467002482.00033188</v>
+        <v>468232270.67584789</v>
       </c>
       <c r="F50">
-        <v>1706.1728691583182</v>
+        <v>1710.6658475767115</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>918.7084680083251</v>
+        <v>921.12776407976764</v>
       </c>
       <c r="I50" t="s">
         <v>24</v>
@@ -2632,22 +2632,22 @@
         <v>2093626</v>
       </c>
       <c r="C51">
-        <v>1106042046.2931437</v>
+        <v>1099932360.805007</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>817364489.11247873</v>
+        <v>745174948.72600842</v>
       </c>
       <c r="F51">
-        <v>528.29017517605519</v>
+        <v>525.37194360645458</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>390.40616094396933</v>
+        <v>355.9255324141028</v>
       </c>
       <c r="I51" t="s">
         <v>24</v>
@@ -2673,22 +2673,22 @@
         <v>1408704</v>
       </c>
       <c r="C52">
-        <v>1687362139.2997305</v>
+        <v>1695399081.4171181</v>
       </c>
       <c r="D52">
-        <v>21768354.715604167</v>
+        <v>22118244.767488852</v>
       </c>
       <c r="E52">
-        <v>98931749.09572503</v>
+        <v>90251143.52277647</v>
       </c>
       <c r="F52">
-        <v>1197.8117044458811</v>
+        <v>1203.5169073255404</v>
       </c>
       <c r="G52">
-        <v>15.45275282501091</v>
+        <v>15.701130093681037</v>
       </c>
       <c r="H52">
-        <v>70.228911890450391</v>
+        <v>64.066790129634384</v>
       </c>
       <c r="I52" t="s">
         <v>24</v>
@@ -2755,22 +2755,22 @@
         <v>860420</v>
       </c>
       <c r="C54">
-        <v>462201796.68944389</v>
+        <v>640919824.74269545</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>179745143.15700597</v>
+        <v>1027115.1037543492</v>
       </c>
       <c r="F54">
-        <v>537.1816051340553</v>
+        <v>744.89182578588998</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>208.90395755213265</v>
+        <v>1.193736900297935</v>
       </c>
       <c r="I54" t="s">
         <v>25</v>
@@ -2796,22 +2796,22 @@
         <v>245567</v>
       </c>
       <c r="C55">
-        <v>61897945.802877903</v>
+        <v>62611794.882566616</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>44099657.097323805</v>
+        <v>43947100.467395693</v>
       </c>
       <c r="F55">
-        <v>252.06133480018855</v>
+        <v>254.96827701835596</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>179.5829940396055</v>
+        <v>178.96175164983768</v>
       </c>
       <c r="I55" t="s">
         <v>25</v>
@@ -2837,22 +2837,22 @@
         <v>9501203</v>
       </c>
       <c r="C56">
-        <v>4390451830.3083982</v>
+        <v>5930611200.9251556</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1535632869.222739</v>
+        <v>8759729.5027947985</v>
       </c>
       <c r="F56">
-        <v>462.09430851107993</v>
+        <v>624.19582035297594</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>161.62509833994062</v>
+        <v>0.92196004051221703</v>
       </c>
       <c r="I56" t="s">
         <v>25</v>
@@ -2878,22 +2878,22 @@
         <v>2526066</v>
       </c>
       <c r="C57">
-        <v>1242936509.9837379</v>
+        <v>1396458206.1363668</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>381153402.91120774</v>
+        <v>228883943.99202472</v>
       </c>
       <c r="F57">
-        <v>492.0443527539415</v>
+        <v>552.81936661051884</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>150.88814105063278</v>
+        <v>90.608853447227716</v>
       </c>
       <c r="I57" t="s">
         <v>25</v>
@@ -2919,22 +2919,22 @@
         <v>1081826</v>
       </c>
       <c r="C58">
-        <v>355324657.39572352</v>
+        <v>370893704.53401113</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>263337949.92195603</v>
+        <v>261026163.1691359</v>
       </c>
       <c r="F58">
-        <v>328.4489903142682</v>
+        <v>342.84044248706459</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>243.41987521279395</v>
+        <v>241.28294491825477</v>
       </c>
       <c r="I58" t="s">
         <v>25</v>
@@ -2960,22 +2960,22 @@
         <v>250729</v>
       </c>
       <c r="C59">
-        <v>50321236.264134958</v>
+        <v>51597076.340463601</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>120747415.02499199</v>
+        <v>120411008.61910319</v>
       </c>
       <c r="F59">
-        <v>200.69970471758336</v>
+        <v>205.78822689223665</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>481.58535719837749</v>
+        <v>480.24364401047819</v>
       </c>
       <c r="I59" t="s">
         <v>25</v>
@@ -3001,22 +3001,22 @@
         <v>750815</v>
       </c>
       <c r="C60">
-        <v>522657629.04866189</v>
+        <v>520952093.92758638</v>
       </c>
       <c r="D60">
-        <v>7007312.082820951</v>
+        <v>7036101.5283276374</v>
       </c>
       <c r="E60">
-        <v>36716075.376664534</v>
+        <v>36719149.846875019</v>
       </c>
       <c r="F60">
-        <v>696.12038791002033</v>
+        <v>693.84880953042546</v>
       </c>
       <c r="G60">
-        <v>9.332940981228333</v>
+        <v>9.3712852411414769</v>
       </c>
       <c r="H60">
-        <v>48.901627400444227</v>
+        <v>48.905722244327855</v>
       </c>
       <c r="I60" t="s">
         <v>25</v>
@@ -3042,22 +3042,22 @@
         <v>6981232</v>
       </c>
       <c r="C61">
-        <v>4992470386.6844816</v>
+        <v>4980899394.7791662</v>
       </c>
       <c r="D61">
-        <v>64129142.533110566</v>
+        <v>64028076.016872711</v>
       </c>
       <c r="E61">
-        <v>275207250.26394212</v>
+        <v>275247862.23193669</v>
       </c>
       <c r="F61">
-        <v>715.12741399862966</v>
+        <v>713.46997131439923</v>
       </c>
       <c r="G61">
-        <v>9.1859348798479363</v>
+        <v>9.1714579914938668</v>
       </c>
       <c r="H61">
-        <v>39.421014838633369</v>
+        <v>39.426832145377304</v>
       </c>
       <c r="I61" t="s">
         <v>13</v>
@@ -3083,7 +3083,7 @@
         <v>2191143</v>
       </c>
       <c r="C62">
-        <v>1363760632.133455</v>
+        <v>1369252873.4358549</v>
       </c>
       <c r="D62">
         <v>17533190.874929883</v>
@@ -3092,7 +3092,7 @@
         <v>75801532.130161345</v>
       </c>
       <c r="F62">
-        <v>622.39690980162186</v>
+        <v>624.90347432178316</v>
       </c>
       <c r="G62">
         <v>8.0018469241532308</v>
@@ -3124,22 +3124,22 @@
         <v>384251</v>
       </c>
       <c r="C63">
-        <v>135439558.32615268</v>
+        <v>130728726.96288681</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>95392547.565400943</v>
+        <v>96194165.612169042</v>
       </c>
       <c r="F63">
-        <v>352.47678815709702</v>
+        <v>340.21701170039069</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>248.25582123508056</v>
+        <v>250.34200460680398</v>
       </c>
       <c r="I63" t="s">
         <v>13</v>
@@ -3165,22 +3165,22 @@
         <v>1245893</v>
       </c>
       <c r="C64">
-        <v>1670274500.9745522</v>
+        <v>1683042457.6543293</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1221673036.6070266</v>
+        <v>1235843443.1339931</v>
       </c>
       <c r="F64">
-        <v>1340.624356164255</v>
+        <v>1350.8723924561173</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>980.56015773989145</v>
+        <v>991.93385237254972</v>
       </c>
       <c r="I64" t="s">
         <v>26</v>
@@ -3206,22 +3206,22 @@
         <v>2032750</v>
       </c>
       <c r="C65">
-        <v>2215072278.0176477</v>
+        <v>2237811037.2419634</v>
       </c>
       <c r="D65">
-        <v>20013005.857320167</v>
+        <v>20173170.564686924</v>
       </c>
       <c r="E65">
-        <v>85590029.086594135</v>
+        <v>86539520.412310138</v>
       </c>
       <c r="F65">
-        <v>1089.6924255405966</v>
+        <v>1100.8786310377386</v>
       </c>
       <c r="G65">
-        <v>9.845286364442341</v>
+        <v>9.9240784969558113</v>
       </c>
       <c r="H65">
-        <v>42.10553638499281</v>
+        <v>42.572633335289702</v>
       </c>
       <c r="I65" t="s">
         <v>26</v>
@@ -3247,22 +3247,22 @@
         <v>11367897</v>
       </c>
       <c r="C66">
-        <v>13638119343.444517</v>
+        <v>13591029429.484226</v>
       </c>
       <c r="D66">
-        <v>122827434.67264722</v>
+        <v>122506942.78288868</v>
       </c>
       <c r="E66">
-        <v>526737154.02884138</v>
+        <v>527382742.08661515</v>
       </c>
       <c r="F66">
-        <v>1199.704689745563</v>
+        <v>1195.5623304366873</v>
       </c>
       <c r="G66">
-        <v>10.804763156514104</v>
+        <v>10.776570440679457</v>
       </c>
       <c r="H66">
-        <v>46.335496708744053</v>
+        <v>46.392287165041623</v>
       </c>
       <c r="I66" t="s">
         <v>26</v>
@@ -3288,22 +3288,22 @@
         <v>7935224</v>
       </c>
       <c r="C67">
-        <v>7849965916.5307903</v>
+        <v>7863980926.5412092</v>
       </c>
       <c r="D67">
-        <v>59579092.003422655</v>
+        <v>58854897.004132465</v>
       </c>
       <c r="E67">
-        <v>255496542.5441688</v>
+        <v>252046944.00910711</v>
       </c>
       <c r="F67">
-        <v>989.25574332001088</v>
+        <v>991.02192030637184</v>
       </c>
       <c r="G67">
-        <v>7.5081802357970808</v>
+        <v>7.4169169016693752</v>
       </c>
       <c r="H67">
-        <v>32.197773187520454</v>
+        <v>31.763053444881596</v>
       </c>
       <c r="I67" t="s">
         <v>26</v>
@@ -3329,22 +3329,22 @@
         <v>2300225</v>
       </c>
       <c r="C68">
-        <v>2952959892.8579631</v>
+        <v>2988011292.5827827</v>
       </c>
       <c r="D68">
-        <v>45790644.047167629</v>
+        <v>45933404.229863361</v>
       </c>
       <c r="E68">
-        <v>197027481.06152946</v>
+        <v>196831766.42677754</v>
       </c>
       <c r="F68">
-        <v>1283.7700193928695</v>
+        <v>1299.0082677054561</v>
       </c>
       <c r="G68">
-        <v>19.907028246005339</v>
+        <v>19.969091819219145</v>
       </c>
       <c r="H68">
-        <v>85.655742834518122</v>
+        <v>85.570657838592979</v>
       </c>
       <c r="I68" t="s">
         <v>26</v>
@@ -3370,22 +3370,22 @@
         <v>12008149</v>
       </c>
       <c r="C69">
-        <v>11517905936.791639</v>
+        <v>11556142287.125328</v>
       </c>
       <c r="D69">
-        <v>178214235.63377672</v>
+        <v>179129156.61875105</v>
       </c>
       <c r="E69">
-        <v>764520771.10322046</v>
+        <v>769938418.10081649</v>
       </c>
       <c r="F69">
-        <v>959.17413556341114</v>
+        <v>962.35833575393906</v>
       </c>
       <c r="G69">
-        <v>14.841107953755131</v>
+        <v>14.917299628673083</v>
       </c>
       <c r="H69">
-        <v>63.666829176022091</v>
+        <v>64.117993381062846</v>
       </c>
       <c r="I69" t="s">
         <v>26</v>
@@ -3411,22 +3411,22 @@
         <v>6141807</v>
       </c>
       <c r="C70">
-        <v>2730857399.7786946</v>
+        <v>2722624156.5248322</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>1470461676.8039126</v>
+        <v>1466028391.9749098</v>
       </c>
       <c r="F70">
-        <v>444.63419312568675</v>
+        <v>443.29366854491394</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
-        <v>239.41841168306212</v>
+        <v>238.69659075495369</v>
       </c>
       <c r="I70" t="s">
         <v>26</v>
@@ -3452,22 +3452,22 @@
         <v>1488285</v>
       </c>
       <c r="C71">
-        <v>1310685570.0508282</v>
+        <v>1325847838.8347454</v>
       </c>
       <c r="D71">
-        <v>19855222.390534744</v>
+        <v>20170334.763738349</v>
       </c>
       <c r="E71">
-        <v>85106515.634655461</v>
+        <v>86771684.98214151</v>
       </c>
       <c r="F71">
-        <v>880.66840023975794</v>
+        <v>890.85614572124655</v>
       </c>
       <c r="G71">
-        <v>13.341008201073548</v>
+        <v>13.552736716246114</v>
       </c>
       <c r="H71">
-        <v>57.18428636629104</v>
+        <v>58.303137491906128</v>
       </c>
       <c r="I71" t="s">
         <v>26</v>
@@ -3493,22 +3493,22 @@
         <v>524509</v>
       </c>
       <c r="C72">
-        <v>658152739.60642719</v>
+        <v>907081875.1284678</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>247896317.99341616</v>
+        <v>1417797.5246612974</v>
       </c>
       <c r="F72">
-        <v>1254.7978006219669</v>
+        <v>1729.3923938930843</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>472.625480198464</v>
+        <v>2.7030947508265779</v>
       </c>
       <c r="I72" t="s">
         <v>26</v>
@@ -3534,22 +3534,22 @@
         <v>48329</v>
       </c>
       <c r="C73">
-        <v>56666510.060891956</v>
+        <v>56665092.517269582</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>40553392.891200908</v>
+        <v>41326015.893403627</v>
       </c>
       <c r="F73">
-        <v>1172.5156750789786</v>
+        <v>1172.4863439605533</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>839.1109456268681</v>
+        <v>855.09768241436052</v>
       </c>
       <c r="I73" t="s">
         <v>26</v>
@@ -3575,22 +3575,22 @@
         <v>402573</v>
       </c>
       <c r="C74">
-        <v>193253677.78298476</v>
+        <v>192661275.68427321</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>104059672.6523764</v>
+        <v>103740686.90691634</v>
       </c>
       <c r="F74">
-        <v>480.04629665423357</v>
+        <v>478.57475708572906</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>258.48646742920266</v>
+        <v>257.69409996923872</v>
       </c>
       <c r="I74" t="s">
         <v>21</v>
@@ -3616,22 +3616,22 @@
         <v>1336530</v>
       </c>
       <c r="C75">
-        <v>783222217.65662348</v>
+        <v>772810947.71340632</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>575249342.55404806</v>
+        <v>585054829.31546533</v>
       </c>
       <c r="F75">
-        <v>586.01170019125902</v>
+        <v>578.22192372292898</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>430.40511066272217</v>
+        <v>437.74163641329812</v>
       </c>
       <c r="I75" t="s">
         <v>21</v>
@@ -3657,22 +3657,22 @@
         <v>1349171</v>
       </c>
       <c r="C76">
-        <v>1109087770.6065695</v>
+        <v>1096433966.9049525</v>
       </c>
       <c r="D76">
-        <v>5174208.7092236299</v>
+        <v>5123057.8553876942</v>
       </c>
       <c r="E76">
-        <v>22063465.808069915</v>
+        <v>21988354.298667304</v>
       </c>
       <c r="F76">
-        <v>822.0512971347365</v>
+        <v>812.67234983923652</v>
       </c>
       <c r="G76">
-        <v>3.835102228867675</v>
+        <v>3.7971894262385524</v>
       </c>
       <c r="H76">
-        <v>16.353350174344033</v>
+        <v>16.297677832289089</v>
       </c>
       <c r="I76" t="s">
         <v>21</v>
@@ -3698,22 +3698,22 @@
         <v>518992</v>
       </c>
       <c r="C77">
-        <v>514228857.93030536</v>
+        <v>515666274.85636932</v>
       </c>
       <c r="D77">
-        <v>2521646.2664589672</v>
+        <v>2520917.3603035221</v>
       </c>
       <c r="E77">
-        <v>10795339.79127956</v>
+        <v>10835926.521270655</v>
       </c>
       <c r="F77">
-        <v>990.82232082634289</v>
+        <v>993.59195297108499</v>
       </c>
       <c r="G77">
-        <v>4.8587382203559351</v>
+        <v>4.8573337552477147</v>
       </c>
       <c r="H77">
-        <v>20.800589973023783</v>
+        <v>20.878792970355335</v>
       </c>
       <c r="I77" t="s">
         <v>21</v>
@@ -3739,22 +3739,22 @@
         <v>4238250</v>
       </c>
       <c r="C78">
-        <v>3341091635.6999025</v>
+        <v>3289410589.1240001</v>
       </c>
       <c r="D78">
-        <v>48182627.682280764</v>
+        <v>47672020.899420217</v>
       </c>
       <c r="E78">
-        <v>205827265.71311313</v>
+        <v>204782448.57590613</v>
       </c>
       <c r="F78">
-        <v>788.31867768534244</v>
+        <v>776.12471872211415</v>
       </c>
       <c r="G78">
-        <v>11.368519479096506</v>
+        <v>11.248043626359987</v>
       </c>
       <c r="H78">
-        <v>48.564210632481128</v>
+        <v>48.317689748340975</v>
       </c>
       <c r="I78" t="s">
         <v>21</v>
@@ -3780,22 +3780,22 @@
         <v>1825199</v>
       </c>
       <c r="C79">
-        <v>312401708.31701261</v>
+        <v>311351148.14543593</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>231304512.50407222</v>
+        <v>229979487.85291761</v>
       </c>
       <c r="F79">
-        <v>171.16035474324312</v>
+        <v>170.58476809675872</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>126.72838003092934</v>
+        <v>126.00241828585136</v>
       </c>
       <c r="I79" t="s">
         <v>27</v>
@@ -3821,22 +3821,22 @@
         <v>8749914</v>
       </c>
       <c r="C80">
-        <v>2764039030.7790928</v>
+        <v>2692251643.7589312</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>1872604552.2431736</v>
+        <v>1883247879.9633694</v>
       </c>
       <c r="F80">
-        <v>315.89327972584562</v>
+        <v>307.68892628646762</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>214.01405228019081</v>
+        <v>215.23044454646862</v>
       </c>
       <c r="I80" t="s">
         <v>27</v>
@@ -3862,22 +3862,22 @@
         <v>992174</v>
       </c>
       <c r="C81">
-        <v>323630420.81069309</v>
+        <v>328605010.15939081</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>244616659.07869065</v>
+        <v>240247233.69359949</v>
       </c>
       <c r="F81">
-        <v>326.18312998596321</v>
+        <v>331.19695754917063</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>246.54612908490915</v>
+        <v>242.14223885487777</v>
       </c>
       <c r="I81" t="s">
         <v>27</v>
@@ -3903,22 +3903,22 @@
         <v>1769518</v>
       </c>
       <c r="C82">
-        <v>602882488.8334645</v>
+        <v>605868220.90369761</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>437736815.70076287</v>
+        <v>425651889.57258844</v>
       </c>
       <c r="F82">
-        <v>340.70435499015241</v>
+        <v>342.39166875030241</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <v>247.37630004371974</v>
+        <v>240.54679837819589</v>
       </c>
       <c r="I82" t="s">
         <v>27</v>
@@ -3944,22 +3944,22 @@
         <v>16149545</v>
       </c>
       <c r="C83">
-        <v>11113438363.463783</v>
+        <v>11022961650.840456</v>
       </c>
       <c r="D83">
-        <v>170686245.63932529</v>
+        <v>169797602.61310673</v>
       </c>
       <c r="E83">
-        <v>732023314.41734731</v>
+        <v>728132716.67524624</v>
       </c>
       <c r="F83">
-        <v>688.15798608962564</v>
+        <v>682.55555502278582</v>
       </c>
       <c r="G83">
-        <v>10.569105546894683</v>
+        <v>10.514079660641011</v>
       </c>
       <c r="H83">
-        <v>45.327798053588957</v>
+        <v>45.086887381362523</v>
       </c>
       <c r="I83" t="s">
         <v>27</v>
@@ -3985,22 +3985,22 @@
         <v>1806150</v>
       </c>
       <c r="C84">
-        <v>896949097.73641062</v>
+        <v>897098863.24657297</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>641544306.82715559</v>
+        <v>646474633.36490059</v>
       </c>
       <c r="F84">
-        <v>496.60830924143102</v>
+        <v>496.69122899347951</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>355.19990412045269</v>
+        <v>357.92964779497862</v>
       </c>
       <c r="I84" t="s">
         <v>27</v>
@@ -4026,22 +4026,22 @@
         <v>5446539</v>
       </c>
       <c r="C85">
-        <v>2554559950.7550764</v>
+        <v>2540394040.3305616</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>1869743612.1053312</v>
+        <v>1853773361.0783205</v>
       </c>
       <c r="F85">
-        <v>469.02444850850725</v>
+        <v>466.42354719769043</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>343.29022744633448</v>
+        <v>340.35804408603713</v>
       </c>
       <c r="I85" t="s">
         <v>27</v>
@@ -4067,22 +4067,22 @@
         <v>2101351</v>
       </c>
       <c r="C86">
-        <v>717216223.08078098</v>
+        <v>701997661.68057668</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>522120677.00771087</v>
+        <v>520522155.65564752</v>
       </c>
       <c r="F86">
-        <v>341.31195744108481</v>
+        <v>334.06968263777765</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>248.46904539399219</v>
+        <v>247.70833414105854</v>
       </c>
       <c r="I86" t="s">
         <v>27</v>
@@ -4108,22 +4108,22 @@
         <v>1738999</v>
       </c>
       <c r="C87">
-        <v>650157619.64462793</v>
+        <v>647827209.94722748</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>205250473.94969207</v>
+        <v>204691861.27890974</v>
       </c>
       <c r="F87">
-        <v>373.86888643675354</v>
+        <v>372.52879958368436</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <v>118.02794248282608</v>
+        <v>117.70671592042879</v>
       </c>
       <c r="I87" t="s">
         <v>27</v>
@@ -4149,22 +4149,22 @@
         <v>205407</v>
       </c>
       <c r="C88">
-        <v>209176727.06610548</v>
+        <v>209774591.09460235</v>
       </c>
       <c r="D88">
-        <v>3253898.4476295728</v>
+        <v>3310491.2655132278</v>
       </c>
       <c r="E88">
-        <v>13890076.388633346</v>
+        <v>14196415.061996367</v>
       </c>
       <c r="F88">
-        <v>1018.3524761381329</v>
+        <v>1021.2631073653885</v>
       </c>
       <c r="G88">
-        <v>15.841224727636218</v>
+        <v>16.116740254778211</v>
       </c>
       <c r="H88">
-        <v>67.622215351148427</v>
+        <v>69.11358942001182</v>
       </c>
       <c r="I88" t="s">
         <v>27</v>
@@ -4190,22 +4190,22 @@
         <v>500876</v>
       </c>
       <c r="C89">
-        <v>183487666.99415234</v>
+        <v>187259120.05967885</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>130588696.07485291</v>
+        <v>129947793.66577438</v>
       </c>
       <c r="F89">
-        <v>366.33351766535498</v>
+        <v>373.86323173735389</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>260.72060964161375</v>
+        <v>259.44104661787424</v>
       </c>
       <c r="I89" t="s">
         <v>27</v>
@@ -4231,22 +4231,22 @@
         <v>869762</v>
       </c>
       <c r="C90">
-        <v>282375947.08897197</v>
+        <v>298847877.33582866</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>210160295.35360131</v>
+        <v>212021586.884184</v>
       </c>
       <c r="F90">
-        <v>324.65886885029693</v>
+        <v>343.59730286656423</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
-        <v>241.62965886484039</v>
+        <v>243.76965984278917</v>
       </c>
       <c r="I90" t="s">
         <v>27</v>
@@ -4272,22 +4272,22 @@
         <v>285146</v>
       </c>
       <c r="C91">
-        <v>94307105.193394527</v>
+        <v>144141431.41758871</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>50780748.950289354</v>
+        <v>288860.58400318411</v>
       </c>
       <c r="F91">
-        <v>330.73269550824676</v>
+        <v>505.5004503573212</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>178.08683604290206</v>
+        <v>1.0130269546238913</v>
       </c>
       <c r="I91" t="s">
         <v>27</v>
@@ -4313,22 +4313,22 @@
         <v>6959580</v>
       </c>
       <c r="C92">
-        <v>2886796103.2829533</v>
+        <v>3462121782.6971145</v>
       </c>
       <c r="D92">
-        <v>16734128.510453636</v>
+        <v>16422950.216911554</v>
       </c>
       <c r="E92">
-        <v>924843423.4479394</v>
+        <v>272492069.67366618</v>
       </c>
       <c r="F92">
-        <v>414.79458577715224</v>
+        <v>497.46130983437428</v>
       </c>
       <c r="G92">
-        <v>2.4044739065365488</v>
+        <v>2.3597616834509489</v>
       </c>
       <c r="H92">
-        <v>132.88782131219691</v>
+        <v>39.153522148415014</v>
       </c>
       <c r="I92" t="s">
         <v>28</v>
@@ -4354,22 +4354,22 @@
         <v>3030017</v>
       </c>
       <c r="C93">
-        <v>1577475682.1675277</v>
+        <v>1821839198.1160471</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>233175510.97518</v>
+        <v>1355624.0128029028</v>
       </c>
       <c r="F93">
-        <v>520.61611607048007</v>
+        <v>601.26368865786799</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93">
-        <v>76.95518242147817</v>
+        <v>0.4473981541367269</v>
       </c>
       <c r="I93" t="s">
         <v>28</v>
@@ -4395,22 +4395,22 @@
         <v>296202</v>
       </c>
       <c r="C94">
-        <v>53359859.786162794</v>
+        <v>52432701.823360234</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>39703132.961999997</v>
+        <v>37565119.251996294</v>
       </c>
       <c r="F94">
-        <v>180.14685851602215</v>
+        <v>177.0167042199588</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>134.04073220977574</v>
+        <v>126.82263878027932</v>
       </c>
       <c r="I94" t="s">
         <v>28</v>
@@ -4436,22 +4436,22 @@
         <v>1615868</v>
       </c>
       <c r="C95">
-        <v>358952793.29134071</v>
+        <v>360525772.03999901</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>253432448.43488827</v>
+        <v>248966290.1193451</v>
       </c>
       <c r="F95">
-        <v>222.14239856927713</v>
+        <v>223.11585602289236</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>156.83982134362972</v>
+        <v>154.07588374752461</v>
       </c>
       <c r="I95" t="s">
         <v>29</v>
@@ -4477,22 +4477,22 @@
         <v>1079076</v>
       </c>
       <c r="C96">
-        <v>496376088.14928329</v>
+        <v>785474241.8364954</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>267279432.0803833</v>
+        <v>1574096.6770270462</v>
       </c>
       <c r="F96">
-        <v>460.00104547713346</v>
+        <v>727.91373530362591</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>247.6928706415334</v>
+        <v>1.4587449605283096</v>
       </c>
       <c r="I96" t="s">
         <v>30</v>
@@ -4518,22 +4518,22 @@
         <v>3480059</v>
       </c>
       <c r="C97">
-        <v>1378060366.4779732</v>
+        <v>2106350513.1376522</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>742032505.02660096</v>
+        <v>4221143.3129011104</v>
       </c>
       <c r="F97">
-        <v>395.98764459969595</v>
+        <v>605.26287431841013</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>213.2241163229132</v>
+        <v>1.2129516519407029</v>
       </c>
       <c r="I97" t="s">
         <v>30</v>
@@ -4559,22 +4559,22 @@
         <v>1420063</v>
       </c>
       <c r="C98">
-        <v>525767874.15411842</v>
+        <v>528446783.0062716</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>370286987.29531646</v>
+        <v>372210139.72754276</v>
       </c>
       <c r="F98">
-        <v>370.24264004774324</v>
+        <v>372.12911188184722</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>260.75391535116148</v>
+        <v>262.10818796598653</v>
       </c>
       <c r="I98" t="s">
         <v>30</v>
@@ -4600,22 +4600,22 @@
         <v>2037047</v>
       </c>
       <c r="C99">
-        <v>613068574.48878455</v>
+        <v>602441478.65535319</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>443193375.4332177</v>
+        <v>439332882.56435513</v>
       </c>
       <c r="F99">
-        <v>300.95946460184007</v>
+        <v>295.74255216269097</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <v>217.56659293242507</v>
+        <v>215.67145115667685</v>
       </c>
       <c r="I99" t="s">
         <v>30</v>
@@ -4682,22 +4682,22 @@
         <v>16042082</v>
       </c>
       <c r="C101">
-        <v>5306528508.8757277</v>
+        <v>5311227277.8429127</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>3758111796.5489893</v>
+        <v>3797274988.129262</v>
       </c>
       <c r="F101">
-        <v>330.78801796897233</v>
+        <v>331.0809206587345</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
-        <v>234.26583884491984</v>
+        <v>236.70711745079362</v>
       </c>
       <c r="I101" t="s">
         <v>30</v>
@@ -4723,22 +4723,22 @@
         <v>2119428</v>
       </c>
       <c r="C102">
-        <v>727379472.46108615</v>
+        <v>742631332.22602499</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>518763061.45073736</v>
+        <v>521809828.42132723</v>
       </c>
       <c r="F102">
-        <v>343.19612294500507</v>
+        <v>350.39233803933183</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>244.76559781730606</v>
+        <v>246.2031399138481</v>
       </c>
       <c r="I102" t="s">
         <v>30</v>
@@ -4764,22 +4764,22 @@
         <v>4495381</v>
       </c>
       <c r="C103">
-        <v>3505010609.4016724</v>
+        <v>3477029771.3961163</v>
       </c>
       <c r="D103">
-        <v>53089032.268903792</v>
+        <v>53042069.148037732</v>
       </c>
       <c r="E103">
-        <v>228522453.69610196</v>
+        <v>226745180.91109473</v>
       </c>
       <c r="F103">
-        <v>779.69155660035767</v>
+        <v>773.46720364661337</v>
       </c>
       <c r="G103">
-        <v>11.809684711686016</v>
+        <v>11.799237739367971</v>
       </c>
       <c r="H103">
-        <v>50.834946736684159</v>
+        <v>50.439591418634976</v>
       </c>
       <c r="I103" t="s">
         <v>30</v>
@@ -4805,22 +4805,22 @@
         <v>201976</v>
       </c>
       <c r="C104">
-        <v>109535385.08965729</v>
+        <v>110088291.6989172</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>16155438.858250791</v>
+        <v>16154574.41193101</v>
       </c>
       <c r="F104">
-        <v>542.31881555064604</v>
+        <v>545.05630222856769</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>79.986923487200414</v>
+        <v>79.982643541465379</v>
       </c>
       <c r="I104" t="s">
         <v>30</v>
@@ -4846,22 +4846,22 @@
         <v>6594728</v>
       </c>
       <c r="C105">
-        <v>2127915220.865442</v>
+        <v>2094464520.76196</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>1507225065.9115787</v>
+        <v>1499971561.8775334</v>
       </c>
       <c r="F105">
-        <v>322.66914129975368</v>
+        <v>317.59680168188288</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105">
-        <v>228.54999719648461</v>
+        <v>227.45010285147976</v>
       </c>
       <c r="I105" t="s">
         <v>30</v>
@@ -4887,22 +4887,22 @@
         <v>7672769</v>
       </c>
       <c r="C106">
-        <v>2468708581.394022</v>
+        <v>2399092420.8063669</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>1722965893.3079121</v>
+        <v>1743754329.3509939</v>
       </c>
       <c r="F106">
-        <v>321.74936863002415</v>
+        <v>312.67622168820236</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106">
-        <v>224.55594496692291</v>
+        <v>227.26532355541968</v>
       </c>
       <c r="I106" t="s">
         <v>30</v>
@@ -4928,22 +4928,22 @@
         <v>423587</v>
       </c>
       <c r="C107">
-        <v>73630115.630752265</v>
+        <v>74045965.33707726</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>141968724.02727512</v>
+        <v>142770537.95474663</v>
       </c>
       <c r="F107">
-        <v>173.82524872281789</v>
+        <v>174.80698259643771</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>335.1583595041281</v>
+        <v>337.05127389354874</v>
       </c>
       <c r="I107" t="s">
         <v>11</v>
@@ -4969,22 +4969,22 @@
         <v>969633</v>
       </c>
       <c r="C108">
-        <v>453836393.96569502</v>
+        <v>457682465.10099745</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>244373442.90460497</v>
+        <v>246444404.28515247</v>
       </c>
       <c r="F108">
-        <v>468.04965792799442</v>
+        <v>472.01618045280787</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108">
-        <v>252.02673888430465</v>
+        <v>254.16255870535807</v>
       </c>
       <c r="I108" t="s">
         <v>11</v>
@@ -5010,22 +5010,22 @@
         <v>3095082</v>
       </c>
       <c r="C109">
-        <v>1093514339.3612838</v>
+        <v>1120816217.9123778</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>791886508.16040683</v>
+        <v>799051410.43416464</v>
       </c>
       <c r="F109">
-        <v>353.30706564843314</v>
+        <v>362.12811741736658</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
-        <v>255.85315935422932</v>
+        <v>258.16809067874925</v>
       </c>
       <c r="I109" t="s">
         <v>11</v>
@@ -5051,22 +5051,22 @@
         <v>134547</v>
       </c>
       <c r="C110">
-        <v>114185469.5691027</v>
+        <v>112848411.34785014</v>
       </c>
       <c r="D110">
-        <v>1675089.9765867942</v>
+        <v>1669648.8032832975</v>
       </c>
       <c r="E110">
-        <v>7178183.0711189425</v>
+        <v>7187886.3179429434</v>
       </c>
       <c r="F110">
-        <v>848.6660391469353</v>
+        <v>838.72855840598561</v>
       </c>
       <c r="G110">
-        <v>12.449850064191653</v>
+        <v>12.409409375781678</v>
       </c>
       <c r="H110">
-        <v>53.350747851077635</v>
+        <v>53.422865749090974</v>
       </c>
       <c r="I110" t="s">
         <v>31</v>
@@ -5092,22 +5092,22 @@
         <v>265550</v>
       </c>
       <c r="C111">
-        <v>189806126.2535761</v>
+        <v>231639981.74116528</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>28991189.902894489</v>
+        <v>167654.01981664789</v>
       </c>
       <c r="F111">
-        <v>714.76605631171572</v>
+        <v>872.30269908177468</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>109.1741288002052</v>
+        <v>0.63134633709903176</v>
       </c>
       <c r="I111" t="s">
         <v>31</v>
@@ -5133,22 +5133,22 @@
         <v>10172252</v>
       </c>
       <c r="C112">
-        <v>9028985236.6223564</v>
+        <v>9076842809.0186749</v>
       </c>
       <c r="D112">
-        <v>116022258.37290922</v>
+        <v>117099043.48954639</v>
       </c>
       <c r="E112">
-        <v>516258211.87556338</v>
+        <v>518950987.09368342</v>
       </c>
       <c r="F112">
-        <v>887.60927635516271</v>
+        <v>892.31399389424041</v>
       </c>
       <c r="G112">
-        <v>11.405759351312691</v>
+        <v>11.511614487091588</v>
       </c>
       <c r="H112">
-        <v>50.751614477852435</v>
+        <v>51.016332184228567</v>
       </c>
       <c r="I112" t="s">
         <v>12</v>
@@ -5180,7 +5180,7 @@
         <v>112009083.30877474</v>
       </c>
       <c r="E113">
-        <v>463678911.65087974</v>
+        <v>467466009.20579755</v>
       </c>
       <c r="F113">
         <v>974.11954023042563</v>
@@ -5189,7 +5189,7 @@
         <v>12.435153249033688</v>
       </c>
       <c r="H113">
-        <v>51.477238759547483</v>
+        <v>51.897679112001953</v>
       </c>
       <c r="I113" t="s">
         <v>12</v>
@@ -5215,22 +5215,22 @@
         <v>531521</v>
       </c>
       <c r="C114">
-        <v>659587647.00482225</v>
+        <v>656524670.71686876</v>
       </c>
       <c r="D114">
-        <v>10151048.611585308</v>
+        <v>10180039.913435055</v>
       </c>
       <c r="E114">
-        <v>43620296.800321497</v>
+        <v>43680559.910478652</v>
       </c>
       <c r="F114">
-        <v>1240.9437200126097</v>
+        <v>1235.1810572242089</v>
       </c>
       <c r="G114">
-        <v>19.098113925104197</v>
+        <v>19.152657963533059</v>
       </c>
       <c r="H114">
-        <v>82.066930187747047</v>
+        <v>82.180308793967967</v>
       </c>
       <c r="I114" t="s">
         <v>32</v>
@@ -5256,22 +5256,22 @@
         <v>387114</v>
       </c>
       <c r="C115">
-        <v>183206731.50848249</v>
+        <v>184746283.87409997</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>98649778.504567474</v>
+        <v>99478768.239899993</v>
       </c>
       <c r="F115">
-        <v>473.26299619358247</v>
+        <v>477.23999616159574</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115">
-        <v>254.83392102731358</v>
+        <v>256.97538254855158</v>
       </c>
       <c r="I115" t="s">
         <v>32</v>
@@ -5338,22 +5338,22 @@
         <v>1438500</v>
       </c>
       <c r="C117">
-        <v>1516062898.3476138</v>
+        <v>1506202618.9648392</v>
       </c>
       <c r="D117">
-        <v>23216275.784688994</v>
+        <v>23381408.63425412</v>
       </c>
       <c r="E117">
-        <v>99648392.608083814</v>
+        <v>100144262.49770638</v>
       </c>
       <c r="F117">
-        <v>1053.919289779363</v>
+        <v>1047.0647333784075</v>
       </c>
       <c r="G117">
-        <v>16.139225432526239</v>
+        <v>16.25402060080231</v>
       </c>
       <c r="H117">
-        <v>69.272431427239354</v>
+        <v>69.61714459346986</v>
       </c>
       <c r="I117" t="s">
         <v>33</v>
@@ -5379,22 +5379,22 @@
         <v>4871389</v>
       </c>
       <c r="C118">
-        <v>6170522966.9220371</v>
+        <v>6172894118.4543915</v>
       </c>
       <c r="D118">
-        <v>95969980.939276561</v>
+        <v>95011172.609463885</v>
       </c>
       <c r="E118">
-        <v>410753636.28910887</v>
+        <v>407038717.0019176</v>
       </c>
       <c r="F118">
-        <v>1266.6865583762735</v>
+        <v>1267.1733089791005</v>
       </c>
       <c r="G118">
-        <v>19.700742629930922</v>
+        <v>19.503918206791511</v>
       </c>
       <c r="H118">
-        <v>84.319613212804171</v>
+        <v>83.557013616017443</v>
       </c>
       <c r="I118" t="s">
         <v>33</v>
@@ -5420,22 +5420,22 @@
         <v>1656996</v>
       </c>
       <c r="C119">
-        <v>3341391957.4147582</v>
+        <v>3344226571.7982097</v>
       </c>
       <c r="D119">
-        <v>53138089.86592935</v>
+        <v>53272607.525150567</v>
       </c>
       <c r="E119">
-        <v>228092978.3176955</v>
+        <v>228991092.61016655</v>
       </c>
       <c r="F119">
-        <v>2016.5359224854847</v>
+        <v>2018.2466172508623</v>
       </c>
       <c r="G119">
-        <v>32.06893068295237</v>
+        <v>32.150112326855691</v>
       </c>
       <c r="H119">
-        <v>137.65451353998168</v>
+        <v>138.19652709491547</v>
       </c>
       <c r="I119" t="s">
         <v>33</v>
@@ -5461,22 +5461,22 @@
         <v>4082513</v>
       </c>
       <c r="C120">
-        <v>4741880731.352005</v>
+        <v>4758675237.6633873</v>
       </c>
       <c r="D120">
-        <v>63870278.711875714</v>
+        <v>63954996.947972335</v>
       </c>
       <c r="E120">
-        <v>274636533.39911318</v>
+        <v>274908497.35764086</v>
       </c>
       <c r="F120">
-        <v>1161.5102588410632</v>
+        <v>1165.6240256095664</v>
       </c>
       <c r="G120">
-        <v>15.644843926247317</v>
+        <v>15.665595418305426</v>
       </c>
       <c r="H120">
-        <v>67.271441241978451</v>
+        <v>67.338058043572886</v>
       </c>
       <c r="I120" t="s">
         <v>33</v>
@@ -5502,22 +5502,22 @@
         <v>7658910</v>
       </c>
       <c r="C121">
-        <v>11030173931.02092</v>
+        <v>11017240464.603161</v>
       </c>
       <c r="D121">
-        <v>181477832.82609797</v>
+        <v>180356498.00547251</v>
       </c>
       <c r="E121">
-        <v>779690125.23157835</v>
+        <v>776221641.85033381</v>
       </c>
       <c r="F121">
-        <v>1440.1754206565843</v>
+        <v>1438.4867382699576</v>
       </c>
       <c r="G121">
-        <v>23.694994826430648</v>
+        <v>23.548585634962745</v>
       </c>
       <c r="H121">
-        <v>101.80170875902424</v>
+        <v>101.34883969785959</v>
       </c>
       <c r="I121" t="s">
         <v>33</v>
@@ -5543,22 +5543,22 @@
         <v>500630</v>
       </c>
       <c r="C122">
-        <v>165452790.52834931</v>
+        <v>165863816.04964748</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>116005842.07171202</v>
+        <v>120809075.57388268</v>
       </c>
       <c r="F122">
-        <v>330.4891647091651</v>
+        <v>331.31018127089362</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122">
-        <v>231.7197172996265</v>
+        <v>241.31409538757703</v>
       </c>
       <c r="I122" t="s">
         <v>34</v>
@@ -5584,22 +5584,22 @@
         <v>3581670</v>
       </c>
       <c r="C123">
-        <v>1793479781.1738844</v>
+        <v>1808637351.5557756</v>
       </c>
       <c r="D123">
-        <v>27541023.303044349</v>
+        <v>27347958.848769225</v>
       </c>
       <c r="E123">
-        <v>118816822.27961618</v>
+        <v>118084016.15339901</v>
       </c>
       <c r="F123">
-        <v>500.73842123196283</v>
+        <v>504.97040530137497</v>
       </c>
       <c r="G123">
-        <v>7.6894362973262051</v>
+        <v>7.6355328237300544</v>
       </c>
       <c r="H123">
-        <v>33.173581675479923</v>
+        <v>32.968982668252238</v>
       </c>
       <c r="I123" t="s">
         <v>34</v>
@@ -5625,22 +5625,22 @@
         <v>4902363</v>
       </c>
       <c r="C124">
-        <v>4209131008.9031129</v>
+        <v>4190947697.9680004</v>
       </c>
       <c r="D124">
         <v>61973818.050998136</v>
       </c>
       <c r="E124">
-        <v>255432781.77533656</v>
+        <v>263877586.5068571</v>
       </c>
       <c r="F124">
-        <v>858.59227660275519</v>
+        <v>854.88318551033456</v>
       </c>
       <c r="G124">
         <v>12.641621612067107</v>
       </c>
       <c r="H124">
-        <v>52.104012243756031</v>
+        <v>53.826611066307635</v>
       </c>
       <c r="I124" t="s">
         <v>34</v>
@@ -5666,22 +5666,22 @@
         <v>8835500</v>
       </c>
       <c r="C125">
-        <v>8096911387.9402847</v>
+        <v>8110863433.8297462</v>
       </c>
       <c r="D125">
-        <v>164279215.36853218</v>
+        <v>164103070.50211516</v>
       </c>
       <c r="E125">
-        <v>704862712.65705633</v>
+        <v>704151919.79907584</v>
       </c>
       <c r="F125">
-        <v>916.40669887842057</v>
+        <v>917.98578844771055</v>
       </c>
       <c r="G125">
-        <v>18.593086454477074</v>
+        <v>18.573150416175107</v>
       </c>
       <c r="H125">
-        <v>79.776211041486761</v>
+        <v>79.695763657866095</v>
       </c>
       <c r="I125" t="s">
         <v>35</v>
@@ -5707,22 +5707,22 @@
         <v>6233147</v>
       </c>
       <c r="C126">
-        <v>6410699356.3683186</v>
+        <v>6409556837.9776411</v>
       </c>
       <c r="D126">
-        <v>98460453.554929614</v>
+        <v>98129199.967229456</v>
       </c>
       <c r="E126">
-        <v>423176439.82902491</v>
+        <v>421595850.2828753</v>
       </c>
       <c r="F126">
-        <v>1028.485186755313</v>
+        <v>1028.3018895555713</v>
       </c>
       <c r="G126">
-        <v>15.796266886522909</v>
+        <v>15.743123011093667</v>
       </c>
       <c r="H126">
-        <v>67.891297899604311</v>
+        <v>67.637719803957026</v>
       </c>
       <c r="I126" t="s">
         <v>35</v>
@@ -5748,22 +5748,22 @@
         <v>2753681</v>
       </c>
       <c r="C127">
-        <v>1057334468.522637</v>
+        <v>1047323909.7649984</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>784918269.06001437</v>
+        <v>790566691.94626772</v>
       </c>
       <c r="F127">
-        <v>383.97129824501712</v>
+        <v>380.33596112439983</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
       <c r="H127">
-        <v>285.04328172363262</v>
+        <v>287.09450802263143</v>
       </c>
       <c r="I127" t="s">
         <v>35</v>
@@ -5789,22 +5789,22 @@
         <v>5168266</v>
       </c>
       <c r="C128">
-        <v>5627176091.690773</v>
+        <v>5622571923.318738</v>
       </c>
       <c r="D128">
-        <v>86875231.630467236</v>
+        <v>86850281.860897183</v>
       </c>
       <c r="E128">
-        <v>372388597.40071499</v>
+        <v>373042911.73499185</v>
       </c>
       <c r="F128">
-        <v>1088.7938220847714</v>
+        <v>1087.9029684847371</v>
       </c>
       <c r="G128">
-        <v>16.809357651186538</v>
+        <v>16.804530157870587</v>
       </c>
       <c r="H128">
-        <v>72.052908538514657</v>
+        <v>72.179510833032168</v>
       </c>
       <c r="I128" t="s">
         <v>35</v>
@@ -5830,22 +5830,22 @@
         <v>9849064</v>
       </c>
       <c r="C129">
-        <v>8836921668.6479225</v>
+        <v>8854900363.6142883</v>
       </c>
       <c r="D129">
-        <v>134375393.61656821</v>
+        <v>135449682.80807811</v>
       </c>
       <c r="E129">
-        <v>577370743.7582674</v>
+        <v>582914943.77575409</v>
       </c>
       <c r="F129">
-        <v>897.23466805047894</v>
+        <v>899.06008973180485</v>
       </c>
       <c r="G129">
-        <v>13.643468416548842</v>
+        <v>13.752543674005786</v>
       </c>
       <c r="H129">
-        <v>58.621889730665515</v>
+        <v>59.184806167952011</v>
       </c>
       <c r="I129" t="s">
         <v>35</v>
@@ -5871,22 +5871,22 @@
         <v>8843344</v>
       </c>
       <c r="C130">
-        <v>10197516896.095173</v>
+        <v>10253072831.495449</v>
       </c>
       <c r="D130">
-        <v>145901170.45147043</v>
+        <v>145908994.52369076</v>
       </c>
       <c r="E130">
-        <v>625719258.70912504</v>
+        <v>624738882.10554659</v>
       </c>
       <c r="F130">
-        <v>1153.1290534547986</v>
+        <v>1159.4112850857605</v>
       </c>
       <c r="G130">
-        <v>16.498416261028684</v>
+        <v>16.499301002391263</v>
       </c>
       <c r="H130">
-        <v>70.755955971985827</v>
+        <v>70.645095577594475</v>
       </c>
       <c r="I130" t="s">
         <v>35</v>
@@ -5912,22 +5912,22 @@
         <v>3681044</v>
       </c>
       <c r="C131">
-        <v>3611936770.2961836</v>
+        <v>3608903651.9201488</v>
       </c>
       <c r="D131">
-        <v>50061821.417567477</v>
+        <v>50322025.326986015</v>
       </c>
       <c r="E131">
-        <v>216677053.57827955</v>
+        <v>216791372.76651639</v>
       </c>
       <c r="F131">
-        <v>981.22618754249709</v>
+        <v>980.402204352936</v>
       </c>
       <c r="G131">
-        <v>13.599897588175386</v>
+        <v>13.670585118511491</v>
       </c>
       <c r="H131">
-        <v>58.862934965808492</v>
+        <v>58.893991152106956</v>
       </c>
       <c r="I131" t="s">
         <v>35</v>
@@ -5953,22 +5953,22 @@
         <v>4626240</v>
       </c>
       <c r="C132">
-        <v>1579988170.023777</v>
+        <v>1588691907.7405639</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>1140736857.5227485</v>
+        <v>1169262070.7938752</v>
       </c>
       <c r="F132">
-        <v>341.52749749770373</v>
+        <v>343.40888231924066</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132">
-        <v>246.57969701588081</v>
+        <v>252.7456575521104</v>
       </c>
       <c r="I132" t="s">
         <v>18</v>
@@ -5994,22 +5994,22 @@
         <v>6322841</v>
       </c>
       <c r="C133">
-        <v>2088111521.2253425</v>
+        <v>2041276723.2861705</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>1483122731.2779198</v>
+        <v>1522506621.8054323</v>
       </c>
       <c r="F133">
-        <v>330.24893734087931</v>
+        <v>322.84169778841039</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133">
-        <v>234.56587494101461</v>
+        <v>240.7947031730566</v>
       </c>
       <c r="I133" t="s">
         <v>18</v>
@@ -6035,22 +6035,22 @@
         <v>9036684</v>
       </c>
       <c r="C134">
-        <v>6646516381.6367569</v>
+        <v>6688380341.3991356</v>
       </c>
       <c r="D134">
-        <v>51020408.825846113</v>
+        <v>52092496.793379083</v>
       </c>
       <c r="E134">
-        <v>2623364449.602036</v>
+        <v>2641223523.7798705</v>
       </c>
       <c r="F134">
-        <v>735.50390625994635</v>
+        <v>740.13657458854766</v>
       </c>
       <c r="G134">
-        <v>5.64592153779485</v>
+        <v>5.7645588573617363</v>
       </c>
       <c r="H134">
-        <v>290.301669240845</v>
+        <v>292.27795547347574</v>
       </c>
       <c r="I134" t="s">
         <v>36</v>
@@ -6076,22 +6076,22 @@
         <v>916991</v>
       </c>
       <c r="C135">
-        <v>870909366.89092886</v>
+        <v>870570812.82779789</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>650374731.14820933</v>
+        <v>634129010.67389727</v>
       </c>
       <c r="F135">
-        <v>949.74690797502797</v>
+        <v>949.37770689984734</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135">
-        <v>709.24876159985138</v>
+        <v>691.53242580777487</v>
       </c>
       <c r="I135" t="s">
         <v>36</v>
@@ -6117,22 +6117,22 @@
         <v>317344</v>
       </c>
       <c r="C136">
-        <v>276663634.33217472</v>
+        <v>276322154.87090343</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>200391304.01244336</v>
+        <v>199738584.53515029</v>
       </c>
       <c r="F136">
-        <v>871.8098792861208</v>
+        <v>870.73382471672198</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136">
-        <v>631.46397604001766</v>
+        <v>629.40715606770664</v>
       </c>
       <c r="I136" t="s">
         <v>36</v>
@@ -6158,22 +6158,22 @@
         <v>4850745</v>
       </c>
       <c r="C137">
-        <v>3447481246.6831174</v>
+        <v>3457147380.2630129</v>
       </c>
       <c r="D137">
-        <v>51840038.463589817</v>
+        <v>51972377.420230597</v>
       </c>
       <c r="E137">
-        <v>222232611.11348972</v>
+        <v>223033053.96420807</v>
       </c>
       <c r="F137">
-        <v>710.71170442542689</v>
+        <v>712.7044155615298</v>
       </c>
       <c r="G137">
-        <v>10.68702610910073</v>
+        <v>10.714308301143555</v>
       </c>
       <c r="H137">
-        <v>45.814119504012211</v>
+        <v>45.979133919471764</v>
       </c>
       <c r="I137" t="s">
         <v>36</v>
@@ -6199,22 +6199,22 @@
         <v>3399679</v>
       </c>
       <c r="C138">
-        <v>1845971133.0616288</v>
+        <v>1823457462.2112734</v>
       </c>
       <c r="D138">
-        <v>28720586.703925133</v>
+        <v>28256496.945237197</v>
       </c>
       <c r="E138">
-        <v>123105366.6683027</v>
+        <v>120243893.79100932</v>
       </c>
       <c r="F138">
-        <v>542.98395026754849</v>
+        <v>536.36165714800529</v>
       </c>
       <c r="G138">
-        <v>8.448028976831381</v>
+        <v>8.3115191008436966</v>
       </c>
       <c r="H138">
-        <v>36.210879517831742</v>
+        <v>35.369190382682987</v>
       </c>
       <c r="I138" t="s">
         <v>36</v>
@@ -6281,22 +6281,22 @@
         <v>3198891</v>
       </c>
       <c r="C140">
-        <v>3568400725.7632461</v>
+        <v>3583118468.4754086</v>
       </c>
       <c r="D140">
-        <v>45822979.983305141</v>
+        <v>46002286.882238977</v>
       </c>
       <c r="E140">
-        <v>196432463.74650314</v>
+        <v>197299038.86421964</v>
       </c>
       <c r="F140">
-        <v>1115.5118213666067</v>
+        <v>1120.1127104597838</v>
       </c>
       <c r="G140">
-        <v>14.324645629783928</v>
+        <v>14.380698461510248</v>
       </c>
       <c r="H140">
-        <v>61.40642608532243</v>
+        <v>61.677324692907519</v>
       </c>
       <c r="I140" t="s">
         <v>16</v>
@@ -6322,22 +6322,22 @@
         <v>3734928</v>
       </c>
       <c r="C141">
-        <v>5313970398.8132744</v>
+        <v>5258962303.596056</v>
       </c>
       <c r="D141">
-        <v>82132135.086909756</v>
+        <v>81355186.985581666</v>
       </c>
       <c r="E141">
-        <v>353278865.69681585</v>
+        <v>349096964.56918395</v>
       </c>
       <c r="F141">
-        <v>1422.7771991356392</v>
+        <v>1408.049178885391</v>
       </c>
       <c r="G141">
-        <v>21.990286047524812</v>
+        <v>21.782263804170164</v>
       </c>
       <c r="H141">
-        <v>94.587865066425877</v>
+        <v>93.46819123934489</v>
       </c>
       <c r="I141" t="s">
         <v>16</v>
@@ -6363,22 +6363,22 @@
         <v>2487210</v>
       </c>
       <c r="C142">
-        <v>2955624092.0183134</v>
+        <v>2949752149.823925</v>
       </c>
       <c r="D142">
-        <v>45206737.561211735</v>
+        <v>44784959.170834459</v>
       </c>
       <c r="E142">
-        <v>194751903.67463404</v>
+        <v>192057433.37750667</v>
       </c>
       <c r="F142">
-        <v>1188.3291286293934</v>
+        <v>1185.9682736173966</v>
       </c>
       <c r="G142">
-        <v>18.17568181263815</v>
+        <v>18.006102890722723</v>
       </c>
       <c r="H142">
-        <v>78.301351182503296</v>
+        <v>77.21802074513478</v>
       </c>
       <c r="I142" t="s">
         <v>37</v>
@@ -6404,22 +6404,22 @@
         <v>14438617</v>
       </c>
       <c r="C143">
-        <v>13505307532.861904</v>
+        <v>13505380894.739704</v>
       </c>
       <c r="D143">
-        <v>209762144.26547191</v>
+        <v>210358120.79896903</v>
       </c>
       <c r="E143">
-        <v>903299642.62043047</v>
+        <v>903621652.29954994</v>
       </c>
       <c r="F143">
-        <v>935.36018947395758</v>
+        <v>935.3652704230401</v>
       </c>
       <c r="G143">
-        <v>14.527855698746764</v>
+        <v>14.569132265158709</v>
       </c>
       <c r="H143">
-        <v>62.561368766858379</v>
+        <v>62.583670742118166</v>
       </c>
       <c r="I143" t="s">
         <v>37</v>
@@ -6445,22 +6445,22 @@
         <v>3826403</v>
       </c>
       <c r="C144">
-        <v>1544397951.4584949</v>
+        <v>2174832168.4010439</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>787196025.23764789</v>
+        <v>242697652.06759694</v>
       </c>
       <c r="F144">
-        <v>403.61612497651055</v>
+        <v>568.37509493930565</v>
       </c>
       <c r="G144">
         <v>0</v>
       </c>
       <c r="H144">
-        <v>205.72742213448188</v>
+        <v>63.427101658554243</v>
       </c>
       <c r="I144" t="s">
         <v>37</v>
@@ -6486,22 +6486,22 @@
         <v>3857821</v>
       </c>
       <c r="C145">
-        <v>3835853212.4362192</v>
+        <v>3797850022.0806332</v>
       </c>
       <c r="D145">
-        <v>58305505.57870958</v>
+        <v>57988488.839272216</v>
       </c>
       <c r="E145">
-        <v>249976985.37320998</v>
+        <v>248599402.04092801</v>
       </c>
       <c r="F145">
-        <v>994.30564881994769</v>
+        <v>984.45470178129915</v>
       </c>
       <c r="G145">
-        <v>15.113584994925784</v>
+        <v>15.03140991748249</v>
       </c>
       <c r="H145">
-        <v>64.797455707045501</v>
+        <v>64.440367254190392</v>
       </c>
       <c r="I145" t="s">
         <v>37</v>
@@ -6527,22 +6527,22 @@
         <v>15093419</v>
       </c>
       <c r="C146">
-        <v>7658835309.4934082</v>
+        <v>7595011681.9142971</v>
       </c>
       <c r="D146">
-        <v>31652896.541375645</v>
+        <v>31637656.52482298</v>
       </c>
       <c r="E146">
-        <v>2927374188.1014414</v>
+        <v>2903017447.1379914</v>
       </c>
       <c r="F146">
-        <v>507.42878797000259</v>
+        <v>503.20021473691924</v>
       </c>
       <c r="G146">
-        <v>2.0971323025866866</v>
+        <v>2.0961225899064342</v>
       </c>
       <c r="H146">
-        <v>193.95036923717822</v>
+        <v>192.33663672478659</v>
       </c>
       <c r="I146" t="s">
         <v>15</v>
@@ -6568,22 +6568,22 @@
         <v>7629351</v>
       </c>
       <c r="C147">
-        <v>11386118363.251257</v>
+        <v>11430216344.533718</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>1900278842.216208</v>
+        <v>1953761985.6181936</v>
       </c>
       <c r="F147">
-        <v>1492.409821392574</v>
+        <v>1498.1898649745854</v>
       </c>
       <c r="G147">
         <v>0</v>
       </c>
       <c r="H147">
-        <v>249.07476955984959</v>
+        <v>256.08495213002965</v>
       </c>
       <c r="I147" t="s">
         <v>15</v>
@@ -6615,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="E148">
-        <v>89456940.370905742</v>
+        <v>89390470.717303202</v>
       </c>
       <c r="F148">
         <v>349.17065244275943</v>
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>227.54242814568133</v>
+        <v>227.37335611710517</v>
       </c>
       <c r="I148" t="s">
         <v>38</v>
@@ -6650,22 +6650,22 @@
         <v>6581975</v>
       </c>
       <c r="C149">
-        <v>8970594325.5737419</v>
+        <v>8992237724.8386898</v>
       </c>
       <c r="D149">
-        <v>79698258.048410818</v>
+        <v>79910500.199011952</v>
       </c>
       <c r="E149">
-        <v>342869286.82277215</v>
+        <v>342490775.74143028</v>
       </c>
       <c r="F149">
-        <v>1362.9031294670281</v>
+        <v>1366.1914128872702</v>
       </c>
       <c r="G149">
-        <v>12.108562862729016</v>
+        <v>12.140808830026238</v>
       </c>
       <c r="H149">
-        <v>52.092158785588239</v>
+        <v>52.034651566046705</v>
       </c>
       <c r="I149" t="s">
         <v>38</v>
@@ -6691,22 +6691,22 @@
         <v>261201</v>
       </c>
       <c r="C150">
-        <v>214118113.39346096</v>
+        <v>212694949.09269202</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>151734707.90450972</v>
+        <v>153176855.50242001</v>
       </c>
       <c r="F150">
-        <v>819.74461580721731</v>
+        <v>814.29607502533304</v>
       </c>
       <c r="G150">
         <v>0</v>
       </c>
       <c r="H150">
-        <v>580.91166536311016</v>
+        <v>586.43288311461288</v>
       </c>
       <c r="I150" t="s">
         <v>38</v>
@@ -6732,22 +6732,22 @@
         <v>14072154</v>
       </c>
       <c r="C151">
-        <v>20551407487.275375</v>
+        <v>20403188045.854328</v>
       </c>
       <c r="D151">
-        <v>315711906.59226835</v>
+        <v>315015344.88159156</v>
       </c>
       <c r="E151">
-        <v>1351393411.3566756</v>
+        <v>1350383062.3344352</v>
       </c>
       <c r="F151">
-        <v>1460.4308258192295</v>
+        <v>1449.8980075015047</v>
       </c>
       <c r="G151">
-        <v>22.435222538942394</v>
+        <v>22.385723243335139</v>
       </c>
       <c r="H151">
-        <v>96.033159625504069</v>
+        <v>95.961361873557891</v>
       </c>
       <c r="I151" t="s">
         <v>39</v>
@@ -6773,22 +6773,22 @@
         <v>543145</v>
       </c>
       <c r="C152">
-        <v>558130790.58362651</v>
+        <v>548708318.19965696</v>
       </c>
       <c r="D152">
         <v>0</v>
       </c>
       <c r="E152">
-        <v>385666086.65994072</v>
+        <v>397716640.98260623</v>
       </c>
       <c r="F152">
-        <v>1027.5907733360825</v>
+        <v>1010.2427863639672</v>
       </c>
       <c r="G152">
         <v>0</v>
       </c>
       <c r="H152">
-        <v>710.06100886492686</v>
+        <v>732.24763365695389</v>
       </c>
       <c r="I152" t="s">
         <v>39</v>
@@ -6814,22 +6814,22 @@
         <v>7296430</v>
       </c>
       <c r="C153">
-        <v>7083482244.429451</v>
+        <v>7009516976.04704</v>
       </c>
       <c r="D153">
-        <v>108542242.02850187</v>
+        <v>106417240.91529854</v>
       </c>
       <c r="E153">
-        <v>467449361.17937648</v>
+        <v>459302921.39833093</v>
       </c>
       <c r="F153">
-        <v>970.81480181807422</v>
+        <v>960.67761577196518</v>
       </c>
       <c r="G153">
-        <v>14.876075290039358</v>
+        <v>14.58483681955402</v>
       </c>
       <c r="H153">
-        <v>64.065489722970895</v>
+        <v>62.948993055279217</v>
       </c>
       <c r="I153" t="s">
         <v>39</v>
@@ -6855,22 +6855,22 @@
         <v>11269955</v>
       </c>
       <c r="C154">
-        <v>2829533860.5631752</v>
+        <v>2829600958.5306625</v>
       </c>
       <c r="D154">
-        <v>42637863.654548608</v>
+        <v>42698978.565242842</v>
       </c>
       <c r="E154">
-        <v>181714615.72439656</v>
+        <v>181549514.09200066</v>
       </c>
       <c r="F154">
-        <v>251.06878071502283</v>
+        <v>251.074734418253</v>
       </c>
       <c r="G154">
-        <v>3.7833215531515969</v>
+        <v>3.7887443707843413</v>
       </c>
       <c r="H154">
-        <v>16.123810230333355</v>
+        <v>16.109160515015425</v>
       </c>
       <c r="I154" t="s">
         <v>39</v>
@@ -6896,22 +6896,22 @@
         <v>5367819</v>
       </c>
       <c r="C155">
-        <v>9348202763.3093739</v>
+        <v>9347464291.1583023</v>
       </c>
       <c r="D155">
-        <v>143444262.69332427</v>
+        <v>141980486.71070522</v>
       </c>
       <c r="E155">
-        <v>614870067.64783013</v>
+        <v>609546897.97908318</v>
       </c>
       <c r="F155">
-        <v>1741.5271944358358</v>
+        <v>1741.3896204693754</v>
       </c>
       <c r="G155">
-        <v>26.723006623979732</v>
+        <v>26.450311888442069</v>
       </c>
       <c r="H155">
-        <v>114.54746660567916</v>
+        <v>113.55578457080672</v>
       </c>
       <c r="I155" t="s">
         <v>39</v>
@@ -6937,22 +6937,22 @@
         <v>9846148</v>
       </c>
       <c r="C156">
-        <v>9708925275.9552498</v>
+        <v>9724115675.744381</v>
       </c>
       <c r="D156">
-        <v>148967416.21207643</v>
+        <v>149116437.73784524</v>
       </c>
       <c r="E156">
-        <v>637314248.40069544</v>
+        <v>638896702.81496656</v>
       </c>
       <c r="F156">
-        <v>986.06330881429471</v>
+        <v>987.60608470890145</v>
       </c>
       <c r="G156">
-        <v>15.129512192186876</v>
+        <v>15.144647199884183</v>
       </c>
       <c r="H156">
-        <v>64.727266785010286</v>
+        <v>64.887984906886075</v>
       </c>
       <c r="I156" t="s">
         <v>39</v>
@@ -6978,22 +6978,22 @@
         <v>5178344</v>
       </c>
       <c r="C157">
-        <v>2990748740.1371031</v>
+        <v>3014580253.3277965</v>
       </c>
       <c r="D157">
-        <v>41499346.295403466</v>
+        <v>41665339.886513531</v>
       </c>
       <c r="E157">
-        <v>177711718.65963149</v>
+        <v>178899129.30511028</v>
       </c>
       <c r="F157">
-        <v>577.54925901738147</v>
+        <v>582.15140850584601</v>
       </c>
       <c r="G157">
-        <v>8.0140188244356629</v>
+        <v>8.0460741670529288</v>
       </c>
       <c r="H157">
-        <v>34.31825283519818</v>
+        <v>34.547555995721851</v>
       </c>
       <c r="I157" t="s">
         <v>40</v>
@@ -7019,22 +7019,22 @@
         <v>3896653</v>
       </c>
       <c r="C158">
-        <v>1307725714.6205001</v>
+        <v>1329409258.7169328</v>
       </c>
       <c r="D158">
         <v>0</v>
       </c>
       <c r="E158">
-        <v>933730086.50307655</v>
+        <v>912927601.97925615</v>
       </c>
       <c r="F158">
-        <v>335.60230141624106</v>
+        <v>341.16696013654098</v>
       </c>
       <c r="G158">
         <v>0</v>
       </c>
       <c r="H158">
-        <v>239.62361711527214</v>
+        <v>234.28506515187678</v>
       </c>
       <c r="I158" t="s">
         <v>40</v>
@@ -7060,22 +7060,22 @@
         <v>419820</v>
       </c>
       <c r="C159">
-        <v>128970205.23181148</v>
+        <v>129217512.70394506</v>
       </c>
       <c r="D159">
         <v>0</v>
       </c>
       <c r="E159">
-        <v>94512545.323878288</v>
+        <v>93484344.449925244</v>
       </c>
       <c r="F159">
-        <v>307.20357589398191</v>
+        <v>307.7926556713474</v>
       </c>
       <c r="G159">
         <v>0</v>
       </c>
       <c r="H159">
-        <v>225.12635254127551</v>
+        <v>222.67720558793113</v>
       </c>
       <c r="I159" t="s">
         <v>40</v>
@@ -7101,22 +7101,22 @@
         <v>4404857</v>
       </c>
       <c r="C160">
-        <v>1623693753.6508517</v>
+        <v>2208130162.9623322</v>
       </c>
       <c r="D160">
         <v>0</v>
       </c>
       <c r="E160">
-        <v>875089098.55540061</v>
+        <v>292475506.98116887</v>
       </c>
       <c r="F160">
-        <v>368.61440760752316</v>
+        <v>501.29440364632319</v>
       </c>
       <c r="G160">
         <v>0</v>
       </c>
       <c r="H160">
-        <v>198.66458742143061</v>
+        <v>66.398411340292967</v>
       </c>
       <c r="I160" t="s">
         <v>40</v>
@@ -7142,22 +7142,22 @@
         <v>1376677</v>
       </c>
       <c r="C161">
-        <v>807203422.96792293</v>
+        <v>922940938.6833874</v>
       </c>
       <c r="D161">
         <v>0</v>
       </c>
       <c r="E161">
-        <v>120128497.22856466</v>
+        <v>675007.7463319737</v>
       </c>
       <c r="F161">
-        <v>586.34191096961956</v>
+        <v>670.41211459433646</v>
       </c>
       <c r="G161">
         <v>0</v>
       </c>
       <c r="H161">
-        <v>87.259754632760377</v>
+        <v>0.49031671650791991</v>
       </c>
       <c r="I161" t="s">
         <v>40</v>
@@ -7183,22 +7183,22 @@
         <v>5140970</v>
       </c>
       <c r="C162">
-        <v>2369115908.5889072</v>
+        <v>3260678579.0339851</v>
       </c>
       <c r="D162">
         <v>0</v>
       </c>
       <c r="E162">
-        <v>1385799728.7767115</v>
+        <v>454167590.74289078</v>
       </c>
       <c r="F162">
-        <v>460.83052587136422</v>
+        <v>634.2535706362778</v>
       </c>
       <c r="G162">
         <v>0</v>
       </c>
       <c r="H162">
-        <v>269.55997190738549</v>
+        <v>88.34278175964667</v>
       </c>
       <c r="I162" t="s">
         <v>41</v>
@@ -7227,19 +7227,19 @@
         <v>582991033.01725554</v>
       </c>
       <c r="D163">
-        <v>3078041.0523314844</v>
+        <v>3025283.0742176273</v>
       </c>
       <c r="E163">
-        <v>136270111.90236837</v>
+        <v>135769470.5239346</v>
       </c>
       <c r="F163">
         <v>118.99425104361514</v>
       </c>
       <c r="G163">
-        <v>0.62825870203880996</v>
+        <v>0.61749027553361524</v>
       </c>
       <c r="H163">
-        <v>27.81408115581085</v>
+        <v>27.711895285884431</v>
       </c>
       <c r="I163" t="s">
         <v>41</v>
@@ -7265,22 +7265,22 @@
         <v>214384</v>
       </c>
       <c r="C164">
-        <v>217051506.41513944</v>
+        <v>215782616.74869668</v>
       </c>
       <c r="D164">
-        <v>3273645.645079039</v>
+        <v>3324063.2279702933</v>
       </c>
       <c r="E164">
-        <v>13978929.083825801</v>
+        <v>14169395.736637043</v>
       </c>
       <c r="F164">
-        <v>1012.4426562389891</v>
+        <v>1006.5238858715981</v>
       </c>
       <c r="G164">
-        <v>15.270009166164634</v>
+        <v>15.505183353096749</v>
       </c>
       <c r="H164">
-        <v>65.205094987619418</v>
+        <v>66.093531871021355</v>
       </c>
       <c r="I164" t="s">
         <v>27</v>
@@ -7388,22 +7388,22 @@
         <v>17815891</v>
       </c>
       <c r="C167">
-        <v>9700175438.1564388</v>
+        <v>9756011041.406723</v>
       </c>
       <c r="D167">
-        <v>139819059.68493178</v>
+        <v>139069767.04370967</v>
       </c>
       <c r="E167">
-        <v>599771604.56902766</v>
+        <v>597316059.09623194</v>
       </c>
       <c r="F167">
-        <v>544.4676013204413</v>
+        <v>547.6016350463035</v>
       </c>
       <c r="G167">
-        <v>7.8479970316910777</v>
+        <v>7.8059394864792147</v>
       </c>
       <c r="H167">
-        <v>33.664979459575029</v>
+        <v>33.527150513899748</v>
       </c>
       <c r="I167" t="s">
         <v>9</v>
@@ -7429,22 +7429,22 @@
         <v>7047532</v>
       </c>
       <c r="C168">
-        <v>7162240883.074482</v>
+        <v>7199555374.4784679</v>
       </c>
       <c r="D168">
-        <v>104420103.58523643</v>
+        <v>105752534.46637276</v>
       </c>
       <c r="E168">
-        <v>446950308.32501483</v>
+        <v>452563566.77457291</v>
       </c>
       <c r="F168">
-        <v>1016.2764614725385</v>
+        <v>1021.5711506494001</v>
       </c>
       <c r="G168">
-        <v>14.816549053659697</v>
+        <v>15.005612527388703</v>
       </c>
       <c r="H168">
-        <v>63.419408145293254</v>
+        <v>64.215893844053909</v>
       </c>
       <c r="I168" t="s">
         <v>39</v>
@@ -7470,22 +7470,22 @@
         <v>6223129</v>
       </c>
       <c r="C169">
-        <v>2111184989.9584591</v>
+        <v>2067715861.843961</v>
       </c>
       <c r="D169">
         <v>0</v>
       </c>
       <c r="E169">
-        <v>1472410487.3909984</v>
+        <v>1490156137.0368662</v>
       </c>
       <c r="F169">
-        <v>339.24814831228133</v>
+        <v>332.26305638915102</v>
       </c>
       <c r="G169">
         <v>0</v>
       </c>
       <c r="H169">
-        <v>236.6029191088596</v>
+        <v>239.4544829517219</v>
       </c>
       <c r="I169" t="s">
         <v>42</v>
@@ -7514,19 +7514,19 @@
         <v>1251836892.006438</v>
       </c>
       <c r="D170">
-        <v>17279786.488808662</v>
+        <v>17115220.208706472</v>
       </c>
       <c r="E170">
-        <v>74539357.726241201</v>
+        <v>72634162.679793298</v>
       </c>
       <c r="F170">
         <v>587.9398814228299</v>
       </c>
       <c r="G170">
-        <v>8.1156544307928371</v>
+        <v>8.0383639468429671</v>
       </c>
       <c r="H170">
-        <v>35.008283765034435</v>
+        <v>34.113486561941478</v>
       </c>
       <c r="I170" t="s">
         <v>23</v>
@@ -7552,22 +7552,22 @@
         <v>4998069</v>
       </c>
       <c r="C171">
-        <v>1456885039.0035744</v>
+        <v>1442718159.4130738</v>
       </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="E171">
-        <v>1064007243.9991577</v>
+        <v>1042028868.4171464</v>
       </c>
       <c r="F171">
-        <v>291.48958107692681</v>
+        <v>288.65511048628457</v>
       </c>
       <c r="G171">
         <v>0</v>
       </c>
       <c r="H171">
-        <v>212.88366447105025</v>
+        <v>208.48629108904788</v>
       </c>
       <c r="I171" t="s">
         <v>23</v>
@@ -7593,22 +7593,22 @@
         <v>4031692</v>
       </c>
       <c r="C172">
-        <v>4602897011.9359303</v>
+        <v>4634004953.5924835</v>
       </c>
       <c r="D172">
-        <v>147989736.40844414</v>
+        <v>149050770.54815155</v>
       </c>
       <c r="E172">
-        <v>638890493.62783909</v>
+        <v>640142599.26362658</v>
       </c>
       <c r="F172">
-        <v>1141.6787323872782</v>
+        <v>1149.3945851003707</v>
       </c>
       <c r="G172">
-        <v>36.706607649702441</v>
+        <v>36.969781061686149</v>
       </c>
       <c r="H172">
-        <v>158.46708866347902</v>
+        <v>158.77765445962305</v>
       </c>
       <c r="I172" t="s">
         <v>26</v>
@@ -7634,22 +7634,22 @@
         <v>5936999</v>
       </c>
       <c r="C173">
-        <v>5658610361.2062941</v>
+        <v>5698876228.3944111</v>
       </c>
       <c r="D173">
-        <v>87182031.750195295</v>
+        <v>86445473.291568875</v>
       </c>
       <c r="E173">
-        <v>374013671.17975962</v>
+        <v>371316889.3143307</v>
       </c>
       <c r="F173">
-        <v>953.10953584568472</v>
+        <v>959.89172785685344</v>
       </c>
       <c r="G173">
-        <v>14.684528622995439</v>
+        <v>14.560466203812545</v>
       </c>
       <c r="H173">
-        <v>62.997091826991991</v>
+        <v>62.542858658782102</v>
       </c>
       <c r="I173" t="s">
         <v>35</v>
@@ -7675,22 +7675,22 @@
         <v>8020477</v>
       </c>
       <c r="C174">
-        <v>2283425106.3115201</v>
+        <v>2569270360.5455284</v>
       </c>
       <c r="D174">
-        <v>22446543.956877299</v>
+        <v>22507046.770777237</v>
       </c>
       <c r="E174">
-        <v>376157393.23859161</v>
+        <v>96607780.76871255</v>
       </c>
       <c r="F174">
-        <v>284.69941454997252</v>
+        <v>320.33884774503167</v>
       </c>
       <c r="G174">
-        <v>2.7986544886142433</v>
+        <v>2.8061980317102382</v>
       </c>
       <c r="H174">
-        <v>46.899628692731319</v>
+        <v>12.045141550647493</v>
       </c>
       <c r="I174" t="s">
         <v>19</v>
@@ -7716,22 +7716,22 @@
         <v>8834166</v>
       </c>
       <c r="C175">
-        <v>4283920653.7798357</v>
+        <v>4294829524.8679657</v>
       </c>
       <c r="D175">
-        <v>70799241.043115571</v>
+        <v>71138289.813285887</v>
       </c>
       <c r="E175">
-        <v>294355289.58929598</v>
+        <v>292962101.01310241</v>
       </c>
       <c r="F175">
-        <v>484.92643830553283</v>
+        <v>486.16128844171209</v>
       </c>
       <c r="G175">
-        <v>8.0142529632243242</v>
+        <v>8.0526322250777138</v>
       </c>
       <c r="H175">
-        <v>33.320099439980638</v>
+        <v>33.162394844414564</v>
       </c>
       <c r="I175" t="s">
         <v>34</v>
@@ -7757,22 +7757,22 @@
         <v>3440952</v>
       </c>
       <c r="C176">
-        <v>2899252845.7013183</v>
+        <v>2923114710.9313631</v>
       </c>
       <c r="D176">
-        <v>93272311.456148058</v>
+        <v>94029285.025082737</v>
       </c>
       <c r="E176">
-        <v>401526564.10038662</v>
+        <v>404683458.58726507</v>
       </c>
       <c r="F176">
-        <v>842.57288265030093</v>
+        <v>849.50755225047112</v>
       </c>
       <c r="G176">
-        <v>27.106542449923179</v>
+        <v>27.326532025172899</v>
       </c>
       <c r="H176">
-        <v>116.69054497138775</v>
+        <v>117.60799295871173</v>
       </c>
       <c r="I176" t="s">
         <v>35</v>
@@ -7798,22 +7798,22 @@
         <v>5568642</v>
       </c>
       <c r="C177">
-        <v>6300975276.6332188</v>
+        <v>7428752210.5450516</v>
       </c>
       <c r="D177">
-        <v>145817561.57404462</v>
+        <v>145513150.1064226</v>
       </c>
       <c r="E177">
-        <v>1766957609.4836843</v>
+        <v>632023132.03606594</v>
       </c>
       <c r="F177">
-        <v>1131.510209604643</v>
+        <v>1334.0330031172864</v>
       </c>
       <c r="G177">
-        <v>26.185479614966201</v>
+        <v>26.130814318180736</v>
       </c>
       <c r="H177">
-        <v>317.30493888522273</v>
+        <v>113.49681520845942</v>
       </c>
       <c r="I177" t="s">
         <v>26</v>
@@ -7839,22 +7839,22 @@
         <v>4469578</v>
       </c>
       <c r="C178">
-        <v>3470874303.3795838</v>
+        <v>3473759983.1159987</v>
       </c>
       <c r="D178">
-        <v>54050002.016451314</v>
+        <v>54384557.4958148</v>
       </c>
       <c r="E178">
-        <v>231949117.91373134</v>
+        <v>232845384.48153806</v>
       </c>
       <c r="F178">
-        <v>776.55525944050737</v>
+        <v>777.20088632886564</v>
       </c>
       <c r="G178">
-        <v>12.092864699184423</v>
+        <v>12.167716391975887</v>
       </c>
       <c r="H178">
-        <v>51.8950822457358</v>
+        <v>52.095608238974251</v>
       </c>
       <c r="I178" t="s">
         <v>22</v>
@@ -7880,22 +7880,22 @@
         <v>5464804</v>
       </c>
       <c r="C179">
-        <v>2062214178.4115081</v>
+        <v>2060489506.8028412</v>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179">
-        <v>1462407978.427191</v>
+        <v>1446994425.4414687</v>
       </c>
       <c r="F179">
-        <v>377.36288042746054</v>
+        <v>377.04728418491152</v>
       </c>
       <c r="G179">
         <v>0</v>
       </c>
       <c r="H179">
-        <v>267.60483604301106</v>
+        <v>264.78432262922308</v>
       </c>
       <c r="I179" t="s">
         <v>10</v>
@@ -7921,7 +7921,7 @@
         <v>245854</v>
       </c>
       <c r="C180">
-        <v>346321588.52108741</v>
+        <v>345482954.32865733</v>
       </c>
       <c r="D180">
         <v>11118003.778031109</v>
@@ -7930,7 +7930,7 @@
         <v>47446865.31960398</v>
       </c>
       <c r="F180">
-        <v>1408.6473619346743</v>
+        <v>1405.2362553737476</v>
       </c>
       <c r="G180">
         <v>45.221976368214911</v>
@@ -7968,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="E181">
-        <v>335638774.26340401</v>
+        <v>334240279.3706398</v>
       </c>
       <c r="F181">
         <v>392.79323189810395</v>
@@ -7977,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <v>278.547185938979</v>
+        <v>277.38657266423326</v>
       </c>
       <c r="I181" t="s">
         <v>13</v>
@@ -8003,22 +8003,22 @@
         <v>9406012</v>
       </c>
       <c r="C182">
-        <v>4888271906.5023127</v>
+        <v>4910968144.2720127</v>
       </c>
       <c r="D182">
-        <v>62523136.001839451</v>
+        <v>63044105.990322731</v>
       </c>
       <c r="E182">
-        <v>267155128.75342646</v>
+        <v>268629331.17356604</v>
       </c>
       <c r="F182">
-        <v>519.69654158450066</v>
+        <v>522.10949170296749</v>
       </c>
       <c r="G182">
-        <v>6.6471461020716802</v>
+        <v>6.702533017215238</v>
       </c>
       <c r="H182">
-        <v>28.402592804838701</v>
+        <v>28.55932260915317</v>
       </c>
       <c r="I182" t="s">
         <v>30</v>
@@ -8044,22 +8044,22 @@
         <v>11346108</v>
       </c>
       <c r="C183">
-        <v>7540831743.4102516</v>
+        <v>7497809329.0900927</v>
       </c>
       <c r="D183">
-        <v>102929187.0436556</v>
+        <v>101606083.34344053</v>
       </c>
       <c r="E183">
-        <v>437807120.18211889</v>
+        <v>434010148.09993041</v>
       </c>
       <c r="F183">
-        <v>664.61836458900723</v>
+        <v>660.82654325959993</v>
       </c>
       <c r="G183">
-        <v>9.0717616158470911</v>
+        <v>8.9551486151410273</v>
       </c>
       <c r="H183">
-        <v>38.586546169146189</v>
+        <v>38.25189643002961</v>
       </c>
       <c r="I183" t="s">
         <v>13</v>
@@ -8085,22 +8085,22 @@
         <v>8278514</v>
       </c>
       <c r="C184">
-        <v>7956671982.2333307</v>
+        <v>7997950463.1040106</v>
       </c>
       <c r="D184">
-        <v>41547951.063256145</v>
+        <v>41794905.591737941</v>
       </c>
       <c r="E184">
-        <v>179312737.59852499</v>
+        <v>179662334.7770558</v>
       </c>
       <c r="F184">
-        <v>961.12321392865078</v>
+        <v>966.10943257497786</v>
       </c>
       <c r="G184">
-        <v>5.0187691973772282</v>
+        <v>5.0485999772106371</v>
       </c>
       <c r="H184">
-        <v>21.660015021841478</v>
+        <v>21.702244482168634</v>
       </c>
       <c r="I184" t="s">
         <v>26</v>
@@ -8126,22 +8126,22 @@
         <v>2439887</v>
       </c>
       <c r="C185">
-        <v>1169709892.709271</v>
+        <v>1172259275.9985397</v>
       </c>
       <c r="D185">
-        <v>17619282.228705831</v>
+        <v>18127482.143637598</v>
       </c>
       <c r="E185">
-        <v>75871077.872237861</v>
+        <v>77849138.125233799</v>
       </c>
       <c r="F185">
-        <v>479.41150254469613</v>
+        <v>480.45638015143311</v>
       </c>
       <c r="G185">
-        <v>7.2213517383001058</v>
+        <v>7.4296400380991408</v>
       </c>
       <c r="H185">
-        <v>31.096144154314466</v>
+        <v>31.906862131415838</v>
       </c>
       <c r="I185" t="s">
         <v>29</v>
@@ -8249,22 +8249,22 @@
         <v>614883</v>
       </c>
       <c r="C188">
-        <v>354854900.46030778</v>
+        <v>347870666.29755521</v>
       </c>
       <c r="D188">
-        <v>5141705.2723704772</v>
+        <v>4962275.9138906216</v>
       </c>
       <c r="E188">
-        <v>22338205.925250012</v>
+        <v>21365801.327218164</v>
       </c>
       <c r="F188">
-        <v>577.10962973493781</v>
+        <v>565.75099050966639</v>
       </c>
       <c r="G188">
-        <v>8.3620872139422904</v>
+        <v>8.0702766443219627</v>
       </c>
       <c r="H188">
-        <v>36.32919746561543</v>
+        <v>34.747750917195894</v>
       </c>
       <c r="I188" t="s">
         <v>32</v>
@@ -8290,22 +8290,22 @@
         <v>5372955</v>
       </c>
       <c r="C189">
-        <v>4697162074.0369987</v>
+        <v>4679042733.1720657</v>
       </c>
       <c r="D189">
-        <v>72664739.750984684</v>
+        <v>72330377.014130145</v>
       </c>
       <c r="E189">
-        <v>311302684.95612919</v>
+        <v>310153166.08189785</v>
       </c>
       <c r="F189">
-        <v>874.22322986829386</v>
+        <v>870.85090665603298</v>
       </c>
       <c r="G189">
-        <v>13.524166822723192</v>
+        <v>13.461936125303515</v>
       </c>
       <c r="H189">
-        <v>57.938822297251548</v>
+        <v>57.724876921898257</v>
       </c>
       <c r="I189" t="s">
         <v>24</v>
@@ -8372,22 +8372,22 @@
         <v>12160150</v>
       </c>
       <c r="C191">
-        <v>4644304651.6239233</v>
+        <v>5425861173.0847664</v>
       </c>
       <c r="D191">
-        <v>127656640.74362952</v>
+        <v>125793622.83170134</v>
       </c>
       <c r="E191">
-        <v>1409748461.6213965</v>
+        <v>542181836.64318144</v>
       </c>
       <c r="F191">
-        <v>381.92823703851707</v>
+        <v>446.20018446193234</v>
       </c>
       <c r="G191">
-        <v>10.497949510789711</v>
+        <v>10.344742690813957</v>
       </c>
       <c r="H191">
-        <v>115.93183156633731</v>
+        <v>44.586772091066429</v>
       </c>
       <c r="I191" t="s">
         <v>28</v>
@@ -8413,22 +8413,22 @@
         <v>13610817</v>
       </c>
       <c r="C192">
-        <v>13740632471.443375</v>
+        <v>13580546859.408508</v>
       </c>
       <c r="D192">
-        <v>428752302.64749324</v>
+        <v>424879939.54616004</v>
       </c>
       <c r="E192">
-        <v>1833281086.4540613</v>
+        <v>1821611193.4365954</v>
       </c>
       <c r="F192">
-        <v>1009.5376692996001</v>
+        <v>997.77602324742952</v>
       </c>
       <c r="G192">
-        <v>31.500849849608091</v>
+        <v>31.216343555729242</v>
       </c>
       <c r="H192">
-        <v>134.69294947203105</v>
+        <v>133.83555105006522</v>
       </c>
       <c r="I192" t="s">
         <v>36</v>
@@ -8454,22 +8454,22 @@
         <v>5621453</v>
       </c>
       <c r="C193">
-        <v>1778721372.9623704</v>
+        <v>1804134721.6341748</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193">
-        <v>1305110199.8940396</v>
+        <v>1340379987.7375436</v>
       </c>
       <c r="F193">
-        <v>316.41665828432087</v>
+        <v>320.9374376400861</v>
       </c>
       <c r="G193">
         <v>0</v>
       </c>
       <c r="H193">
-        <v>232.16598980620128</v>
+        <v>238.440130645501</v>
       </c>
       <c r="I193" t="s">
         <v>18</v>
@@ -8495,22 +8495,22 @@
         <v>8681175</v>
       </c>
       <c r="C194">
-        <v>3123916472.6491861</v>
+        <v>4096610665.8285875</v>
       </c>
       <c r="D194">
         <v>0</v>
       </c>
       <c r="E194">
-        <v>2000612012.6666377</v>
+        <v>1131844612.671376</v>
       </c>
       <c r="F194">
-        <v>359.84949878895264</v>
+        <v>471.89587421386938</v>
       </c>
       <c r="G194">
         <v>0</v>
       </c>
       <c r="H194">
-        <v>230.45405865757084</v>
+        <v>130.37919552035018</v>
       </c>
       <c r="I194" t="s">
         <v>11</v>
@@ -8536,22 +8536,22 @@
         <v>1498688</v>
       </c>
       <c r="C195">
-        <v>694675083.95785487</v>
+        <v>1066593436.5999063</v>
       </c>
       <c r="D195">
         <v>0</v>
       </c>
       <c r="E195">
-        <v>374055814.43884492</v>
+        <v>2137461.7967934012</v>
       </c>
       <c r="F195">
-        <v>463.52215001244747</v>
+        <v>711.6847780191116</v>
       </c>
       <c r="G195">
         <v>0</v>
       </c>
       <c r="H195">
-        <v>249.58885000670247</v>
+        <v>1.426222000038301</v>
       </c>
       <c r="I195" t="s">
         <v>44</v>
@@ -8577,22 +8577,22 @@
         <v>2563582</v>
       </c>
       <c r="C196">
-        <v>1353124513.1947722</v>
+        <v>2077566560.2590501</v>
       </c>
       <c r="D196">
         <v>0</v>
       </c>
       <c r="E196">
-        <v>728605507.10487723</v>
+        <v>4163460.0405993029</v>
       </c>
       <c r="F196">
-        <v>527.82571932349822</v>
+        <v>810.41548905361719</v>
       </c>
       <c r="G196">
         <v>0</v>
       </c>
       <c r="H196">
-        <v>284.21384886649901</v>
+        <v>1.624079136379996</v>
       </c>
       <c r="I196" t="s">
         <v>41</v>
@@ -8618,7 +8618,7 @@
         <v>2383346</v>
       </c>
       <c r="C197">
-        <v>792342351.16124558</v>
+        <v>768715766.98380733</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -8627,7 +8627,7 @@
         <v>552520518.14613461</v>
       </c>
       <c r="F197">
-        <v>332.44956928672781</v>
+        <v>322.53636986984151</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -8659,22 +8659,22 @@
         <v>14585886</v>
       </c>
       <c r="C198">
-        <v>15039178742.831827</v>
+        <v>14999703606.714529</v>
       </c>
       <c r="D198">
-        <v>236672087.37294072</v>
+        <v>235617209.18276086</v>
       </c>
       <c r="E198">
-        <v>1017495230.6696639</v>
+        <v>1009316250.4606409</v>
       </c>
       <c r="F198">
-        <v>1031.0774911329916</v>
+        <v>1028.3710983833639</v>
       </c>
       <c r="G198">
-        <v>16.2261029170899</v>
+        <v>16.153781071836217</v>
       </c>
       <c r="H198">
-        <v>69.758890935364775</v>
+        <v>69.198144731190197</v>
       </c>
       <c r="I198" t="s">
         <v>24</v>
@@ -8700,22 +8700,22 @@
         <v>93260</v>
       </c>
       <c r="C199">
-        <v>40479479.89006225</v>
+        <v>40260661.987280242</v>
       </c>
       <c r="D199">
         <v>0</v>
       </c>
       <c r="E199">
-        <v>29683900.625269517</v>
+        <v>30098125.076948524</v>
       </c>
       <c r="F199">
-        <v>434.04975219882317</v>
+        <v>431.70343113103411</v>
       </c>
       <c r="G199">
         <v>0</v>
       </c>
       <c r="H199">
-        <v>318.29187888987258</v>
+        <v>322.73348785061683</v>
       </c>
       <c r="I199" t="s">
         <v>22</v>
@@ -8741,22 +8741,22 @@
         <v>2184313</v>
       </c>
       <c r="C200">
-        <v>1429925565.4408379</v>
+        <v>1430368432.9435341</v>
       </c>
       <c r="D200">
-        <v>19508598.629347432</v>
+        <v>19517365.694848087</v>
       </c>
       <c r="E200">
-        <v>82737566.196141303</v>
+        <v>83520450.777971864</v>
       </c>
       <c r="F200">
-        <v>654.63400411975658</v>
+        <v>654.83675322334034</v>
       </c>
       <c r="G200">
-        <v>8.9312285507376608</v>
+        <v>8.9352421996518299</v>
       </c>
       <c r="H200">
-        <v>37.878072508903855</v>
+        <v>38.236484779412045</v>
       </c>
       <c r="I200" t="s">
         <v>15</v>
@@ -8782,22 +8782,22 @@
         <v>2459453</v>
       </c>
       <c r="C201">
-        <v>2737012008.2705708</v>
+        <v>2738609846.7139082</v>
       </c>
       <c r="D201">
-        <v>38345058.659586981</v>
+        <v>38574948.991554201</v>
       </c>
       <c r="E201">
-        <v>169772030.29989058</v>
+        <v>170024080.47289258</v>
       </c>
       <c r="F201">
-        <v>1112.8539591000806</v>
+        <v>1113.5036313822254</v>
       </c>
       <c r="G201">
-        <v>15.590888973925088</v>
+        <v>15.684361112635289</v>
       </c>
       <c r="H201">
-        <v>69.028369438200514</v>
+        <v>69.130851645830433</v>
       </c>
       <c r="I201" t="s">
         <v>24</v>
@@ -8864,22 +8864,22 @@
         <v>6130440</v>
       </c>
       <c r="C203">
-        <v>848639228.16912007</v>
+        <v>855831086.03495991</v>
       </c>
       <c r="D203">
         <v>0</v>
       </c>
       <c r="E203">
-        <v>3394556912.6764803</v>
+        <v>3423324344.1398396</v>
       </c>
       <c r="F203">
-        <v>138.43039458327951</v>
+        <v>139.60353352042591</v>
       </c>
       <c r="G203">
         <v>0</v>
       </c>
       <c r="H203">
-        <v>553.72157833311803</v>
+        <v>558.41413408170365</v>
       </c>
       <c r="I203" t="s">
         <v>15</v>
@@ -8905,22 +8905,22 @@
         <v>9975515</v>
       </c>
       <c r="C204">
-        <v>47378373480.335648</v>
+        <v>46665695498.261902</v>
       </c>
       <c r="D204">
-        <v>672085885.49904168</v>
+        <v>663730248.11126435</v>
       </c>
       <c r="E204">
-        <v>2881950428.7143869</v>
+        <v>2856925600.6179762</v>
       </c>
       <c r="F204">
-        <v>4749.4664165544982</v>
+        <v>4678.0236908331954</v>
       </c>
       <c r="G204">
-        <v>67.373552693674625</v>
+        <v>66.535938055455219</v>
       </c>
       <c r="H204">
-        <v>288.9024204479054</v>
+        <v>286.39379526951501</v>
       </c>
       <c r="I204" t="s">
         <v>15</v>
@@ -8946,22 +8946,22 @@
         <v>4778869</v>
       </c>
       <c r="C205">
-        <v>7788636066.1853542</v>
+        <v>7801556559.7808571</v>
       </c>
       <c r="D205">
-        <v>59296037.287302278</v>
+        <v>59081968.549222052</v>
       </c>
       <c r="E205">
-        <v>885272197.22539234</v>
+        <v>884582704.27076578</v>
       </c>
       <c r="F205">
-        <v>1629.8074013297612</v>
+        <v>1632.5110731808838</v>
       </c>
       <c r="G205">
-        <v>12.407964580594756</v>
+        <v>12.363169726816544</v>
       </c>
       <c r="H205">
-        <v>185.24722004838222</v>
+        <v>185.1029405222796</v>
       </c>
       <c r="I205" t="s">
         <v>15</v>
@@ -8987,22 +8987,22 @@
         <v>7465222</v>
       </c>
       <c r="C206">
-        <v>2440333277.822926</v>
+        <v>2439825113.1425943</v>
       </c>
       <c r="D206">
         <v>0</v>
       </c>
       <c r="E206">
-        <v>1722343389.7526102</v>
+        <v>1749506579.8160038</v>
       </c>
       <c r="F206">
-        <v>326.89359778221279</v>
+        <v>326.82552684201414</v>
       </c>
       <c r="G206">
         <v>0</v>
       </c>
       <c r="H206">
-        <v>230.71562905331015</v>
+        <v>234.35426030411472</v>
       </c>
       <c r="I206" t="s">
         <v>30</v>
@@ -9028,22 +9028,22 @@
         <v>9630419</v>
       </c>
       <c r="C207">
-        <v>6159644301.8362818</v>
+        <v>6164275655.6041651</v>
       </c>
       <c r="D207">
-        <v>62335496.251476958</v>
+        <v>62516014.3472137</v>
       </c>
       <c r="E207">
-        <v>266643212.82570714</v>
+        <v>268126406.32767472</v>
       </c>
       <c r="F207">
-        <v>639.60293958510863</v>
+        <v>640.08384843942565</v>
       </c>
       <c r="G207">
-        <v>6.4727709408569822</v>
+        <v>6.4915155142485181</v>
       </c>
       <c r="H207">
-        <v>27.687602463164598</v>
+        <v>27.8416137789721</v>
       </c>
       <c r="I207" t="s">
         <v>46</v>
@@ -9069,22 +9069,22 @@
         <v>12442473</v>
       </c>
       <c r="C208">
-        <v>19620702376.399128</v>
+        <v>19377957883.843445</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208">
-        <v>13981124253.130625</v>
+        <v>14181247661.646082</v>
       </c>
       <c r="F208">
-        <v>1576.9133978750951</v>
+        <v>1557.4040533456207</v>
       </c>
       <c r="G208">
         <v>0</v>
       </c>
       <c r="H208">
-        <v>1123.6612089196919</v>
+        <v>1139.7451022514642</v>
       </c>
       <c r="I208" t="s">
         <v>24</v>
@@ -9110,22 +9110,22 @@
         <v>6659324</v>
       </c>
       <c r="C209">
-        <v>4415081016.4958286</v>
+        <v>4465511023.6381035</v>
       </c>
       <c r="D209">
-        <v>59889573.046948954</v>
+        <v>60931461.325546741</v>
       </c>
       <c r="E209">
-        <v>257630534.49343067</v>
+        <v>261641631.17846137</v>
       </c>
       <c r="F209">
-        <v>662.992372273196</v>
+        <v>670.565214072495</v>
       </c>
       <c r="G209">
-        <v>8.9933412230654266</v>
+        <v>9.1497967850110218</v>
       </c>
       <c r="H209">
-        <v>38.687190245350834</v>
+        <v>39.289518152061888</v>
       </c>
       <c r="I209" t="s">
         <v>40</v>
@@ -9151,22 +9151,22 @@
         <v>4935387</v>
       </c>
       <c r="C210">
-        <v>2552934558.1487727</v>
+        <v>2521887160.7291565</v>
       </c>
       <c r="D210">
-        <v>82111365.959258184</v>
+        <v>81116676.803990811</v>
       </c>
       <c r="E210">
-        <v>352684820.00643873</v>
+        <v>349090804.25420165</v>
       </c>
       <c r="F210">
-        <v>517.27140306297611</v>
+        <v>510.98063044076514</v>
       </c>
       <c r="G210">
-        <v>16.637269976854537</v>
+        <v>16.435727695516242</v>
       </c>
       <c r="H210">
-        <v>71.460418404157309</v>
+        <v>70.732204841120193</v>
       </c>
       <c r="I210" t="s">
         <v>14</v>
@@ -9233,22 +9233,22 @@
         <v>8727176</v>
       </c>
       <c r="C212">
-        <v>5581387770.0042706</v>
+        <v>5570262507.3472233</v>
       </c>
       <c r="D212">
-        <v>75988273.214131981</v>
+        <v>75875172.871792316</v>
       </c>
       <c r="E212">
-        <v>324196327.29122841</v>
+        <v>324356665.19741732</v>
       </c>
       <c r="F212">
-        <v>639.54110356022045</v>
+        <v>638.26631975191322</v>
       </c>
       <c r="G212">
-        <v>8.7070861426573707</v>
+        <v>8.6941265847958515</v>
       </c>
       <c r="H212">
-        <v>37.147907558095355</v>
+        <v>37.166279813472002</v>
       </c>
       <c r="I212" t="s">
         <v>15</v>
@@ -9315,22 +9315,22 @@
         <v>3197035</v>
       </c>
       <c r="C214">
-        <v>1363505354.3016047</v>
+        <v>1359641462.5962884</v>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>734195190.77778697</v>
+        <v>732114633.70569372</v>
       </c>
       <c r="F214">
-        <v>426.49059340970769</v>
+        <v>425.28200742134146</v>
       </c>
       <c r="G214">
         <v>0</v>
       </c>
       <c r="H214">
-        <v>229.64878106676559</v>
+        <v>228.99800399610692</v>
       </c>
       <c r="I214" t="s">
         <v>15</v>
@@ -9359,19 +9359,19 @@
         <v>17206082730.98196</v>
       </c>
       <c r="D215">
-        <v>239997985.48227164</v>
+        <v>241958745.14700595</v>
       </c>
       <c r="E215">
-        <v>1031084783.6176636</v>
+        <v>1032549609.4268116</v>
       </c>
       <c r="F215">
         <v>7930.4298852070306</v>
       </c>
       <c r="G215">
-        <v>110.61711292547461</v>
+        <v>111.52084373312196</v>
       </c>
       <c r="H215">
-        <v>475.23574715004764</v>
+        <v>475.91089782525466</v>
       </c>
       <c r="I215" t="s">
         <v>15</v>
@@ -9397,22 +9397,22 @@
         <v>2005494</v>
       </c>
       <c r="C216">
-        <v>1301861647.9884834</v>
+        <v>1294473203.5763516</v>
       </c>
       <c r="D216">
         <v>0</v>
       </c>
       <c r="E216">
-        <v>506279529.7732991</v>
+        <v>503406245.83524787</v>
       </c>
       <c r="F216">
-        <v>649.14761549447837</v>
+        <v>645.46351351654585</v>
       </c>
       <c r="G216">
         <v>0</v>
       </c>
       <c r="H216">
-        <v>252.44629491451937</v>
+        <v>251.01358858976783</v>
       </c>
       <c r="I216" t="s">
         <v>10</v>
@@ -9438,22 +9438,22 @@
         <v>5753937</v>
       </c>
       <c r="C217">
-        <v>2264923770.7866721</v>
+        <v>2249424265.6608047</v>
       </c>
       <c r="D217">
         <v>0</v>
       </c>
       <c r="E217">
-        <v>1310719537.5463557</v>
+        <v>1323033315.2201242</v>
       </c>
       <c r="F217">
-        <v>393.63026928982225</v>
+        <v>390.93654756053201</v>
       </c>
       <c r="G217">
         <v>0</v>
       </c>
       <c r="H217">
-        <v>227.79525350144704</v>
+        <v>229.93531476276578</v>
       </c>
       <c r="I217" t="s">
         <v>15</v>
@@ -9520,22 +9520,22 @@
         <v>1861832</v>
       </c>
       <c r="C219">
-        <v>828406249.12502646</v>
+        <v>1128991019.4046004</v>
       </c>
       <c r="D219">
         <v>0</v>
       </c>
       <c r="E219">
-        <v>341930415.044424</v>
+        <v>41867781.233793497</v>
       </c>
       <c r="F219">
-        <v>444.94146041373574</v>
+        <v>606.3871602833126</v>
       </c>
       <c r="G219">
         <v>0</v>
       </c>
       <c r="H219">
-        <v>183.65266847085238</v>
+        <v>22.487410912366688</v>
       </c>
       <c r="I219" t="s">
         <v>30</v>
@@ -9561,22 +9561,22 @@
         <v>10724956</v>
       </c>
       <c r="C220">
-        <v>3989445765.6967144</v>
+        <v>5974126723.2902641</v>
       </c>
       <c r="D220">
-        <v>112020166.0729796</v>
+        <v>111501674.57788247</v>
       </c>
       <c r="E220">
-        <v>2492071010.6177101</v>
+        <v>485627614.50268233</v>
       </c>
       <c r="F220">
-        <v>371.97782123271315</v>
+        <v>557.03041796071375</v>
       </c>
       <c r="G220">
-        <v>10.444813579932598</v>
+        <v>10.396469186249572</v>
       </c>
       <c r="H220">
-        <v>232.36188667046375</v>
+        <v>45.280149820911369</v>
       </c>
       <c r="I220" t="s">
         <v>41</v>
@@ -9602,22 +9602,22 @@
         <v>5178428</v>
       </c>
       <c r="C221">
-        <v>4850307174.0283737</v>
+        <v>4846249120.1449471</v>
       </c>
       <c r="D221">
-        <v>75434471.461180568</v>
+        <v>75318078.959512919</v>
       </c>
       <c r="E221">
-        <v>329584593.93097091</v>
+        <v>328362679.41033661</v>
       </c>
       <c r="F221">
-        <v>936.63698211665269</v>
+        <v>935.85333621418454</v>
       </c>
       <c r="G221">
-        <v>14.56706001535226</v>
+        <v>14.544583599407565</v>
       </c>
       <c r="H221">
-        <v>63.645684352658932</v>
+        <v>63.409721909880105</v>
       </c>
       <c r="I221" t="s">
         <v>24</v>
@@ -9643,22 +9643,22 @@
         <v>3427166</v>
       </c>
       <c r="C222">
-        <v>1543404457.2860551</v>
+        <v>2369719459.0330505</v>
       </c>
       <c r="D222">
         <v>0</v>
       </c>
       <c r="E222">
-        <v>831063938.53864491</v>
+        <v>4748936.791649404</v>
       </c>
       <c r="F222">
-        <v>450.34423698357625</v>
+        <v>691.45161309170624</v>
       </c>
       <c r="G222">
         <v>0</v>
       </c>
       <c r="H222">
-        <v>242.49305068346411</v>
+        <v>1.3856745753340818</v>
       </c>
       <c r="I222" t="s">
         <v>19</v>
@@ -9684,22 +9684,22 @@
         <v>3910602</v>
       </c>
       <c r="C223">
-        <v>6019951512.7561264</v>
+        <v>6031868593.015274</v>
       </c>
       <c r="D223">
-        <v>91393826.054051861</v>
+        <v>91787756.223918647</v>
       </c>
       <c r="E223">
-        <v>392402429.164015</v>
+        <v>393823559.13439697</v>
       </c>
       <c r="F223">
-        <v>1539.3925315734321</v>
+        <v>1542.4399090000143</v>
       </c>
       <c r="G223">
-        <v>23.370781801382975</v>
+        <v>23.471515696028039</v>
       </c>
       <c r="H223">
-        <v>100.3432282712521</v>
+        <v>100.70663267046787</v>
       </c>
       <c r="I223" t="s">
         <v>16</v>
@@ -9725,22 +9725,22 @@
         <v>3855966</v>
       </c>
       <c r="C224">
-        <v>1705694077.4605012</v>
+        <v>2355833605.9183517</v>
       </c>
       <c r="D224">
         <v>0</v>
       </c>
       <c r="E224">
-        <v>663325474.56797278</v>
+        <v>3775374.3684590054</v>
       </c>
       <c r="F224">
-        <v>442.3519495401415</v>
+        <v>610.95808570883446</v>
       </c>
       <c r="G224">
         <v>0</v>
       </c>
       <c r="H224">
-        <v>172.0257581544995</v>
+        <v>0.97909949632828852</v>
       </c>
       <c r="I224" t="s">
         <v>25</v>
@@ -9766,22 +9766,22 @@
         <v>16989297</v>
       </c>
       <c r="C225">
-        <v>11068745238.847013</v>
+        <v>11067266662.116533</v>
       </c>
       <c r="D225">
-        <v>80018610.605912477</v>
+        <v>80051311.263983354</v>
       </c>
       <c r="E225">
-        <v>344644125.25877243</v>
+        <v>344605634.04332018</v>
       </c>
       <c r="F225">
-        <v>651.51284593158937</v>
+        <v>651.42581603679855</v>
       </c>
       <c r="G225">
-        <v>4.70994241880123</v>
+        <v>4.7118671987418521</v>
       </c>
       <c r="H225">
-        <v>20.285955637762552</v>
+        <v>20.283690022213406</v>
       </c>
       <c r="I225" t="s">
         <v>22</v>
@@ -9807,22 +9807,22 @@
         <v>7463219</v>
       </c>
       <c r="C226">
-        <v>7361431089.0618591</v>
+        <v>7243049639.8318176</v>
       </c>
       <c r="D226">
-        <v>109337676.48366871</v>
+        <v>106412534.07051243</v>
       </c>
       <c r="E226">
-        <v>471781604.48165214</v>
+        <v>456846370.03826678</v>
       </c>
       <c r="F226">
-        <v>986.36139299434456</v>
+        <v>970.49941048652295</v>
       </c>
       <c r="G226">
-        <v>14.650203415398733</v>
+        <v>14.258262295466933</v>
       </c>
       <c r="H226">
-        <v>63.214224918450356</v>
+        <v>61.213046279127916</v>
       </c>
       <c r="I226" t="s">
         <v>39</v>
@@ -9848,22 +9848,22 @@
         <v>6662529</v>
       </c>
       <c r="C227">
-        <v>2180927087.2761059</v>
+        <v>3348561897.0793133</v>
       </c>
       <c r="D227">
         <v>0</v>
       </c>
       <c r="E227">
-        <v>1174345354.6871338</v>
+        <v>6710544.8839264866</v>
       </c>
       <c r="F227">
-        <v>327.34222804525217</v>
+        <v>502.59622090640255</v>
       </c>
       <c r="G227">
         <v>0</v>
       </c>
       <c r="H227">
-        <v>176.26119971667421</v>
+        <v>1.0072068555238538</v>
       </c>
       <c r="I227" t="s">
         <v>34</v>
@@ -9889,22 +9889,22 @@
         <v>10860909</v>
       </c>
       <c r="C228">
-        <v>5830704666.5665197</v>
+        <v>5846093146.9575577</v>
       </c>
       <c r="D228">
-        <v>74887731.280056611</v>
+        <v>75036267.734339476</v>
       </c>
       <c r="E228">
-        <v>321210205.25307143</v>
+        <v>322007329.22322798</v>
       </c>
       <c r="F228">
-        <v>536.8523635145566</v>
+        <v>538.26923206497338</v>
       </c>
       <c r="G228">
-        <v>6.8951623920296736</v>
+        <v>6.9088386372024182</v>
       </c>
       <c r="H228">
-        <v>29.574891498775234</v>
+        <v>29.648285352839984</v>
       </c>
       <c r="I228" t="s">
         <v>46</v>
@@ -9930,22 +9930,22 @@
         <v>2584028</v>
       </c>
       <c r="C229">
-        <v>2151886204.5246859</v>
+        <v>2165540979.2769518</v>
       </c>
       <c r="D229">
-        <v>33455956.73471123</v>
+        <v>34608232.692696132</v>
       </c>
       <c r="E229">
-        <v>143380101.00576258</v>
+        <v>147897343.70810801</v>
       </c>
       <c r="F229">
-        <v>832.76427520316565</v>
+        <v>838.04857349725</v>
       </c>
       <c r="G229">
-        <v>12.947211382659642</v>
+        <v>13.393133779005542</v>
       </c>
       <c r="H229">
-        <v>55.487053935082194</v>
+        <v>57.235193932924879</v>
       </c>
       <c r="I229" t="s">
         <v>26</v>
@@ -9971,22 +9971,22 @@
         <v>5184267</v>
       </c>
       <c r="C230">
-        <v>1849784202.8350177</v>
+        <v>1799551265.7250094</v>
       </c>
       <c r="D230">
         <v>0</v>
       </c>
       <c r="E230">
-        <v>1286291203.1199069</v>
+        <v>1312832663.4347465</v>
       </c>
       <c r="F230">
-        <v>356.80727918431239</v>
+        <v>347.11778265375017</v>
       </c>
       <c r="G230">
         <v>0</v>
       </c>
       <c r="H230">
-        <v>248.11438205630745</v>
+        <v>253.23399883430898</v>
       </c>
       <c r="I230" t="s">
         <v>42</v>
@@ -10012,7 +10012,7 @@
         <v>4104611</v>
       </c>
       <c r="C231">
-        <v>23098888898.533607</v>
+        <v>23591426930.327507</v>
       </c>
       <c r="D231">
         <v>330676754.8275857</v>
@@ -10021,7 +10021,7 @@
         <v>1411150292.7340012</v>
       </c>
       <c r="F231">
-        <v>5627.5464102526666</v>
+        <v>5747.5426856107697</v>
       </c>
       <c r="G231">
         <v>80.562263958164536</v>
@@ -10053,22 +10053,22 @@
         <v>3995922</v>
       </c>
       <c r="C232">
-        <v>1857641526.61079</v>
+        <v>2566551322.3707829</v>
       </c>
       <c r="D232">
         <v>0</v>
       </c>
       <c r="E232">
-        <v>722416149.23752952</v>
+        <v>4113063.0166199626</v>
       </c>
       <c r="F232">
-        <v>464.88433122838484</v>
+        <v>642.29264794727794</v>
       </c>
       <c r="G232">
         <v>0</v>
       </c>
       <c r="H232">
-        <v>180.7883510332608</v>
+        <v>1.0293151409411803</v>
       </c>
       <c r="I232" t="s">
         <v>25</v>
@@ -10094,22 +10094,22 @@
         <v>5491581</v>
       </c>
       <c r="C233">
-        <v>5150538395.9671688</v>
+        <v>5156503373.7405033</v>
       </c>
       <c r="D233">
-        <v>79668261.34219633</v>
+        <v>80675218.259694964</v>
       </c>
       <c r="E233">
-        <v>343590143.1294418</v>
+        <v>347332683.62641656</v>
       </c>
       <c r="F233">
-        <v>937.89719134929794</v>
+        <v>938.9833954448643</v>
       </c>
       <c r="G233">
-        <v>14.507345214829087</v>
+        <v>14.690708970639777</v>
       </c>
       <c r="H233">
-        <v>62.566707680254886</v>
+        <v>63.248212787249528</v>
       </c>
       <c r="I233" t="s">
         <v>24</v>
@@ -10135,22 +10135,22 @@
         <v>1933371</v>
       </c>
       <c r="C234">
-        <v>454537009.49389189</v>
+        <v>697889131.49985242</v>
       </c>
       <c r="D234">
         <v>0</v>
       </c>
       <c r="E234">
-        <v>244750697.41978791</v>
+        <v>1398575.4138273608</v>
       </c>
       <c r="F234">
-        <v>235.10076932667963</v>
+        <v>360.97010428927115</v>
       </c>
       <c r="G234">
         <v>0</v>
       </c>
       <c r="H234">
-        <v>126.59272194513517</v>
+        <v>0.72338698254363021</v>
       </c>
       <c r="I234" t="s">
         <v>19</v>
@@ -10176,22 +10176,22 @@
         <v>1299004</v>
       </c>
       <c r="C235">
-        <v>455287821.69095188</v>
+        <v>454108074.30033571</v>
       </c>
       <c r="D235">
         <v>0</v>
       </c>
       <c r="E235">
-        <v>316661135.35272163</v>
+        <v>322172991.11642408</v>
       </c>
       <c r="F235">
-        <v>350.48993050902993</v>
+        <v>349.58173670006846</v>
       </c>
       <c r="G235">
         <v>0</v>
       </c>
       <c r="H235">
-        <v>243.77225578421746</v>
+        <v>248.01539573120951</v>
       </c>
       <c r="I235" t="s">
         <v>30</v>
@@ -10217,22 +10217,22 @@
         <v>2477354</v>
       </c>
       <c r="C236">
-        <v>937152229.64890397</v>
+        <v>914791933.05067885</v>
       </c>
       <c r="D236">
         <v>0</v>
       </c>
       <c r="E236">
-        <v>636254778.47279692</v>
+        <v>641646768.12087154</v>
       </c>
       <c r="F236">
-        <v>378.28757200178251</v>
+        <v>369.26169334325203</v>
       </c>
       <c r="G236">
         <v>0</v>
       </c>
       <c r="H236">
-        <v>256.82836545475413</v>
+        <v>259.00487702640459</v>
       </c>
       <c r="I236" t="s">
         <v>18</v>
@@ -10258,22 +10258,22 @@
         <v>3250811</v>
       </c>
       <c r="C237">
-        <v>2452039131.6747742</v>
+        <v>2431823483.392478</v>
       </c>
       <c r="D237">
-        <v>38214511.536681756</v>
+        <v>37451568.077776238</v>
       </c>
       <c r="E237">
-        <v>164355639.96686089</v>
+        <v>161670589.47981006</v>
       </c>
       <c r="F237">
-        <v>754.28535576961383</v>
+        <v>748.06670808991294</v>
       </c>
       <c r="G237">
-        <v>11.755377823159131</v>
+        <v>11.520684554646898</v>
       </c>
       <c r="H237">
-        <v>50.558349890799832</v>
+        <v>49.732386619772747</v>
       </c>
       <c r="I237" t="s">
         <v>26</v>
@@ -10340,22 +10340,22 @@
         <v>2199703</v>
       </c>
       <c r="C239">
-        <v>2066431600.0218315</v>
+        <v>3170337380.0107312</v>
       </c>
       <c r="D239">
         <v>0</v>
       </c>
       <c r="E239">
-        <v>1112693938.4732938</v>
+        <v>6353381.5230676029</v>
       </c>
       <c r="F239">
-        <v>939.41391179710695</v>
+        <v>1441.2570151564694</v>
       </c>
       <c r="G239">
         <v>0</v>
       </c>
       <c r="H239">
-        <v>505.83826019844213</v>
+        <v>2.8882906115360134</v>
       </c>
       <c r="I239" t="s">
         <v>16</v>
@@ -10381,22 +10381,22 @@
         <v>5484916</v>
       </c>
       <c r="C240">
-        <v>8023189815.2253056</v>
+        <v>7991197007.0374603</v>
       </c>
       <c r="D240">
-        <v>103100056.21034077</v>
+        <v>102651043.71312985</v>
       </c>
       <c r="E240">
-        <v>441695477.94546437</v>
+        <v>440079789.64805949</v>
       </c>
       <c r="F240">
-        <v>1462.773507420224</v>
+        <v>1456.9406362900472</v>
       </c>
       <c r="G240">
-        <v>18.797016437506201</v>
+        <v>18.715153288241762</v>
       </c>
       <c r="H240">
-        <v>80.529123498967778</v>
+        <v>80.234554120438574</v>
       </c>
       <c r="I240" t="s">
         <v>38</v>
@@ -10422,22 +10422,22 @@
         <v>4229531</v>
       </c>
       <c r="C241">
-        <v>2300344817.9002876</v>
+        <v>2652211241.6576967</v>
       </c>
       <c r="D241">
         <v>0</v>
       </c>
       <c r="E241">
-        <v>352564302.43271601</v>
+        <v>1957203.0533460183</v>
       </c>
       <c r="F241">
-        <v>543.87704402693532</v>
+        <v>627.06981971705534</v>
       </c>
       <c r="G241">
         <v>0</v>
       </c>
       <c r="H241">
-        <v>83.357777122975577</v>
+        <v>0.46274706423620449</v>
       </c>
       <c r="I241" t="s">
         <v>25</v>
@@ -10463,22 +10463,22 @@
         <v>602999</v>
       </c>
       <c r="C242">
-        <v>250285840.34920636</v>
+        <v>499597003.65638703</v>
       </c>
       <c r="D242">
         <v>0</v>
       </c>
       <c r="E242">
-        <v>186021145.64774698</v>
+        <v>1001196.4001130009</v>
       </c>
       <c r="F242">
-        <v>415.0684169446489</v>
+        <v>828.52045137120797</v>
       </c>
       <c r="G242">
         <v>0</v>
       </c>
       <c r="H242">
-        <v>308.49329044948166</v>
+        <v>1.6603616259944061</v>
       </c>
       <c r="I242" t="s">
         <v>41</v>
@@ -10504,19 +10504,19 @@
         <v>3406721</v>
       </c>
       <c r="C243">
-        <v>1798452318.1912212</v>
+        <v>1807984902.3923843</v>
       </c>
       <c r="D243">
-        <v>22958198.931619395</v>
+        <v>23358567.468068242</v>
       </c>
       <c r="E243">
         <v>97148782.130192041</v>
       </c>
       <c r="F243">
-        <v>527.91300437905579</v>
+        <v>530.71117429116862</v>
       </c>
       <c r="G243">
-        <v>6.7390898555001701</v>
+        <v>6.8566129918089098</v>
       </c>
       <c r="H243">
         <v>28.51680021058139</v>
@@ -10545,22 +10545,22 @@
         <v>4583206</v>
       </c>
       <c r="C244">
-        <v>26630256849.94482</v>
+        <v>26698069973.132225</v>
       </c>
       <c r="D244">
-        <v>446570800.62236965</v>
+        <v>454358558.64287025</v>
       </c>
       <c r="E244">
-        <v>1839070356.4116175</v>
+        <v>2032280924.4440365</v>
       </c>
       <c r="F244">
-        <v>5810.3992816261853</v>
+        <v>5825.1952831996259</v>
       </c>
       <c r="G244">
-        <v>97.436336185275039</v>
+        <v>99.135530596458082</v>
       </c>
       <c r="H244">
-        <v>401.26286193804458</v>
+        <v>443.41906613929996</v>
       </c>
       <c r="I244" t="s">
         <v>15</v>
@@ -10586,22 +10586,22 @@
         <v>4859658</v>
       </c>
       <c r="C245">
-        <v>2585150674.6461439</v>
+        <v>3274795141.0937891</v>
       </c>
       <c r="D245">
         <v>0</v>
       </c>
       <c r="E245">
-        <v>683052999.60847592</v>
+        <v>3893518.691326838</v>
       </c>
       <c r="F245">
-        <v>531.961441452494</v>
+        <v>673.87358145239625</v>
       </c>
       <c r="G245">
         <v>0</v>
       </c>
       <c r="H245">
-        <v>140.55577565509259</v>
+        <v>0.80119191336650397</v>
       </c>
       <c r="I245" t="s">
         <v>40</v>
@@ -10627,22 +10627,22 @@
         <v>12498933</v>
       </c>
       <c r="C246">
-        <v>19485353216.88678</v>
+        <v>19529840708.699627</v>
       </c>
       <c r="D246">
-        <v>308535650.52085656</v>
+        <v>309802272.08491457</v>
       </c>
       <c r="E246">
-        <v>1328178718.9585888</v>
+        <v>1342957465.8832941</v>
       </c>
       <c r="F246">
-        <v>1558.9613302900959</v>
+        <v>1562.520633457242</v>
       </c>
       <c r="G246">
-        <v>24.684959149781552</v>
+        <v>24.786297525149912</v>
       </c>
       <c r="H246">
-        <v>106.26336815779305</v>
+        <v>107.44576884149184</v>
       </c>
       <c r="I246" t="s">
         <v>33</v>
@@ -10668,22 +10668,22 @@
         <v>13439341</v>
       </c>
       <c r="C247">
-        <v>7310025762.0645142</v>
+        <v>7302399043.9190626</v>
       </c>
       <c r="D247">
-        <v>113989958.92446105</v>
+        <v>113494441.67180358</v>
       </c>
       <c r="E247">
-        <v>477250203.92784792</v>
+        <v>475861749.84844971</v>
       </c>
       <c r="F247">
-        <v>543.92739659366589</v>
+        <v>543.35990462025347</v>
       </c>
       <c r="G247">
-        <v>8.4818116397568186</v>
+        <v>8.4449409886841611</v>
       </c>
       <c r="H247">
-        <v>35.511429014848865</v>
+        <v>35.408116353952899</v>
       </c>
       <c r="I247" t="s">
         <v>41</v>
@@ -10709,22 +10709,22 @@
         <v>5988318</v>
       </c>
       <c r="C248">
-        <v>3689699055.6586127</v>
+        <v>3697898237.6704097</v>
       </c>
       <c r="D248">
-        <v>31568114.219881691</v>
+        <v>31565726.880268317</v>
       </c>
       <c r="E248">
-        <v>135808606.97181761</v>
+        <v>135543045.45880577</v>
       </c>
       <c r="F248">
-        <v>616.14948565834561</v>
+        <v>617.51868181856901</v>
       </c>
       <c r="G248">
-        <v>5.2716162067347945</v>
+        <v>5.2712175405962602</v>
       </c>
       <c r="H248">
-        <v>22.678923693066668</v>
+        <v>22.634577098077585</v>
       </c>
       <c r="I248" t="s">
         <v>46</v>
@@ -10750,22 +10750,22 @@
         <v>14171621</v>
       </c>
       <c r="C249">
-        <v>13524418807.246799</v>
+        <v>13546514109.72233</v>
       </c>
       <c r="D249">
-        <v>203522201.80187267</v>
+        <v>201812824.2141982</v>
       </c>
       <c r="E249">
-        <v>870728124.15629375</v>
+        <v>867379980.33010936</v>
       </c>
       <c r="F249">
-        <v>954.33111055162988</v>
+        <v>955.89023370878533</v>
       </c>
       <c r="G249">
-        <v>14.361250685568903</v>
+        <v>14.240630921063879</v>
       </c>
       <c r="H249">
-        <v>61.441674467324077</v>
+        <v>61.205417526344327</v>
       </c>
       <c r="I249" t="s">
         <v>35</v>
@@ -10791,22 +10791,22 @@
         <v>1551911</v>
       </c>
       <c r="C250">
-        <v>640314409.63659</v>
+        <v>645740802.93859506</v>
       </c>
       <c r="D250">
         <v>0</v>
       </c>
       <c r="E250">
-        <v>344784682.11201</v>
+        <v>347706586.19770497</v>
       </c>
       <c r="F250">
-        <v>412.59737809487143</v>
+        <v>416.09396604482799</v>
       </c>
       <c r="G250">
         <v>0</v>
       </c>
       <c r="H250">
-        <v>222.16781897416155</v>
+        <v>224.05059710106119</v>
       </c>
       <c r="I250" t="s">
         <v>19</v>
@@ -10832,22 +10832,22 @@
         <v>1921138</v>
       </c>
       <c r="C251">
-        <v>649704026.22114599</v>
+        <v>997545566.41339028</v>
       </c>
       <c r="D251">
         <v>0</v>
       </c>
       <c r="E251">
-        <v>349840629.50369394</v>
+        <v>1999089.3114496816</v>
       </c>
       <c r="F251">
-        <v>338.18706736379477</v>
+        <v>519.24722035241109</v>
       </c>
       <c r="G251">
         <v>0</v>
       </c>
       <c r="H251">
-        <v>182.10072858050486</v>
+        <v>1.0405755918886002</v>
       </c>
       <c r="I251" t="s">
         <v>34</v>
@@ -10873,22 +10873,22 @@
         <v>10047182</v>
       </c>
       <c r="C252">
-        <v>4905790562.5350552</v>
+        <v>7556141095.2348394</v>
       </c>
       <c r="D252">
         <v>0</v>
       </c>
       <c r="E252">
-        <v>2641579533.6727219</v>
+        <v>15142567.325119931</v>
       </c>
       <c r="F252">
-        <v>488.2752758470042</v>
+        <v>752.0657130760485</v>
       </c>
       <c r="G252">
         <v>0</v>
       </c>
       <c r="H252">
-        <v>262.91745622530993</v>
+        <v>1.5071457175872729</v>
       </c>
       <c r="I252" t="s">
         <v>14</v>
@@ -10914,22 +10914,22 @@
         <v>1425257</v>
       </c>
       <c r="C253">
-        <v>639195710.19460297</v>
+        <v>709085792.72988498</v>
       </c>
       <c r="D253">
         <v>0</v>
       </c>
       <c r="E253">
-        <v>344182305.48940164</v>
+        <v>274231873.00192589</v>
       </c>
       <c r="F253">
-        <v>448.47750980672464</v>
+        <v>497.51433792634242</v>
       </c>
       <c r="G253">
         <v>0</v>
       </c>
       <c r="H253">
-        <v>241.4878898959287</v>
+        <v>192.40871856930076</v>
       </c>
       <c r="I253" t="s">
         <v>47</v>
@@ -10955,22 +10955,22 @@
         <v>1940463</v>
       </c>
       <c r="C254">
-        <v>1996830906.7359734</v>
+        <v>2015843003.8788152</v>
       </c>
       <c r="D254">
-        <v>29858001.706143718</v>
+        <v>30493080.509508565</v>
       </c>
       <c r="E254">
-        <v>128682127.22863498</v>
+        <v>130926257.01359171</v>
       </c>
       <c r="F254">
-        <v>1029.0486892746594</v>
+        <v>1038.8464010284222</v>
       </c>
       <c r="G254">
-        <v>15.387050258697908</v>
+        <v>15.714332357539703</v>
       </c>
       <c r="H254">
-        <v>66.315166652822029</v>
+        <v>67.47165857508837</v>
       </c>
       <c r="I254" t="s">
         <v>36</v>
@@ -10996,22 +10996,22 @@
         <v>825950</v>
       </c>
       <c r="C255">
-        <v>271828297.41437006</v>
+        <v>267892288.28339326</v>
       </c>
       <c r="D255">
         <v>0</v>
       </c>
       <c r="E255">
-        <v>192632260.59913802</v>
+        <v>196333104.06985709</v>
       </c>
       <c r="F255">
-        <v>329.10987034853207</v>
+        <v>324.34443765771931</v>
       </c>
       <c r="G255">
         <v>0</v>
       </c>
       <c r="H255">
-        <v>233.22508698969432</v>
+        <v>237.70579825638004</v>
       </c>
       <c r="I255" t="s">
         <v>28</v>
@@ -11037,22 +11037,22 @@
         <v>166824</v>
       </c>
       <c r="C256">
-        <v>184201661.06138188</v>
+        <v>182370189.25004828</v>
       </c>
       <c r="D256">
         <v>0</v>
       </c>
       <c r="E256">
-        <v>133985487.2813828</v>
+        <v>133102362.0860495</v>
       </c>
       <c r="F256">
-        <v>1104.1676321235666</v>
+        <v>1093.1891649285972</v>
       </c>
       <c r="G256">
         <v>0</v>
       </c>
       <c r="H256">
-        <v>803.15474560844245</v>
+        <v>797.86099174009428</v>
       </c>
       <c r="I256" t="s">
         <v>40</v>
@@ -11160,22 +11160,22 @@
         <v>152235.4</v>
       </c>
       <c r="C259">
-        <v>28298710.746300001</v>
+        <v>27632858.728739996</v>
       </c>
       <c r="D259">
         <v>0</v>
       </c>
       <c r="E259">
-        <v>113194842.9852</v>
+        <v>110531434.91495998</v>
       </c>
       <c r="F259">
-        <v>185.88784702046962</v>
+        <v>181.5140153258703</v>
       </c>
       <c r="G259">
         <v>0</v>
       </c>
       <c r="H259">
-        <v>743.55138808187849</v>
+        <v>726.05606130348121</v>
       </c>
       <c r="I259" t="s">
         <v>36</v>
@@ -11201,22 +11201,22 @@
         <v>334348.61</v>
       </c>
       <c r="C260">
-        <v>407583726.35358012</v>
+        <v>405994488.43352902</v>
       </c>
       <c r="D260">
         <v>0</v>
       </c>
       <c r="E260">
-        <v>304457113.36976188</v>
+        <v>302558878.08206087</v>
       </c>
       <c r="F260">
-        <v>1219.0381959523629</v>
+        <v>1214.2849597416571</v>
       </c>
       <c r="G260">
         <v>0</v>
       </c>
       <c r="H260">
-        <v>910.59781396956282</v>
+        <v>904.92040054259803</v>
       </c>
       <c r="I260" t="s">
         <v>39</v>
@@ -11283,22 +11283,22 @@
         <v>681233</v>
       </c>
       <c r="C262">
-        <v>773152547.61928213</v>
+        <v>1181045487.5580611</v>
       </c>
       <c r="D262">
         <v>0</v>
       </c>
       <c r="E262">
-        <v>416312910.25653648</v>
+        <v>2366824.6243648543</v>
       </c>
       <c r="F262">
-        <v>1134.9311434109652</v>
+        <v>1733.6880150522084</v>
       </c>
       <c r="G262">
         <v>0</v>
       </c>
       <c r="H262">
-        <v>611.11676952898119</v>
+        <v>3.4743246794633471</v>
       </c>
       <c r="I262" t="s">
         <v>17</v>
@@ -11324,22 +11324,22 @@
         <v>335919</v>
       </c>
       <c r="C263">
-        <v>637272781.47809732</v>
+        <v>982124106.41239774</v>
       </c>
       <c r="D263">
         <v>0</v>
       </c>
       <c r="E263">
-        <v>343146882.33436</v>
+        <v>1968184.5819887749</v>
       </c>
       <c r="F263">
-        <v>1897.1025201852153</v>
+        <v>2923.6932308455243</v>
       </c>
       <c r="G263">
         <v>0</v>
       </c>
       <c r="H263">
-        <v>1021.5167416381926</v>
+        <v>5.8591046710331209</v>
       </c>
       <c r="I263" t="s">
         <v>38</v>
@@ -11365,22 +11365,22 @@
         <v>186061</v>
       </c>
       <c r="C264">
-        <v>228774879.90561754</v>
+        <v>351257430.99354815</v>
       </c>
       <c r="D264">
         <v>0</v>
       </c>
       <c r="E264">
-        <v>123186473.79533251</v>
+        <v>703922.70740190067</v>
       </c>
       <c r="F264">
-        <v>1229.5692267891579</v>
+        <v>1887.8616743624304</v>
       </c>
       <c r="G264">
         <v>0</v>
       </c>
       <c r="H264">
-        <v>662.07573750185429</v>
+        <v>3.7832899285820276</v>
       </c>
       <c r="I264" t="s">
         <v>33</v>
@@ -11406,22 +11406,22 @@
         <v>560883</v>
       </c>
       <c r="C265">
-        <v>579413926.64726996</v>
+        <v>889623228.91380835</v>
       </c>
       <c r="D265">
         <v>0</v>
       </c>
       <c r="E265">
-        <v>311992114.34852993</v>
+        <v>1782812.0819916013</v>
       </c>
       <c r="F265">
-        <v>1033.0388452623274</v>
+        <v>1586.1119501104656</v>
       </c>
       <c r="G265">
         <v>0</v>
       </c>
       <c r="H265">
-        <v>556.25168591048384</v>
+        <v>3.178581062345625</v>
       </c>
       <c r="I265" t="s">
         <v>38</v>
@@ -11447,22 +11447,22 @@
         <v>23793</v>
       </c>
       <c r="C266">
-        <v>33206000.5443075</v>
+        <v>50983982.374182902</v>
       </c>
       <c r="D266">
         <v>0</v>
       </c>
       <c r="E266">
-        <v>17880154.1392425</v>
+        <v>102172.3093671001</v>
       </c>
       <c r="F266">
-        <v>1395.6205835458959</v>
+        <v>2142.8143728904679</v>
       </c>
       <c r="G266">
         <v>0</v>
       </c>
       <c r="H266">
-        <v>751.48800652471311</v>
+        <v>4.2942171801412217</v>
       </c>
       <c r="I266" t="s">
         <v>33</v>
@@ -11488,22 +11488,22 @@
         <v>489990</v>
       </c>
       <c r="C267">
-        <v>123558386.17020598</v>
+        <v>189709645.22748548</v>
       </c>
       <c r="D267">
         <v>0</v>
       </c>
       <c r="E267">
-        <v>66531438.707033984</v>
+        <v>380179.64975448028</v>
       </c>
       <c r="F267">
-        <v>252.16511800282859</v>
+        <v>387.17044271818912</v>
       </c>
       <c r="G267">
         <v>0</v>
       </c>
       <c r="H267">
-        <v>135.78121738613845</v>
+        <v>0.77589267077793478</v>
       </c>
       <c r="I267" t="s">
         <v>43</v>
@@ -11529,22 +11529,22 @@
         <v>11106837</v>
       </c>
       <c r="C268">
-        <v>9806840767.484726</v>
+        <v>9688907056.6470966</v>
       </c>
       <c r="D268">
-        <v>146770526.77797258</v>
+        <v>146792219.63164389</v>
       </c>
       <c r="E268">
-        <v>642720720.3464005</v>
+        <v>649853531.85135961</v>
       </c>
       <c r="F268">
-        <v>882.95531549483678</v>
+        <v>872.33719704782709</v>
       </c>
       <c r="G268">
-        <v>13.214430605038372</v>
+        <v>13.216383713170895</v>
       </c>
       <c r="H268">
-        <v>57.867124577987461</v>
+        <v>58.509324648534914</v>
       </c>
       <c r="I268" t="s">
         <v>23</v>
@@ -11570,22 +11570,22 @@
         <v>7123683</v>
       </c>
       <c r="C269">
-        <v>4458786657.051302</v>
+        <v>4479522101.9214745</v>
       </c>
       <c r="D269">
-        <v>57246709.257109001</v>
+        <v>57541594.731163129</v>
       </c>
       <c r="E269">
-        <v>244863860.76657745</v>
+        <v>246092132.18378523</v>
       </c>
       <c r="F269">
-        <v>625.91031311349786</v>
+        <v>628.82108902396055</v>
       </c>
       <c r="G269">
-        <v>8.036111272372592</v>
+        <v>8.0775063588824949</v>
       </c>
       <c r="H269">
-        <v>34.373211268184932</v>
+        <v>34.545632109652438</v>
       </c>
       <c r="I269" t="s">
         <v>40</v>
@@ -11611,22 +11611,22 @@
         <v>254563</v>
       </c>
       <c r="C270">
-        <v>34959971.70967634</v>
+        <v>34954931.49767372</v>
       </c>
       <c r="D270">
         <v>0</v>
       </c>
       <c r="E270">
-        <v>139839886.83870536</v>
+        <v>139819725.99069488</v>
       </c>
       <c r="F270">
-        <v>137.33327981551261</v>
+        <v>137.31348034739423</v>
       </c>
       <c r="G270">
         <v>0</v>
       </c>
       <c r="H270">
-        <v>549.33311926205045</v>
+        <v>549.25392138957693</v>
       </c>
       <c r="I270" t="s">
         <v>46</v>
@@ -11652,22 +11652,22 @@
         <v>4062213</v>
       </c>
       <c r="C271">
-        <v>1396353535.7714906</v>
+        <v>2145047873.2841296</v>
       </c>
       <c r="D271">
         <v>0</v>
       </c>
       <c r="E271">
-        <v>751882673.10772562</v>
+        <v>4298693.1328339307</v>
       </c>
       <c r="F271">
-        <v>343.74207747636342</v>
+        <v>528.04908883018436</v>
       </c>
       <c r="G271">
         <v>0</v>
       </c>
       <c r="H271">
-        <v>185.09188787188796</v>
+        <v>1.0582146068741178</v>
       </c>
       <c r="I271" t="s">
         <v>42</v>
@@ -11693,22 +11693,22 @@
         <v>3230316</v>
       </c>
       <c r="C272">
-        <v>1155523504.5575476</v>
+        <v>1771205589.2855837</v>
       </c>
       <c r="D272">
         <v>0</v>
       </c>
       <c r="E272">
-        <v>622204963.99252558</v>
+        <v>3549510.198969109</v>
       </c>
       <c r="F272">
-        <v>357.71221903911186</v>
+        <v>548.30722111570003</v>
       </c>
       <c r="G272">
         <v>0</v>
       </c>
       <c r="H272">
-        <v>192.61427179029099</v>
+        <v>1.0988120663641294</v>
       </c>
       <c r="I272" t="s">
         <v>42</v>
@@ -11734,22 +11734,22 @@
         <v>773802</v>
       </c>
       <c r="C273">
-        <v>389828042.13034499</v>
+        <v>593506264.42712271</v>
       </c>
       <c r="D273">
         <v>0</v>
       </c>
       <c r="E273">
-        <v>209907407.30095497</v>
+        <v>1189391.3114772008</v>
       </c>
       <c r="F273">
-        <v>503.78267584000167</v>
+        <v>767.00016855361287</v>
       </c>
       <c r="G273">
         <v>0</v>
       </c>
       <c r="H273">
-        <v>271.26759468307779</v>
+        <v>1.5370744860793857</v>
       </c>
       <c r="I273" t="s">
         <v>41</v>
@@ -11775,22 +11775,22 @@
         <v>3492531</v>
       </c>
       <c r="C274">
-        <v>1176278648.555584</v>
+        <v>1811980633.5203736</v>
       </c>
       <c r="D274">
         <v>0</v>
       </c>
       <c r="E274">
-        <v>633380810.76069903</v>
+        <v>3631223.7144696899</v>
       </c>
       <c r="F274">
-        <v>336.79834153385724</v>
+        <v>518.81590557689356</v>
       </c>
       <c r="G274">
         <v>0</v>
       </c>
       <c r="H274">
-        <v>181.35295313361544</v>
+        <v>1.0397112336210301</v>
       </c>
       <c r="I274" t="s">
         <v>15</v>
@@ -11857,22 +11857,22 @@
         <v>208875</v>
       </c>
       <c r="C276">
-        <v>140332440.936831</v>
+        <v>215464270.85378051</v>
       </c>
       <c r="D276">
         <v>0</v>
       </c>
       <c r="E276">
-        <v>75563622.042908996</v>
+        <v>431792.12595948036</v>
       </c>
       <c r="F276">
-        <v>671.84890933252427</v>
+        <v>1031.5464792520911</v>
       </c>
       <c r="G276">
         <v>0</v>
       </c>
       <c r="H276">
-        <v>361.76479733289767</v>
+        <v>2.0672274133308455</v>
       </c>
       <c r="I276" t="s">
         <v>34</v>

--- a/r_map/data_boot_cq_remov_Se.xlsx
+++ b/r_map/data_boot_cq_remov_Se.xlsx
@@ -664,22 +664,22 @@
         <v>6578669</v>
       </c>
       <c r="C3">
-        <v>4446674490.8392353</v>
+        <v>4421205504.4479532</v>
       </c>
       <c r="D3">
-        <v>124620887.08630282</v>
+        <v>123887584.10912958</v>
       </c>
       <c r="E3">
-        <v>1035391082.7743216</v>
+        <v>1030929601.0777712</v>
       </c>
       <c r="F3">
-        <v>675.92312226671311</v>
+        <v>672.05167252645685</v>
       </c>
       <c r="G3">
-        <v>18.943176360796205</v>
+        <v>18.831709591883946</v>
       </c>
       <c r="H3">
-        <v>157.38610390252521</v>
+        <v>156.70792998975494</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -705,22 +705,22 @@
         <v>2726384</v>
       </c>
       <c r="C4">
-        <v>5069965113.942934</v>
+        <v>5141148844.1223431</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3769575705.0252123</v>
+        <v>3754350236.4726672</v>
       </c>
       <c r="F4">
-        <v>1859.5931878792328</v>
+        <v>1885.702397065983</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1382.6283109881851</v>
+        <v>1377.0438193859218</v>
       </c>
       <c r="I4" t="s">
         <v>9</v>
@@ -746,22 +746,22 @@
         <v>4273045</v>
       </c>
       <c r="C5">
-        <v>11932149058.652367</v>
+        <v>11995394669.5879</v>
       </c>
       <c r="D5">
-        <v>152320219.44612339</v>
+        <v>154976535.10541582</v>
       </c>
       <c r="E5">
-        <v>693187902.02150929</v>
+        <v>627285975.42668295</v>
       </c>
       <c r="F5">
-        <v>2792.4229814224673</v>
+        <v>2807.2240450516902</v>
       </c>
       <c r="G5">
-        <v>35.646762307938104</v>
+        <v>36.268406980365484</v>
       </c>
       <c r="H5">
-        <v>162.22340322217747</v>
+        <v>146.80069492052692</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
@@ -787,22 +787,22 @@
         <v>1657543</v>
       </c>
       <c r="C6">
-        <v>1652279653.6118093</v>
+        <v>1642339893.2801957</v>
       </c>
       <c r="D6">
-        <v>53197480.266257703</v>
+        <v>52832223.591204971</v>
       </c>
       <c r="E6">
-        <v>226367200.68602976</v>
+        <v>225650681.80501169</v>
       </c>
       <c r="F6">
-        <v>996.82460944410445</v>
+        <v>990.82792620173097</v>
       </c>
       <c r="G6">
-        <v>32.094178109561987</v>
+        <v>31.873817808168457</v>
       </c>
       <c r="H6">
-        <v>136.56792052214016</v>
+        <v>136.13564281892639</v>
       </c>
       <c r="I6" t="s">
         <v>9</v>
@@ -869,22 +869,22 @@
         <v>1380537</v>
       </c>
       <c r="C8">
-        <v>839835928.0623374</v>
+        <v>835911503.97988939</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>93194082.166632429</v>
+        <v>93971834.633641973</v>
       </c>
       <c r="F8">
-        <v>608.34003584281868</v>
+        <v>605.49735644889586</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>67.50567508631238</v>
+        <v>68.069044606295932</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -910,22 +910,22 @@
         <v>1368602</v>
       </c>
       <c r="C9">
-        <v>997798829.78173947</v>
+        <v>1003087600.1675357</v>
       </c>
       <c r="D9">
-        <v>12737431.95533002</v>
+        <v>12825886.343908701</v>
       </c>
       <c r="E9">
-        <v>55148457.509437904</v>
+        <v>55733823.363588832</v>
       </c>
       <c r="F9">
-        <v>729.06427857166614</v>
+        <v>732.92863825095662</v>
       </c>
       <c r="G9">
-        <v>9.3068926943918093</v>
+        <v>9.37152389365842</v>
       </c>
       <c r="H9">
-        <v>40.295467571608036</v>
+        <v>40.723178370036599</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -951,22 +951,22 @@
         <v>1443465</v>
       </c>
       <c r="C10">
-        <v>911337587.70360017</v>
+        <v>899412654.44158494</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1826327.8310693407</v>
+        <v>1802430.1692216147</v>
       </c>
       <c r="F10">
-        <v>631.3541289214495</v>
+        <v>623.09280408017162</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.2652387353135273</v>
+        <v>1.2486829741085614</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -992,22 +992,22 @@
         <v>4446401</v>
       </c>
       <c r="C11">
-        <v>3148223093.6098871</v>
+        <v>3150592873.1026607</v>
       </c>
       <c r="D11">
-        <v>40188739.69197391</v>
+        <v>40228374.121304125</v>
       </c>
       <c r="E11">
-        <v>174002656.97460669</v>
+        <v>175306503.9291684</v>
       </c>
       <c r="F11">
-        <v>708.03849981364419</v>
+        <v>708.57146557466604</v>
       </c>
       <c r="G11">
-        <v>9.0384874625509291</v>
+        <v>9.0474012850627119</v>
       </c>
       <c r="H11">
-        <v>39.133370331332394</v>
+        <v>39.426606806081686</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
@@ -1033,22 +1033,22 @@
         <v>2081937</v>
       </c>
       <c r="C12">
-        <v>1337238230.4700451</v>
+        <v>1340641095.6990328</v>
       </c>
       <c r="D12">
-        <v>18294700.514657684</v>
+        <v>18211696.758487273</v>
       </c>
       <c r="E12">
-        <v>77896788.829454333</v>
+        <v>77472480.438536212</v>
       </c>
       <c r="F12">
-        <v>642.30484902763396</v>
+        <v>643.93931982525544</v>
       </c>
       <c r="G12">
-        <v>8.787345877736783</v>
+        <v>8.7474773532951637</v>
       </c>
       <c r="H12">
-        <v>37.415536027004819</v>
+        <v>37.211731401351827</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
@@ -1074,22 +1074,22 @@
         <v>8921964</v>
       </c>
       <c r="C13">
-        <v>8210262992.6402264</v>
+        <v>8215063548.5540228</v>
       </c>
       <c r="D13">
-        <v>126878148.71103553</v>
+        <v>126497015.73735946</v>
       </c>
       <c r="E13">
-        <v>544048316.79859114</v>
+        <v>541584893.51898062</v>
       </c>
       <c r="F13">
-        <v>920.23045515989827</v>
+        <v>920.76851560419016</v>
       </c>
       <c r="G13">
-        <v>14.220876559357954</v>
+        <v>14.178158053244719</v>
       </c>
       <c r="H13">
-        <v>60.978537550542811</v>
+        <v>60.702429814666438</v>
       </c>
       <c r="I13" t="s">
         <v>16</v>
@@ -1115,22 +1115,22 @@
         <v>7744214</v>
       </c>
       <c r="C14">
-        <v>6434466344.9377308</v>
+        <v>6345106029.0725241</v>
       </c>
       <c r="D14">
-        <v>91430956.318895191</v>
+        <v>91085199.154661313</v>
       </c>
       <c r="E14">
-        <v>388567503.62637722</v>
+        <v>389800927.38548326</v>
       </c>
       <c r="F14">
-        <v>830.87403640159357</v>
+        <v>819.33505828642183</v>
       </c>
       <c r="G14">
-        <v>11.806357148562164</v>
+        <v>11.761709988213305</v>
       </c>
       <c r="H14">
-        <v>50.175202238261654</v>
+        <v>50.334472599218365</v>
       </c>
       <c r="I14" t="s">
         <v>17</v>
@@ -1156,22 +1156,22 @@
         <v>1912394</v>
       </c>
       <c r="C15">
-        <v>1110274950.1107504</v>
+        <v>1119254500.5300798</v>
       </c>
       <c r="D15">
-        <v>35710606.94616615</v>
+        <v>35995594.53267394</v>
       </c>
       <c r="E15">
-        <v>154210643.54864073</v>
+        <v>155024102.21904939</v>
       </c>
       <c r="F15">
-        <v>580.56809951858793</v>
+        <v>585.26354952487816</v>
       </c>
       <c r="G15">
-        <v>18.673247744014127</v>
+        <v>18.82226912062783</v>
       </c>
       <c r="H15">
-        <v>80.637485554044162</v>
+        <v>81.06284699651296</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
@@ -1197,22 +1197,22 @@
         <v>3755194</v>
       </c>
       <c r="C16">
-        <v>2182003514.459887</v>
+        <v>2227772436.0698481</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>591659147.66089618</v>
+        <v>586751991.32734466</v>
       </c>
       <c r="F16">
-        <v>581.06279314993765</v>
+        <v>593.2509574924353</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>157.5575450059028</v>
+        <v>156.25077994035584</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
@@ -1238,22 +1238,22 @@
         <v>9164672</v>
       </c>
       <c r="C17">
-        <v>23668827492.539467</v>
+        <v>23881604334.047722</v>
       </c>
       <c r="D17">
-        <v>350247774.77395141</v>
+        <v>352902204.01157749</v>
       </c>
       <c r="E17">
-        <v>1504954541.1927803</v>
+        <v>1519918638.851517</v>
       </c>
       <c r="F17">
-        <v>2582.6158854937162</v>
+        <v>2605.832956602017</v>
       </c>
       <c r="G17">
-        <v>38.217164212090886</v>
+        <v>38.506801335779116</v>
       </c>
       <c r="H17">
-        <v>164.21259169916613</v>
+        <v>165.84539401426662</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
@@ -1279,22 +1279,22 @@
         <v>1901037</v>
       </c>
       <c r="C18">
-        <v>775145568.04290032</v>
+        <v>797722623.42279065</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1553397.9319497014</v>
+        <v>1598642.5319094013</v>
       </c>
       <c r="F18">
-        <v>407.74880659497967</v>
+        <v>419.62498542784317</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.8171318769438477</v>
+        <v>0.84093183452473641</v>
       </c>
       <c r="I18" t="s">
         <v>19</v>
@@ -1320,22 +1320,22 @@
         <v>8636016</v>
       </c>
       <c r="C19">
-        <v>5168711576.8590355</v>
+        <v>5331193340.6739283</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10358139.432583246</v>
+        <v>10683754.189727321</v>
       </c>
       <c r="F19">
-        <v>598.50648457101465</v>
+        <v>617.32091981695362</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1.1994117927274852</v>
+        <v>1.2371160717774632</v>
       </c>
       <c r="I19" t="s">
         <v>19</v>
@@ -1443,22 +1443,22 @@
         <v>2877284</v>
       </c>
       <c r="C22">
-        <v>1277420223.4449248</v>
+        <v>1314626637.7200198</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2559960.3676251019</v>
+        <v>2634522.3200802025</v>
       </c>
       <c r="F22">
-        <v>443.9673745952519</v>
+        <v>456.89846317569618</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.88971417754559579</v>
+        <v>0.91562818271682689</v>
       </c>
       <c r="I22" t="s">
         <v>19</v>
@@ -1484,22 +1484,22 @@
         <v>3900879</v>
       </c>
       <c r="C23">
-        <v>3534043843.3199759</v>
+        <v>3534061837.0122628</v>
       </c>
       <c r="D23">
-        <v>53601049.052731141</v>
+        <v>53406566.916446097</v>
       </c>
       <c r="E23">
-        <v>234512155.8231672</v>
+        <v>233010681.87288553</v>
       </c>
       <c r="F23">
-        <v>905.96089838212765</v>
+        <v>905.96551110974292</v>
       </c>
       <c r="G23">
-        <v>13.740761775161737</v>
+        <v>13.690905797500024</v>
       </c>
       <c r="H23">
-        <v>60.117772384933552</v>
+        <v>59.732865816367422</v>
       </c>
       <c r="I23" t="s">
         <v>17</v>
@@ -1525,22 +1525,22 @@
         <v>602337</v>
       </c>
       <c r="C24">
-        <v>552637126.18343127</v>
+        <v>543713992.720029</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>395239.92866292963</v>
+        <v>387989.44131099927</v>
       </c>
       <c r="F24">
-        <v>917.48826019891067</v>
+        <v>902.6740723548927</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.65617740345177145</v>
+        <v>0.64414014299470113</v>
       </c>
       <c r="I24" t="s">
         <v>20</v>
@@ -1566,19 +1566,19 @@
         <v>4962679</v>
       </c>
       <c r="C25">
-        <v>3115184293.4226375</v>
+        <v>3112597156.4007411</v>
       </c>
       <c r="D25">
-        <v>31369025.73932901</v>
+        <v>31342974.000431124</v>
       </c>
       <c r="E25">
         <v>135994290.06179357</v>
       </c>
       <c r="F25">
-        <v>627.72230350232962</v>
+        <v>627.20098487142548</v>
       </c>
       <c r="G25">
-        <v>6.3209862534588694</v>
+        <v>6.3157367221275296</v>
       </c>
       <c r="H25">
         <v>27.403402489218738</v>
@@ -1607,22 +1607,22 @@
         <v>9744872</v>
       </c>
       <c r="C26">
-        <v>9070149804.1860657</v>
+        <v>9009549467.4757614</v>
       </c>
       <c r="D26">
-        <v>113356293.95011273</v>
+        <v>113914963.51244858</v>
       </c>
       <c r="E26">
-        <v>1588611330.7580113</v>
+        <v>1577502958.327445</v>
       </c>
       <c r="F26">
-        <v>930.76130750471282</v>
+        <v>924.54261764297792</v>
       </c>
       <c r="G26">
-        <v>11.632404607275779</v>
+        <v>11.689734201993478</v>
       </c>
       <c r="H26">
-        <v>163.02023574635064</v>
+        <v>161.88031595771037</v>
       </c>
       <c r="I26" t="s">
         <v>17</v>
@@ -1648,22 +1648,22 @@
         <v>2476429</v>
       </c>
       <c r="C27">
-        <v>2754363350.7040281</v>
+        <v>2760895868.2459164</v>
       </c>
       <c r="D27">
-        <v>40766373.153654069</v>
+        <v>40752214.411273271</v>
       </c>
       <c r="E27">
-        <v>174917929.30090415</v>
+        <v>174878527.49003509</v>
       </c>
       <c r="F27">
-        <v>1112.2319075992198</v>
+        <v>1114.869785584774</v>
       </c>
       <c r="G27">
-        <v>16.461757293931733</v>
+        <v>16.456039891017781</v>
       </c>
       <c r="H27">
-        <v>70.63312911490867</v>
+        <v>70.617218377766974</v>
       </c>
       <c r="I27" t="s">
         <v>17</v>
@@ -1689,22 +1689,22 @@
         <v>786988</v>
       </c>
       <c r="C28">
-        <v>1235278823.3667834</v>
+        <v>1237160649.2785673</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1979613.4989852866</v>
+        <v>1982629.2456387863</v>
       </c>
       <c r="F28">
-        <v>1569.6285373687824</v>
+        <v>1572.0197122174256</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>2.51543034834748</v>
+        <v>2.5192623593228696</v>
       </c>
       <c r="I28" t="s">
         <v>17</v>
@@ -1730,22 +1730,22 @@
         <v>12851943</v>
       </c>
       <c r="C29">
-        <v>13815755340.629807</v>
+        <v>13859536988.414598</v>
       </c>
       <c r="D29">
-        <v>210363968.47774112</v>
+        <v>212394999.54666758</v>
       </c>
       <c r="E29">
-        <v>902554817.00302267</v>
+        <v>911953971.97879755</v>
       </c>
       <c r="F29">
-        <v>1074.9935119249913</v>
+        <v>1078.4001289466191</v>
       </c>
       <c r="G29">
-        <v>16.368261863419495</v>
+        <v>16.526294860369951</v>
       </c>
       <c r="H29">
-        <v>70.227110173381774</v>
+        <v>70.958451339131955</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
@@ -1771,22 +1771,22 @@
         <v>1157290</v>
       </c>
       <c r="C30">
-        <v>1396517670.2125666</v>
+        <v>1395399804.118304</v>
       </c>
       <c r="D30">
-        <v>21102718.512683272</v>
+        <v>21213329.283051416</v>
       </c>
       <c r="E30">
-        <v>90746789.049572915</v>
+        <v>91068473.14402242</v>
       </c>
       <c r="F30">
-        <v>1206.7136760989611</v>
+        <v>1205.7477418091437</v>
       </c>
       <c r="G30">
-        <v>18.234598512631468</v>
+        <v>18.330175913601099</v>
       </c>
       <c r="H30">
-        <v>78.413179971807338</v>
+        <v>78.691143226004215</v>
       </c>
       <c r="I30" t="s">
         <v>22</v>
@@ -1812,22 +1812,22 @@
         <v>2981276</v>
       </c>
       <c r="C31">
-        <v>1075179806.3716199</v>
+        <v>1002702538.200644</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>750079543.37945771</v>
+        <v>745725448.08793485</v>
       </c>
       <c r="F31">
-        <v>360.64416926564996</v>
+        <v>336.33334793579797</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>251.59681404185915</v>
+        <v>250.13633359941679</v>
       </c>
       <c r="I31" t="s">
         <v>23</v>
@@ -1853,22 +1853,22 @@
         <v>1265697</v>
       </c>
       <c r="C32">
-        <v>465275992.42491949</v>
+        <v>442467716.63159251</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>329947941.69097954</v>
+        <v>324082259.48945516</v>
       </c>
       <c r="F32">
-        <v>367.60456288109987</v>
+        <v>349.58423432432289</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>260.68477818228183</v>
+        <v>256.05042872777227</v>
       </c>
       <c r="I32" t="s">
         <v>23</v>
@@ -1894,22 +1894,22 @@
         <v>5057931</v>
       </c>
       <c r="C33">
-        <v>1682727674.2703693</v>
+        <v>1663390021.0885448</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1221746972.5782914</v>
+        <v>1230483295.6833487</v>
       </c>
       <c r="F33">
-        <v>332.69091141622323</v>
+        <v>328.8676775322844</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>241.55073933952269</v>
+        <v>243.27799166958755</v>
       </c>
       <c r="I33" t="s">
         <v>23</v>
@@ -1935,22 +1935,22 @@
         <v>1796131</v>
       </c>
       <c r="C34">
-        <v>362402436.56342632</v>
+        <v>361086665.52457976</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>798763315.30283546</v>
+        <v>798730073.92323875</v>
       </c>
       <c r="F34">
-        <v>201.76837689646598</v>
+        <v>201.03581839218842</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>444.7132838878876</v>
+        <v>444.69477667455146</v>
       </c>
       <c r="I34" t="s">
         <v>23</v>
@@ -1976,7 +1976,7 @@
         <v>2372033</v>
       </c>
       <c r="C35">
-        <v>719320841.74474227</v>
+        <v>714581532.06688404</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>523390043.6051318</v>
       </c>
       <c r="F35">
-        <v>303.25077338500023</v>
+        <v>301.25277855193582</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2017,22 +2017,22 @@
         <v>4881045</v>
       </c>
       <c r="C36">
-        <v>1409313328.7275736</v>
+        <v>1409557703.7024758</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1056828825.1819232</v>
+        <v>1060044035.2477719</v>
       </c>
       <c r="F36">
-        <v>288.73188604644571</v>
+        <v>288.78195216443936</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>216.51691905768604</v>
+        <v>217.17563252290685</v>
       </c>
       <c r="I36" t="s">
         <v>23</v>
@@ -2058,22 +2058,22 @@
         <v>10305807</v>
       </c>
       <c r="C37">
-        <v>6501439939.6258068</v>
+        <v>6442312536.5860214</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>4771761.6510583246</v>
+        <v>4749727.1089627054</v>
       </c>
       <c r="F37">
-        <v>630.85209529208214</v>
+        <v>625.11480533121005</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.46301678762840454</v>
+        <v>0.46087871711188705</v>
       </c>
       <c r="I37" t="s">
         <v>23</v>
@@ -2140,22 +2140,22 @@
         <v>1542905</v>
       </c>
       <c r="C39">
-        <v>902374784.56019926</v>
+        <v>898870911.68599868</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>134650911.44827789</v>
+        <v>132819618.8813836</v>
       </c>
       <c r="F39">
-        <v>584.85440423110902</v>
+        <v>582.58344595811059</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>87.271031883542989</v>
+        <v>86.084119813846996</v>
       </c>
       <c r="I39" t="s">
         <v>23</v>
@@ -2181,22 +2181,22 @@
         <v>2219933</v>
       </c>
       <c r="C40">
-        <v>769968787.0492624</v>
+        <v>773412668.31799245</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>534621847.98352188</v>
+        <v>533232075.63529402</v>
       </c>
       <c r="F40">
-        <v>346.84325475104987</v>
+        <v>348.3945994397094</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>240.82792047486203</v>
+        <v>240.20187800050454</v>
       </c>
       <c r="I40" t="s">
         <v>23</v>
@@ -2222,22 +2222,22 @@
         <v>1928627</v>
       </c>
       <c r="C41">
-        <v>1684783837.6279283</v>
+        <v>1754762937.6646762</v>
       </c>
       <c r="D41">
-        <v>23954308.162324965</v>
+        <v>24580352.523385726</v>
       </c>
       <c r="E41">
-        <v>104824076.63191888</v>
+        <v>105123712.27271773</v>
       </c>
       <c r="F41">
-        <v>873.56644785535423</v>
+        <v>909.85086160500509</v>
       </c>
       <c r="G41">
-        <v>12.420394489097667</v>
+        <v>12.745000730253038</v>
       </c>
       <c r="H41">
-        <v>54.351658787271397</v>
+        <v>54.507020939102134</v>
       </c>
       <c r="I41" t="s">
         <v>23</v>
@@ -2263,22 +2263,22 @@
         <v>1066912</v>
       </c>
       <c r="C42">
-        <v>1654915493.0336227</v>
+        <v>1651050686.6926143</v>
       </c>
       <c r="D42">
-        <v>26394055.58936524</v>
+        <v>26288256.046001084</v>
       </c>
       <c r="E42">
-        <v>113180592.01839277</v>
+        <v>112414978.30329625</v>
       </c>
       <c r="F42">
-        <v>1551.1265156204286</v>
+        <v>1547.5040928329743</v>
       </c>
       <c r="G42">
-        <v>24.738737205472653</v>
+        <v>24.639572941349506</v>
       </c>
       <c r="H42">
-        <v>106.08240606384854</v>
+        <v>105.36480825344195</v>
       </c>
       <c r="I42" t="s">
         <v>23</v>
@@ -2304,22 +2304,22 @@
         <v>5225154</v>
       </c>
       <c r="C43">
-        <v>4463773000.5848732</v>
+        <v>4468298550.0882339</v>
       </c>
       <c r="D43">
-        <v>79845154.058216542</v>
+        <v>80322664.607633591</v>
       </c>
       <c r="E43">
-        <v>344738548.56976432</v>
+        <v>345681242.06055236</v>
       </c>
       <c r="F43">
-        <v>854.2854431821288</v>
+        <v>855.15155153096612</v>
       </c>
       <c r="G43">
-        <v>15.280918812769258</v>
+        <v>15.372305698096858</v>
       </c>
       <c r="H43">
-        <v>65.97672500557195</v>
+        <v>66.15713949494166</v>
       </c>
       <c r="I43" t="s">
         <v>24</v>
@@ -2345,22 +2345,22 @@
         <v>2992958</v>
       </c>
       <c r="C44">
-        <v>2625619615.5813642</v>
+        <v>2654770324.8482237</v>
       </c>
       <c r="D44">
-        <v>34185608.912614442</v>
+        <v>35169222.38417767</v>
       </c>
       <c r="E44">
-        <v>430117273.33713597</v>
+        <v>436160328.9178077</v>
       </c>
       <c r="F44">
-        <v>877.26577371996677</v>
+        <v>887.00553928529018</v>
       </c>
       <c r="G44">
-        <v>11.422014245644089</v>
+        <v>11.750656836540195</v>
       </c>
       <c r="H44">
-        <v>143.70975915369877</v>
+        <v>145.72885049432958</v>
       </c>
       <c r="I44" t="s">
         <v>24</v>
@@ -2427,22 +2427,22 @@
         <v>8966852</v>
       </c>
       <c r="C46">
-        <v>10472982560.268034</v>
+        <v>10479201721.961807</v>
       </c>
       <c r="D46">
-        <v>130709613.63875227</v>
+        <v>130612480.89784455</v>
       </c>
       <c r="E46">
-        <v>561903645.72261715</v>
+        <v>560251571.10319793</v>
       </c>
       <c r="F46">
-        <v>1167.9664792357489</v>
+        <v>1168.6600517061961</v>
       </c>
       <c r="G46">
-        <v>14.576979037766238</v>
+        <v>14.566146613978301</v>
       </c>
       <c r="H46">
-        <v>62.66453887302</v>
+        <v>62.480296441069612</v>
       </c>
       <c r="I46" t="s">
         <v>24</v>
@@ -2468,22 +2468,22 @@
         <v>1441562</v>
       </c>
       <c r="C47">
-        <v>1836771396.9161043</v>
+        <v>1827689636.3235271</v>
       </c>
       <c r="D47">
-        <v>29298142.620841634</v>
+        <v>29347436.725982592</v>
       </c>
       <c r="E47">
-        <v>123821372.48825803</v>
+        <v>123692535.10503834</v>
       </c>
       <c r="F47">
-        <v>1274.153589589698</v>
+        <v>1267.8536450902056</v>
       </c>
       <c r="G47">
-        <v>20.323886604143031</v>
+        <v>20.358081529606491</v>
       </c>
       <c r="H47">
-        <v>85.893893213235387</v>
+        <v>85.804519753599465</v>
       </c>
       <c r="I47" t="s">
         <v>24</v>
@@ -2509,22 +2509,22 @@
         <v>1650341</v>
       </c>
       <c r="C48">
-        <v>615095152.01272297</v>
+        <v>617947725.88041782</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>459850028.45069325</v>
+        <v>460434933.81248403</v>
       </c>
       <c r="F48">
-        <v>372.70791431148047</v>
+        <v>374.43638974031296</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>278.6394014635116</v>
+        <v>278.99381631583049</v>
       </c>
       <c r="I48" t="s">
         <v>24</v>
@@ -2550,22 +2550,22 @@
         <v>4984247</v>
       </c>
       <c r="C49">
-        <v>4299053798.1384144</v>
+        <v>3945127014.9926891</v>
       </c>
       <c r="D49">
-        <v>63980157.135129407</v>
+        <v>58444645.475009546</v>
       </c>
       <c r="E49">
-        <v>264711921.5738796</v>
+        <v>261414549.97464958</v>
       </c>
       <c r="F49">
-        <v>862.52824110410552</v>
+        <v>791.51916327435003</v>
       </c>
       <c r="G49">
-        <v>12.836474022079846</v>
+        <v>11.725872629307807</v>
       </c>
       <c r="H49">
-        <v>53.10971177268695</v>
+        <v>52.448153146232436</v>
       </c>
       <c r="I49" t="s">
         <v>24</v>
@@ -2591,22 +2591,22 @@
         <v>508325</v>
       </c>
       <c r="C50">
-        <v>869574216.96943188</v>
+        <v>871351685.6658349</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>468232270.67584789</v>
+        <v>469189369.2046802</v>
       </c>
       <c r="F50">
-        <v>1710.6658475767115</v>
+        <v>1714.1625646305708</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>921.12776407976764</v>
+        <v>923.01061172415325</v>
       </c>
       <c r="I50" t="s">
         <v>24</v>
@@ -2632,22 +2632,22 @@
         <v>2093626</v>
       </c>
       <c r="C51">
-        <v>1099932360.805007</v>
+        <v>1100732180.4903769</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>745174948.72600842</v>
+        <v>816955652.17828906</v>
       </c>
       <c r="F51">
-        <v>525.37194360645458</v>
+        <v>525.75396966333858</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>355.9255324141028</v>
+        <v>390.21088397750555</v>
       </c>
       <c r="I51" t="s">
         <v>24</v>
@@ -2673,22 +2673,22 @@
         <v>1408704</v>
       </c>
       <c r="C52">
-        <v>1695399081.4171181</v>
+        <v>1687068365.8960543</v>
       </c>
       <c r="D52">
-        <v>22118244.767488852</v>
+        <v>21768354.715604167</v>
       </c>
       <c r="E52">
-        <v>90251143.52277647</v>
+        <v>89967861.244530022</v>
       </c>
       <c r="F52">
-        <v>1203.5169073255404</v>
+        <v>1197.6031628333947</v>
       </c>
       <c r="G52">
-        <v>15.701130093681037</v>
+        <v>15.45275282501091</v>
       </c>
       <c r="H52">
-        <v>64.066790129634384</v>
+        <v>63.865695876869822</v>
       </c>
       <c r="I52" t="s">
         <v>24</v>
@@ -2755,22 +2755,22 @@
         <v>860420</v>
       </c>
       <c r="C54">
-        <v>640919824.74269545</v>
+        <v>635533943.86250484</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1027115.1037543492</v>
+        <v>1018483.8843950691</v>
       </c>
       <c r="F54">
-        <v>744.89182578588998</v>
+        <v>738.6322306112188</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>1.193736900297935</v>
+        <v>1.183705497774423</v>
       </c>
       <c r="I54" t="s">
         <v>25</v>
@@ -2796,22 +2796,22 @@
         <v>245567</v>
       </c>
       <c r="C55">
-        <v>62611794.882566616</v>
+        <v>61025423.964557171</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>43947100.467395693</v>
+        <v>43763564.269022077</v>
       </c>
       <c r="F55">
-        <v>254.96827701835596</v>
+        <v>248.50824404157387</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>178.96175164983768</v>
+        <v>178.21435400123826</v>
       </c>
       <c r="I55" t="s">
         <v>25</v>
@@ -2837,22 +2837,22 @@
         <v>9501203</v>
       </c>
       <c r="C56">
-        <v>5930611200.9251556</v>
+        <v>5934273581.2496262</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>8759729.5027947985</v>
+        <v>8742372.3052596413</v>
       </c>
       <c r="F56">
-        <v>624.19582035297594</v>
+        <v>624.58128525931147</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0.92196004051221703</v>
+        <v>0.92013319842336194</v>
       </c>
       <c r="I56" t="s">
         <v>25</v>
@@ -2878,22 +2878,22 @@
         <v>2526066</v>
       </c>
       <c r="C57">
-        <v>1396458206.1363668</v>
+        <v>1403226132.3269243</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>228883943.99202472</v>
+        <v>229609153.44736391</v>
       </c>
       <c r="F57">
-        <v>552.81936661051884</v>
+        <v>555.4986023037103</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>90.608853447227716</v>
+        <v>90.895943909368924</v>
       </c>
       <c r="I57" t="s">
         <v>25</v>
@@ -2919,7 +2919,7 @@
         <v>1081826</v>
       </c>
       <c r="C58">
-        <v>370893704.53401113</v>
+        <v>372143428.82393229</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2928,7 +2928,7 @@
         <v>261026163.1691359</v>
       </c>
       <c r="F58">
-        <v>342.84044248706459</v>
+        <v>343.99564146538563</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2960,22 +2960,22 @@
         <v>250729</v>
       </c>
       <c r="C59">
-        <v>51597076.340463601</v>
+        <v>50106356.796294957</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>120411008.61910319</v>
+        <v>119571994.66395727</v>
       </c>
       <c r="F59">
-        <v>205.78822689223665</v>
+        <v>199.84268591305735</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>480.24364401047819</v>
+        <v>476.89734599490794</v>
       </c>
       <c r="I59" t="s">
         <v>25</v>
@@ -3001,22 +3001,22 @@
         <v>750815</v>
       </c>
       <c r="C60">
-        <v>520952093.92758638</v>
+        <v>520869748.14462203</v>
       </c>
       <c r="D60">
-        <v>7036101.5283276374</v>
+        <v>7098416.9916788908</v>
       </c>
       <c r="E60">
-        <v>36719149.846875019</v>
+        <v>37417710.673021972</v>
       </c>
       <c r="F60">
-        <v>693.84880953042546</v>
+        <v>693.73913433352027</v>
       </c>
       <c r="G60">
-        <v>9.3712852411414769</v>
+        <v>9.4542823354340157</v>
       </c>
       <c r="H60">
-        <v>48.905722244327855</v>
+        <v>49.836125640832925</v>
       </c>
       <c r="I60" t="s">
         <v>25</v>
@@ -3042,22 +3042,22 @@
         <v>6981232</v>
       </c>
       <c r="C61">
-        <v>4980899394.7791662</v>
+        <v>5035488405.3080196</v>
       </c>
       <c r="D61">
-        <v>64028076.016872711</v>
+        <v>64627188.161939591</v>
       </c>
       <c r="E61">
-        <v>275247862.23193669</v>
+        <v>277277283.79623902</v>
       </c>
       <c r="F61">
-        <v>713.46997131439923</v>
+        <v>721.28936630497594</v>
       </c>
       <c r="G61">
-        <v>9.1714579914938668</v>
+        <v>9.2572755298691671</v>
       </c>
       <c r="H61">
-        <v>39.426832145377304</v>
+        <v>39.717528911263656</v>
       </c>
       <c r="I61" t="s">
         <v>13</v>
@@ -3124,22 +3124,22 @@
         <v>384251</v>
       </c>
       <c r="C63">
-        <v>130728726.96288681</v>
+        <v>131603327.92454837</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>96194165.612169042</v>
+        <v>96237394.783404008</v>
       </c>
       <c r="F63">
-        <v>340.21701170039069</v>
+        <v>342.49313059575218</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>250.34200460680398</v>
+        <v>250.45450703681709</v>
       </c>
       <c r="I63" t="s">
         <v>13</v>
@@ -3165,22 +3165,22 @@
         <v>1245893</v>
       </c>
       <c r="C64">
-        <v>1683042457.6543293</v>
+        <v>1685825889.7262454</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1235843443.1339931</v>
+        <v>1208369349.9842162</v>
       </c>
       <c r="F64">
-        <v>1350.8723924561173</v>
+        <v>1353.1064784265145</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>991.93385237254972</v>
+        <v>969.88212469627501</v>
       </c>
       <c r="I64" t="s">
         <v>26</v>
@@ -3206,22 +3206,22 @@
         <v>2032750</v>
       </c>
       <c r="C65">
-        <v>2237811037.2419634</v>
+        <v>2230588997.1132097</v>
       </c>
       <c r="D65">
-        <v>20173170.564686924</v>
+        <v>20066465.19150281</v>
       </c>
       <c r="E65">
-        <v>86539520.412310138</v>
+        <v>86271392.927762359</v>
       </c>
       <c r="F65">
-        <v>1100.8786310377386</v>
+        <v>1097.3257887655686</v>
       </c>
       <c r="G65">
-        <v>9.9240784969558113</v>
+        <v>9.871585385070869</v>
       </c>
       <c r="H65">
-        <v>42.572633335289702</v>
+        <v>42.440729518023545</v>
       </c>
       <c r="I65" t="s">
         <v>26</v>
@@ -3247,22 +3247,22 @@
         <v>11367897</v>
       </c>
       <c r="C66">
-        <v>13591029429.484226</v>
+        <v>13610240545.542751</v>
       </c>
       <c r="D66">
-        <v>122506942.78288868</v>
+        <v>122594432.54284683</v>
       </c>
       <c r="E66">
-        <v>527382742.08661515</v>
+        <v>527243313.74675059</v>
       </c>
       <c r="F66">
-        <v>1195.5623304366873</v>
+        <v>1197.2522750287719</v>
       </c>
       <c r="G66">
-        <v>10.776570440679457</v>
+        <v>10.784266653968348</v>
       </c>
       <c r="H66">
-        <v>46.392287165041623</v>
+        <v>46.380022069759306</v>
       </c>
       <c r="I66" t="s">
         <v>26</v>
@@ -3288,22 +3288,22 @@
         <v>7935224</v>
       </c>
       <c r="C67">
-        <v>7863980926.5412092</v>
+        <v>7891270211.6842537</v>
       </c>
       <c r="D67">
-        <v>58854897.004132465</v>
+        <v>58819346.302298591</v>
       </c>
       <c r="E67">
-        <v>252046944.00910711</v>
+        <v>252106466.11702737</v>
       </c>
       <c r="F67">
-        <v>991.02192030637184</v>
+        <v>994.46092658307487</v>
       </c>
       <c r="G67">
-        <v>7.4169169016693752</v>
+        <v>7.4124367884635127</v>
       </c>
       <c r="H67">
-        <v>31.763053444881596</v>
+        <v>31.770554443961174</v>
       </c>
       <c r="I67" t="s">
         <v>26</v>
@@ -3329,22 +3329,22 @@
         <v>2300225</v>
       </c>
       <c r="C68">
-        <v>2988011292.5827827</v>
+        <v>2991222176.9521103</v>
       </c>
       <c r="D68">
-        <v>45933404.229863361</v>
+        <v>45210367.634242915</v>
       </c>
       <c r="E68">
-        <v>196831766.42677754</v>
+        <v>194321347.07029939</v>
       </c>
       <c r="F68">
-        <v>1299.0082677054561</v>
+        <v>1300.4041678323251</v>
       </c>
       <c r="G68">
-        <v>19.969091819219145</v>
+        <v>19.654758831959011</v>
       </c>
       <c r="H68">
-        <v>85.570657838592979</v>
+        <v>84.479277927289459</v>
       </c>
       <c r="I68" t="s">
         <v>26</v>
@@ -3370,22 +3370,22 @@
         <v>12008149</v>
       </c>
       <c r="C69">
-        <v>11556142287.125328</v>
+        <v>11494824655.669233</v>
       </c>
       <c r="D69">
-        <v>179129156.61875105</v>
+        <v>177669916.164904</v>
       </c>
       <c r="E69">
-        <v>769938418.10081649</v>
+        <v>762944413.87319994</v>
       </c>
       <c r="F69">
-        <v>962.35833575393906</v>
+        <v>957.25200075958696</v>
       </c>
       <c r="G69">
-        <v>14.917299628673083</v>
+        <v>14.795778780301942</v>
       </c>
       <c r="H69">
-        <v>64.117993381062846</v>
+        <v>63.535555219476372</v>
       </c>
       <c r="I69" t="s">
         <v>26</v>
@@ -3411,22 +3411,22 @@
         <v>6141807</v>
       </c>
       <c r="C70">
-        <v>2722624156.5248322</v>
+        <v>2720865432.3114424</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>1466028391.9749098</v>
+        <v>1465081386.6292381</v>
       </c>
       <c r="F70">
-        <v>443.29366854491394</v>
+        <v>443.00731565017304</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
-        <v>238.69659075495369</v>
+        <v>238.54240073470856</v>
       </c>
       <c r="I70" t="s">
         <v>26</v>
@@ -3452,22 +3452,22 @@
         <v>1488285</v>
       </c>
       <c r="C71">
-        <v>1325847838.8347454</v>
+        <v>1316575847.6834502</v>
       </c>
       <c r="D71">
-        <v>20170334.763738349</v>
+        <v>20155970.64817404</v>
       </c>
       <c r="E71">
-        <v>86771684.98214151</v>
+        <v>86371557.923577636</v>
       </c>
       <c r="F71">
-        <v>890.85614572124655</v>
+        <v>884.62616211508566</v>
       </c>
       <c r="G71">
-        <v>13.552736716246114</v>
+        <v>13.543085261340428</v>
       </c>
       <c r="H71">
-        <v>58.303137491906128</v>
+        <v>58.034286392443406</v>
       </c>
       <c r="I71" t="s">
         <v>26</v>
@@ -3493,22 +3493,22 @@
         <v>524509</v>
       </c>
       <c r="C72">
-        <v>907081875.1284678</v>
+        <v>913037200.34233844</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>1417797.5246612974</v>
+        <v>1424053.5070763673</v>
       </c>
       <c r="F72">
-        <v>1729.3923938930843</v>
+        <v>1740.7464892734699</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>2.7030947508265779</v>
+        <v>2.7150220626840862</v>
       </c>
       <c r="I72" t="s">
         <v>26</v>
@@ -3534,22 +3534,22 @@
         <v>48329</v>
       </c>
       <c r="C73">
-        <v>56665092.517269582</v>
+        <v>56392843.307889327</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>41326015.893403627</v>
+        <v>41256963.614765748</v>
       </c>
       <c r="F73">
-        <v>1172.4863439605533</v>
+        <v>1166.8530966477545</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>855.09768241436052</v>
+        <v>853.66888648152758</v>
       </c>
       <c r="I73" t="s">
         <v>26</v>
@@ -3575,22 +3575,22 @@
         <v>402573</v>
       </c>
       <c r="C74">
-        <v>192661275.68427321</v>
+        <v>192203652.06507343</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>103740686.90691634</v>
+        <v>103494274.18888569</v>
       </c>
       <c r="F74">
-        <v>478.57475708572906</v>
+        <v>477.43801016231447</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>257.69409996923872</v>
+        <v>257.08200547201551</v>
       </c>
       <c r="I74" t="s">
         <v>21</v>
@@ -3616,22 +3616,22 @@
         <v>1336530</v>
       </c>
       <c r="C75">
-        <v>772810947.71340632</v>
+        <v>764094590.95577228</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>585054829.31546533</v>
+        <v>577620733.35166514</v>
       </c>
       <c r="F75">
-        <v>578.22192372292898</v>
+        <v>571.70029176731703</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>437.74163641329812</v>
+        <v>432.17939990248266</v>
       </c>
       <c r="I75" t="s">
         <v>21</v>
@@ -3657,22 +3657,22 @@
         <v>1349171</v>
       </c>
       <c r="C76">
-        <v>1096433966.9049525</v>
+        <v>1114148665.7904341</v>
       </c>
       <c r="D76">
-        <v>5123057.8553876942</v>
+        <v>5244807.2611609567</v>
       </c>
       <c r="E76">
-        <v>21988354.298667304</v>
+        <v>22272244.107425153</v>
       </c>
       <c r="F76">
-        <v>812.67234983923652</v>
+        <v>825.80241184433567</v>
       </c>
       <c r="G76">
-        <v>3.7971894262385524</v>
+        <v>3.8874295853979643</v>
       </c>
       <c r="H76">
-        <v>16.297677832289089</v>
+        <v>16.508095791730739</v>
       </c>
       <c r="I76" t="s">
         <v>21</v>
@@ -3698,22 +3698,22 @@
         <v>518992</v>
       </c>
       <c r="C77">
-        <v>515666274.85636932</v>
+        <v>523260537.46314216</v>
       </c>
       <c r="D77">
-        <v>2520917.3603035221</v>
+        <v>2526304.15416309</v>
       </c>
       <c r="E77">
-        <v>10835926.521270655</v>
+        <v>10858432.388214815</v>
       </c>
       <c r="F77">
-        <v>993.59195297108499</v>
+        <v>1008.2246690953659</v>
       </c>
       <c r="G77">
-        <v>4.8573337552477147</v>
+        <v>4.8677130941576943</v>
       </c>
       <c r="H77">
-        <v>20.878792970355335</v>
+        <v>20.922157544268149</v>
       </c>
       <c r="I77" t="s">
         <v>21</v>
@@ -3739,22 +3739,22 @@
         <v>4238250</v>
       </c>
       <c r="C78">
-        <v>3289410589.1240001</v>
+        <v>3294666477.3111801</v>
       </c>
       <c r="D78">
-        <v>47672020.899420217</v>
+        <v>47406187.933036551</v>
       </c>
       <c r="E78">
-        <v>204782448.57590613</v>
+        <v>203284636.3344377</v>
       </c>
       <c r="F78">
-        <v>776.12471872211415</v>
+        <v>777.36482682974815</v>
       </c>
       <c r="G78">
-        <v>11.248043626359987</v>
+        <v>11.185321284265099</v>
       </c>
       <c r="H78">
-        <v>48.317689748340975</v>
+        <v>47.964286281941298</v>
       </c>
       <c r="I78" t="s">
         <v>21</v>
@@ -3780,22 +3780,22 @@
         <v>1825199</v>
       </c>
       <c r="C79">
-        <v>311351148.14543593</v>
+        <v>314582838.32111347</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>229979487.85291761</v>
+        <v>228572679.05350935</v>
       </c>
       <c r="F79">
-        <v>170.58476809675872</v>
+        <v>172.35536416638047</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>126.00241828585136</v>
+        <v>125.23164819480471</v>
       </c>
       <c r="I79" t="s">
         <v>27</v>
@@ -3821,22 +3821,22 @@
         <v>8749914</v>
       </c>
       <c r="C80">
-        <v>2692251643.7589312</v>
+        <v>2709292892.9432921</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>1883247879.9633694</v>
+        <v>1864540192.0517855</v>
       </c>
       <c r="F80">
-        <v>307.68892628646762</v>
+        <v>309.6365167638553</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>215.23044454646862</v>
+        <v>213.09240205695571</v>
       </c>
       <c r="I80" t="s">
         <v>27</v>
@@ -3862,22 +3862,22 @@
         <v>992174</v>
       </c>
       <c r="C81">
-        <v>328605010.15939081</v>
+        <v>329039894.57280743</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>240247233.69359949</v>
+        <v>241009349.19386607</v>
       </c>
       <c r="F81">
-        <v>331.19695754917063</v>
+        <v>331.63527221314752</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>242.14223885487777</v>
+        <v>242.91036571595916</v>
       </c>
       <c r="I81" t="s">
         <v>27</v>
@@ -3903,22 +3903,22 @@
         <v>1769518</v>
       </c>
       <c r="C82">
-        <v>605868220.90369761</v>
+        <v>620476102.17014015</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>425651889.57258844</v>
+        <v>435291503.1648978</v>
       </c>
       <c r="F82">
-        <v>342.39166875030241</v>
+        <v>350.64695706409321</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <v>240.54679837819589</v>
+        <v>245.99439122116746</v>
       </c>
       <c r="I82" t="s">
         <v>27</v>
@@ -3944,22 +3944,22 @@
         <v>16149545</v>
       </c>
       <c r="C83">
-        <v>11022961650.840456</v>
+        <v>11089249687.65769</v>
       </c>
       <c r="D83">
-        <v>169797602.61310673</v>
+        <v>170148928.23399344</v>
       </c>
       <c r="E83">
-        <v>728132716.67524624</v>
+        <v>728451056.22776246</v>
       </c>
       <c r="F83">
-        <v>682.55555502278582</v>
+        <v>686.66019306783505</v>
       </c>
       <c r="G83">
-        <v>10.514079660641011</v>
+        <v>10.535834181953327</v>
       </c>
       <c r="H83">
-        <v>45.086887381362523</v>
+        <v>45.106599364115986</v>
       </c>
       <c r="I83" t="s">
         <v>27</v>
@@ -3985,22 +3985,22 @@
         <v>1806150</v>
       </c>
       <c r="C84">
-        <v>897098863.24657297</v>
+        <v>886158591.51102531</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>646474633.36490059</v>
+        <v>644962144.22184777</v>
       </c>
       <c r="F84">
-        <v>496.69122899347951</v>
+        <v>490.63399579825892</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>357.92964779497862</v>
+        <v>357.09223720169854</v>
       </c>
       <c r="I84" t="s">
         <v>27</v>
@@ -4026,22 +4026,22 @@
         <v>5446539</v>
       </c>
       <c r="C85">
-        <v>2540394040.3305616</v>
+        <v>2551346676.3933797</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>1853773361.0783205</v>
+        <v>1857043857.760181</v>
       </c>
       <c r="F85">
-        <v>466.42354719769043</v>
+        <v>468.43448222685629</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>340.35804408603713</v>
+        <v>340.95851654788129</v>
       </c>
       <c r="I85" t="s">
         <v>27</v>
@@ -4067,22 +4067,22 @@
         <v>2101351</v>
       </c>
       <c r="C86">
-        <v>701997661.68057668</v>
+        <v>708372481.85546386</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>520522155.65564752</v>
+        <v>519728809.11604393</v>
       </c>
       <c r="F86">
-        <v>334.06968263777765</v>
+        <v>337.10335962695609</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>247.70833414105854</v>
+        <v>247.33079295940752</v>
       </c>
       <c r="I86" t="s">
         <v>27</v>
@@ -4108,22 +4108,22 @@
         <v>1738999</v>
       </c>
       <c r="C87">
-        <v>647827209.94722748</v>
+        <v>651951571.45910847</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>204691861.27890974</v>
+        <v>206254596.03998363</v>
       </c>
       <c r="F87">
-        <v>372.52879958368436</v>
+        <v>374.90048669326922</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <v>117.70671592042879</v>
+        <v>118.60535632279468</v>
       </c>
       <c r="I87" t="s">
         <v>27</v>
@@ -4149,22 +4149,22 @@
         <v>205407</v>
       </c>
       <c r="C88">
-        <v>209774591.09460235</v>
+        <v>209176727.06610548</v>
       </c>
       <c r="D88">
-        <v>3310491.2655132278</v>
+        <v>3262198.4997625365</v>
       </c>
       <c r="E88">
-        <v>14196415.061996367</v>
+        <v>13890076.388633346</v>
       </c>
       <c r="F88">
-        <v>1021.2631073653885</v>
+        <v>1018.3524761381329</v>
       </c>
       <c r="G88">
-        <v>16.116740254778211</v>
+        <v>15.881632562485876</v>
       </c>
       <c r="H88">
-        <v>69.11358942001182</v>
+        <v>67.622215351148427</v>
       </c>
       <c r="I88" t="s">
         <v>27</v>
@@ -4190,22 +4190,22 @@
         <v>500876</v>
       </c>
       <c r="C89">
-        <v>187259120.05967885</v>
+        <v>183110422.73087165</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>129947793.66577438</v>
+        <v>131382734.73561761</v>
       </c>
       <c r="F89">
-        <v>373.86323173735389</v>
+        <v>365.58034869083696</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>259.44104661787424</v>
+        <v>262.30590951776009</v>
       </c>
       <c r="I89" t="s">
         <v>27</v>
@@ -4231,22 +4231,22 @@
         <v>869762</v>
       </c>
       <c r="C90">
-        <v>298847877.33582866</v>
+        <v>289936635.21962029</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>212021586.884184</v>
+        <v>208847315.01781762</v>
       </c>
       <c r="F90">
-        <v>343.59730286656423</v>
+        <v>333.35169301443415</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
-        <v>243.76965984278917</v>
+        <v>240.12007309794819</v>
       </c>
       <c r="I90" t="s">
         <v>27</v>
@@ -4272,22 +4272,22 @@
         <v>285146</v>
       </c>
       <c r="C91">
-        <v>144141431.41758871</v>
+        <v>144404143.15950122</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>288860.58400318411</v>
+        <v>289387.06043988245</v>
       </c>
       <c r="F91">
-        <v>505.5004503573212</v>
+        <v>506.42177396667398</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>1.0130269546238913</v>
+        <v>1.0148732945223937</v>
       </c>
       <c r="I91" t="s">
         <v>27</v>
@@ -4313,22 +4313,22 @@
         <v>6959580</v>
       </c>
       <c r="C92">
-        <v>3462121782.6971145</v>
+        <v>3461471909.229928</v>
       </c>
       <c r="D92">
-        <v>16422950.216911554</v>
+        <v>16428227.571029216</v>
       </c>
       <c r="E92">
-        <v>272492069.67366618</v>
+        <v>272542046.91338468</v>
       </c>
       <c r="F92">
-        <v>497.46130983437428</v>
+        <v>497.36793157488353</v>
       </c>
       <c r="G92">
-        <v>2.3597616834509489</v>
+        <v>2.3605199697437511</v>
       </c>
       <c r="H92">
-        <v>39.153522148415014</v>
+        <v>39.160703219646109</v>
       </c>
       <c r="I92" t="s">
         <v>28</v>
@@ -4354,22 +4354,22 @@
         <v>3030017</v>
       </c>
       <c r="C93">
-        <v>1821839198.1160471</v>
+        <v>1821884774.9481139</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>1355624.0128029028</v>
+        <v>1343723.2835858604</v>
       </c>
       <c r="F93">
-        <v>601.26368865786799</v>
+        <v>601.27873043224304</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93">
-        <v>0.4473981541367269</v>
+        <v>0.44347054276786579</v>
       </c>
       <c r="I93" t="s">
         <v>28</v>
@@ -4395,22 +4395,22 @@
         <v>296202</v>
       </c>
       <c r="C94">
-        <v>52432701.823360234</v>
+        <v>53268370.05735001</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>37565119.251996294</v>
+        <v>39724180.691819638</v>
       </c>
       <c r="F94">
-        <v>177.0167042199588</v>
+        <v>179.83798238144917</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>126.82263878027932</v>
+        <v>134.11179091234914</v>
       </c>
       <c r="I94" t="s">
         <v>28</v>
@@ -4436,7 +4436,7 @@
         <v>1615868</v>
       </c>
       <c r="C95">
-        <v>360525772.03999901</v>
+        <v>354699669.78423113</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -4445,7 +4445,7 @@
         <v>248966290.1193451</v>
       </c>
       <c r="F95">
-        <v>223.11585602289236</v>
+        <v>219.51030021278416</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -4477,22 +4477,22 @@
         <v>1079076</v>
       </c>
       <c r="C96">
-        <v>785474241.8364954</v>
+        <v>764168263.33843696</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>1574096.6770270462</v>
+        <v>1531399.3253275303</v>
       </c>
       <c r="F96">
-        <v>727.91373530362591</v>
+        <v>708.16908478961352</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>1.4587449605283096</v>
+        <v>1.419176522624477</v>
       </c>
       <c r="I96" t="s">
         <v>30</v>
@@ -4518,22 +4518,22 @@
         <v>3480059</v>
       </c>
       <c r="C97">
-        <v>2106350513.1376522</v>
+        <v>2132381806.6297102</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>4221143.3129011104</v>
+        <v>4273310.2337268777</v>
       </c>
       <c r="F97">
-        <v>605.26287431841013</v>
+        <v>612.74300425070669</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>1.2129516519407029</v>
+        <v>1.2279418922859864</v>
       </c>
       <c r="I97" t="s">
         <v>30</v>
@@ -4559,22 +4559,22 @@
         <v>1420063</v>
       </c>
       <c r="C98">
-        <v>528446783.0062716</v>
+        <v>530237463.24993801</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>372210139.72754276</v>
+        <v>375104567.28203183</v>
       </c>
       <c r="F98">
-        <v>372.12911188184722</v>
+        <v>373.39009836178957</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>262.10818796598653</v>
+        <v>264.14642680080522</v>
       </c>
       <c r="I98" t="s">
         <v>30</v>
@@ -4600,22 +4600,22 @@
         <v>2037047</v>
       </c>
       <c r="C99">
-        <v>602441478.65535319</v>
+        <v>614628209.87870789</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>439332882.56435513</v>
+        <v>447641685.27843904</v>
       </c>
       <c r="F99">
-        <v>295.74255216269097</v>
+        <v>301.72510004860362</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <v>215.67145115667685</v>
+        <v>219.7502979943217</v>
       </c>
       <c r="I99" t="s">
         <v>30</v>
@@ -4682,22 +4682,22 @@
         <v>16042082</v>
       </c>
       <c r="C101">
-        <v>5311227277.8429127</v>
+        <v>5333863234.1224899</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>3797274988.129262</v>
+        <v>3719285605.5720129</v>
       </c>
       <c r="F101">
-        <v>331.0809206587345</v>
+        <v>332.49195672497433</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
-        <v>236.70711745079362</v>
+        <v>231.84556752496422</v>
       </c>
       <c r="I101" t="s">
         <v>30</v>
@@ -4723,22 +4723,22 @@
         <v>2119428</v>
       </c>
       <c r="C102">
-        <v>742631332.22602499</v>
+        <v>742732248.03269875</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>521809828.42132723</v>
+        <v>521599964.07658255</v>
       </c>
       <c r="F102">
-        <v>350.39233803933183</v>
+        <v>350.43995268190224</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>246.2031399138481</v>
+        <v>246.10412058186574</v>
       </c>
       <c r="I102" t="s">
         <v>30</v>
@@ -4764,22 +4764,22 @@
         <v>4495381</v>
       </c>
       <c r="C103">
-        <v>3477029771.3961163</v>
+        <v>3521937180.6674118</v>
       </c>
       <c r="D103">
-        <v>53042069.148037732</v>
+        <v>54467497.506911561</v>
       </c>
       <c r="E103">
-        <v>226745180.91109473</v>
+        <v>232453743.7141301</v>
       </c>
       <c r="F103">
-        <v>773.46720364661337</v>
+        <v>783.45688177874399</v>
       </c>
       <c r="G103">
-        <v>11.799237739367971</v>
+        <v>12.116325069423828</v>
       </c>
       <c r="H103">
-        <v>50.439591418634976</v>
+        <v>51.709464384471552</v>
       </c>
       <c r="I103" t="s">
         <v>30</v>
@@ -4805,22 +4805,22 @@
         <v>201976</v>
       </c>
       <c r="C104">
-        <v>110088291.6989172</v>
+        <v>109440082.60970706</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>16154574.41193101</v>
+        <v>16372855.965647859</v>
       </c>
       <c r="F104">
-        <v>545.05630222856769</v>
+        <v>541.84696503399937</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>79.982643541465379</v>
+        <v>81.063373696121616</v>
       </c>
       <c r="I104" t="s">
         <v>30</v>
@@ -4846,22 +4846,22 @@
         <v>6594728</v>
       </c>
       <c r="C105">
-        <v>2094464520.76196</v>
+        <v>2061528254.7713647</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>1499971561.8775334</v>
+        <v>1507531090.8955081</v>
       </c>
       <c r="F105">
-        <v>317.59680168188288</v>
+        <v>312.60246893751565</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105">
-        <v>227.45010285147976</v>
+        <v>228.59640168563556</v>
       </c>
       <c r="I105" t="s">
         <v>30</v>
@@ -4887,22 +4887,22 @@
         <v>7672769</v>
       </c>
       <c r="C106">
-        <v>2399092420.8063669</v>
+        <v>2347743193.9019012</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>1743754329.3509939</v>
+        <v>1732725849.6994376</v>
       </c>
       <c r="F106">
-        <v>312.67622168820236</v>
+        <v>305.98382329793861</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106">
-        <v>227.26532355541968</v>
+        <v>225.8279702802779</v>
       </c>
       <c r="I106" t="s">
         <v>30</v>
@@ -4928,22 +4928,22 @@
         <v>423587</v>
       </c>
       <c r="C107">
-        <v>74045965.33707726</v>
+        <v>73630115.630752265</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>142770537.95474663</v>
+        <v>141968724.02727512</v>
       </c>
       <c r="F107">
-        <v>174.80698259643771</v>
+        <v>173.82524872281789</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>337.05127389354874</v>
+        <v>335.1583595041281</v>
       </c>
       <c r="I107" t="s">
         <v>11</v>
@@ -5010,22 +5010,22 @@
         <v>3095082</v>
       </c>
       <c r="C109">
-        <v>1120816217.9123778</v>
+        <v>1103941729.7507603</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>799051410.43416464</v>
+        <v>801528288.31434691</v>
       </c>
       <c r="F109">
-        <v>362.12811741736658</v>
+        <v>356.67608475341211</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
-        <v>258.16809067874925</v>
+        <v>258.96835312096641</v>
       </c>
       <c r="I109" t="s">
         <v>11</v>
@@ -5051,22 +5051,22 @@
         <v>134547</v>
       </c>
       <c r="C110">
-        <v>112848411.34785014</v>
+        <v>114479969.72301769</v>
       </c>
       <c r="D110">
-        <v>1669648.8032832975</v>
+        <v>1655867.112234608</v>
       </c>
       <c r="E110">
-        <v>7187886.3179429434</v>
+        <v>7048246.5617297804</v>
       </c>
       <c r="F110">
-        <v>838.72855840598561</v>
+        <v>850.85486650031362</v>
       </c>
       <c r="G110">
-        <v>12.409409375781678</v>
+        <v>12.306979064822018</v>
       </c>
       <c r="H110">
-        <v>53.422865749090974</v>
+        <v>52.3850146174183</v>
       </c>
       <c r="I110" t="s">
         <v>31</v>
@@ -5092,22 +5092,22 @@
         <v>265550</v>
       </c>
       <c r="C111">
-        <v>231639981.74116528</v>
+        <v>236004080.7900672</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>167654.01981664789</v>
+        <v>169194.91646713275</v>
       </c>
       <c r="F111">
-        <v>872.30269908177468</v>
+        <v>888.73688868411671</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>0.63134633709903176</v>
+        <v>0.6371489981816334</v>
       </c>
       <c r="I111" t="s">
         <v>31</v>
@@ -5133,22 +5133,22 @@
         <v>10172252</v>
       </c>
       <c r="C112">
-        <v>9076842809.0186749</v>
+        <v>9028985236.6223564</v>
       </c>
       <c r="D112">
-        <v>117099043.48954639</v>
+        <v>116022258.37290922</v>
       </c>
       <c r="E112">
-        <v>518950987.09368342</v>
+        <v>513370868.95289111</v>
       </c>
       <c r="F112">
-        <v>892.31399389424041</v>
+        <v>887.60927635516271</v>
       </c>
       <c r="G112">
-        <v>11.511614487091588</v>
+        <v>11.405759351312691</v>
       </c>
       <c r="H112">
-        <v>51.016332184228567</v>
+        <v>50.467769472570197</v>
       </c>
       <c r="I112" t="s">
         <v>12</v>
@@ -5174,22 +5174,22 @@
         <v>9007455</v>
       </c>
       <c r="C113">
-        <v>8774337923.2462482</v>
+        <v>8820037599.929821</v>
       </c>
       <c r="D113">
-        <v>112009083.30877474</v>
+        <v>112592463.95100795</v>
       </c>
       <c r="E113">
-        <v>467466009.20579755</v>
+        <v>468850083.35132802</v>
       </c>
       <c r="F113">
-        <v>974.11954023042563</v>
+        <v>979.19307950245889</v>
       </c>
       <c r="G113">
-        <v>12.435153249033688</v>
+        <v>12.499919672205738</v>
       </c>
       <c r="H113">
-        <v>51.897679112001953</v>
+        <v>52.05133784751942</v>
       </c>
       <c r="I113" t="s">
         <v>12</v>
@@ -5215,22 +5215,22 @@
         <v>531521</v>
       </c>
       <c r="C114">
-        <v>656524670.71686876</v>
+        <v>663284665.48297155</v>
       </c>
       <c r="D114">
-        <v>10180039.913435055</v>
+        <v>10123871.351193458</v>
       </c>
       <c r="E114">
-        <v>43680559.910478652</v>
+        <v>43414784.210451104</v>
       </c>
       <c r="F114">
-        <v>1235.1810572242089</v>
+        <v>1247.8992654720539</v>
       </c>
       <c r="G114">
-        <v>19.152657963533059</v>
+        <v>19.046982811955608</v>
       </c>
       <c r="H114">
-        <v>82.180308793967967</v>
+        <v>81.680280196739361</v>
       </c>
       <c r="I114" t="s">
         <v>32</v>
@@ -5256,22 +5256,22 @@
         <v>387114</v>
       </c>
       <c r="C115">
-        <v>184746283.87409997</v>
+        <v>183206731.50848249</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>99478768.239899993</v>
+        <v>98649778.504567474</v>
       </c>
       <c r="F115">
-        <v>477.23999616159574</v>
+        <v>473.26299619358247</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115">
-        <v>256.97538254855158</v>
+        <v>254.83392102731358</v>
       </c>
       <c r="I115" t="s">
         <v>32</v>
@@ -5338,22 +5338,22 @@
         <v>1438500</v>
       </c>
       <c r="C117">
-        <v>1506202618.9648392</v>
+        <v>1520193903.5814815</v>
       </c>
       <c r="D117">
-        <v>23381408.63425412</v>
+        <v>23227069.490076967</v>
       </c>
       <c r="E117">
-        <v>100144262.49770638</v>
+        <v>99817907.777019233</v>
       </c>
       <c r="F117">
-        <v>1047.0647333784075</v>
+        <v>1056.7910348150722</v>
       </c>
       <c r="G117">
-        <v>16.25402060080231</v>
+        <v>16.146728877356249</v>
       </c>
       <c r="H117">
-        <v>69.61714459346986</v>
+        <v>69.390273046242086</v>
       </c>
       <c r="I117" t="s">
         <v>33</v>
@@ -5379,22 +5379,22 @@
         <v>4871389</v>
       </c>
       <c r="C118">
-        <v>6172894118.4543915</v>
+        <v>6172879508.0334129</v>
       </c>
       <c r="D118">
-        <v>95011172.609463885</v>
+        <v>94980769.09747678</v>
       </c>
       <c r="E118">
-        <v>407038717.0019176</v>
+        <v>407663885.34768784</v>
       </c>
       <c r="F118">
-        <v>1267.1733089791005</v>
+        <v>1267.1703097480847</v>
       </c>
       <c r="G118">
-        <v>19.503918206791511</v>
+        <v>19.497676965948887</v>
       </c>
       <c r="H118">
-        <v>83.557013616017443</v>
+        <v>83.685348336519183</v>
       </c>
       <c r="I118" t="s">
         <v>33</v>
@@ -5420,22 +5420,22 @@
         <v>1656996</v>
       </c>
       <c r="C119">
-        <v>3344226571.7982097</v>
+        <v>3323484274.2815485</v>
       </c>
       <c r="D119">
-        <v>53272607.525150567</v>
+        <v>53121594.272793479</v>
       </c>
       <c r="E119">
-        <v>228991092.61016655</v>
+        <v>227812659.50375926</v>
       </c>
       <c r="F119">
-        <v>2018.2466172508623</v>
+        <v>2005.7286042220671</v>
       </c>
       <c r="G119">
-        <v>32.150112326855691</v>
+        <v>32.05897556348566</v>
       </c>
       <c r="H119">
-        <v>138.19652709491547</v>
+        <v>137.48534064280136</v>
       </c>
       <c r="I119" t="s">
         <v>33</v>
@@ -5461,22 +5461,22 @@
         <v>4082513</v>
       </c>
       <c r="C120">
-        <v>4758675237.6633873</v>
+        <v>4771485357.2380543</v>
       </c>
       <c r="D120">
-        <v>63954996.947972335</v>
+        <v>63891037.825466633</v>
       </c>
       <c r="E120">
-        <v>274908497.35764086</v>
+        <v>274759010.77559316</v>
       </c>
       <c r="F120">
-        <v>1165.6240256095664</v>
+        <v>1168.7618281284235</v>
       </c>
       <c r="G120">
-        <v>15.665595418305426</v>
+        <v>15.649928812343434</v>
       </c>
       <c r="H120">
-        <v>67.338058043572886</v>
+        <v>67.301441728561102</v>
       </c>
       <c r="I120" t="s">
         <v>33</v>
@@ -5502,22 +5502,22 @@
         <v>7658910</v>
       </c>
       <c r="C121">
-        <v>11017240464.603161</v>
+        <v>11169835310.710833</v>
       </c>
       <c r="D121">
-        <v>180356498.00547251</v>
+        <v>181309872.1531353</v>
       </c>
       <c r="E121">
-        <v>776221641.85033381</v>
+        <v>776259423.74847054</v>
       </c>
       <c r="F121">
-        <v>1438.4867382699576</v>
+        <v>1458.4105715709979</v>
       </c>
       <c r="G121">
-        <v>23.548585634962745</v>
+        <v>23.673064725024226</v>
       </c>
       <c r="H121">
-        <v>101.34883969785959</v>
+        <v>101.35377276250414</v>
       </c>
       <c r="I121" t="s">
         <v>33</v>
@@ -5543,22 +5543,22 @@
         <v>500630</v>
       </c>
       <c r="C122">
-        <v>165863816.04964748</v>
+        <v>170729532.68312985</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>120809075.57388268</v>
+        <v>116005842.07171202</v>
       </c>
       <c r="F122">
-        <v>331.31018127089362</v>
+        <v>341.02936836212342</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122">
-        <v>241.31409538757703</v>
+        <v>231.7197172996265</v>
       </c>
       <c r="I122" t="s">
         <v>34</v>
@@ -5584,22 +5584,22 @@
         <v>3581670</v>
       </c>
       <c r="C123">
-        <v>1808637351.5557756</v>
+        <v>1807293936.295027</v>
       </c>
       <c r="D123">
-        <v>27347958.848769225</v>
+        <v>27544254.570671</v>
       </c>
       <c r="E123">
-        <v>118084016.15339901</v>
+        <v>118319846.42250618</v>
       </c>
       <c r="F123">
-        <v>504.97040530137497</v>
+        <v>504.59532460975663</v>
       </c>
       <c r="G123">
-        <v>7.6355328237300544</v>
+        <v>7.6903384652050581</v>
       </c>
       <c r="H123">
-        <v>32.968982668252238</v>
+        <v>33.034826330316918</v>
       </c>
       <c r="I123" t="s">
         <v>34</v>
@@ -5625,19 +5625,19 @@
         <v>4902363</v>
       </c>
       <c r="C124">
-        <v>4190947697.9680004</v>
+        <v>4246811736.5253682</v>
       </c>
       <c r="D124">
-        <v>61973818.050998136</v>
+        <v>63054580.827953264</v>
       </c>
       <c r="E124">
         <v>263877586.5068571</v>
       </c>
       <c r="F124">
-        <v>854.88318551033456</v>
+        <v>866.27851436651429</v>
       </c>
       <c r="G124">
-        <v>12.641621612067107</v>
+        <v>12.862079129585725</v>
       </c>
       <c r="H124">
         <v>53.826611066307635</v>
@@ -5666,22 +5666,22 @@
         <v>8835500</v>
       </c>
       <c r="C125">
-        <v>8110863433.8297462</v>
+        <v>8155190342.6463795</v>
       </c>
       <c r="D125">
-        <v>164103070.50211516</v>
+        <v>164736233.89729285</v>
       </c>
       <c r="E125">
-        <v>704151919.79907584</v>
+        <v>707083446.41694355</v>
       </c>
       <c r="F125">
-        <v>917.98578844771055</v>
+        <v>923.0026985056171</v>
       </c>
       <c r="G125">
-        <v>18.573150416175107</v>
+        <v>18.644811713801467</v>
       </c>
       <c r="H125">
-        <v>79.695763657866095</v>
+        <v>80.0275532133941</v>
       </c>
       <c r="I125" t="s">
         <v>35</v>
@@ -5707,22 +5707,22 @@
         <v>6233147</v>
       </c>
       <c r="C126">
-        <v>6409556837.9776411</v>
+        <v>6465012180.4671097</v>
       </c>
       <c r="D126">
-        <v>98129199.967229456</v>
+        <v>99135256.025073171</v>
       </c>
       <c r="E126">
-        <v>421595850.2828753</v>
+        <v>424904835.52614188</v>
       </c>
       <c r="F126">
-        <v>1028.3018895555713</v>
+        <v>1037.1987345183918</v>
       </c>
       <c r="G126">
-        <v>15.743123011093667</v>
+        <v>15.90452720352547</v>
       </c>
       <c r="H126">
-        <v>67.637719803957026</v>
+        <v>68.168588920835958</v>
       </c>
       <c r="I126" t="s">
         <v>35</v>
@@ -5748,22 +5748,22 @@
         <v>2753681</v>
       </c>
       <c r="C127">
-        <v>1047323909.7649984</v>
+        <v>1052911712.9092016</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>790566691.94626772</v>
+        <v>799203248.02488923</v>
       </c>
       <c r="F127">
-        <v>380.33596112439983</v>
+        <v>382.36517334767592</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
       <c r="H127">
-        <v>287.09450802263143</v>
+        <v>290.23087569870631</v>
       </c>
       <c r="I127" t="s">
         <v>35</v>
@@ -5789,22 +5789,22 @@
         <v>5168266</v>
       </c>
       <c r="C128">
-        <v>5622571923.318738</v>
+        <v>5616369617.9774246</v>
       </c>
       <c r="D128">
-        <v>86850281.860897183</v>
+        <v>86992823.101627827</v>
       </c>
       <c r="E128">
-        <v>373042911.73499185</v>
+        <v>374016329.58264327</v>
       </c>
       <c r="F128">
-        <v>1087.9029684847371</v>
+        <v>1086.7028937708362</v>
       </c>
       <c r="G128">
-        <v>16.804530157870587</v>
+        <v>16.832110247736441</v>
       </c>
       <c r="H128">
-        <v>72.179510833032168</v>
+        <v>72.367855985478158</v>
       </c>
       <c r="I128" t="s">
         <v>35</v>
@@ -5830,22 +5830,22 @@
         <v>9849064</v>
       </c>
       <c r="C129">
-        <v>8854900363.6142883</v>
+        <v>8891661832.7461472</v>
       </c>
       <c r="D129">
-        <v>135449682.80807811</v>
+        <v>135677700.41900373</v>
       </c>
       <c r="E129">
-        <v>582914943.77575409</v>
+        <v>582691006.86454153</v>
       </c>
       <c r="F129">
-        <v>899.06008973180485</v>
+        <v>902.79257325834692</v>
       </c>
       <c r="G129">
-        <v>13.752543674005786</v>
+        <v>13.775694869990055</v>
       </c>
       <c r="H129">
-        <v>59.184806167952011</v>
+        <v>59.162069295573829</v>
       </c>
       <c r="I129" t="s">
         <v>35</v>
@@ -5871,22 +5871,22 @@
         <v>8843344</v>
       </c>
       <c r="C130">
-        <v>10253072831.495449</v>
+        <v>10251157825.37534</v>
       </c>
       <c r="D130">
-        <v>145908994.52369076</v>
+        <v>146512544.0920676</v>
       </c>
       <c r="E130">
-        <v>624738882.10554659</v>
+        <v>628683424.36111951</v>
       </c>
       <c r="F130">
-        <v>1159.4112850857605</v>
+        <v>1159.1947373499595</v>
       </c>
       <c r="G130">
-        <v>16.499301002391263</v>
+        <v>16.567550023166305</v>
       </c>
       <c r="H130">
-        <v>70.645095577594475</v>
+        <v>71.091142034180677</v>
       </c>
       <c r="I130" t="s">
         <v>35</v>
@@ -5912,22 +5912,22 @@
         <v>3681044</v>
       </c>
       <c r="C131">
-        <v>3608903651.9201488</v>
+        <v>3636009394.6379271</v>
       </c>
       <c r="D131">
-        <v>50322025.326986015</v>
+        <v>51069843.754603706</v>
       </c>
       <c r="E131">
-        <v>216791372.76651639</v>
+        <v>219605641.2886773</v>
       </c>
       <c r="F131">
-        <v>980.402204352936</v>
+        <v>987.76580628700094</v>
       </c>
       <c r="G131">
-        <v>13.670585118511491</v>
+        <v>13.873739013878591</v>
       </c>
       <c r="H131">
-        <v>58.893991152106956</v>
+        <v>59.658521139295623</v>
       </c>
       <c r="I131" t="s">
         <v>35</v>
@@ -5953,22 +5953,22 @@
         <v>4626240</v>
       </c>
       <c r="C132">
-        <v>1588691907.7405639</v>
+        <v>1578466916.4593787</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>1169262070.7938752</v>
+        <v>1172514293.0829186</v>
       </c>
       <c r="F132">
-        <v>343.40888231924066</v>
+        <v>341.19866597050276</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132">
-        <v>252.7456575521104</v>
+        <v>253.44865227115727</v>
       </c>
       <c r="I132" t="s">
         <v>18</v>
@@ -5994,22 +5994,22 @@
         <v>6322841</v>
       </c>
       <c r="C133">
-        <v>2041276723.2861705</v>
+        <v>2068072972.3337109</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>1522506621.8054323</v>
+        <v>1500200353.8865762</v>
       </c>
       <c r="F133">
-        <v>322.84169778841039</v>
+        <v>327.07970552062136</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133">
-        <v>240.7947031730566</v>
+        <v>237.26681627555971</v>
       </c>
       <c r="I133" t="s">
         <v>18</v>
@@ -6035,22 +6035,22 @@
         <v>9036684</v>
       </c>
       <c r="C134">
-        <v>6688380341.3991356</v>
+        <v>6686910091.544466</v>
       </c>
       <c r="D134">
-        <v>52092496.793379083</v>
+        <v>51301724.110243604</v>
       </c>
       <c r="E134">
-        <v>2641223523.7798705</v>
+        <v>2609307600.7740602</v>
       </c>
       <c r="F134">
-        <v>740.13657458854766</v>
+        <v>739.97387665038036</v>
       </c>
       <c r="G134">
-        <v>5.7645588573617363</v>
+        <v>5.6770519042431502</v>
       </c>
       <c r="H134">
-        <v>292.27795547347574</v>
+        <v>288.7461374962387</v>
       </c>
       <c r="I134" t="s">
         <v>36</v>
@@ -6076,22 +6076,22 @@
         <v>916991</v>
       </c>
       <c r="C135">
-        <v>870570812.82779789</v>
+        <v>877862233.74036777</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>634129010.67389727</v>
+        <v>653894533.73805285</v>
       </c>
       <c r="F135">
-        <v>949.37770689984734</v>
+        <v>957.32917088648389</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135">
-        <v>691.53242580777487</v>
+        <v>713.08718813821815</v>
       </c>
       <c r="I135" t="s">
         <v>36</v>
@@ -6117,22 +6117,22 @@
         <v>317344</v>
       </c>
       <c r="C136">
-        <v>276322154.87090343</v>
+        <v>275068608.00229609</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>199738584.53515029</v>
+        <v>202380085.78261939</v>
       </c>
       <c r="F136">
-        <v>870.73382471672198</v>
+        <v>866.78370475665554</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136">
-        <v>629.40715606770664</v>
+        <v>637.73093482977265</v>
       </c>
       <c r="I136" t="s">
         <v>36</v>
@@ -6158,22 +6158,22 @@
         <v>4850745</v>
       </c>
       <c r="C137">
-        <v>3457147380.2630129</v>
+        <v>3460545337.8614683</v>
       </c>
       <c r="D137">
-        <v>51972377.420230597</v>
+        <v>51334441.629970171</v>
       </c>
       <c r="E137">
-        <v>223033053.96420807</v>
+        <v>220185820.76608771</v>
       </c>
       <c r="F137">
-        <v>712.7044155615298</v>
+        <v>713.40491777272734</v>
       </c>
       <c r="G137">
-        <v>10.714308301143555</v>
+        <v>10.58279534998648</v>
       </c>
       <c r="H137">
-        <v>45.979133919471764</v>
+        <v>45.392165691267572</v>
       </c>
       <c r="I137" t="s">
         <v>36</v>
@@ -6199,22 +6199,22 @@
         <v>3399679</v>
       </c>
       <c r="C138">
-        <v>1823457462.2112734</v>
+        <v>1852541259.0256279</v>
       </c>
       <c r="D138">
-        <v>28256496.945237197</v>
+        <v>28911519.440921079</v>
       </c>
       <c r="E138">
-        <v>120243893.79100932</v>
+        <v>123692878.59572135</v>
       </c>
       <c r="F138">
-        <v>536.36165714800529</v>
+        <v>544.91652271453506</v>
       </c>
       <c r="G138">
-        <v>8.3115191008436966</v>
+        <v>8.5041909665356883</v>
       </c>
       <c r="H138">
-        <v>35.369190382682987</v>
+        <v>36.383693459212282</v>
       </c>
       <c r="I138" t="s">
         <v>36</v>
@@ -6281,22 +6281,22 @@
         <v>3198891</v>
       </c>
       <c r="C140">
-        <v>3583118468.4754086</v>
+        <v>3575886687.2930126</v>
       </c>
       <c r="D140">
-        <v>46002286.882238977</v>
+        <v>45897071.002440989</v>
       </c>
       <c r="E140">
-        <v>197299038.86421964</v>
+        <v>197198044.62661642</v>
       </c>
       <c r="F140">
-        <v>1120.1127104597838</v>
+        <v>1117.8519953612088</v>
       </c>
       <c r="G140">
-        <v>14.380698461510248</v>
+        <v>14.347807100160958</v>
       </c>
       <c r="H140">
-        <v>61.677324692907519</v>
+        <v>61.645753052109754</v>
       </c>
       <c r="I140" t="s">
         <v>16</v>
@@ -6322,22 +6322,22 @@
         <v>3734928</v>
       </c>
       <c r="C141">
-        <v>5258962303.596056</v>
+        <v>5297404489.562993</v>
       </c>
       <c r="D141">
-        <v>81355186.985581666</v>
+        <v>81781158.240635008</v>
       </c>
       <c r="E141">
-        <v>349096964.56918395</v>
+        <v>349715914.65405238</v>
       </c>
       <c r="F141">
-        <v>1408.049178885391</v>
+        <v>1418.3417965655544</v>
       </c>
       <c r="G141">
-        <v>21.782263804170164</v>
+        <v>21.896314531534479</v>
       </c>
       <c r="H141">
-        <v>93.46819123934489</v>
+        <v>93.633910654784344</v>
       </c>
       <c r="I141" t="s">
         <v>16</v>
@@ -6363,22 +6363,22 @@
         <v>2487210</v>
       </c>
       <c r="C142">
-        <v>2949752149.823925</v>
+        <v>2953058756.9024067</v>
       </c>
       <c r="D142">
-        <v>44784959.170834459</v>
+        <v>45069385.552131042</v>
       </c>
       <c r="E142">
-        <v>192057433.37750667</v>
+        <v>192358292.0909518</v>
       </c>
       <c r="F142">
-        <v>1185.9682736173966</v>
+        <v>1187.2977178856656</v>
       </c>
       <c r="G142">
-        <v>18.006102890722723</v>
+        <v>18.120458486469193</v>
       </c>
       <c r="H142">
-        <v>77.21802074513478</v>
+        <v>77.33898307378621</v>
       </c>
       <c r="I142" t="s">
         <v>37</v>
@@ -6404,22 +6404,22 @@
         <v>14438617</v>
       </c>
       <c r="C143">
-        <v>13505380894.739704</v>
+        <v>13425172158.150614</v>
       </c>
       <c r="D143">
-        <v>210358120.79896903</v>
+        <v>209899446.07942182</v>
       </c>
       <c r="E143">
-        <v>903621652.29954994</v>
+        <v>900568352.30483305</v>
       </c>
       <c r="F143">
-        <v>935.3652704230401</v>
+        <v>929.81011672728857</v>
       </c>
       <c r="G143">
-        <v>14.569132265158709</v>
+        <v>14.537365045379472</v>
       </c>
       <c r="H143">
-        <v>62.583670742118166</v>
+        <v>62.37220312061973</v>
       </c>
       <c r="I143" t="s">
         <v>37</v>
@@ -6445,22 +6445,22 @@
         <v>3826403</v>
       </c>
       <c r="C144">
-        <v>2174832168.4010439</v>
+        <v>2218426143.726778</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>242697652.06759694</v>
+        <v>241781880.40209609</v>
       </c>
       <c r="F144">
-        <v>568.37509493930565</v>
+        <v>579.76803377134559</v>
       </c>
       <c r="G144">
         <v>0</v>
       </c>
       <c r="H144">
-        <v>63.427101658554243</v>
+        <v>63.187772015152639</v>
       </c>
       <c r="I144" t="s">
         <v>37</v>
@@ -6486,22 +6486,22 @@
         <v>3857821</v>
       </c>
       <c r="C145">
-        <v>3797850022.0806332</v>
+        <v>3806849022.9009161</v>
       </c>
       <c r="D145">
-        <v>57988488.839272216</v>
+        <v>57999007.882050306</v>
       </c>
       <c r="E145">
-        <v>248599402.04092801</v>
+        <v>248633369.22584382</v>
       </c>
       <c r="F145">
-        <v>984.45470178129915</v>
+        <v>986.78736595112014</v>
       </c>
       <c r="G145">
-        <v>15.03140991748249</v>
+        <v>15.034136597330541</v>
       </c>
       <c r="H145">
-        <v>64.440367254190392</v>
+        <v>64.449172013383674</v>
       </c>
       <c r="I145" t="s">
         <v>37</v>
@@ -6527,7 +6527,7 @@
         <v>15093419</v>
       </c>
       <c r="C146">
-        <v>7595011681.9142971</v>
+        <v>7608038635.2524738</v>
       </c>
       <c r="D146">
         <v>31637656.52482298</v>
@@ -6536,7 +6536,7 @@
         <v>2903017447.1379914</v>
       </c>
       <c r="F146">
-        <v>503.20021473691924</v>
+        <v>504.06330303640772</v>
       </c>
       <c r="G146">
         <v>2.0961225899064342</v>
@@ -6568,22 +6568,22 @@
         <v>7629351</v>
       </c>
       <c r="C147">
-        <v>11430216344.533718</v>
+        <v>11412488691.709278</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>1953761985.6181936</v>
+        <v>1933020097.5251112</v>
       </c>
       <c r="F147">
-        <v>1498.1898649745854</v>
+        <v>1495.8662528056814</v>
       </c>
       <c r="G147">
         <v>0</v>
       </c>
       <c r="H147">
-        <v>256.08495213002965</v>
+        <v>253.36625586175171</v>
       </c>
       <c r="I147" t="s">
         <v>15</v>
@@ -6609,22 +6609,22 @@
         <v>393144</v>
       </c>
       <c r="C148">
-        <v>137274346.98395622</v>
+        <v>134971249.79766929</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148">
-        <v>89390470.717303202</v>
+        <v>89227175.675508007</v>
       </c>
       <c r="F148">
-        <v>349.17065244275943</v>
+        <v>343.31250075715081</v>
       </c>
       <c r="G148">
         <v>0</v>
       </c>
       <c r="H148">
-        <v>227.37335611710517</v>
+        <v>226.95799929671571</v>
       </c>
       <c r="I148" t="s">
         <v>38</v>
@@ -6650,22 +6650,22 @@
         <v>6581975</v>
       </c>
       <c r="C149">
-        <v>8992237724.8386898</v>
+        <v>8972824977.397274</v>
       </c>
       <c r="D149">
-        <v>79910500.199011952</v>
+        <v>79891902.533737272</v>
       </c>
       <c r="E149">
-        <v>342490775.74143028</v>
+        <v>342418422.29966998</v>
       </c>
       <c r="F149">
-        <v>1366.1914128872702</v>
+        <v>1363.2420325809919</v>
       </c>
       <c r="G149">
-        <v>12.140808830026238</v>
+        <v>12.137983285220207</v>
       </c>
       <c r="H149">
-        <v>52.034651566046705</v>
+        <v>52.023658901723266</v>
       </c>
       <c r="I149" t="s">
         <v>38</v>
@@ -6691,22 +6691,22 @@
         <v>261201</v>
       </c>
       <c r="C150">
-        <v>212694949.09269202</v>
+        <v>210271458.71958262</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>153176855.50242001</v>
+        <v>152455195.51389807</v>
       </c>
       <c r="F150">
-        <v>814.29607502533304</v>
+        <v>805.01781662238125</v>
       </c>
       <c r="G150">
         <v>0</v>
       </c>
       <c r="H150">
-        <v>586.43288311461288</v>
+        <v>583.67003003012269</v>
       </c>
       <c r="I150" t="s">
         <v>38</v>
@@ -6732,22 +6732,22 @@
         <v>14072154</v>
       </c>
       <c r="C151">
-        <v>20403188045.854328</v>
+        <v>20509543248.188362</v>
       </c>
       <c r="D151">
-        <v>315015344.88159156</v>
+        <v>315428804.34656489</v>
       </c>
       <c r="E151">
-        <v>1350383062.3344352</v>
+        <v>1357134232.8910608</v>
       </c>
       <c r="F151">
-        <v>1449.8980075015047</v>
+        <v>1457.4558555988203</v>
       </c>
       <c r="G151">
-        <v>22.385723243335139</v>
+        <v>22.415104634767705</v>
       </c>
       <c r="H151">
-        <v>95.961361873557891</v>
+        <v>96.441115758899514</v>
       </c>
       <c r="I151" t="s">
         <v>39</v>
@@ -6773,22 +6773,22 @@
         <v>543145</v>
       </c>
       <c r="C152">
-        <v>548708318.19965696</v>
+        <v>542888307.80779338</v>
       </c>
       <c r="D152">
         <v>0</v>
       </c>
       <c r="E152">
-        <v>397716640.98260623</v>
+        <v>394413618.76245987</v>
       </c>
       <c r="F152">
-        <v>1010.2427863639672</v>
+        <v>999.52739656591405</v>
       </c>
       <c r="G152">
         <v>0</v>
       </c>
       <c r="H152">
-        <v>732.24763365695389</v>
+        <v>726.1663437248983</v>
       </c>
       <c r="I152" t="s">
         <v>39</v>
@@ -6814,22 +6814,22 @@
         <v>7296430</v>
       </c>
       <c r="C153">
-        <v>7009516976.04704</v>
+        <v>7051447061.3628368</v>
       </c>
       <c r="D153">
-        <v>106417240.91529854</v>
+        <v>108104302.62262952</v>
       </c>
       <c r="E153">
-        <v>459302921.39833093</v>
+        <v>463447107.37943774</v>
       </c>
       <c r="F153">
-        <v>960.67761577196518</v>
+        <v>966.42427342725648</v>
       </c>
       <c r="G153">
-        <v>14.58483681955402</v>
+        <v>14.816054237843646</v>
       </c>
       <c r="H153">
-        <v>62.948993055279217</v>
+        <v>63.516967527878393</v>
       </c>
       <c r="I153" t="s">
         <v>39</v>
@@ -6855,22 +6855,22 @@
         <v>11269955</v>
       </c>
       <c r="C154">
-        <v>2829600958.5306625</v>
+        <v>2838387973.7379351</v>
       </c>
       <c r="D154">
-        <v>42698978.565242842</v>
+        <v>42577498.930796362</v>
       </c>
       <c r="E154">
-        <v>181549514.09200066</v>
+        <v>180317030.01272213</v>
       </c>
       <c r="F154">
-        <v>251.074734418253</v>
+        <v>251.85441944869658</v>
       </c>
       <c r="G154">
-        <v>3.7887443707843413</v>
+        <v>3.7779653007306915</v>
       </c>
       <c r="H154">
-        <v>16.109160515015425</v>
+        <v>15.999800355256266</v>
       </c>
       <c r="I154" t="s">
         <v>39</v>
@@ -6896,22 +6896,22 @@
         <v>5367819</v>
       </c>
       <c r="C155">
-        <v>9347464291.1583023</v>
+        <v>9285894803.2733154</v>
       </c>
       <c r="D155">
-        <v>141980486.71070522</v>
+        <v>142334929.03053468</v>
       </c>
       <c r="E155">
-        <v>609546897.97908318</v>
+        <v>609724501.11441541</v>
       </c>
       <c r="F155">
-        <v>1741.3896204693754</v>
+        <v>1729.9195079553381</v>
       </c>
       <c r="G155">
-        <v>26.450311888442069</v>
+        <v>26.516342863001654</v>
       </c>
       <c r="H155">
-        <v>113.55578457080672</v>
+        <v>113.58887121835058</v>
       </c>
       <c r="I155" t="s">
         <v>39</v>
@@ -6937,22 +6937,22 @@
         <v>9846148</v>
       </c>
       <c r="C156">
-        <v>9724115675.744381</v>
+        <v>9702883220.9502831</v>
       </c>
       <c r="D156">
-        <v>149116437.73784524</v>
+        <v>149541323.70468736</v>
       </c>
       <c r="E156">
-        <v>638896702.81496656</v>
+        <v>640165876.80561376</v>
       </c>
       <c r="F156">
-        <v>987.60608470890145</v>
+        <v>985.44966223850008</v>
       </c>
       <c r="G156">
-        <v>15.144647199884183</v>
+        <v>15.187799706513385</v>
       </c>
       <c r="H156">
-        <v>64.887984906886075</v>
+        <v>65.016885466845892</v>
       </c>
       <c r="I156" t="s">
         <v>39</v>
@@ -6978,22 +6978,22 @@
         <v>5178344</v>
       </c>
       <c r="C157">
-        <v>3014580253.3277965</v>
+        <v>2988698191.3117533</v>
       </c>
       <c r="D157">
-        <v>41665339.886513531</v>
+        <v>41133494.967745952</v>
       </c>
       <c r="E157">
-        <v>178899129.30511028</v>
+        <v>176674081.64794648</v>
       </c>
       <c r="F157">
-        <v>582.15140850584601</v>
+        <v>577.15327357776027</v>
       </c>
       <c r="G157">
-        <v>8.0460741670529288</v>
+        <v>7.9433685687443614</v>
       </c>
       <c r="H157">
-        <v>34.547555995721851</v>
+        <v>34.117872750042579</v>
       </c>
       <c r="I157" t="s">
         <v>40</v>
@@ -7019,22 +7019,22 @@
         <v>3896653</v>
       </c>
       <c r="C158">
-        <v>1329409258.7169328</v>
+        <v>1301514706.26017</v>
       </c>
       <c r="D158">
         <v>0</v>
       </c>
       <c r="E158">
-        <v>912927601.97925615</v>
+        <v>919307248.17180777</v>
       </c>
       <c r="F158">
-        <v>341.16696013654098</v>
+        <v>334.00836724752497</v>
       </c>
       <c r="G158">
         <v>0</v>
       </c>
       <c r="H158">
-        <v>234.28506515187678</v>
+        <v>235.92227693146086</v>
       </c>
       <c r="I158" t="s">
         <v>40</v>
@@ -7060,22 +7060,22 @@
         <v>419820</v>
       </c>
       <c r="C159">
-        <v>129217512.70394506</v>
+        <v>128136790.76484013</v>
       </c>
       <c r="D159">
         <v>0</v>
       </c>
       <c r="E159">
-        <v>93484344.449925244</v>
+        <v>95972643.502571583</v>
       </c>
       <c r="F159">
-        <v>307.7926556713474</v>
+        <v>305.21840494697756</v>
       </c>
       <c r="G159">
         <v>0</v>
       </c>
       <c r="H159">
-        <v>222.67720558793113</v>
+        <v>228.60426731116092</v>
       </c>
       <c r="I159" t="s">
         <v>40</v>
@@ -7101,22 +7101,22 @@
         <v>4404857</v>
       </c>
       <c r="C160">
-        <v>2208130162.9623322</v>
+        <v>2187237659.2565651</v>
       </c>
       <c r="D160">
         <v>0</v>
       </c>
       <c r="E160">
-        <v>292475506.98116887</v>
+        <v>289860424.69982743</v>
       </c>
       <c r="F160">
-        <v>501.29440364632319</v>
+        <v>496.55134304168445</v>
       </c>
       <c r="G160">
         <v>0</v>
       </c>
       <c r="H160">
-        <v>66.398411340292967</v>
+        <v>65.804729801632021</v>
       </c>
       <c r="I160" t="s">
         <v>40</v>
@@ -7142,22 +7142,22 @@
         <v>1376677</v>
       </c>
       <c r="C161">
-        <v>922940938.6833874</v>
+        <v>915774045.26769328</v>
       </c>
       <c r="D161">
         <v>0</v>
       </c>
       <c r="E161">
-        <v>675007.7463319737</v>
+        <v>680728.15096190572</v>
       </c>
       <c r="F161">
-        <v>670.41211459433646</v>
+        <v>665.2061778236241</v>
       </c>
       <c r="G161">
         <v>0</v>
       </c>
       <c r="H161">
-        <v>0.49031671650791991</v>
+        <v>0.49447194291900404</v>
       </c>
       <c r="I161" t="s">
         <v>40</v>
@@ -7183,22 +7183,22 @@
         <v>5140970</v>
       </c>
       <c r="C162">
-        <v>3260678579.0339851</v>
+        <v>3297280816.6434355</v>
       </c>
       <c r="D162">
         <v>0</v>
       </c>
       <c r="E162">
-        <v>454167590.74289078</v>
+        <v>458088532.57142729</v>
       </c>
       <c r="F162">
-        <v>634.2535706362778</v>
+        <v>641.37328493327823</v>
       </c>
       <c r="G162">
         <v>0</v>
       </c>
       <c r="H162">
-        <v>88.34278175964667</v>
+        <v>89.10546697829929</v>
       </c>
       <c r="I162" t="s">
         <v>41</v>
@@ -7227,19 +7227,19 @@
         <v>582991033.01725554</v>
       </c>
       <c r="D163">
-        <v>3025283.0742176273</v>
+        <v>3078041.0523314853</v>
       </c>
       <c r="E163">
-        <v>135769470.5239346</v>
+        <v>136270111.9023684</v>
       </c>
       <c r="F163">
         <v>118.99425104361514</v>
       </c>
       <c r="G163">
-        <v>0.61749027553361524</v>
+        <v>0.62825870203881018</v>
       </c>
       <c r="H163">
-        <v>27.711895285884431</v>
+        <v>27.814081155810854</v>
       </c>
       <c r="I163" t="s">
         <v>41</v>
@@ -7265,22 +7265,22 @@
         <v>214384</v>
       </c>
       <c r="C164">
-        <v>215782616.74869668</v>
+        <v>215457564.78487796</v>
       </c>
       <c r="D164">
-        <v>3324063.2279702933</v>
+        <v>3290691.5192601946</v>
       </c>
       <c r="E164">
-        <v>14169395.736637043</v>
+        <v>14161701.117764127</v>
       </c>
       <c r="F164">
-        <v>1006.5238858715981</v>
+        <v>1005.0076721438072</v>
       </c>
       <c r="G164">
-        <v>15.505183353096749</v>
+        <v>15.349520109990459</v>
       </c>
       <c r="H164">
-        <v>66.093531871021355</v>
+        <v>66.057640111967899</v>
       </c>
       <c r="I164" t="s">
         <v>27</v>
@@ -7353,7 +7353,7 @@
         <v>228782182.08468825</v>
       </c>
       <c r="E166">
-        <v>959333302.06118059</v>
+        <v>980940041.96739876</v>
       </c>
       <c r="F166">
         <v>522.93673795432005</v>
@@ -7362,7 +7362,7 @@
         <v>16.855980808965032</v>
       </c>
       <c r="H166">
-        <v>70.680782837181283</v>
+        <v>72.272702233547108</v>
       </c>
       <c r="I166" t="s">
         <v>14</v>
@@ -7388,22 +7388,22 @@
         <v>17815891</v>
       </c>
       <c r="C167">
-        <v>9756011041.406723</v>
+        <v>9706720317.4441223</v>
       </c>
       <c r="D167">
-        <v>139069767.04370967</v>
+        <v>137042526.28016323</v>
       </c>
       <c r="E167">
-        <v>597316059.09623194</v>
+        <v>588566532.2164402</v>
       </c>
       <c r="F167">
-        <v>547.6016350463035</v>
+        <v>544.83496320470988</v>
       </c>
       <c r="G167">
-        <v>7.8059394864792147</v>
+        <v>7.692151140808126</v>
       </c>
       <c r="H167">
-        <v>33.527150513899748</v>
+        <v>33.036042498039542</v>
       </c>
       <c r="I167" t="s">
         <v>9</v>
@@ -7429,22 +7429,22 @@
         <v>7047532</v>
       </c>
       <c r="C168">
-        <v>7199555374.4784679</v>
+        <v>7117620538.8730993</v>
       </c>
       <c r="D168">
-        <v>105752534.46637276</v>
+        <v>104441877.66543412</v>
       </c>
       <c r="E168">
-        <v>452563566.77457291</v>
+        <v>448369870.65669978</v>
       </c>
       <c r="F168">
-        <v>1021.5711506494001</v>
+        <v>1009.9451182162918</v>
       </c>
       <c r="G168">
-        <v>15.005612527388703</v>
+        <v>14.819638657253932</v>
       </c>
       <c r="H168">
-        <v>64.215893844053909</v>
+        <v>63.62083501808857</v>
       </c>
       <c r="I168" t="s">
         <v>39</v>
@@ -7470,22 +7470,22 @@
         <v>6223129</v>
       </c>
       <c r="C169">
-        <v>2067715861.843961</v>
+        <v>2027438844.1403749</v>
       </c>
       <c r="D169">
         <v>0</v>
       </c>
       <c r="E169">
-        <v>1490156137.0368662</v>
+        <v>1501928130.9341626</v>
       </c>
       <c r="F169">
-        <v>332.26305638915102</v>
+        <v>325.79090745835009</v>
       </c>
       <c r="G169">
         <v>0</v>
       </c>
       <c r="H169">
-        <v>239.4544829517219</v>
+        <v>241.34613486787154</v>
       </c>
       <c r="I169" t="s">
         <v>42</v>
@@ -7511,22 +7511,22 @@
         <v>2129192</v>
       </c>
       <c r="C170">
-        <v>1251836892.006438</v>
+        <v>1255506229.7709706</v>
       </c>
       <c r="D170">
-        <v>17115220.208706472</v>
+        <v>17126328.361407608</v>
       </c>
       <c r="E170">
-        <v>72634162.679793298</v>
+        <v>73196306.2356783</v>
       </c>
       <c r="F170">
-        <v>587.9398814228299</v>
+        <v>589.66322894833843</v>
       </c>
       <c r="G170">
-        <v>8.0383639468429671</v>
+        <v>8.0435810210669629</v>
       </c>
       <c r="H170">
-        <v>34.113486561941478</v>
+        <v>34.377503877376157</v>
       </c>
       <c r="I170" t="s">
         <v>23</v>
@@ -7552,22 +7552,22 @@
         <v>4998069</v>
       </c>
       <c r="C171">
-        <v>1442718159.4130738</v>
+        <v>1457653538.6059792</v>
       </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="E171">
-        <v>1042028868.4171464</v>
+        <v>1058666409.1107154</v>
       </c>
       <c r="F171">
-        <v>288.65511048628457</v>
+        <v>291.64334037925033</v>
       </c>
       <c r="G171">
         <v>0</v>
       </c>
       <c r="H171">
-        <v>208.48629108904788</v>
+        <v>211.81508480789589</v>
       </c>
       <c r="I171" t="s">
         <v>23</v>
@@ -7593,22 +7593,22 @@
         <v>4031692</v>
       </c>
       <c r="C172">
-        <v>4634004953.5924835</v>
+        <v>4661395083.969964</v>
       </c>
       <c r="D172">
-        <v>149050770.54815155</v>
+        <v>149969540.36006093</v>
       </c>
       <c r="E172">
-        <v>640142599.26362658</v>
+        <v>642393326.38228822</v>
       </c>
       <c r="F172">
-        <v>1149.3945851003707</v>
+        <v>1156.1882911616176</v>
       </c>
       <c r="G172">
-        <v>36.969781061686149</v>
+        <v>37.197667966714953</v>
       </c>
       <c r="H172">
-        <v>158.77765445962305</v>
+        <v>159.33591315563993</v>
       </c>
       <c r="I172" t="s">
         <v>26</v>
@@ -7634,22 +7634,22 @@
         <v>5936999</v>
       </c>
       <c r="C173">
-        <v>5698876228.3944111</v>
+        <v>5673510582.5646305</v>
       </c>
       <c r="D173">
-        <v>86445473.291568875</v>
+        <v>87615880.712252811</v>
       </c>
       <c r="E173">
-        <v>371316889.3143307</v>
+        <v>376376874.21723223</v>
       </c>
       <c r="F173">
-        <v>959.89172785685344</v>
+        <v>955.61925857906169</v>
       </c>
       <c r="G173">
-        <v>14.560466203812545</v>
+        <v>14.75760408789909</v>
       </c>
       <c r="H173">
-        <v>62.542858658782102</v>
+        <v>63.395138556909345</v>
       </c>
       <c r="I173" t="s">
         <v>35</v>
@@ -7719,19 +7719,19 @@
         <v>4294829524.8679657</v>
       </c>
       <c r="D175">
-        <v>71138289.813285887</v>
+        <v>71476589.724281505</v>
       </c>
       <c r="E175">
-        <v>292962101.01310241</v>
+        <v>292959017.05708164</v>
       </c>
       <c r="F175">
         <v>486.16128844171209</v>
       </c>
       <c r="G175">
-        <v>8.0526322250777138</v>
+        <v>8.090926718411394</v>
       </c>
       <c r="H175">
-        <v>33.162394844414564</v>
+        <v>33.162045750224941</v>
       </c>
       <c r="I175" t="s">
         <v>34</v>
@@ -7757,22 +7757,22 @@
         <v>3440952</v>
       </c>
       <c r="C176">
-        <v>2923114710.9313631</v>
+        <v>2905255045.2183385</v>
       </c>
       <c r="D176">
-        <v>94029285.025082737</v>
+        <v>93413393.130254611</v>
       </c>
       <c r="E176">
-        <v>404683458.58726507</v>
+        <v>402476751.9795779</v>
       </c>
       <c r="F176">
-        <v>849.50755225047112</v>
+        <v>844.31722535459323</v>
       </c>
       <c r="G176">
-        <v>27.326532025172899</v>
+        <v>27.147543217764913</v>
       </c>
       <c r="H176">
-        <v>117.60799295871173</v>
+        <v>116.9666859577169</v>
       </c>
       <c r="I176" t="s">
         <v>35</v>
@@ -7798,22 +7798,22 @@
         <v>5568642</v>
       </c>
       <c r="C177">
-        <v>7428752210.5450516</v>
+        <v>7412407070.947484</v>
       </c>
       <c r="D177">
-        <v>145513150.1064226</v>
+        <v>145178029.38186175</v>
       </c>
       <c r="E177">
-        <v>632023132.03606594</v>
+        <v>632310428.20216119</v>
       </c>
       <c r="F177">
-        <v>1334.0330031172864</v>
+        <v>1331.0977920554928</v>
       </c>
       <c r="G177">
-        <v>26.130814318180736</v>
+        <v>26.070634345296707</v>
       </c>
       <c r="H177">
-        <v>113.49681520845942</v>
+        <v>113.54840699081772</v>
       </c>
       <c r="I177" t="s">
         <v>26</v>
@@ -7839,22 +7839,22 @@
         <v>4469578</v>
       </c>
       <c r="C178">
-        <v>3473759983.1159987</v>
+        <v>3467609706.6828189</v>
       </c>
       <c r="D178">
-        <v>54384557.4958148</v>
+        <v>54189915.813089922</v>
       </c>
       <c r="E178">
-        <v>232845384.48153806</v>
+        <v>232123089.91553545</v>
       </c>
       <c r="F178">
-        <v>777.20088632886564</v>
+        <v>775.82485565366994</v>
       </c>
       <c r="G178">
-        <v>12.167716391975887</v>
+        <v>12.12416828011278</v>
       </c>
       <c r="H178">
-        <v>52.095608238974251</v>
+        <v>51.934005831319077</v>
       </c>
       <c r="I178" t="s">
         <v>22</v>
@@ -7880,22 +7880,22 @@
         <v>5464804</v>
       </c>
       <c r="C179">
-        <v>2060489506.8028412</v>
+        <v>1960218587.0367155</v>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179">
-        <v>1446994425.4414687</v>
+        <v>1456848391.4999998</v>
       </c>
       <c r="F179">
-        <v>377.04728418491152</v>
+        <v>358.69879085081834</v>
       </c>
       <c r="G179">
         <v>0</v>
       </c>
       <c r="H179">
-        <v>264.78432262922308</v>
+        <v>266.58749179293528</v>
       </c>
       <c r="I179" t="s">
         <v>10</v>
@@ -7921,7 +7921,7 @@
         <v>245854</v>
       </c>
       <c r="C180">
-        <v>345482954.32865733</v>
+        <v>345790349.41458714</v>
       </c>
       <c r="D180">
         <v>11118003.778031109</v>
@@ -7930,7 +7930,7 @@
         <v>47446865.31960398</v>
       </c>
       <c r="F180">
-        <v>1405.2362553737476</v>
+        <v>1406.486570951</v>
       </c>
       <c r="G180">
         <v>45.221976368214911</v>
@@ -7962,22 +7962,22 @@
         <v>1204962</v>
       </c>
       <c r="C181">
-        <v>473300918.29440314</v>
+        <v>484112315.37853491</v>
       </c>
       <c r="D181">
         <v>0</v>
       </c>
       <c r="E181">
-        <v>334240279.3706398</v>
+        <v>329671922.72237456</v>
       </c>
       <c r="F181">
-        <v>392.79323189810395</v>
+        <v>401.76562860781911</v>
       </c>
       <c r="G181">
         <v>0</v>
       </c>
       <c r="H181">
-        <v>277.38657266423326</v>
+        <v>273.5952857620195</v>
       </c>
       <c r="I181" t="s">
         <v>13</v>
@@ -8003,22 +8003,22 @@
         <v>9406012</v>
       </c>
       <c r="C182">
-        <v>4910968144.2720127</v>
+        <v>4891938037.6332722</v>
       </c>
       <c r="D182">
-        <v>63044105.990322731</v>
+        <v>62515309.59297853</v>
       </c>
       <c r="E182">
-        <v>268629331.17356604</v>
+        <v>267533025.6505388</v>
       </c>
       <c r="F182">
-        <v>522.10949170296749</v>
+        <v>520.08630625107344</v>
       </c>
       <c r="G182">
-        <v>6.702533017215238</v>
+        <v>6.646314037551571</v>
       </c>
       <c r="H182">
-        <v>28.55932260915317</v>
+        <v>28.442768906794804</v>
       </c>
       <c r="I182" t="s">
         <v>30</v>
@@ -8044,22 +8044,22 @@
         <v>11346108</v>
       </c>
       <c r="C183">
-        <v>7497809329.0900927</v>
+        <v>7619792801.9664173</v>
       </c>
       <c r="D183">
-        <v>101606083.34344053</v>
+        <v>103680851.37797308</v>
       </c>
       <c r="E183">
-        <v>434010148.09993041</v>
+        <v>444764726.27169108</v>
       </c>
       <c r="F183">
-        <v>660.82654325959993</v>
+        <v>671.57767244648278</v>
       </c>
       <c r="G183">
-        <v>8.9551486151410273</v>
+        <v>9.1380102655441924</v>
       </c>
       <c r="H183">
-        <v>38.25189643002961</v>
+        <v>39.199761387049293</v>
       </c>
       <c r="I183" t="s">
         <v>13</v>
@@ -8085,22 +8085,22 @@
         <v>8278514</v>
       </c>
       <c r="C184">
-        <v>7997950463.1040106</v>
+        <v>7943005764.6180592</v>
       </c>
       <c r="D184">
-        <v>41794905.591737941</v>
+        <v>40884640.176456749</v>
       </c>
       <c r="E184">
-        <v>179662334.7770558</v>
+        <v>175014589.26838726</v>
       </c>
       <c r="F184">
-        <v>966.10943257497786</v>
+        <v>959.47240828704992</v>
       </c>
       <c r="G184">
-        <v>5.0485999772106371</v>
+        <v>4.9386448070821345</v>
       </c>
       <c r="H184">
-        <v>21.702244482168634</v>
+        <v>21.140821803090176</v>
       </c>
       <c r="I184" t="s">
         <v>26</v>
@@ -8126,22 +8126,22 @@
         <v>2439887</v>
       </c>
       <c r="C185">
-        <v>1172259275.9985397</v>
+        <v>1170838147.4918199</v>
       </c>
       <c r="D185">
-        <v>18127482.143637598</v>
+        <v>18141144.179888502</v>
       </c>
       <c r="E185">
-        <v>77849138.125233799</v>
+        <v>77929900.708360568</v>
       </c>
       <c r="F185">
-        <v>480.45638015143311</v>
+        <v>479.87392346113563</v>
       </c>
       <c r="G185">
-        <v>7.4296400380991408</v>
+        <v>7.4352394926029373</v>
       </c>
       <c r="H185">
-        <v>31.906862131415838</v>
+        <v>31.939963083684027</v>
       </c>
       <c r="I185" t="s">
         <v>29</v>
@@ -8208,22 +8208,22 @@
         <v>8797020</v>
       </c>
       <c r="C187">
-        <v>3639778359.4604249</v>
+        <v>3609191986.6918497</v>
       </c>
       <c r="D187">
         <v>0</v>
       </c>
       <c r="E187">
-        <v>1959880655.0940747</v>
+        <v>1943411069.7571497</v>
       </c>
       <c r="F187">
-        <v>413.75128844318016</v>
+        <v>410.27438685962403</v>
       </c>
       <c r="G187">
         <v>0</v>
       </c>
       <c r="H187">
-        <v>222.78915531555853</v>
+        <v>220.91697753979753</v>
       </c>
       <c r="I187" t="s">
         <v>11</v>
@@ -8249,22 +8249,22 @@
         <v>614883</v>
       </c>
       <c r="C188">
-        <v>347870666.29755521</v>
+        <v>354854900.46030784</v>
       </c>
       <c r="D188">
-        <v>4962275.9138906216</v>
+        <v>5053575.8518670825</v>
       </c>
       <c r="E188">
-        <v>21365801.327218164</v>
+        <v>21841783.442335449</v>
       </c>
       <c r="F188">
-        <v>565.75099050966639</v>
+        <v>577.10962973493793</v>
       </c>
       <c r="G188">
-        <v>8.0702766443219627</v>
+        <v>8.2187600760910335</v>
       </c>
       <c r="H188">
-        <v>34.747750917195894</v>
+        <v>35.521852844094646</v>
       </c>
       <c r="I188" t="s">
         <v>32</v>
@@ -8290,22 +8290,22 @@
         <v>5372955</v>
       </c>
       <c r="C189">
-        <v>4679042733.1720657</v>
+        <v>4725789140.2318363</v>
       </c>
       <c r="D189">
-        <v>72330377.014130145</v>
+        <v>72823022.18622607</v>
       </c>
       <c r="E189">
-        <v>310153166.08189785</v>
+        <v>312802849.33096421</v>
       </c>
       <c r="F189">
-        <v>870.85090665603298</v>
+        <v>879.55122278743011</v>
       </c>
       <c r="G189">
-        <v>13.461936125303515</v>
+        <v>13.553625925812904</v>
       </c>
       <c r="H189">
-        <v>57.724876921898257</v>
+        <v>58.218028874420909</v>
       </c>
       <c r="I189" t="s">
         <v>24</v>
@@ -8331,22 +8331,22 @@
         <v>222191</v>
       </c>
       <c r="C190">
-        <v>101811314.94211015</v>
+        <v>89213516.013118818</v>
       </c>
       <c r="D190">
-        <v>4276075.2275686264</v>
+        <v>3746967.6725509907</v>
       </c>
       <c r="E190">
-        <v>17609756.799700618</v>
+        <v>16759651.118224492</v>
       </c>
       <c r="F190">
-        <v>458.21529648865231</v>
+        <v>401.51723523058456</v>
       </c>
       <c r="G190">
-        <v>19.2450424525234</v>
+        <v>16.863723879684553</v>
       </c>
       <c r="H190">
-        <v>79.255040931903707</v>
+        <v>75.42902781041758</v>
       </c>
       <c r="I190" t="s">
         <v>43</v>
@@ -8372,22 +8372,22 @@
         <v>12160150</v>
       </c>
       <c r="C191">
-        <v>5425861173.0847664</v>
+        <v>5406696884.1799402</v>
       </c>
       <c r="D191">
-        <v>125793622.83170134</v>
+        <v>125339166.65411434</v>
       </c>
       <c r="E191">
-        <v>542181836.64318144</v>
+        <v>542594403.46361506</v>
       </c>
       <c r="F191">
-        <v>446.20018446193234</v>
+        <v>444.62419330188692</v>
       </c>
       <c r="G191">
-        <v>10.344742690813957</v>
+        <v>10.307370110904417</v>
       </c>
       <c r="H191">
-        <v>44.586772091066429</v>
+        <v>44.620699865019354</v>
       </c>
       <c r="I191" t="s">
         <v>28</v>
@@ -8413,22 +8413,22 @@
         <v>13610817</v>
       </c>
       <c r="C192">
-        <v>13580546859.408508</v>
+        <v>13745722529.721432</v>
       </c>
       <c r="D192">
-        <v>424879939.54616004</v>
+        <v>428887534.58392358</v>
       </c>
       <c r="E192">
-        <v>1821611193.4365954</v>
+        <v>1829633543.2253799</v>
       </c>
       <c r="F192">
-        <v>997.77602324742952</v>
+        <v>1009.911640845765</v>
       </c>
       <c r="G192">
-        <v>31.216343555729242</v>
+        <v>31.510785471873113</v>
       </c>
       <c r="H192">
-        <v>133.83555105006522</v>
+        <v>134.42496091346905</v>
       </c>
       <c r="I192" t="s">
         <v>36</v>
@@ -8454,22 +8454,22 @@
         <v>5621453</v>
       </c>
       <c r="C193">
-        <v>1804134721.6341748</v>
+        <v>1782178476.5825887</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193">
-        <v>1340379987.7375436</v>
+        <v>1317507042.7798719</v>
       </c>
       <c r="F193">
-        <v>320.9374376400861</v>
+        <v>317.03164227871133</v>
       </c>
       <c r="G193">
         <v>0</v>
       </c>
       <c r="H193">
-        <v>238.440130645501</v>
+        <v>234.37126358254207</v>
       </c>
       <c r="I193" t="s">
         <v>18</v>
@@ -8495,22 +8495,22 @@
         <v>8681175</v>
       </c>
       <c r="C194">
-        <v>4096610665.8285875</v>
+        <v>4052806570.6229</v>
       </c>
       <c r="D194">
         <v>0</v>
       </c>
       <c r="E194">
-        <v>1131844612.671376</v>
+        <v>1151460689.2756486</v>
       </c>
       <c r="F194">
-        <v>471.89587421386938</v>
+        <v>466.85000251957831</v>
       </c>
       <c r="G194">
         <v>0</v>
       </c>
       <c r="H194">
-        <v>130.37919552035018</v>
+        <v>132.6388062993372</v>
       </c>
       <c r="I194" t="s">
         <v>11</v>
@@ -8536,22 +8536,22 @@
         <v>1498688</v>
       </c>
       <c r="C195">
-        <v>1066593436.5999063</v>
+        <v>1075556406.6553679</v>
       </c>
       <c r="D195">
         <v>0</v>
       </c>
       <c r="E195">
-        <v>2137461.7967934012</v>
+        <v>2155423.6606320012</v>
       </c>
       <c r="F195">
-        <v>711.6847780191116</v>
+        <v>717.6653223722135</v>
       </c>
       <c r="G195">
         <v>0</v>
       </c>
       <c r="H195">
-        <v>1.426222000038301</v>
+        <v>1.4382070588621523</v>
       </c>
       <c r="I195" t="s">
         <v>44</v>
@@ -8577,22 +8577,22 @@
         <v>2563582</v>
       </c>
       <c r="C196">
-        <v>2077566560.2590501</v>
+        <v>2060108017.7358654</v>
       </c>
       <c r="D196">
         <v>0</v>
       </c>
       <c r="E196">
-        <v>4163460.0405993029</v>
+        <v>4128472.9814346037</v>
       </c>
       <c r="F196">
-        <v>810.41548905361719</v>
+        <v>803.60527485988951</v>
       </c>
       <c r="G196">
         <v>0</v>
       </c>
       <c r="H196">
-        <v>1.624079136379996</v>
+        <v>1.6104314125448702</v>
       </c>
       <c r="I196" t="s">
         <v>41</v>
@@ -8618,7 +8618,7 @@
         <v>2383346</v>
       </c>
       <c r="C197">
-        <v>768715766.98380733</v>
+        <v>792342351.16124558</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -8627,7 +8627,7 @@
         <v>552520518.14613461</v>
       </c>
       <c r="F197">
-        <v>322.53636986984151</v>
+        <v>332.44956928672781</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -8659,22 +8659,22 @@
         <v>14585886</v>
       </c>
       <c r="C198">
-        <v>14999703606.714529</v>
+        <v>15008742552.641928</v>
       </c>
       <c r="D198">
-        <v>235617209.18276086</v>
+        <v>235294824.40667018</v>
       </c>
       <c r="E198">
-        <v>1009316250.4606409</v>
+        <v>1009467659.6680157</v>
       </c>
       <c r="F198">
-        <v>1028.3710983833639</v>
+        <v>1028.9908033452289</v>
       </c>
       <c r="G198">
-        <v>16.153781071836217</v>
+        <v>16.131678556014368</v>
       </c>
       <c r="H198">
-        <v>69.198144731190197</v>
+        <v>69.208525259831021</v>
       </c>
       <c r="I198" t="s">
         <v>24</v>
@@ -8700,22 +8700,22 @@
         <v>93260</v>
       </c>
       <c r="C199">
-        <v>40260661.987280242</v>
+        <v>40581829.511538632</v>
       </c>
       <c r="D199">
         <v>0</v>
       </c>
       <c r="E199">
-        <v>30098125.076948524</v>
+        <v>30150255.652550668</v>
       </c>
       <c r="F199">
-        <v>431.70343113103411</v>
+        <v>435.14721758029845</v>
       </c>
       <c r="G199">
         <v>0</v>
       </c>
       <c r="H199">
-        <v>322.73348785061683</v>
+        <v>323.29246893148905</v>
       </c>
       <c r="I199" t="s">
         <v>22</v>
@@ -8741,22 +8741,22 @@
         <v>2184313</v>
       </c>
       <c r="C200">
-        <v>1430368432.9435341</v>
+        <v>1422810740.6629972</v>
       </c>
       <c r="D200">
-        <v>19517365.694848087</v>
+        <v>19517996.018366978</v>
       </c>
       <c r="E200">
-        <v>83520450.777971864</v>
+        <v>83221667.550996751</v>
       </c>
       <c r="F200">
-        <v>654.83675322334034</v>
+        <v>651.37676727785686</v>
       </c>
       <c r="G200">
-        <v>8.9352421996518299</v>
+        <v>8.9355307679654778</v>
       </c>
       <c r="H200">
-        <v>38.236484779412045</v>
+        <v>38.099698876029557</v>
       </c>
       <c r="I200" t="s">
         <v>15</v>
@@ -8782,22 +8782,22 @@
         <v>2459453</v>
       </c>
       <c r="C201">
-        <v>2738609846.7139082</v>
+        <v>2738070535.414206</v>
       </c>
       <c r="D201">
-        <v>38574948.991554201</v>
+        <v>38374087.071185023</v>
       </c>
       <c r="E201">
-        <v>170024080.47289258</v>
+        <v>169714834.30828124</v>
       </c>
       <c r="F201">
-        <v>1113.5036313822254</v>
+        <v>1113.2843503877514</v>
       </c>
       <c r="G201">
-        <v>15.684361112635289</v>
+        <v>15.602691765683273</v>
       </c>
       <c r="H201">
-        <v>69.130851645830433</v>
+        <v>69.00511386405077</v>
       </c>
       <c r="I201" t="s">
         <v>24</v>
@@ -8823,22 +8823,22 @@
         <v>3041196</v>
       </c>
       <c r="C202">
-        <v>403843733.77278</v>
+        <v>407237378.59439993</v>
       </c>
       <c r="D202">
         <v>0</v>
       </c>
       <c r="E202">
-        <v>1615374935.09112</v>
+        <v>1628949514.3775997</v>
       </c>
       <c r="F202">
-        <v>132.79109066721776</v>
+        <v>133.90698218542965</v>
       </c>
       <c r="G202">
         <v>0</v>
       </c>
       <c r="H202">
-        <v>531.16436266887104</v>
+        <v>535.62792874171862</v>
       </c>
       <c r="I202" t="s">
         <v>42</v>
@@ -8905,22 +8905,22 @@
         <v>9975515</v>
       </c>
       <c r="C204">
-        <v>46665695498.261902</v>
+        <v>47171156203.071159</v>
       </c>
       <c r="D204">
-        <v>663730248.11126435</v>
+        <v>666244738.0141145</v>
       </c>
       <c r="E204">
-        <v>2856925600.6179762</v>
+        <v>2861863868.2516818</v>
       </c>
       <c r="F204">
-        <v>4678.0236908331954</v>
+        <v>4728.6938271428753</v>
       </c>
       <c r="G204">
-        <v>66.535938055455219</v>
+        <v>66.788004229768035</v>
       </c>
       <c r="H204">
-        <v>286.39379526951501</v>
+        <v>286.88883413554908</v>
       </c>
       <c r="I204" t="s">
         <v>15</v>
@@ -8946,22 +8946,22 @@
         <v>4778869</v>
       </c>
       <c r="C205">
-        <v>7801556559.7808571</v>
+        <v>7793793713.1776676</v>
       </c>
       <c r="D205">
-        <v>59081968.549222052</v>
+        <v>59716687.848782003</v>
       </c>
       <c r="E205">
-        <v>884582704.27076578</v>
+        <v>894595640.86949956</v>
       </c>
       <c r="F205">
-        <v>1632.5110731808838</v>
+        <v>1630.886662341585</v>
       </c>
       <c r="G205">
-        <v>12.363169726816544</v>
+        <v>12.495987617317404</v>
       </c>
       <c r="H205">
-        <v>185.1029405222796</v>
+        <v>187.19819289239766</v>
       </c>
       <c r="I205" t="s">
         <v>15</v>
@@ -8987,22 +8987,22 @@
         <v>7465222</v>
       </c>
       <c r="C206">
-        <v>2439825113.1425943</v>
+        <v>2372139486.2147651</v>
       </c>
       <c r="D206">
         <v>0</v>
       </c>
       <c r="E206">
-        <v>1749506579.8160038</v>
+        <v>1740805994.9653082</v>
       </c>
       <c r="F206">
-        <v>326.82552684201414</v>
+        <v>317.75873325867133</v>
       </c>
       <c r="G206">
         <v>0</v>
       </c>
       <c r="H206">
-        <v>234.35426030411472</v>
+        <v>233.18877790443582</v>
       </c>
       <c r="I206" t="s">
         <v>30</v>
@@ -9028,22 +9028,22 @@
         <v>9630419</v>
       </c>
       <c r="C207">
-        <v>6164275655.6041651</v>
+        <v>6168265142.9907722</v>
       </c>
       <c r="D207">
-        <v>62516014.3472137</v>
+        <v>62317335.572120577</v>
       </c>
       <c r="E207">
-        <v>268126406.32767472</v>
+        <v>267481880.54781348</v>
       </c>
       <c r="F207">
-        <v>640.08384843942565</v>
+        <v>640.49810740226076</v>
       </c>
       <c r="G207">
-        <v>6.4915155142485181</v>
+        <v>6.470885178736312</v>
       </c>
       <c r="H207">
-        <v>27.8416137789721</v>
+        <v>27.774687741812009</v>
       </c>
       <c r="I207" t="s">
         <v>46</v>
@@ -9069,22 +9069,22 @@
         <v>12442473</v>
       </c>
       <c r="C208">
-        <v>19377957883.843445</v>
+        <v>19393585821.148548</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208">
-        <v>14181247661.646082</v>
+        <v>14165508649.384249</v>
       </c>
       <c r="F208">
-        <v>1557.4040533456207</v>
+        <v>1558.6600687137154</v>
       </c>
       <c r="G208">
         <v>0</v>
       </c>
       <c r="H208">
-        <v>1139.7451022514642</v>
+        <v>1138.4801598029787</v>
       </c>
       <c r="I208" t="s">
         <v>24</v>
@@ -9110,22 +9110,22 @@
         <v>6659324</v>
       </c>
       <c r="C209">
-        <v>4465511023.6381035</v>
+        <v>4416016241.3339996</v>
       </c>
       <c r="D209">
-        <v>60931461.325546741</v>
+        <v>60325830.963492699</v>
       </c>
       <c r="E209">
-        <v>261641631.17846137</v>
+        <v>256179994.27822512</v>
       </c>
       <c r="F209">
-        <v>670.565214072495</v>
+        <v>663.13281067778041</v>
       </c>
       <c r="G209">
-        <v>9.1497967850110218</v>
+        <v>9.0588520641874002</v>
       </c>
       <c r="H209">
-        <v>39.289518152061888</v>
+        <v>38.469369305086389</v>
       </c>
       <c r="I209" t="s">
         <v>40</v>
@@ -9151,22 +9151,22 @@
         <v>4935387</v>
       </c>
       <c r="C210">
-        <v>2521887160.7291565</v>
+        <v>2551818685.7164454</v>
       </c>
       <c r="D210">
-        <v>81116676.803990811</v>
+        <v>82040598.036058471</v>
       </c>
       <c r="E210">
-        <v>349090804.25420165</v>
+        <v>352843421.7071296</v>
       </c>
       <c r="F210">
-        <v>510.98063044076514</v>
+        <v>517.04530682526934</v>
       </c>
       <c r="G210">
-        <v>16.435727695516242</v>
+        <v>16.622931096600624</v>
       </c>
       <c r="H210">
-        <v>70.732204841120193</v>
+        <v>71.492554020004832</v>
       </c>
       <c r="I210" t="s">
         <v>14</v>
@@ -9233,22 +9233,22 @@
         <v>8727176</v>
       </c>
       <c r="C212">
-        <v>5570262507.3472233</v>
+        <v>5533877181.657629</v>
       </c>
       <c r="D212">
-        <v>75875172.871792316</v>
+        <v>75982378.664903343</v>
       </c>
       <c r="E212">
-        <v>324356665.19741732</v>
+        <v>323968122.49492645</v>
       </c>
       <c r="F212">
-        <v>638.26631975191322</v>
+        <v>634.09712164136818</v>
       </c>
       <c r="G212">
-        <v>8.6941265847958515</v>
+        <v>8.7064107180723003</v>
       </c>
       <c r="H212">
-        <v>37.166279813472002</v>
+        <v>37.121758802037043</v>
       </c>
       <c r="I212" t="s">
         <v>15</v>
@@ -9280,7 +9280,7 @@
         <v>758098302.31027031</v>
       </c>
       <c r="E213">
-        <v>3303448252.1710024</v>
+        <v>3390865406.4763632</v>
       </c>
       <c r="F213">
         <v>4920.1638827958868</v>
@@ -9289,7 +9289,7 @@
         <v>63.566891437071135</v>
       </c>
       <c r="H213">
-        <v>276.99565580585215</v>
+        <v>284.32562441352792</v>
       </c>
       <c r="I213" t="s">
         <v>15</v>
@@ -9315,22 +9315,22 @@
         <v>3197035</v>
       </c>
       <c r="C214">
-        <v>1359641462.5962884</v>
+        <v>1364312407.4599302</v>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>732114633.70569372</v>
+        <v>734629757.86303926</v>
       </c>
       <c r="F214">
-        <v>425.28200742134146</v>
+        <v>426.74303142127945</v>
       </c>
       <c r="G214">
         <v>0</v>
       </c>
       <c r="H214">
-        <v>228.99800399610692</v>
+        <v>229.78470922684275</v>
       </c>
       <c r="I214" t="s">
         <v>15</v>
@@ -9356,22 +9356,22 @@
         <v>2169628</v>
       </c>
       <c r="C215">
-        <v>17206082730.98196</v>
+        <v>17262029982.317776</v>
       </c>
       <c r="D215">
-        <v>241958745.14700595</v>
+        <v>244183315.63314295</v>
       </c>
       <c r="E215">
-        <v>1032549609.4268116</v>
+        <v>1040049746.4486756</v>
       </c>
       <c r="F215">
-        <v>7930.4298852070306</v>
+        <v>7956.2164492335905</v>
       </c>
       <c r="G215">
-        <v>111.52084373312196</v>
+        <v>112.54616719232189</v>
       </c>
       <c r="H215">
-        <v>475.91089782525466</v>
+        <v>479.36777477460453</v>
       </c>
       <c r="I215" t="s">
         <v>15</v>
@@ -9397,22 +9397,22 @@
         <v>2005494</v>
       </c>
       <c r="C216">
-        <v>1294473203.5763516</v>
+        <v>1298968594.4256544</v>
       </c>
       <c r="D216">
         <v>0</v>
       </c>
       <c r="E216">
-        <v>503406245.83524787</v>
+        <v>505154453.38775468</v>
       </c>
       <c r="F216">
-        <v>645.46351351654585</v>
+        <v>647.70505143653111</v>
       </c>
       <c r="G216">
         <v>0</v>
       </c>
       <c r="H216">
-        <v>251.01358858976783</v>
+        <v>251.88529778087329</v>
       </c>
       <c r="I216" t="s">
         <v>10</v>
@@ -9444,7 +9444,7 @@
         <v>0</v>
       </c>
       <c r="E217">
-        <v>1323033315.2201242</v>
+        <v>1327043153.8358407</v>
       </c>
       <c r="F217">
         <v>390.93654756053201</v>
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="H217">
-        <v>229.93531476276578</v>
+        <v>230.63220084541084</v>
       </c>
       <c r="I217" t="s">
         <v>15</v>
@@ -9520,22 +9520,22 @@
         <v>1861832</v>
       </c>
       <c r="C219">
-        <v>1128991019.4046004</v>
+        <v>1131135688.5039394</v>
       </c>
       <c r="D219">
         <v>0</v>
       </c>
       <c r="E219">
-        <v>41867781.233793497</v>
+        <v>41373929.529187895</v>
       </c>
       <c r="F219">
-        <v>606.3871602833126</v>
+        <v>607.53907361348365</v>
       </c>
       <c r="G219">
         <v>0</v>
       </c>
       <c r="H219">
-        <v>22.487410912366688</v>
+        <v>22.222160500618688</v>
       </c>
       <c r="I219" t="s">
         <v>30</v>
@@ -9561,22 +9561,22 @@
         <v>10724956</v>
       </c>
       <c r="C220">
-        <v>5974126723.2902641</v>
+        <v>5987872539.7401495</v>
       </c>
       <c r="D220">
-        <v>111501674.57788247</v>
+        <v>111854140.96187593</v>
       </c>
       <c r="E220">
-        <v>485627614.50268233</v>
+        <v>486207174.92129606</v>
       </c>
       <c r="F220">
-        <v>557.03041796071375</v>
+        <v>558.3120844262811</v>
       </c>
       <c r="G220">
-        <v>10.396469186249572</v>
+        <v>10.429333319584336</v>
       </c>
       <c r="H220">
-        <v>45.280149820911369</v>
+        <v>45.33418831007755</v>
       </c>
       <c r="I220" t="s">
         <v>41</v>
@@ -9602,22 +9602,22 @@
         <v>5178428</v>
       </c>
       <c r="C221">
-        <v>4846249120.1449471</v>
+        <v>4845394897.1113291</v>
       </c>
       <c r="D221">
-        <v>75318078.959512919</v>
+        <v>76359642.47624743</v>
       </c>
       <c r="E221">
-        <v>328362679.41033661</v>
+        <v>333689593.21447992</v>
       </c>
       <c r="F221">
-        <v>935.85333621418454</v>
+        <v>935.68837823202898</v>
       </c>
       <c r="G221">
-        <v>14.544583599407565</v>
+        <v>14.745718676835409</v>
       </c>
       <c r="H221">
-        <v>63.409721909880105</v>
+        <v>64.438395824848769</v>
       </c>
       <c r="I221" t="s">
         <v>24</v>
@@ -9684,22 +9684,22 @@
         <v>3910602</v>
       </c>
       <c r="C223">
-        <v>6031868593.015274</v>
+        <v>5997287573.3578634</v>
       </c>
       <c r="D223">
-        <v>91787756.223918647</v>
+        <v>92161803.224080294</v>
       </c>
       <c r="E223">
-        <v>393823559.13439697</v>
+        <v>395349126.82716185</v>
       </c>
       <c r="F223">
-        <v>1542.4399090000143</v>
+        <v>1533.5970199365374</v>
       </c>
       <c r="G223">
-        <v>23.471515696028039</v>
+        <v>23.567165163849527</v>
       </c>
       <c r="H223">
-        <v>100.70663267046787</v>
+        <v>101.09674337280087</v>
       </c>
       <c r="I223" t="s">
         <v>16</v>
@@ -9725,22 +9725,22 @@
         <v>3855966</v>
       </c>
       <c r="C224">
-        <v>2355833605.9183517</v>
+        <v>2388864046.610446</v>
       </c>
       <c r="D224">
         <v>0</v>
       </c>
       <c r="E224">
-        <v>3775374.3684590054</v>
+        <v>3828307.7670040298</v>
       </c>
       <c r="F224">
-        <v>610.95808570883446</v>
+        <v>619.52414689612044</v>
       </c>
       <c r="G224">
         <v>0</v>
       </c>
       <c r="H224">
-        <v>0.97909949632828852</v>
+        <v>0.992827158487401</v>
       </c>
       <c r="I224" t="s">
         <v>25</v>
@@ -9766,22 +9766,22 @@
         <v>16989297</v>
       </c>
       <c r="C225">
-        <v>11067266662.116533</v>
+        <v>11081118404.08952</v>
       </c>
       <c r="D225">
-        <v>80051311.263983354</v>
+        <v>80156168.90981628</v>
       </c>
       <c r="E225">
-        <v>344605634.04332018</v>
+        <v>345727736.61718756</v>
       </c>
       <c r="F225">
-        <v>651.42581603679855</v>
+        <v>652.24113770508097</v>
       </c>
       <c r="G225">
-        <v>4.7118671987418521</v>
+        <v>4.718039181363201</v>
       </c>
       <c r="H225">
-        <v>20.283690022213406</v>
+        <v>20.349737638772666</v>
       </c>
       <c r="I225" t="s">
         <v>22</v>
@@ -9807,22 +9807,22 @@
         <v>7463219</v>
       </c>
       <c r="C226">
-        <v>7243049639.8318176</v>
+        <v>7272956198.4067097</v>
       </c>
       <c r="D226">
-        <v>106412534.07051243</v>
+        <v>110602006.62230456</v>
       </c>
       <c r="E226">
-        <v>456846370.03826678</v>
+        <v>473493229.68505478</v>
       </c>
       <c r="F226">
-        <v>970.49941048652295</v>
+        <v>974.50660343837023</v>
       </c>
       <c r="G226">
-        <v>14.258262295466933</v>
+        <v>14.819611567381925</v>
       </c>
       <c r="H226">
-        <v>61.213046279127916</v>
+        <v>63.443566333113736</v>
       </c>
       <c r="I226" t="s">
         <v>39</v>
@@ -9889,22 +9889,22 @@
         <v>10860909</v>
       </c>
       <c r="C228">
-        <v>5846093146.9575577</v>
+        <v>5838325324.2913818</v>
       </c>
       <c r="D228">
-        <v>75036267.734339476</v>
+        <v>75028924.612177104</v>
       </c>
       <c r="E228">
-        <v>322007329.22322798</v>
+        <v>322196187.36865836</v>
       </c>
       <c r="F228">
-        <v>538.26923206497338</v>
+        <v>537.554022807058</v>
       </c>
       <c r="G228">
-        <v>6.9088386372024182</v>
+        <v>6.9081625315318549</v>
       </c>
       <c r="H228">
-        <v>29.648285352839984</v>
+        <v>29.66567415017089</v>
       </c>
       <c r="I228" t="s">
         <v>46</v>
@@ -9930,22 +9930,22 @@
         <v>2584028</v>
       </c>
       <c r="C229">
-        <v>2165540979.2769518</v>
+        <v>2135878442.1016796</v>
       </c>
       <c r="D229">
-        <v>34608232.692696132</v>
+        <v>33895241.843495011</v>
       </c>
       <c r="E229">
-        <v>147897343.70810801</v>
+        <v>144508266.24864876</v>
       </c>
       <c r="F229">
-        <v>838.04857349725</v>
+        <v>826.5693878323608</v>
       </c>
       <c r="G229">
-        <v>13.393133779005542</v>
+        <v>13.117211517636424</v>
       </c>
       <c r="H229">
-        <v>57.235193932924879</v>
+        <v>55.923645660437408</v>
       </c>
       <c r="I229" t="s">
         <v>26</v>
@@ -9971,22 +9971,22 @@
         <v>5184267</v>
       </c>
       <c r="C230">
-        <v>1799551265.7250094</v>
+        <v>1844163364.16996</v>
       </c>
       <c r="D230">
         <v>0</v>
       </c>
       <c r="E230">
-        <v>1312832663.4347465</v>
+        <v>1284273484.4129214</v>
       </c>
       <c r="F230">
-        <v>347.11778265375017</v>
+        <v>355.7230683083954</v>
       </c>
       <c r="G230">
         <v>0</v>
       </c>
       <c r="H230">
-        <v>253.23399883430898</v>
+        <v>247.72518167234085</v>
       </c>
       <c r="I230" t="s">
         <v>42</v>
@@ -10012,22 +10012,22 @@
         <v>4104611</v>
       </c>
       <c r="C231">
-        <v>23591426930.327507</v>
+        <v>23514965732.35754</v>
       </c>
       <c r="D231">
-        <v>330676754.8275857</v>
+        <v>322769210.98682129</v>
       </c>
       <c r="E231">
-        <v>1411150292.7340012</v>
+        <v>1396678025.8039367</v>
       </c>
       <c r="F231">
-        <v>5747.5426856107697</v>
+        <v>5728.9145627582102</v>
       </c>
       <c r="G231">
-        <v>80.562263958164536</v>
+        <v>78.635761339337947</v>
       </c>
       <c r="H231">
-        <v>343.79635310971031</v>
+        <v>340.27049720520085</v>
       </c>
       <c r="I231" t="s">
         <v>15</v>
@@ -10053,22 +10053,22 @@
         <v>3995922</v>
       </c>
       <c r="C232">
-        <v>2566551322.3707829</v>
+        <v>2575929583.5669622</v>
       </c>
       <c r="D232">
         <v>0</v>
       </c>
       <c r="E232">
-        <v>4113063.0166199626</v>
+        <v>4128092.2813574295</v>
       </c>
       <c r="F232">
-        <v>642.29264794727794</v>
+        <v>644.63960597002699</v>
       </c>
       <c r="G232">
         <v>0</v>
       </c>
       <c r="H232">
-        <v>1.0293151409411803</v>
+        <v>1.0330762916186627</v>
       </c>
       <c r="I232" t="s">
         <v>25</v>
@@ -10094,22 +10094,22 @@
         <v>5491581</v>
       </c>
       <c r="C233">
-        <v>5156503373.7405033</v>
+        <v>5158175815.238184</v>
       </c>
       <c r="D233">
-        <v>80675218.259694964</v>
+        <v>79949710.327695459</v>
       </c>
       <c r="E233">
-        <v>347332683.62641656</v>
+        <v>344037866.10886186</v>
       </c>
       <c r="F233">
-        <v>938.9833954448643</v>
+        <v>939.28794189472649</v>
       </c>
       <c r="G233">
-        <v>14.690708970639777</v>
+        <v>14.558596208941552</v>
       </c>
       <c r="H233">
-        <v>63.248212787249528</v>
+        <v>62.648236656959419</v>
       </c>
       <c r="I233" t="s">
         <v>24</v>
@@ -10176,22 +10176,22 @@
         <v>1299004</v>
       </c>
       <c r="C235">
-        <v>454108074.30033571</v>
+        <v>430462877.98804092</v>
       </c>
       <c r="D235">
         <v>0</v>
       </c>
       <c r="E235">
-        <v>322172991.11642408</v>
+        <v>319344704.29638875</v>
       </c>
       <c r="F235">
-        <v>349.58173670006846</v>
+        <v>331.37917819193854</v>
       </c>
       <c r="G235">
         <v>0</v>
       </c>
       <c r="H235">
-        <v>248.01539573120951</v>
+        <v>245.83812235865997</v>
       </c>
       <c r="I235" t="s">
         <v>30</v>
@@ -10217,22 +10217,22 @@
         <v>2477354</v>
       </c>
       <c r="C236">
-        <v>914791933.05067885</v>
+        <v>933263541.58757031</v>
       </c>
       <c r="D236">
         <v>0</v>
       </c>
       <c r="E236">
-        <v>641646768.12087154</v>
+        <v>647329533.71234417</v>
       </c>
       <c r="F236">
-        <v>369.26169334325203</v>
+        <v>376.71787785983366</v>
       </c>
       <c r="G236">
         <v>0</v>
       </c>
       <c r="H236">
-        <v>259.00487702640459</v>
+        <v>261.2987621923811</v>
       </c>
       <c r="I236" t="s">
         <v>18</v>
@@ -10258,22 +10258,22 @@
         <v>3250811</v>
       </c>
       <c r="C237">
-        <v>2431823483.392478</v>
+        <v>2451520680.5402975</v>
       </c>
       <c r="D237">
-        <v>37451568.077776238</v>
+        <v>37809643.500887707</v>
       </c>
       <c r="E237">
-        <v>161670589.47981006</v>
+        <v>162650529.45923024</v>
       </c>
       <c r="F237">
-        <v>748.06670808991294</v>
+        <v>754.12587214092036</v>
       </c>
       <c r="G237">
-        <v>11.520684554646898</v>
+        <v>11.63083412135855</v>
       </c>
       <c r="H237">
-        <v>49.732386619772747</v>
+        <v>50.033831391375948</v>
       </c>
       <c r="I237" t="s">
         <v>26</v>
@@ -10299,22 +10299,22 @@
         <v>2434413</v>
       </c>
       <c r="C238">
-        <v>9056075474.8624878</v>
+        <v>9264967310.7819748</v>
       </c>
       <c r="D238">
         <v>0</v>
       </c>
       <c r="E238">
-        <v>4876348332.6182613</v>
+        <v>4988828551.9595242</v>
       </c>
       <c r="F238">
-        <v>3720.0242830047687</v>
+        <v>3805.8321701297086</v>
       </c>
       <c r="G238">
         <v>0</v>
       </c>
       <c r="H238">
-        <v>2003.0899985410288</v>
+        <v>2049.2942454544582</v>
       </c>
       <c r="I238" t="s">
         <v>15</v>
@@ -10340,22 +10340,22 @@
         <v>2199703</v>
       </c>
       <c r="C239">
-        <v>3170337380.0107312</v>
+        <v>3171055565.2367797</v>
       </c>
       <c r="D239">
         <v>0</v>
       </c>
       <c r="E239">
-        <v>6353381.5230676029</v>
+        <v>6354820.7720176</v>
       </c>
       <c r="F239">
-        <v>1441.2570151564694</v>
+        <v>1441.5835070628989</v>
       </c>
       <c r="G239">
         <v>0</v>
       </c>
       <c r="H239">
-        <v>2.8882906115360134</v>
+        <v>2.8889449039336674</v>
       </c>
       <c r="I239" t="s">
         <v>16</v>
@@ -10381,22 +10381,22 @@
         <v>5484916</v>
       </c>
       <c r="C240">
-        <v>7991197007.0374603</v>
+        <v>7976514844.3913908</v>
       </c>
       <c r="D240">
-        <v>102651043.71312985</v>
+        <v>102351848.07457572</v>
       </c>
       <c r="E240">
-        <v>440079789.64805949</v>
+        <v>439882889.99153435</v>
       </c>
       <c r="F240">
-        <v>1456.9406362900472</v>
+        <v>1454.2638108571564</v>
       </c>
       <c r="G240">
-        <v>18.715153288241762</v>
+        <v>18.660604478642103</v>
       </c>
       <c r="H240">
-        <v>80.234554120438574</v>
+        <v>80.198655729920816</v>
       </c>
       <c r="I240" t="s">
         <v>38</v>
@@ -10422,22 +10422,22 @@
         <v>4229531</v>
       </c>
       <c r="C241">
-        <v>2652211241.6576967</v>
+        <v>2631678106.2583599</v>
       </c>
       <c r="D241">
         <v>0</v>
       </c>
       <c r="E241">
-        <v>1957203.0533460183</v>
+        <v>1973591.933316248</v>
       </c>
       <c r="F241">
-        <v>627.06981971705534</v>
+        <v>622.21511232766943</v>
       </c>
       <c r="G241">
         <v>0</v>
       </c>
       <c r="H241">
-        <v>0.46274706423620449</v>
+        <v>0.46662193357047105</v>
       </c>
       <c r="I241" t="s">
         <v>25</v>
@@ -10504,19 +10504,19 @@
         <v>3406721</v>
       </c>
       <c r="C243">
-        <v>1807984902.3923843</v>
+        <v>1803218610.2918029</v>
       </c>
       <c r="D243">
-        <v>23358567.468068242</v>
+        <v>23158383.199843816</v>
       </c>
       <c r="E243">
         <v>97148782.130192041</v>
       </c>
       <c r="F243">
-        <v>530.71117429116862</v>
+        <v>529.3120893351122</v>
       </c>
       <c r="G243">
-        <v>6.8566129918089098</v>
+        <v>6.7978514236545395</v>
       </c>
       <c r="H243">
         <v>28.51680021058139</v>
@@ -10545,22 +10545,22 @@
         <v>4583206</v>
       </c>
       <c r="C244">
-        <v>26698069973.132225</v>
+        <v>26630256849.94482</v>
       </c>
       <c r="D244">
-        <v>454358558.64287025</v>
+        <v>446570800.62236965</v>
       </c>
       <c r="E244">
-        <v>2032280924.4440365</v>
+        <v>1839070356.4116175</v>
       </c>
       <c r="F244">
-        <v>5825.1952831996259</v>
+        <v>5810.3992816261853</v>
       </c>
       <c r="G244">
-        <v>99.135530596458082</v>
+        <v>97.436336185275039</v>
       </c>
       <c r="H244">
-        <v>443.41906613929996</v>
+        <v>401.26286193804458</v>
       </c>
       <c r="I244" t="s">
         <v>15</v>
@@ -10586,22 +10586,22 @@
         <v>4859658</v>
       </c>
       <c r="C245">
-        <v>3274795141.0937891</v>
+        <v>3248663596.5490732</v>
       </c>
       <c r="D245">
         <v>0</v>
       </c>
       <c r="E245">
-        <v>3893518.691326838</v>
+        <v>3875307.1975627793</v>
       </c>
       <c r="F245">
-        <v>673.87358145239625</v>
+        <v>668.49634203663572</v>
       </c>
       <c r="G245">
         <v>0</v>
       </c>
       <c r="H245">
-        <v>0.80119191336650397</v>
+        <v>0.79744442871551435</v>
       </c>
       <c r="I245" t="s">
         <v>40</v>
@@ -10627,22 +10627,22 @@
         <v>12498933</v>
       </c>
       <c r="C246">
-        <v>19529840708.699627</v>
+        <v>19465184904.756657</v>
       </c>
       <c r="D246">
-        <v>309802272.08491457</v>
+        <v>307237680.65045255</v>
       </c>
       <c r="E246">
-        <v>1342957465.8832941</v>
+        <v>1324271038.267415</v>
       </c>
       <c r="F246">
-        <v>1562.520633457242</v>
+        <v>1557.3477275825589</v>
       </c>
       <c r="G246">
-        <v>24.786297525149912</v>
+        <v>24.581112695815918</v>
       </c>
       <c r="H246">
-        <v>107.44576884149184</v>
+        <v>105.95072701545125</v>
       </c>
       <c r="I246" t="s">
         <v>33</v>
@@ -10668,22 +10668,22 @@
         <v>13439341</v>
       </c>
       <c r="C247">
-        <v>7302399043.9190626</v>
+        <v>7278482628.7517147</v>
       </c>
       <c r="D247">
-        <v>113494441.67180358</v>
+        <v>113460733.04992069</v>
       </c>
       <c r="E247">
-        <v>475861749.84844971</v>
+        <v>474286548.3731209</v>
       </c>
       <c r="F247">
-        <v>543.35990462025347</v>
+        <v>541.58032218631217</v>
       </c>
       <c r="G247">
-        <v>8.4449409886841611</v>
+        <v>8.4424327837146702</v>
       </c>
       <c r="H247">
-        <v>35.408116353952899</v>
+        <v>35.290908116188206</v>
       </c>
       <c r="I247" t="s">
         <v>41</v>
@@ -10709,22 +10709,22 @@
         <v>5988318</v>
       </c>
       <c r="C248">
-        <v>3697898237.6704097</v>
+        <v>3705318886.8112745</v>
       </c>
       <c r="D248">
-        <v>31565726.880268317</v>
+        <v>31691969.670332871</v>
       </c>
       <c r="E248">
-        <v>135543045.45880577</v>
+        <v>136157724.86719352</v>
       </c>
       <c r="F248">
-        <v>617.51868181856901</v>
+        <v>618.7578693735494</v>
       </c>
       <c r="G248">
-        <v>5.2712175405962602</v>
+        <v>5.2922990513083761</v>
       </c>
       <c r="H248">
-        <v>22.634577098077585</v>
+        <v>22.737223518723209</v>
       </c>
       <c r="I248" t="s">
         <v>46</v>
@@ -10750,22 +10750,22 @@
         <v>14171621</v>
       </c>
       <c r="C249">
-        <v>13546514109.72233</v>
+        <v>13621202067.705072</v>
       </c>
       <c r="D249">
-        <v>201812824.2141982</v>
+        <v>202149232.70410639</v>
       </c>
       <c r="E249">
-        <v>867379980.33010936</v>
+        <v>871456850.6587894</v>
       </c>
       <c r="F249">
-        <v>955.89023370878533</v>
+        <v>961.1604817617598</v>
       </c>
       <c r="G249">
-        <v>14.240630921063879</v>
+        <v>14.264369101044009</v>
       </c>
       <c r="H249">
-        <v>61.205417526344327</v>
+        <v>61.493096002129143</v>
       </c>
       <c r="I249" t="s">
         <v>35</v>
@@ -10873,22 +10873,22 @@
         <v>10047182</v>
       </c>
       <c r="C252">
-        <v>7556141095.2348394</v>
+        <v>7607647036.9450741</v>
       </c>
       <c r="D252">
         <v>0</v>
       </c>
       <c r="E252">
-        <v>15142567.325119931</v>
+        <v>15245785.645180523</v>
       </c>
       <c r="F252">
-        <v>752.0657130760485</v>
+        <v>757.19211983470336</v>
       </c>
       <c r="G252">
         <v>0</v>
       </c>
       <c r="H252">
-        <v>1.5071457175872729</v>
+        <v>1.5174190778250582</v>
       </c>
       <c r="I252" t="s">
         <v>14</v>
@@ -10914,22 +10914,22 @@
         <v>1425257</v>
       </c>
       <c r="C253">
-        <v>709085792.72988498</v>
+        <v>708226521.4865253</v>
       </c>
       <c r="D253">
         <v>0</v>
       </c>
       <c r="E253">
-        <v>274231873.00192589</v>
+        <v>273899558.40064746</v>
       </c>
       <c r="F253">
-        <v>497.51433792634242</v>
+        <v>496.91144929407488</v>
       </c>
       <c r="G253">
         <v>0</v>
       </c>
       <c r="H253">
-        <v>192.40871856930076</v>
+        <v>192.17555739115645</v>
       </c>
       <c r="I253" t="s">
         <v>47</v>
@@ -10955,22 +10955,22 @@
         <v>1940463</v>
       </c>
       <c r="C254">
-        <v>2015843003.8788152</v>
+        <v>2018230752.262886</v>
       </c>
       <c r="D254">
-        <v>30493080.509508565</v>
+        <v>30417849.081653107</v>
       </c>
       <c r="E254">
-        <v>130926257.01359171</v>
+        <v>130740738.50815074</v>
       </c>
       <c r="F254">
-        <v>1038.8464010284222</v>
+        <v>1040.0769054925995</v>
       </c>
       <c r="G254">
-        <v>15.714332357539703</v>
+        <v>15.675562523816794</v>
       </c>
       <c r="H254">
-        <v>67.47165857508837</v>
+        <v>67.376053296636286</v>
       </c>
       <c r="I254" t="s">
         <v>36</v>
@@ -10996,22 +10996,22 @@
         <v>825950</v>
       </c>
       <c r="C255">
-        <v>267892288.28339326</v>
+        <v>273183467.33222795</v>
       </c>
       <c r="D255">
         <v>0</v>
       </c>
       <c r="E255">
-        <v>196333104.06985709</v>
+        <v>196254253.55869526</v>
       </c>
       <c r="F255">
-        <v>324.34443765771931</v>
+        <v>330.75061121402985</v>
       </c>
       <c r="G255">
         <v>0</v>
       </c>
       <c r="H255">
-        <v>237.70579825638004</v>
+        <v>237.61033181027332</v>
       </c>
       <c r="I255" t="s">
         <v>28</v>
@@ -11037,22 +11037,22 @@
         <v>166824</v>
       </c>
       <c r="C256">
-        <v>182370189.25004828</v>
+        <v>186214139.53409126</v>
       </c>
       <c r="D256">
         <v>0</v>
       </c>
       <c r="E256">
-        <v>133102362.0860495</v>
+        <v>134119841.67775568</v>
       </c>
       <c r="F256">
-        <v>1093.1891649285972</v>
+        <v>1116.2311150319574</v>
       </c>
       <c r="G256">
         <v>0</v>
       </c>
       <c r="H256">
-        <v>797.86099174009428</v>
+        <v>803.96011172106944</v>
       </c>
       <c r="I256" t="s">
         <v>40</v>
@@ -11119,22 +11119,22 @@
         <v>97358</v>
       </c>
       <c r="C258">
-        <v>6928672.6111200005</v>
+        <v>5220232.7892000005</v>
       </c>
       <c r="D258">
         <v>0</v>
       </c>
       <c r="E258">
-        <v>27714690.444480002</v>
+        <v>20880931.156800002</v>
       </c>
       <c r="F258">
-        <v>71.166957118264548</v>
+        <v>53.618940294582885</v>
       </c>
       <c r="G258">
         <v>0</v>
       </c>
       <c r="H258">
-        <v>284.66782847305819</v>
+        <v>214.47576117833154</v>
       </c>
       <c r="I258" t="s">
         <v>21</v>
@@ -11160,22 +11160,22 @@
         <v>152235.4</v>
       </c>
       <c r="C259">
-        <v>27632858.728739996</v>
+        <v>28298710.746300001</v>
       </c>
       <c r="D259">
         <v>0</v>
       </c>
       <c r="E259">
-        <v>110531434.91495998</v>
+        <v>113194842.9852</v>
       </c>
       <c r="F259">
-        <v>181.5140153258703</v>
+        <v>185.88784702046962</v>
       </c>
       <c r="G259">
         <v>0</v>
       </c>
       <c r="H259">
-        <v>726.05606130348121</v>
+        <v>743.55138808187849</v>
       </c>
       <c r="I259" t="s">
         <v>36</v>
@@ -11201,22 +11201,22 @@
         <v>334348.61</v>
       </c>
       <c r="C260">
-        <v>405994488.43352902</v>
+        <v>414190513.71753466</v>
       </c>
       <c r="D260">
         <v>0</v>
       </c>
       <c r="E260">
-        <v>302558878.08206087</v>
+        <v>302809511.00970155</v>
       </c>
       <c r="F260">
-        <v>1214.2849597416571</v>
+        <v>1238.7983719074971</v>
       </c>
       <c r="G260">
         <v>0</v>
       </c>
       <c r="H260">
-        <v>904.92040054259803</v>
+        <v>905.67001612389402</v>
       </c>
       <c r="I260" t="s">
         <v>39</v>
@@ -11283,22 +11283,22 @@
         <v>681233</v>
       </c>
       <c r="C262">
-        <v>1181045487.5580611</v>
+        <v>1191509858.5784693</v>
       </c>
       <c r="D262">
         <v>0</v>
       </c>
       <c r="E262">
-        <v>2366824.6243648543</v>
+        <v>2387795.3077724855</v>
       </c>
       <c r="F262">
-        <v>1733.6880150522084</v>
+        <v>1749.0489429878901</v>
       </c>
       <c r="G262">
         <v>0</v>
       </c>
       <c r="H262">
-        <v>3.4743246794633471</v>
+        <v>3.5051081021801433</v>
       </c>
       <c r="I262" t="s">
         <v>17</v>
@@ -11324,22 +11324,22 @@
         <v>335919</v>
       </c>
       <c r="C263">
-        <v>982124106.41239774</v>
+        <v>987616875.91069436</v>
       </c>
       <c r="D263">
         <v>0</v>
       </c>
       <c r="E263">
-        <v>1968184.5819887749</v>
+        <v>1979192.1360935776</v>
       </c>
       <c r="F263">
-        <v>2923.6932308455243</v>
+        <v>2940.0447009865306</v>
       </c>
       <c r="G263">
         <v>0</v>
       </c>
       <c r="H263">
-        <v>5.8591046710331209</v>
+        <v>5.8918731482696058</v>
       </c>
       <c r="I263" t="s">
         <v>38</v>
@@ -11529,22 +11529,22 @@
         <v>11106837</v>
       </c>
       <c r="C268">
-        <v>9688907056.6470966</v>
+        <v>9806840767.484726</v>
       </c>
       <c r="D268">
-        <v>146792219.63164389</v>
+        <v>147548067.50273943</v>
       </c>
       <c r="E268">
-        <v>649853531.85135961</v>
+        <v>646337580.05316782</v>
       </c>
       <c r="F268">
-        <v>872.33719704782709</v>
+        <v>882.95531549483678</v>
       </c>
       <c r="G268">
-        <v>13.216383713170895</v>
+        <v>13.284436199319341</v>
       </c>
       <c r="H268">
-        <v>58.509324648534914</v>
+        <v>58.192767216550294</v>
       </c>
       <c r="I268" t="s">
         <v>23</v>
@@ -11570,22 +11570,22 @@
         <v>7123683</v>
       </c>
       <c r="C269">
-        <v>4479522101.9214745</v>
+        <v>4499643975.9892673</v>
       </c>
       <c r="D269">
-        <v>57541594.731163129</v>
+        <v>57819229.777429461</v>
       </c>
       <c r="E269">
-        <v>246092132.18378523</v>
+        <v>246887927.1883108</v>
       </c>
       <c r="F269">
-        <v>628.82108902396055</v>
+        <v>631.64573381343155</v>
       </c>
       <c r="G269">
-        <v>8.0775063588824949</v>
+        <v>8.1164798851141278</v>
       </c>
       <c r="H269">
-        <v>34.545632109652438</v>
+        <v>34.657343285532328</v>
       </c>
       <c r="I269" t="s">
         <v>40</v>
@@ -11652,22 +11652,22 @@
         <v>4062213</v>
       </c>
       <c r="C271">
-        <v>2145047873.2841296</v>
+        <v>2141958988.1881487</v>
       </c>
       <c r="D271">
         <v>0</v>
       </c>
       <c r="E271">
-        <v>4298693.1328339307</v>
+        <v>4292502.9823409831</v>
       </c>
       <c r="F271">
-        <v>528.04908883018436</v>
+        <v>527.28869416452278</v>
       </c>
       <c r="G271">
         <v>0</v>
       </c>
       <c r="H271">
-        <v>1.0582146068741178</v>
+        <v>1.0566907698687842</v>
       </c>
       <c r="I271" t="s">
         <v>42</v>
@@ -11693,22 +11693,22 @@
         <v>3230316</v>
       </c>
       <c r="C272">
-        <v>1771205589.2855837</v>
+        <v>1782646501.6309602</v>
       </c>
       <c r="D272">
         <v>0</v>
       </c>
       <c r="E272">
-        <v>3549510.198969109</v>
+        <v>3572437.8790199636</v>
       </c>
       <c r="F272">
-        <v>548.30722111570003</v>
+        <v>551.8489527436202</v>
       </c>
       <c r="G272">
         <v>0</v>
       </c>
       <c r="H272">
-        <v>1.0988120663641294</v>
+        <v>1.1059097249371157</v>
       </c>
       <c r="I272" t="s">
         <v>42</v>
@@ -11775,22 +11775,22 @@
         <v>3492531</v>
       </c>
       <c r="C274">
-        <v>1811980633.5203736</v>
+        <v>1815479885.8493657</v>
       </c>
       <c r="D274">
         <v>0</v>
       </c>
       <c r="E274">
-        <v>3631223.7144696899</v>
+        <v>3638236.2441871087</v>
       </c>
       <c r="F274">
-        <v>518.81590557689356</v>
+        <v>519.81783006345995</v>
       </c>
       <c r="G274">
         <v>0</v>
       </c>
       <c r="H274">
-        <v>1.0397112336210301</v>
+        <v>1.0417190983235678</v>
       </c>
       <c r="I274" t="s">
         <v>15</v>
@@ -11816,22 +11816,22 @@
         <v>3055709</v>
       </c>
       <c r="C275">
-        <v>1790302616.9348669</v>
+        <v>1780863262.4253736</v>
       </c>
       <c r="D275">
-        <v>23130118.183285765</v>
+        <v>22733665.293887034</v>
       </c>
       <c r="E275">
-        <v>101023415.17050447</v>
+        <v>98578360.828765497</v>
       </c>
       <c r="F275">
-        <v>585.88779786781629</v>
+        <v>582.79870970219145</v>
       </c>
       <c r="G275">
-        <v>7.5694767346255043</v>
+        <v>7.4397350316692572</v>
       </c>
       <c r="H275">
-        <v>33.060548360627422</v>
+        <v>32.260388940427738</v>
       </c>
       <c r="I275" t="s">
         <v>39</v>
